--- a/left_wrist_Data.xlsx
+++ b/left_wrist_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ4"/>
+  <dimension ref="A1:GO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,922 +1027,598 @@
       <c r="GO1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>572.5601806640625</v>
+        <v>443.9422302246094</v>
       </c>
       <c r="C2" t="n">
-        <v>574.548828125</v>
+        <v>441.2340087890625</v>
       </c>
       <c r="D2" t="n">
-        <v>573.3988647460938</v>
+        <v>441.1314697265625</v>
       </c>
       <c r="E2" t="n">
-        <v>570.5767822265625</v>
+        <v>441.272705078125</v>
       </c>
       <c r="F2" t="n">
-        <v>564.7655639648438</v>
+        <v>441.3867492675781</v>
       </c>
       <c r="G2" t="n">
-        <v>561.07666015625</v>
+        <v>441.5668334960938</v>
       </c>
       <c r="H2" t="n">
-        <v>555.8927001953125</v>
+        <v>441.2733459472656</v>
       </c>
       <c r="I2" t="n">
-        <v>552.4176635742188</v>
+        <v>441.133056640625</v>
       </c>
       <c r="J2" t="n">
-        <v>551.9268798828125</v>
+        <v>441.0531005859375</v>
       </c>
       <c r="K2" t="n">
-        <v>549.7740478515625</v>
+        <v>440.9761047363281</v>
       </c>
       <c r="L2" t="n">
-        <v>550.583984375</v>
+        <v>440.8493041992188</v>
       </c>
       <c r="M2" t="n">
-        <v>551.3943481445312</v>
+        <v>440.7485656738281</v>
       </c>
       <c r="N2" t="n">
-        <v>552.119873046875</v>
+        <v>440.6377563476562</v>
       </c>
       <c r="O2" t="n">
-        <v>552.8331298828125</v>
+        <v>440.504150390625</v>
       </c>
       <c r="P2" t="n">
-        <v>552.718505859375</v>
+        <v>440.35302734375</v>
       </c>
       <c r="Q2" t="n">
-        <v>551.9733276367188</v>
+        <v>440.2093811035156</v>
       </c>
       <c r="R2" t="n">
-        <v>550.1827392578125</v>
+        <v>476.439453125</v>
       </c>
       <c r="S2" t="n">
-        <v>545.7401123046875</v>
+        <v>474.0685424804688</v>
       </c>
       <c r="T2" t="n">
-        <v>541.390625</v>
+        <v>469.702392578125</v>
       </c>
       <c r="U2" t="n">
-        <v>537.0775146484375</v>
+        <v>465.0592651367188</v>
       </c>
       <c r="V2" t="n">
-        <v>535.3018188476562</v>
+        <v>461.3141479492188</v>
       </c>
       <c r="W2" t="n">
-        <v>530.2570190429688</v>
+        <v>460.473876953125</v>
       </c>
       <c r="X2" t="n">
-        <v>529.5992431640625</v>
+        <v>460.4755859375</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.712646484375</v>
+        <v>461.5875854492188</v>
       </c>
       <c r="Z2" t="n">
-        <v>528.7337646484375</v>
+        <v>462.7969665527344</v>
       </c>
       <c r="AA2" t="n">
-        <v>531.24560546875</v>
+        <v>463.3153076171875</v>
       </c>
       <c r="AB2" t="n">
-        <v>532.9082641601562</v>
+        <v>462.9623718261719</v>
       </c>
       <c r="AC2" t="n">
-        <v>534.0128784179688</v>
+        <v>462.4679870605469</v>
       </c>
       <c r="AD2" t="n">
-        <v>533.9993896484375</v>
+        <v>462.01611328125</v>
       </c>
       <c r="AE2" t="n">
-        <v>534.4088134765625</v>
+        <v>462.2161865234375</v>
       </c>
       <c r="AF2" t="n">
-        <v>534.0795288085938</v>
+        <v>462.4519653320312</v>
       </c>
       <c r="AG2" t="n">
-        <v>533.1506958007812</v>
+        <v>462.8272094726562</v>
       </c>
       <c r="AH2" t="n">
-        <v>532.075439453125</v>
+        <v>463.2907409667969</v>
       </c>
       <c r="AI2" t="n">
-        <v>531.3573608398438</v>
+        <v>464.2663879394531</v>
       </c>
       <c r="AJ2" t="n">
-        <v>530.3678588867188</v>
+        <v>465.1266479492188</v>
       </c>
       <c r="AK2" t="n">
-        <v>529.6131591796875</v>
+        <v>466.06201171875</v>
       </c>
       <c r="AL2" t="n">
-        <v>529.3788452148438</v>
+        <v>468.154541015625</v>
       </c>
       <c r="AM2" t="n">
-        <v>529.3311767578125</v>
+        <v>466.0189819335938</v>
       </c>
       <c r="AN2" t="n">
-        <v>529.4672241210938</v>
+        <v>466.7651977539062</v>
       </c>
       <c r="AO2" t="n">
-        <v>530.1156616210938</v>
+        <v>467.8811340332031</v>
       </c>
       <c r="AP2" t="n">
-        <v>530.4408569335938</v>
+        <v>467.6121215820312</v>
       </c>
       <c r="AQ2" t="n">
-        <v>530.6641845703125</v>
+        <v>467.175537109375</v>
       </c>
       <c r="AR2" t="n">
-        <v>530.9122314453125</v>
+        <v>471.69482421875</v>
       </c>
       <c r="AS2" t="n">
-        <v>531.7168579101562</v>
+        <v>474.9935913085938</v>
       </c>
       <c r="AT2" t="n">
-        <v>532.034423828125</v>
+        <v>488.0510864257812</v>
       </c>
       <c r="AU2" t="n">
-        <v>532.6207275390625</v>
+        <v>490.163818359375</v>
       </c>
       <c r="AV2" t="n">
-        <v>534.0405883789062</v>
+        <v>490.9962463378906</v>
       </c>
       <c r="AW2" t="n">
-        <v>535.4528198242188</v>
+        <v>497.4739990234375</v>
       </c>
       <c r="AX2" t="n">
-        <v>536.8890380859375</v>
+        <v>498.97900390625</v>
       </c>
       <c r="AY2" t="n">
-        <v>538.7293090820312</v>
+        <v>503.0626220703125</v>
       </c>
       <c r="AZ2" t="n">
-        <v>540.5319213867188</v>
+        <v>511.7335815429688</v>
       </c>
       <c r="BA2" t="n">
-        <v>540.708251953125</v>
+        <v>517.2842407226562</v>
       </c>
       <c r="BB2" t="n">
-        <v>538.3523559570312</v>
+        <v>519.6682739257812</v>
       </c>
       <c r="BC2" t="n">
-        <v>533.979736328125</v>
+        <v>518.588623046875</v>
       </c>
       <c r="BD2" t="n">
-        <v>533.5682983398438</v>
+        <v>518.5803833007812</v>
       </c>
       <c r="BE2" t="n">
-        <v>533.5230712890625</v>
+        <v>521.024169921875</v>
       </c>
       <c r="BF2" t="n">
-        <v>535.6651611328125</v>
+        <v>523.1861572265625</v>
       </c>
       <c r="BG2" t="n">
-        <v>539.0914916992188</v>
+        <v>523.68115234375</v>
       </c>
       <c r="BH2" t="n">
-        <v>542.73583984375</v>
+        <v>522.7566528320312</v>
       </c>
       <c r="BI2" t="n">
-        <v>546.134521484375</v>
+        <v>522.5669555664062</v>
       </c>
       <c r="BJ2" t="n">
-        <v>551.2537231445312</v>
+        <v>519.0480346679688</v>
       </c>
       <c r="BK2" t="n">
-        <v>558.2216796875</v>
+        <v>508.0413208007812</v>
       </c>
       <c r="BL2" t="n">
-        <v>574.2532958984375</v>
+        <v>499.3128662109375</v>
       </c>
       <c r="BM2" t="n">
-        <v>585.9771728515625</v>
+        <v>497.4236755371094</v>
       </c>
       <c r="BN2" t="n">
-        <v>604.94384765625</v>
+        <v>497.6944580078125</v>
       </c>
       <c r="BO2" t="n">
-        <v>626.3056030273438</v>
+        <v>486.27783203125</v>
       </c>
       <c r="BP2" t="n">
-        <v>626.150634765625</v>
+        <v>473.9874572753906</v>
       </c>
       <c r="BQ2" t="n">
-        <v>623.6483764648438</v>
+        <v>469.7164306640625</v>
       </c>
       <c r="BR2" t="n">
-        <v>627.3555908203125</v>
+        <v>461.9705200195312</v>
       </c>
       <c r="BS2" t="n">
-        <v>631.573974609375</v>
+        <v>455.87744140625</v>
       </c>
       <c r="BT2" t="n">
-        <v>628.2814331054688</v>
+        <v>442.6288146972656</v>
       </c>
       <c r="BU2" t="n">
-        <v>626.2033081054688</v>
+        <v>433.4884033203125</v>
       </c>
       <c r="BV2" t="n">
-        <v>625.2130126953125</v>
+        <v>420.5243225097656</v>
       </c>
       <c r="BW2" t="n">
-        <v>624.9495849609375</v>
+        <v>412.3032836914062</v>
       </c>
       <c r="BX2" t="n">
-        <v>623.4278564453125</v>
+        <v>409.4876403808594</v>
       </c>
       <c r="BY2" t="n">
-        <v>620.5446166992188</v>
+        <v>408.3651428222656</v>
       </c>
       <c r="BZ2" t="n">
-        <v>609.7202758789062</v>
+        <v>404.6746215820312</v>
       </c>
       <c r="CA2" t="n">
-        <v>589.7219848632812</v>
+        <v>399.0322265625</v>
       </c>
       <c r="CB2" t="n">
-        <v>556.0243530273438</v>
+        <v>395.5782470703125</v>
       </c>
       <c r="CC2" t="n">
-        <v>541.7230834960938</v>
+        <v>391.884033203125</v>
       </c>
       <c r="CD2" t="n">
-        <v>514.657470703125</v>
+        <v>385.4126281738281</v>
       </c>
       <c r="CE2" t="n">
-        <v>498.1817016601562</v>
+        <v>391.0425415039062</v>
       </c>
       <c r="CF2" t="n">
-        <v>457.91552734375</v>
+        <v>390.1931762695312</v>
       </c>
       <c r="CG2" t="n">
-        <v>432.7001953125</v>
+        <v>388.9730834960938</v>
       </c>
       <c r="CH2" t="n">
-        <v>417.205810546875</v>
+        <v>379.3249206542969</v>
       </c>
       <c r="CI2" t="n">
-        <v>398.3825378417969</v>
+        <v>364.777587890625</v>
       </c>
       <c r="CJ2" t="n">
-        <v>389.046630859375</v>
+        <v>359.1004638671875</v>
       </c>
       <c r="CK2" t="n">
-        <v>387.976318359375</v>
+        <v>362.7526245117188</v>
       </c>
       <c r="CL2" t="n">
-        <v>386.7586059570312</v>
+        <v>373.0511169433594</v>
       </c>
       <c r="CM2" t="n">
-        <v>386.8475646972656</v>
+        <v>387.052490234375</v>
       </c>
       <c r="CN2" t="n">
-        <v>386.5498352050781</v>
+        <v>397.0401611328125</v>
       </c>
       <c r="CO2" t="n">
-        <v>386.500732421875</v>
+        <v>402.69873046875</v>
       </c>
       <c r="CP2" t="n">
-        <v>386.8256225585938</v>
+        <v>399.0039367675781</v>
       </c>
       <c r="CQ2" t="n">
-        <v>387.2364807128906</v>
+        <v>394.7762451171875</v>
       </c>
       <c r="CR2" t="n">
-        <v>387.6370544433594</v>
+        <v>398.1757202148438</v>
       </c>
       <c r="CS2" t="n">
-        <v>388.3415222167969</v>
+        <v>406.3995056152344</v>
       </c>
       <c r="CT2" t="n">
-        <v>388.9421997070312</v>
+        <v>411.1702880859375</v>
       </c>
       <c r="CU2" t="n">
-        <v>388.6602783203125</v>
+        <v>423.4970703125</v>
       </c>
       <c r="CV2" t="n">
-        <v>387.8568725585938</v>
+        <v>440.9255676269531</v>
       </c>
       <c r="CW2" t="n">
-        <v>381.0504760742188</v>
+        <v>437.5372924804688</v>
       </c>
       <c r="CX2" t="n">
-        <v>374.9729614257812</v>
+        <v>437.8048400878906</v>
       </c>
       <c r="CY2" t="n">
-        <v>371.54931640625</v>
+        <v>443.3495788574219</v>
       </c>
       <c r="CZ2" t="n">
-        <v>371.5272216796875</v>
+        <v>452.0962524414062</v>
       </c>
       <c r="DA2" t="n">
-        <v>371.6654968261719</v>
+        <v>457.0774536132812</v>
       </c>
       <c r="DB2" t="n">
-        <v>372.2908935546875</v>
+        <v>473.0497436523438</v>
       </c>
       <c r="DC2" t="n">
-        <v>376.0693969726562</v>
+        <v>476.154052734375</v>
       </c>
       <c r="DD2" t="n">
-        <v>379.3819580078125</v>
+        <v>479.9441833496094</v>
       </c>
       <c r="DE2" t="n">
-        <v>382.687744140625</v>
+        <v>483.5407104492188</v>
       </c>
       <c r="DF2" t="n">
-        <v>383.957763671875</v>
+        <v>485.3783569335938</v>
       </c>
       <c r="DG2" t="n">
-        <v>383.9620361328125</v>
+        <v>489.2871398925781</v>
       </c>
       <c r="DH2" t="n">
-        <v>383.8857421875</v>
+        <v>508.5030517578125</v>
       </c>
       <c r="DI2" t="n">
-        <v>383.8418579101562</v>
+        <v>508.3776550292969</v>
       </c>
       <c r="DJ2" t="n">
-        <v>383.7345886230469</v>
+        <v>506.6726989746094</v>
       </c>
       <c r="DK2" t="n">
-        <v>383.7157592773438</v>
+        <v>505.7951354980469</v>
       </c>
       <c r="DL2" t="n">
-        <v>383.804443359375</v>
+        <v>505.1196899414062</v>
       </c>
       <c r="DM2" t="n">
-        <v>383.8854370117188</v>
+        <v>504.9870300292969</v>
       </c>
       <c r="DN2" t="n">
-        <v>384.2301025390625</v>
+        <v>504.5877685546875</v>
       </c>
       <c r="DO2" t="n">
-        <v>384.4622192382812</v>
+        <v>507.5816650390625</v>
       </c>
       <c r="DP2" t="n">
-        <v>384.6482543945312</v>
+        <v>511.0112915039062</v>
       </c>
       <c r="DQ2" t="n">
-        <v>385.1776428222656</v>
+        <v>494.422607421875</v>
       </c>
       <c r="DR2" t="n">
-        <v>385.4656982421875</v>
+        <v>485.8541870117188</v>
       </c>
       <c r="DS2" t="n">
-        <v>385.4797668457031</v>
+        <v>477.8768615722656</v>
       </c>
       <c r="DT2" t="n">
-        <v>385.6340026855469</v>
+        <v>464.3265075683594</v>
       </c>
       <c r="DU2" t="n">
-        <v>385.6370239257812</v>
+        <v>458.7689208984375</v>
       </c>
       <c r="DV2" t="n">
-        <v>385.5451965332031</v>
+        <v>455.1224060058594</v>
       </c>
       <c r="DW2" t="n">
-        <v>385.3887329101562</v>
+        <v>454.3462829589844</v>
       </c>
       <c r="DX2" t="n">
-        <v>384.9859619140625</v>
+        <v>451.9052124023438</v>
       </c>
       <c r="DY2" t="n">
-        <v>382.6071472167969</v>
+        <v>445.0521850585938</v>
       </c>
       <c r="DZ2" t="n">
-        <v>380.7512817382812</v>
+        <v>442.3203125</v>
       </c>
       <c r="EA2" t="n">
-        <v>378.7226867675781</v>
+        <v>440.4754028320312</v>
       </c>
       <c r="EB2" t="n">
-        <v>376.9095153808594</v>
+        <v>442.2278442382812</v>
       </c>
       <c r="EC2" t="n">
-        <v>377.6892395019531</v>
+        <v>447.4218444824219</v>
       </c>
       <c r="ED2" t="n">
-        <v>378.1862182617188</v>
+        <v>457.8796081542969</v>
       </c>
       <c r="EE2" t="n">
-        <v>378.7442016601562</v>
+        <v>468.8833312988281</v>
       </c>
       <c r="EF2" t="n">
-        <v>380.5366821289062</v>
+        <v>471.2388610839844</v>
       </c>
       <c r="EG2" t="n">
-        <v>382.9639892578125</v>
+        <v>478.4482421875</v>
       </c>
       <c r="EH2" t="n">
-        <v>385.2035827636719</v>
+        <v>482.0130615234375</v>
       </c>
       <c r="EI2" t="n">
-        <v>386.7212524414062</v>
+        <v>485.9973449707031</v>
       </c>
       <c r="EJ2" t="n">
-        <v>396.0806274414062</v>
+        <v>488.5757141113281</v>
       </c>
       <c r="EK2" t="n">
-        <v>407.8035888671875</v>
+        <v>487.7604675292969</v>
       </c>
       <c r="EL2" t="n">
-        <v>439.4664916992188</v>
+        <v>486.1470336914062</v>
       </c>
       <c r="EM2" t="n">
-        <v>487.4421691894531</v>
+        <v>484.7474365234375</v>
       </c>
       <c r="EN2" t="n">
-        <v>548.7119750976562</v>
+        <v>486.2577819824219</v>
       </c>
       <c r="EO2" t="n">
-        <v>560.79931640625</v>
+        <v>487.36669921875</v>
       </c>
       <c r="EP2" t="n">
-        <v>557.062255859375</v>
+        <v>484.8787841796875</v>
       </c>
       <c r="EQ2" t="n">
-        <v>543.717041015625</v>
+        <v>483.1268920898438</v>
       </c>
       <c r="ER2" t="n">
-        <v>541.6759643554688</v>
+        <v>483.5702819824219</v>
       </c>
       <c r="ES2" t="n">
-        <v>535.6238403320312</v>
+        <v>485.273681640625</v>
       </c>
       <c r="ET2" t="n">
-        <v>535.3704833984375</v>
+        <v>497.7581481933594</v>
       </c>
       <c r="EU2" t="n">
-        <v>544.1399536132812</v>
+        <v>513.4261474609375</v>
       </c>
       <c r="EV2" t="n">
-        <v>540.0562744140625</v>
+        <v>512.3262329101562</v>
       </c>
       <c r="EW2" t="n">
-        <v>539.5449829101562</v>
+        <v>503.1493530273438</v>
       </c>
       <c r="EX2" t="n">
-        <v>515.3084106445312</v>
+        <v>496.592041015625</v>
       </c>
       <c r="EY2" t="n">
-        <v>491.9990844726562</v>
+        <v>491.142333984375</v>
       </c>
       <c r="EZ2" t="n">
-        <v>447.5004272460938</v>
+        <v>479.7120361328125</v>
       </c>
       <c r="FA2" t="n">
-        <v>424.0301513671875</v>
+        <v>467.3001403808594</v>
       </c>
       <c r="FB2" t="n">
-        <v>403.9859313964844</v>
+        <v>458.7460327148438</v>
       </c>
       <c r="FC2" t="n">
-        <v>385.5910949707031</v>
+        <v>333.4288940429688</v>
       </c>
       <c r="FD2" t="n">
-        <v>381.12646484375</v>
+        <v>333.8400268554688</v>
       </c>
       <c r="FE2" t="n">
-        <v>381.6564636230469</v>
+        <v>333.2724609375</v>
       </c>
       <c r="FF2" t="n">
-        <v>382.4020385742188</v>
+        <v>332.9881591796875</v>
       </c>
       <c r="FG2" t="n">
-        <v>385.2398071289062</v>
+        <v>337.3659057617188</v>
       </c>
       <c r="FH2" t="n">
-        <v>394.4941711425781</v>
+        <v>348.8458251953125</v>
       </c>
       <c r="FI2" t="n">
-        <v>395.8649291992188</v>
+        <v>357.34423828125</v>
       </c>
       <c r="FJ2" t="n">
-        <v>395.8106994628906</v>
+        <v>369.7570495605469</v>
       </c>
       <c r="FK2" t="n">
-        <v>396.8640747070312</v>
+        <v>425.2216186523438</v>
       </c>
       <c r="FL2" t="n">
-        <v>399.7420654296875</v>
+        <v>429.9546813964844</v>
       </c>
       <c r="FM2" t="n">
-        <v>400.5022583007812</v>
+        <v>408.72802734375</v>
       </c>
       <c r="FN2" t="n">
-        <v>416.8771362304688</v>
+        <v>422.0905151367188</v>
       </c>
       <c r="FO2" t="n">
-        <v>423.405517578125</v>
+        <v>429.4702758789062</v>
       </c>
       <c r="FP2" t="n">
-        <v>441.7889404296875</v>
+        <v>433.0747680664062</v>
       </c>
       <c r="FQ2" t="n">
-        <v>470.7337646484375</v>
+        <v>442.2806091308594</v>
       </c>
       <c r="FR2" t="n">
-        <v>478.1402282714844</v>
+        <v>446.8494262695312</v>
       </c>
       <c r="FS2" t="n">
-        <v>491.6526794433594</v>
+        <v>453.6904296875</v>
       </c>
       <c r="FT2" t="n">
-        <v>505.4897766113281</v>
+        <v>459.9582214355469</v>
       </c>
       <c r="FU2" t="n">
-        <v>507.8849487304688</v>
+        <v>465.2905883789062</v>
       </c>
       <c r="FV2" t="n">
-        <v>515.3809204101562</v>
+        <v>467.287353515625</v>
       </c>
       <c r="FW2" t="n">
-        <v>519.66162109375</v>
+        <v>513.9169921875</v>
       </c>
       <c r="FX2" t="n">
-        <v>520.8172607421875</v>
+        <v>468.5344848632812</v>
       </c>
       <c r="FY2" t="n">
-        <v>518.0324096679688</v>
+        <v>477.82861328125</v>
       </c>
       <c r="FZ2" t="n">
-        <v>518.1602783203125</v>
+        <v>478.7955932617188</v>
       </c>
       <c r="GA2" t="n">
-        <v>511.7908935546875</v>
+        <v>468.5167846679688</v>
       </c>
       <c r="GB2" t="n">
-        <v>497.9048156738281</v>
+        <v>461.875244140625</v>
       </c>
       <c r="GC2" t="n">
-        <v>495.382568359375</v>
+        <v>454.0032348632812</v>
       </c>
       <c r="GD2" t="n">
-        <v>482.5206298828125</v>
+        <v>441.3775939941406</v>
       </c>
       <c r="GE2" t="n">
-        <v>478.3150634765625</v>
+        <v>416.619873046875</v>
       </c>
       <c r="GF2" t="n">
-        <v>474.4412231445312</v>
+        <v>411.2184143066406</v>
       </c>
       <c r="GG2" t="n">
-        <v>468.9801635742188</v>
+        <v>416.6738891601562</v>
       </c>
       <c r="GH2" t="n">
-        <v>463.7560424804688</v>
+        <v>417.5603942871094</v>
       </c>
       <c r="GI2" t="n">
-        <v>460.844970703125</v>
+        <v>411.4489440917969</v>
       </c>
       <c r="GJ2" t="n">
-        <v>450.2258911132812</v>
+        <v>408.960205078125</v>
       </c>
       <c r="GK2" t="n">
-        <v>441.0996704101562</v>
+        <v>407.6136474609375</v>
       </c>
       <c r="GL2" t="n">
-        <v>429.3697509765625</v>
+        <v>409.3798217773438</v>
       </c>
       <c r="GM2" t="n">
-        <v>433.0435791015625</v>
+        <v>411.8346862792969</v>
       </c>
       <c r="GN2" t="n">
-        <v>443.351806640625</v>
+        <v>412.6752319335938</v>
       </c>
       <c r="GO2" t="n">
-        <v>449.7546691894531</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>439.6618957519531</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>441.7257080078125</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>455.7901306152344</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>469.1156616210938</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>468.7951049804688</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>451.58544921875</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>546.3082275390625</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>509.31103515625</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>568.3720703125</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>519.3143920898438</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>531.2739868164062</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>532.024658203125</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>549.7857666015625</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>560.3411865234375</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>571.9862670898438</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>581.4810791015625</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>577.14111328125</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>588.3945922851562</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>594.6781005859375</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>595.01513671875</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>588.9517211914062</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>578.8587036132812</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>541.45703125</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>520.9990844726562</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>488.6097412109375</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>473.2742919921875</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>469.2330932617188</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>467.7160949707031</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>472.42431640625</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>479.363037109375</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>480.2484741210938</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>415.212646484375</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>374.1170959472656</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>548.2609252929688</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>422.265625</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>600.4151000976562</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>600.1215209960938</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>421.3455200195312</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>408.5045776367188</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>389.1672973632812</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>415.1665954589844</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>390.4756469726562</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>381.1812744140625</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>467.7932434082031</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>458.4024047851562</v>
-      </c>
-      <c r="II2" t="n">
-        <v>445.2496643066406</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>443.4478759765625</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>439.4066772460938</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>438.6219482421875</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>437.2070922851562</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>498.1898498535156</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>487.624755859375</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>437.8881530761719</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>421.1768188476562</v>
+        <v>407.5758666992188</v>
       </c>
     </row>
     <row r="3">
@@ -1950,754 +1626,592 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>475.6023559570312</v>
+        <v>515.9827270507812</v>
       </c>
       <c r="C3" t="n">
-        <v>475.0791931152344</v>
+        <v>512.2324829101562</v>
       </c>
       <c r="D3" t="n">
-        <v>471.7824401855469</v>
+        <v>510.3963623046875</v>
       </c>
       <c r="E3" t="n">
-        <v>467.14111328125</v>
+        <v>508.87646484375</v>
       </c>
       <c r="F3" t="n">
-        <v>462.3241271972656</v>
+        <v>507.8983459472656</v>
       </c>
       <c r="G3" t="n">
-        <v>459.3861083984375</v>
+        <v>507.1398315429688</v>
       </c>
       <c r="H3" t="n">
-        <v>457.3983154296875</v>
+        <v>506.567626953125</v>
       </c>
       <c r="I3" t="n">
-        <v>454.7498168945312</v>
+        <v>506.0885314941406</v>
       </c>
       <c r="J3" t="n">
-        <v>455.1736145019531</v>
+        <v>505.6809387207031</v>
       </c>
       <c r="K3" t="n">
-        <v>456.8018188476562</v>
+        <v>505.3451232910156</v>
       </c>
       <c r="L3" t="n">
-        <v>456.3199157714844</v>
+        <v>505.0470581054688</v>
       </c>
       <c r="M3" t="n">
-        <v>453.7798156738281</v>
+        <v>504.7786865234375</v>
       </c>
       <c r="N3" t="n">
-        <v>450.3681945800781</v>
+        <v>504.5404663085938</v>
       </c>
       <c r="O3" t="n">
-        <v>447.0981140136719</v>
+        <v>504.3245239257812</v>
       </c>
       <c r="P3" t="n">
-        <v>445.7316589355469</v>
+        <v>504.1231079101562</v>
       </c>
       <c r="Q3" t="n">
-        <v>444.8390197753906</v>
+        <v>503.9186096191406</v>
       </c>
       <c r="R3" t="n">
-        <v>444.1650695800781</v>
+        <v>520.5508422851562</v>
       </c>
       <c r="S3" t="n">
-        <v>444.13720703125</v>
+        <v>517.5631103515625</v>
       </c>
       <c r="T3" t="n">
-        <v>444.3345031738281</v>
+        <v>517.9434814453125</v>
       </c>
       <c r="U3" t="n">
-        <v>443.4078674316406</v>
+        <v>517.7678833007812</v>
       </c>
       <c r="V3" t="n">
-        <v>441.4534606933594</v>
+        <v>518.366943359375</v>
       </c>
       <c r="W3" t="n">
-        <v>439.7840576171875</v>
+        <v>519.3235473632812</v>
       </c>
       <c r="X3" t="n">
-        <v>436.0851745605469</v>
+        <v>519.7319946289062</v>
       </c>
       <c r="Y3" t="n">
-        <v>436.9605102539062</v>
+        <v>519.4637451171875</v>
       </c>
       <c r="Z3" t="n">
-        <v>437.5898742675781</v>
+        <v>519.2110595703125</v>
       </c>
       <c r="AA3" t="n">
-        <v>437.6371154785156</v>
+        <v>518.9014892578125</v>
       </c>
       <c r="AB3" t="n">
-        <v>440.2662963867188</v>
+        <v>518.6070556640625</v>
       </c>
       <c r="AC3" t="n">
-        <v>443.2160034179688</v>
+        <v>518.3017578125</v>
       </c>
       <c r="AD3" t="n">
-        <v>443.0758361816406</v>
+        <v>517.9930419921875</v>
       </c>
       <c r="AE3" t="n">
-        <v>445.0837707519531</v>
+        <v>517.6937255859375</v>
       </c>
       <c r="AF3" t="n">
-        <v>444.411865234375</v>
+        <v>517.4439697265625</v>
       </c>
       <c r="AG3" t="n">
-        <v>443.04296875</v>
+        <v>517.1409301757812</v>
       </c>
       <c r="AH3" t="n">
-        <v>440.6399841308594</v>
+        <v>516.844482421875</v>
       </c>
       <c r="AI3" t="n">
-        <v>439.2777709960938</v>
+        <v>516.5462646484375</v>
       </c>
       <c r="AJ3" t="n">
-        <v>437.7815856933594</v>
+        <v>516.211669921875</v>
       </c>
       <c r="AK3" t="n">
-        <v>436.8492431640625</v>
+        <v>515.8626098632812</v>
       </c>
       <c r="AL3" t="n">
-        <v>435.5604553222656</v>
+        <v>515.1822509765625</v>
       </c>
       <c r="AM3" t="n">
-        <v>434.8699645996094</v>
+        <v>514.8023071289062</v>
       </c>
       <c r="AN3" t="n">
-        <v>434.7777404785156</v>
+        <v>514.4505615234375</v>
       </c>
       <c r="AO3" t="n">
-        <v>436.5510559082031</v>
+        <v>514.0426635742188</v>
       </c>
       <c r="AP3" t="n">
-        <v>438.1427001953125</v>
+        <v>513.1800537109375</v>
       </c>
       <c r="AQ3" t="n">
-        <v>438.7622985839844</v>
+        <v>511.2627868652344</v>
       </c>
       <c r="AR3" t="n">
-        <v>439.0701599121094</v>
+        <v>514.0008544921875</v>
       </c>
       <c r="AS3" t="n">
-        <v>439.3045654296875</v>
+        <v>514.9768676757812</v>
       </c>
       <c r="AT3" t="n">
-        <v>439.6784362792969</v>
+        <v>512.366455078125</v>
       </c>
       <c r="AU3" t="n">
-        <v>440.0390930175781</v>
+        <v>511.3572692871094</v>
       </c>
       <c r="AV3" t="n">
-        <v>442.4534301757812</v>
+        <v>511.2821350097656</v>
       </c>
       <c r="AW3" t="n">
-        <v>444.4103393554688</v>
+        <v>509.033447265625</v>
       </c>
       <c r="AX3" t="n">
-        <v>445.5995788574219</v>
+        <v>509.980712890625</v>
       </c>
       <c r="AY3" t="n">
-        <v>446.4538269042969</v>
+        <v>508.1195678710938</v>
       </c>
       <c r="AZ3" t="n">
-        <v>447.1162109375</v>
+        <v>504.1692810058594</v>
       </c>
       <c r="BA3" t="n">
-        <v>448.1087646484375</v>
+        <v>499.5763854980469</v>
       </c>
       <c r="BB3" t="n">
-        <v>448.4439086914062</v>
+        <v>495.5176086425781</v>
       </c>
       <c r="BC3" t="n">
-        <v>448.4515991210938</v>
+        <v>493.3912963867188</v>
       </c>
       <c r="BD3" t="n">
-        <v>447.4077453613281</v>
+        <v>491.9244689941406</v>
       </c>
       <c r="BE3" t="n">
-        <v>443.9813537597656</v>
+        <v>490.8798522949219</v>
       </c>
       <c r="BF3" t="n">
-        <v>442.5860595703125</v>
+        <v>490.2917175292969</v>
       </c>
       <c r="BG3" t="n">
-        <v>441.4572143554688</v>
+        <v>490.5572204589844</v>
       </c>
       <c r="BH3" t="n">
-        <v>438.694091796875</v>
+        <v>489.0059814453125</v>
       </c>
       <c r="BI3" t="n">
-        <v>431.8938598632812</v>
+        <v>488.5567932128906</v>
       </c>
       <c r="BJ3" t="n">
-        <v>420.6244201660156</v>
+        <v>492.2292785644531</v>
       </c>
       <c r="BK3" t="n">
-        <v>408.1543884277344</v>
+        <v>496.61767578125</v>
       </c>
       <c r="BL3" t="n">
-        <v>388.2498168945312</v>
+        <v>497.020751953125</v>
       </c>
       <c r="BM3" t="n">
-        <v>361.7371520996094</v>
+        <v>494.7521667480469</v>
       </c>
       <c r="BN3" t="n">
-        <v>346.2474365234375</v>
+        <v>495.0923461914062</v>
       </c>
       <c r="BO3" t="n">
-        <v>311.5520629882812</v>
+        <v>495.9423522949219</v>
       </c>
       <c r="BP3" t="n">
-        <v>278.7570190429688</v>
+        <v>498.4979553222656</v>
       </c>
       <c r="BQ3" t="n">
-        <v>254.1842041015625</v>
+        <v>498.67041015625</v>
       </c>
       <c r="BR3" t="n">
-        <v>234.4466400146484</v>
+        <v>496.4293823242188</v>
       </c>
       <c r="BS3" t="n">
-        <v>216.6928558349609</v>
+        <v>493.7234191894531</v>
       </c>
       <c r="BT3" t="n">
-        <v>202.9689788818359</v>
+        <v>491.7853393554688</v>
       </c>
       <c r="BU3" t="n">
-        <v>191.0836181640625</v>
+        <v>487.24365234375</v>
       </c>
       <c r="BV3" t="n">
-        <v>178.0283508300781</v>
+        <v>485.4253540039062</v>
       </c>
       <c r="BW3" t="n">
-        <v>170.8384246826172</v>
+        <v>483.5270690917969</v>
       </c>
       <c r="BX3" t="n">
-        <v>166.3441619873047</v>
+        <v>478.4940490722656</v>
       </c>
       <c r="BY3" t="n">
-        <v>166.9981231689453</v>
+        <v>475.4931945800781</v>
       </c>
       <c r="BZ3" t="n">
-        <v>174.2431640625</v>
+        <v>471.9656677246094</v>
       </c>
       <c r="CA3" t="n">
-        <v>185.7792053222656</v>
+        <v>470.4836730957031</v>
       </c>
       <c r="CB3" t="n">
-        <v>248.0876770019531</v>
+        <v>465.2264099121094</v>
       </c>
       <c r="CC3" t="n">
-        <v>283.6220397949219</v>
+        <v>464.1897583007812</v>
       </c>
       <c r="CD3" t="n">
-        <v>321.3498840332031</v>
+        <v>465.9621276855469</v>
       </c>
       <c r="CE3" t="n">
-        <v>350.0901489257812</v>
+        <v>458.1800537109375</v>
       </c>
       <c r="CF3" t="n">
-        <v>397.0790100097656</v>
+        <v>457.411376953125</v>
       </c>
       <c r="CG3" t="n">
-        <v>414.341552734375</v>
+        <v>456.0364990234375</v>
       </c>
       <c r="CH3" t="n">
-        <v>426.388916015625</v>
+        <v>465.0320739746094</v>
       </c>
       <c r="CI3" t="n">
-        <v>432.0979614257812</v>
+        <v>474.59765625</v>
       </c>
       <c r="CJ3" t="n">
-        <v>428.1232604980469</v>
+        <v>476.1906433105469</v>
       </c>
       <c r="CK3" t="n">
-        <v>424.9824829101562</v>
+        <v>472.16650390625</v>
       </c>
       <c r="CL3" t="n">
-        <v>421.3907165527344</v>
+        <v>467.9061584472656</v>
       </c>
       <c r="CM3" t="n">
-        <v>421.1149291992188</v>
+        <v>456.9996337890625</v>
       </c>
       <c r="CN3" t="n">
-        <v>416.6083374023438</v>
+        <v>449.8115539550781</v>
       </c>
       <c r="CO3" t="n">
-        <v>410.8606872558594</v>
+        <v>447.4201965332031</v>
       </c>
       <c r="CP3" t="n">
-        <v>409.8485107421875</v>
+        <v>459.6375122070312</v>
       </c>
       <c r="CQ3" t="n">
-        <v>409.3795776367188</v>
+        <v>470.2235717773438</v>
       </c>
       <c r="CR3" t="n">
-        <v>410.1139221191406</v>
+        <v>473.0854187011719</v>
       </c>
       <c r="CS3" t="n">
-        <v>411.9871826171875</v>
+        <v>475.6297912597656</v>
       </c>
       <c r="CT3" t="n">
-        <v>414.9728088378906</v>
+        <v>477.0948181152344</v>
       </c>
       <c r="CU3" t="n">
-        <v>415.7324829101562</v>
+        <v>479.885009765625</v>
       </c>
       <c r="CV3" t="n">
-        <v>416.3050842285156</v>
+        <v>478.0624389648438</v>
       </c>
       <c r="CW3" t="n">
-        <v>417.8045043945312</v>
+        <v>481.482177734375</v>
       </c>
       <c r="CX3" t="n">
-        <v>418.0564270019531</v>
+        <v>481.5952453613281</v>
       </c>
       <c r="CY3" t="n">
-        <v>418.0298767089844</v>
+        <v>481.0196533203125</v>
       </c>
       <c r="CZ3" t="n">
-        <v>418.5357666015625</v>
+        <v>482.8539428710938</v>
       </c>
       <c r="DA3" t="n">
-        <v>419.4569091796875</v>
+        <v>482.3372192382812</v>
       </c>
       <c r="DB3" t="n">
-        <v>420.2060852050781</v>
+        <v>483.7168579101562</v>
       </c>
       <c r="DC3" t="n">
-        <v>415.6689758300781</v>
+        <v>483.5379943847656</v>
       </c>
       <c r="DD3" t="n">
-        <v>413.9712829589844</v>
+        <v>484.8178405761719</v>
       </c>
       <c r="DE3" t="n">
-        <v>413.1179504394531</v>
+        <v>486.1139526367188</v>
       </c>
       <c r="DF3" t="n">
-        <v>413.2745971679688</v>
+        <v>487.3472290039062</v>
       </c>
       <c r="DG3" t="n">
-        <v>414.3585510253906</v>
+        <v>488.2075805664062</v>
       </c>
       <c r="DH3" t="n">
-        <v>413.9715881347656</v>
+        <v>492.2935180664062</v>
       </c>
       <c r="DI3" t="n">
-        <v>413.8447570800781</v>
+        <v>494.2306213378906</v>
       </c>
       <c r="DJ3" t="n">
-        <v>413.021240234375</v>
+        <v>494.8075561523438</v>
       </c>
       <c r="DK3" t="n">
-        <v>412.8088684082031</v>
+        <v>493.9891967773438</v>
       </c>
       <c r="DL3" t="n">
-        <v>413.6202087402344</v>
+        <v>493.0565795898438</v>
       </c>
       <c r="DM3" t="n">
-        <v>414.4258422851562</v>
+        <v>492.7254943847656</v>
       </c>
       <c r="DN3" t="n">
-        <v>413.790771484375</v>
+        <v>487.7611083984375</v>
       </c>
       <c r="DO3" t="n">
-        <v>413.6050109863281</v>
+        <v>481.1669616699219</v>
       </c>
       <c r="DP3" t="n">
-        <v>411.4385070800781</v>
+        <v>484.0212707519531</v>
       </c>
       <c r="DQ3" t="n">
-        <v>409.9744567871094</v>
+        <v>474.9578247070312</v>
       </c>
       <c r="DR3" t="n">
-        <v>411.1663818359375</v>
+        <v>468.0791931152344</v>
       </c>
       <c r="DS3" t="n">
-        <v>412.5770263671875</v>
+        <v>465.7223205566406</v>
       </c>
       <c r="DT3" t="n">
-        <v>415.1570129394531</v>
+        <v>454.8662719726562</v>
       </c>
       <c r="DU3" t="n">
-        <v>415.1989135742188</v>
+        <v>448.8669738769531</v>
       </c>
       <c r="DV3" t="n">
-        <v>414.9663696289062</v>
+        <v>439.5817565917969</v>
       </c>
       <c r="DW3" t="n">
-        <v>414.5887451171875</v>
+        <v>422.3526000976562</v>
       </c>
       <c r="DX3" t="n">
-        <v>414.1349182128906</v>
+        <v>413.7011108398438</v>
       </c>
       <c r="DY3" t="n">
-        <v>414.0419921875</v>
+        <v>401.6665954589844</v>
       </c>
       <c r="DZ3" t="n">
-        <v>414.1793212890625</v>
+        <v>398.6511840820312</v>
       </c>
       <c r="EA3" t="n">
-        <v>414.9023742675781</v>
+        <v>396.4187622070312</v>
       </c>
       <c r="EB3" t="n">
-        <v>415.1139221191406</v>
+        <v>403.0742492675781</v>
       </c>
       <c r="EC3" t="n">
-        <v>416.9648132324219</v>
+        <v>407.1599731445312</v>
       </c>
       <c r="ED3" t="n">
-        <v>417.05322265625</v>
+        <v>424.5255432128906</v>
       </c>
       <c r="EE3" t="n">
-        <v>414.9717407226562</v>
+        <v>443.9567260742188</v>
       </c>
       <c r="EF3" t="n">
-        <v>412.9582824707031</v>
+        <v>449.8304748535156</v>
       </c>
       <c r="EG3" t="n">
-        <v>415.0540771484375</v>
+        <v>467.0772705078125</v>
       </c>
       <c r="EH3" t="n">
-        <v>415.8312072753906</v>
+        <v>476.568115234375</v>
       </c>
       <c r="EI3" t="n">
-        <v>414.4496765136719</v>
+        <v>475.3507690429688</v>
       </c>
       <c r="EJ3" t="n">
-        <v>413.5998840332031</v>
+        <v>476.5195617675781</v>
       </c>
       <c r="EK3" t="n">
-        <v>404.9959411621094</v>
+        <v>484.2613830566406</v>
       </c>
       <c r="EL3" t="n">
-        <v>390.2372131347656</v>
+        <v>487.0877380371094</v>
       </c>
       <c r="EM3" t="n">
-        <v>325.1891784667969</v>
+        <v>489.9452514648438</v>
       </c>
       <c r="EN3" t="n">
-        <v>249.2800750732422</v>
+        <v>490.4263610839844</v>
       </c>
       <c r="EO3" t="n">
-        <v>218.7221221923828</v>
+        <v>490.0934143066406</v>
       </c>
       <c r="EP3" t="n">
-        <v>191.780029296875</v>
+        <v>488.2541198730469</v>
       </c>
       <c r="EQ3" t="n">
-        <v>156.8259735107422</v>
+        <v>487.20361328125</v>
       </c>
       <c r="ER3" t="n">
-        <v>145.3099365234375</v>
+        <v>487.2759704589844</v>
       </c>
       <c r="ES3" t="n">
-        <v>141.8980407714844</v>
+        <v>486.5402526855469</v>
       </c>
       <c r="ET3" t="n">
-        <v>142.9323120117188</v>
+        <v>493.4069213867188</v>
       </c>
       <c r="EU3" t="n">
-        <v>156.4077911376953</v>
+        <v>494.8057861328125</v>
       </c>
       <c r="EV3" t="n">
-        <v>207.4527282714844</v>
+        <v>492.3235778808594</v>
       </c>
       <c r="EW3" t="n">
-        <v>262.263916015625</v>
+        <v>488.2719116210938</v>
       </c>
       <c r="EX3" t="n">
-        <v>328.6265258789062</v>
+        <v>481.9109802246094</v>
       </c>
       <c r="EY3" t="n">
-        <v>355.987548828125</v>
+        <v>477.6233215332031</v>
       </c>
       <c r="EZ3" t="n">
-        <v>391.7980346679688</v>
+        <v>461.4410705566406</v>
       </c>
       <c r="FA3" t="n">
-        <v>408.9652709960938</v>
+        <v>448.7598266601562</v>
       </c>
       <c r="FB3" t="n">
-        <v>418.5607604980469</v>
+        <v>445.3947448730469</v>
       </c>
       <c r="FC3" t="n">
-        <v>432.7852783203125</v>
+        <v>539.1109008789062</v>
       </c>
       <c r="FD3" t="n">
-        <v>434.7458190917969</v>
+        <v>534.9042358398438</v>
       </c>
       <c r="FE3" t="n">
-        <v>432.9728393554688</v>
+        <v>528.9756469726562</v>
       </c>
       <c r="FF3" t="n">
-        <v>431.2525634765625</v>
+        <v>526.8673706054688</v>
       </c>
       <c r="FG3" t="n">
-        <v>428.3025817871094</v>
+        <v>522.2945556640625</v>
       </c>
       <c r="FH3" t="n">
-        <v>426.7392578125</v>
+        <v>524.7437744140625</v>
       </c>
       <c r="FI3" t="n">
-        <v>428.7825012207031</v>
+        <v>526.405029296875</v>
       </c>
       <c r="FJ3" t="n">
-        <v>439.4903564453125</v>
+        <v>529.4866333007812</v>
       </c>
       <c r="FK3" t="n">
-        <v>444.1070251464844</v>
+        <v>536.6681518554688</v>
       </c>
       <c r="FL3" t="n">
-        <v>439.0196228027344</v>
+        <v>536.262939453125</v>
       </c>
       <c r="FM3" t="n">
-        <v>438.3251953125</v>
+        <v>533.6179809570312</v>
       </c>
       <c r="FN3" t="n">
-        <v>434.1560668945312</v>
+        <v>534.7018432617188</v>
       </c>
       <c r="FO3" t="n">
-        <v>430.6556396484375</v>
+        <v>533.82763671875</v>
       </c>
       <c r="FP3" t="n">
-        <v>429.2559509277344</v>
+        <v>534.1456298828125</v>
       </c>
       <c r="FQ3" t="n">
-        <v>423.5162048339844</v>
+        <v>532.403564453125</v>
       </c>
       <c r="FR3" t="n">
-        <v>422.4311218261719</v>
+        <v>533.7333374023438</v>
       </c>
       <c r="FS3" t="n">
-        <v>424.0158386230469</v>
+        <v>531.3564453125</v>
       </c>
       <c r="FT3" t="n">
-        <v>424.14306640625</v>
+        <v>531.2485961914062</v>
       </c>
       <c r="FU3" t="n">
-        <v>425.4627990722656</v>
+        <v>531.0199584960938</v>
       </c>
       <c r="FV3" t="n">
-        <v>432.1910400390625</v>
+        <v>531.5299072265625</v>
       </c>
       <c r="FW3" t="n">
-        <v>438.3755798339844</v>
+        <v>568.6864013671875</v>
       </c>
       <c r="FX3" t="n">
-        <v>440.2323608398438</v>
+        <v>437.5679016113281</v>
       </c>
       <c r="FY3" t="n">
-        <v>436.7028198242188</v>
+        <v>428.9055786132812</v>
       </c>
       <c r="FZ3" t="n">
-        <v>438.0140075683594</v>
+        <v>426.1455993652344</v>
       </c>
       <c r="GA3" t="n">
-        <v>442.2000122070312</v>
+        <v>425.5476989746094</v>
       </c>
       <c r="GB3" t="n">
-        <v>446.868408203125</v>
+        <v>432.1961059570312</v>
       </c>
       <c r="GC3" t="n">
-        <v>447.8094177246094</v>
+        <v>457.346923828125</v>
       </c>
       <c r="GD3" t="n">
-        <v>448.8197021484375</v>
+        <v>484.5827941894531</v>
       </c>
       <c r="GE3" t="n">
-        <v>447.8540954589844</v>
+        <v>445.3520202636719</v>
       </c>
       <c r="GF3" t="n">
-        <v>451.2496948242188</v>
+        <v>433.1041259765625</v>
       </c>
       <c r="GG3" t="n">
-        <v>454.6671752929688</v>
+        <v>423.6781311035156</v>
       </c>
       <c r="GH3" t="n">
-        <v>459.0778503417969</v>
+        <v>433.9477844238281</v>
       </c>
       <c r="GI3" t="n">
-        <v>465.8481140136719</v>
+        <v>429.6465454101562</v>
       </c>
       <c r="GJ3" t="n">
-        <v>469.318115234375</v>
+        <v>428.4383239746094</v>
       </c>
       <c r="GK3" t="n">
-        <v>471.8606872558594</v>
+        <v>431.8820495605469</v>
       </c>
       <c r="GL3" t="n">
-        <v>479.0613403320312</v>
+        <v>431.7669982910156</v>
       </c>
       <c r="GM3" t="n">
-        <v>478.4051818847656</v>
+        <v>430.5048217773438</v>
       </c>
       <c r="GN3" t="n">
-        <v>489.6628723144531</v>
+        <v>429.2455444335938</v>
       </c>
       <c r="GO3" t="n">
-        <v>501.4605407714844</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>509.6331481933594</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>520.94091796875</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>535.2071533203125</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>557.4744262695312</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>586.2589721679688</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>592.66015625</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>635.0719604492188</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>169.7510681152344</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>286.2013244628906</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>220.0552978515625</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>249.3047332763672</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>267.9239807128906</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>316.0311279296875</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>354.4117126464844</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>331.7523193359375</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>321.4519348144531</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>328.3768615722656</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>325.3333129882812</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>326.2966613769531</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>332.6949157714844</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>325.5662841796875</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>322.0145263671875</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>323.3855285644531</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>326.1682739257812</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>330.7528076171875</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>339.7168273925781</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>334.6799926757812</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>326.1098327636719</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>308.2117309570312</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>279.2576904296875</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>283.5853576660156</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>411.1139221191406</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>465.2651977539062</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>435.8529052734375</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>340.6846313476562</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>745.8701171875</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>749.8536376953125</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>370.8439636230469</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>385.8925170898438</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>417.1176452636719</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>430.1042175292969</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>427.677978515625</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>446.4833374023438</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>461.9229431152344</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>449.2730407714844</v>
-      </c>
-      <c r="II3" t="n">
-        <v>394.6767883300781</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>378.7059631347656</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>377.4541015625</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>376.7079772949219</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>373.7864990234375</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>347.2334289550781</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>334.6168823242188</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>360.1279907226562</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>398.0540466308594</v>
+        <v>430.6209106445312</v>
       </c>
     </row>
     <row r="4">
@@ -2705,754 +2219,592 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1094.326171875</v>
+        <v>1027.819458007812</v>
       </c>
       <c r="C4" t="n">
-        <v>1095.105712890625</v>
+        <v>1021.419128417969</v>
       </c>
       <c r="D4" t="n">
-        <v>1097.521728515625</v>
+        <v>1021.101806640625</v>
       </c>
       <c r="E4" t="n">
-        <v>1102.2568359375</v>
+        <v>1021.635437011719</v>
       </c>
       <c r="F4" t="n">
-        <v>1107.802978515625</v>
+        <v>1021.750427246094</v>
       </c>
       <c r="G4" t="n">
-        <v>1110.650024414062</v>
+        <v>1021.807495117188</v>
       </c>
       <c r="H4" t="n">
-        <v>1110.62939453125</v>
+        <v>1022.130310058594</v>
       </c>
       <c r="I4" t="n">
-        <v>1108.38916015625</v>
+        <v>1022.422729492188</v>
       </c>
       <c r="J4" t="n">
-        <v>1099.45556640625</v>
+        <v>1022.649841308594</v>
       </c>
       <c r="K4" t="n">
-        <v>1096.39404296875</v>
+        <v>1022.730285644531</v>
       </c>
       <c r="L4" t="n">
-        <v>1093.733520507812</v>
+        <v>1022.806640625</v>
       </c>
       <c r="M4" t="n">
-        <v>1092.111694335938</v>
+        <v>1022.906555175781</v>
       </c>
       <c r="N4" t="n">
-        <v>1090.23193359375</v>
+        <v>1022.947570800781</v>
       </c>
       <c r="O4" t="n">
-        <v>1087.703247070312</v>
+        <v>1022.987609863281</v>
       </c>
       <c r="P4" t="n">
-        <v>1088.210693359375</v>
+        <v>1023.023864746094</v>
       </c>
       <c r="Q4" t="n">
-        <v>1090.249633789062</v>
+        <v>1023.087219238281</v>
       </c>
       <c r="R4" t="n">
-        <v>1091.07568359375</v>
+        <v>882.3836669921875</v>
       </c>
       <c r="S4" t="n">
-        <v>1090.3291015625</v>
+        <v>854.54931640625</v>
       </c>
       <c r="T4" t="n">
-        <v>1089.0068359375</v>
+        <v>855.559814453125</v>
       </c>
       <c r="U4" t="n">
-        <v>1089.009399414062</v>
+        <v>855.1087036132812</v>
       </c>
       <c r="V4" t="n">
-        <v>1088.293212890625</v>
+        <v>859.5015869140625</v>
       </c>
       <c r="W4" t="n">
-        <v>1078.706665039062</v>
+        <v>867.0777587890625</v>
       </c>
       <c r="X4" t="n">
-        <v>1068.406372070312</v>
+        <v>872.627685546875</v>
       </c>
       <c r="Y4" t="n">
-        <v>1069.186767578125</v>
+        <v>872.8839111328125</v>
       </c>
       <c r="Z4" t="n">
-        <v>1064.5732421875</v>
+        <v>873.41259765625</v>
       </c>
       <c r="AA4" t="n">
-        <v>1050.982543945312</v>
+        <v>873.3818969726562</v>
       </c>
       <c r="AB4" t="n">
-        <v>1042.06787109375</v>
+        <v>873.2454833984375</v>
       </c>
       <c r="AC4" t="n">
-        <v>1035.9189453125</v>
+        <v>873.071044921875</v>
       </c>
       <c r="AD4" t="n">
-        <v>1036.612426757812</v>
+        <v>872.9989013671875</v>
       </c>
       <c r="AE4" t="n">
-        <v>1034.93701171875</v>
+        <v>873.0759887695312</v>
       </c>
       <c r="AF4" t="n">
-        <v>1037.4443359375</v>
+        <v>873.7171630859375</v>
       </c>
       <c r="AG4" t="n">
-        <v>1041.789306640625</v>
+        <v>874.1199340820312</v>
       </c>
       <c r="AH4" t="n">
-        <v>1047.209838867188</v>
+        <v>874.6000366210938</v>
       </c>
       <c r="AI4" t="n">
-        <v>1051.184692382812</v>
+        <v>875.2509155273438</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1056.429077148438</v>
+        <v>875.67333984375</v>
       </c>
       <c r="AK4" t="n">
-        <v>1060.647705078125</v>
+        <v>876.1378784179688</v>
       </c>
       <c r="AL4" t="n">
-        <v>1062.1591796875</v>
+        <v>877.0087280273438</v>
       </c>
       <c r="AM4" t="n">
-        <v>1062.710327148438</v>
+        <v>877.4652099609375</v>
       </c>
       <c r="AN4" t="n">
-        <v>1062.635986328125</v>
+        <v>878.113037109375</v>
       </c>
       <c r="AO4" t="n">
-        <v>1060.672607421875</v>
+        <v>878.888427734375</v>
       </c>
       <c r="AP4" t="n">
-        <v>1059.359130859375</v>
+        <v>879.24658203125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1057.8271484375</v>
+        <v>882.8218383789062</v>
       </c>
       <c r="AR4" t="n">
-        <v>1055.755859375</v>
+        <v>909.7005004882812</v>
       </c>
       <c r="AS4" t="n">
-        <v>1051.2412109375</v>
+        <v>913.3138427734375</v>
       </c>
       <c r="AT4" t="n">
-        <v>1049.563720703125</v>
+        <v>910.3265380859375</v>
       </c>
       <c r="AU4" t="n">
-        <v>1046.10009765625</v>
+        <v>897.5841064453125</v>
       </c>
       <c r="AV4" t="n">
-        <v>1039.630981445312</v>
+        <v>893.517822265625</v>
       </c>
       <c r="AW4" t="n">
-        <v>1033.337646484375</v>
+        <v>893.6043701171875</v>
       </c>
       <c r="AX4" t="n">
-        <v>1025.688720703125</v>
+        <v>893.0231323242188</v>
       </c>
       <c r="AY4" t="n">
-        <v>1015.461120605469</v>
+        <v>896.8475952148438</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1003.632690429688</v>
+        <v>901.86572265625</v>
       </c>
       <c r="BA4" t="n">
-        <v>993.05908203125</v>
+        <v>907.6276245117188</v>
       </c>
       <c r="BB4" t="n">
-        <v>983.167724609375</v>
+        <v>914.31494140625</v>
       </c>
       <c r="BC4" t="n">
-        <v>976.5044555664062</v>
+        <v>922.862548828125</v>
       </c>
       <c r="BD4" t="n">
-        <v>965.4462280273438</v>
+        <v>934.0535278320312</v>
       </c>
       <c r="BE4" t="n">
-        <v>954.3037109375</v>
+        <v>938.3199462890625</v>
       </c>
       <c r="BF4" t="n">
-        <v>939.0286865234375</v>
+        <v>941.9606323242188</v>
       </c>
       <c r="BG4" t="n">
-        <v>926.1639404296875</v>
+        <v>944.2459106445312</v>
       </c>
       <c r="BH4" t="n">
-        <v>913.490478515625</v>
+        <v>946.0842895507812</v>
       </c>
       <c r="BI4" t="n">
-        <v>899.6845092773438</v>
+        <v>946.8472900390625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>882.060302734375</v>
+        <v>941.91943359375</v>
       </c>
       <c r="BK4" t="n">
-        <v>868.2447509765625</v>
+        <v>934.9925537109375</v>
       </c>
       <c r="BL4" t="n">
-        <v>856.1317749023438</v>
+        <v>932.0413208007812</v>
       </c>
       <c r="BM4" t="n">
-        <v>856.005615234375</v>
+        <v>915.1844482421875</v>
       </c>
       <c r="BN4" t="n">
-        <v>851.15283203125</v>
+        <v>917.7449340820312</v>
       </c>
       <c r="BO4" t="n">
-        <v>836.9290771484375</v>
+        <v>918.457763671875</v>
       </c>
       <c r="BP4" t="n">
-        <v>825.0718383789062</v>
+        <v>915.999267578125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>830.9198608398438</v>
+        <v>917.1053466796875</v>
       </c>
       <c r="BR4" t="n">
-        <v>835.3466796875</v>
+        <v>920.6823120117188</v>
       </c>
       <c r="BS4" t="n">
-        <v>845.1860961914062</v>
+        <v>923.1512451171875</v>
       </c>
       <c r="BT4" t="n">
-        <v>848.6565551757812</v>
+        <v>924.9107666015625</v>
       </c>
       <c r="BU4" t="n">
-        <v>850.7713623046875</v>
+        <v>929.242431640625</v>
       </c>
       <c r="BV4" t="n">
-        <v>850.7750854492188</v>
+        <v>931.1226196289062</v>
       </c>
       <c r="BW4" t="n">
-        <v>852.2802124023438</v>
+        <v>932.920166015625</v>
       </c>
       <c r="BX4" t="n">
-        <v>847.9612426757812</v>
+        <v>936.8042602539062</v>
       </c>
       <c r="BY4" t="n">
-        <v>834.5826416015625</v>
+        <v>939.0601196289062</v>
       </c>
       <c r="BZ4" t="n">
-        <v>809.3860473632812</v>
+        <v>941.6824340820312</v>
       </c>
       <c r="CA4" t="n">
-        <v>782.068115234375</v>
+        <v>942.5750122070312</v>
       </c>
       <c r="CB4" t="n">
-        <v>754.2531127929688</v>
+        <v>946.1187133789062</v>
       </c>
       <c r="CC4" t="n">
-        <v>748.2916870117188</v>
+        <v>946.160888671875</v>
       </c>
       <c r="CD4" t="n">
-        <v>748.2427978515625</v>
+        <v>944.2674560546875</v>
       </c>
       <c r="CE4" t="n">
-        <v>752.7801513671875</v>
+        <v>952.0969848632812</v>
       </c>
       <c r="CF4" t="n">
-        <v>771.499755859375</v>
+        <v>956.6052856445312</v>
       </c>
       <c r="CG4" t="n">
-        <v>788.0479125976562</v>
+        <v>965.7008056640625</v>
       </c>
       <c r="CH4" t="n">
-        <v>813.1893310546875</v>
+        <v>961.7649536132812</v>
       </c>
       <c r="CI4" t="n">
-        <v>850.728759765625</v>
+        <v>953.4110107421875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>870.826904296875</v>
+        <v>950.1942138671875</v>
       </c>
       <c r="CK4" t="n">
-        <v>883.1685180664062</v>
+        <v>954.2254638671875</v>
       </c>
       <c r="CL4" t="n">
-        <v>898.787353515625</v>
+        <v>963.4085693359375</v>
       </c>
       <c r="CM4" t="n">
-        <v>900.9119873046875</v>
+        <v>993.1516723632812</v>
       </c>
       <c r="CN4" t="n">
-        <v>908.320068359375</v>
+        <v>1029.601806640625</v>
       </c>
       <c r="CO4" t="n">
-        <v>915.3892211914062</v>
+        <v>1046.372680664062</v>
       </c>
       <c r="CP4" t="n">
-        <v>915.292724609375</v>
+        <v>1021.732055664062</v>
       </c>
       <c r="CQ4" t="n">
-        <v>913.2418212890625</v>
+        <v>991.8193359375</v>
       </c>
       <c r="CR4" t="n">
-        <v>907.454833984375</v>
+        <v>989.159912109375</v>
       </c>
       <c r="CS4" t="n">
-        <v>897.1909790039062</v>
+        <v>988.3529663085938</v>
       </c>
       <c r="CT4" t="n">
-        <v>884.70654296875</v>
+        <v>984.4627685546875</v>
       </c>
       <c r="CU4" t="n">
-        <v>880.4414672851562</v>
+        <v>982.25439453125</v>
       </c>
       <c r="CV4" t="n">
-        <v>875.6084594726562</v>
+        <v>989.1124267578125</v>
       </c>
       <c r="CW4" t="n">
-        <v>871.5006103515625</v>
+        <v>989.0494384765625</v>
       </c>
       <c r="CX4" t="n">
-        <v>870.4754638671875</v>
+        <v>989.150146484375</v>
       </c>
       <c r="CY4" t="n">
-        <v>868.0728759765625</v>
+        <v>990.6527099609375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>867.5369873046875</v>
+        <v>988.3856201171875</v>
       </c>
       <c r="DA4" t="n">
-        <v>867.6477661132812</v>
+        <v>987.2052001953125</v>
       </c>
       <c r="DB4" t="n">
-        <v>868.4169921875</v>
+        <v>986.0142211914062</v>
       </c>
       <c r="DC4" t="n">
-        <v>881.365234375</v>
+        <v>987.1593017578125</v>
       </c>
       <c r="DD4" t="n">
-        <v>887.7387084960938</v>
+        <v>987.783447265625</v>
       </c>
       <c r="DE4" t="n">
-        <v>892.4971313476562</v>
+        <v>988.2745361328125</v>
       </c>
       <c r="DF4" t="n">
-        <v>894.9735717773438</v>
+        <v>986.60546875</v>
       </c>
       <c r="DG4" t="n">
-        <v>892.8092041015625</v>
+        <v>984.874755859375</v>
       </c>
       <c r="DH4" t="n">
-        <v>893.9112548828125</v>
+        <v>983.4757690429688</v>
       </c>
       <c r="DI4" t="n">
-        <v>896.35302734375</v>
+        <v>985.0174560546875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>898.841796875</v>
+        <v>992.2544555664062</v>
       </c>
       <c r="DK4" t="n">
-        <v>900.3463134765625</v>
+        <v>998.9506225585938</v>
       </c>
       <c r="DL4" t="n">
-        <v>900.6680297851562</v>
+        <v>1004.004516601562</v>
       </c>
       <c r="DM4" t="n">
-        <v>899.814453125</v>
+        <v>1005.808776855469</v>
       </c>
       <c r="DN4" t="n">
-        <v>899.9622802734375</v>
+        <v>1008.51611328125</v>
       </c>
       <c r="DO4" t="n">
-        <v>899.3618774414062</v>
+        <v>999.4295654296875</v>
       </c>
       <c r="DP4" t="n">
-        <v>901.4439697265625</v>
+        <v>972.815673828125</v>
       </c>
       <c r="DQ4" t="n">
-        <v>902.4010620117188</v>
+        <v>960.3968505859375</v>
       </c>
       <c r="DR4" t="n">
-        <v>900.6552124023438</v>
+        <v>955.158935546875</v>
       </c>
       <c r="DS4" t="n">
-        <v>898.2053833007812</v>
+        <v>941.9791259765625</v>
       </c>
       <c r="DT4" t="n">
-        <v>893.7112426757812</v>
+        <v>931.6292114257812</v>
       </c>
       <c r="DU4" t="n">
-        <v>893.137939453125</v>
+        <v>928.7474975585938</v>
       </c>
       <c r="DV4" t="n">
-        <v>892.20556640625</v>
+        <v>928.1033935546875</v>
       </c>
       <c r="DW4" t="n">
-        <v>892.2053833007812</v>
+        <v>944.8857421875</v>
       </c>
       <c r="DX4" t="n">
-        <v>892.3876953125</v>
+        <v>958.0227661132812</v>
       </c>
       <c r="DY4" t="n">
-        <v>891.6932373046875</v>
+        <v>980.670166015625</v>
       </c>
       <c r="DZ4" t="n">
-        <v>890.798095703125</v>
+        <v>988.7589111328125</v>
       </c>
       <c r="EA4" t="n">
-        <v>889.1165771484375</v>
+        <v>989.5579833984375</v>
       </c>
       <c r="EB4" t="n">
-        <v>888.214599609375</v>
+        <v>994.8189086914062</v>
       </c>
       <c r="EC4" t="n">
-        <v>884.8209838867188</v>
+        <v>1000.539733886719</v>
       </c>
       <c r="ED4" t="n">
-        <v>885.1677856445312</v>
+        <v>1006.7744140625</v>
       </c>
       <c r="EE4" t="n">
-        <v>889.0504150390625</v>
+        <v>1008.327453613281</v>
       </c>
       <c r="EF4" t="n">
-        <v>894.2379150390625</v>
+        <v>1008.669677734375</v>
       </c>
       <c r="EG4" t="n">
-        <v>895.6141357421875</v>
+        <v>1016.542358398438</v>
       </c>
       <c r="EH4" t="n">
-        <v>900.0345458984375</v>
+        <v>1047.770874023438</v>
       </c>
       <c r="EI4" t="n">
-        <v>903.6116333007812</v>
+        <v>1053.949096679688</v>
       </c>
       <c r="EJ4" t="n">
-        <v>897.1362915039062</v>
+        <v>1057.114379882812</v>
       </c>
       <c r="EK4" t="n">
-        <v>882.9266967773438</v>
+        <v>1056.921997070312</v>
       </c>
       <c r="EL4" t="n">
-        <v>865.5991821289062</v>
+        <v>1050.296630859375</v>
       </c>
       <c r="EM4" t="n">
-        <v>846.4537963867188</v>
+        <v>1055.102661132812</v>
       </c>
       <c r="EN4" t="n">
-        <v>872.1470947265625</v>
+        <v>1057.5361328125</v>
       </c>
       <c r="EO4" t="n">
-        <v>897.4866943359375</v>
+        <v>1059.579467773438</v>
       </c>
       <c r="EP4" t="n">
-        <v>924.076171875</v>
+        <v>1062.764282226562</v>
       </c>
       <c r="EQ4" t="n">
-        <v>974.6038818359375</v>
+        <v>1066.711303710938</v>
       </c>
       <c r="ER4" t="n">
-        <v>988.6937866210938</v>
+        <v>1066.450805664062</v>
       </c>
       <c r="ES4" t="n">
-        <v>1000.937194824219</v>
+        <v>1066.982055664062</v>
       </c>
       <c r="ET4" t="n">
-        <v>999.082763671875</v>
+        <v>1052.395874023438</v>
       </c>
       <c r="EU4" t="n">
-        <v>972.4307250976562</v>
+        <v>1046.78515625</v>
       </c>
       <c r="EV4" t="n">
-        <v>936.2344970703125</v>
+        <v>1044.66845703125</v>
       </c>
       <c r="EW4" t="n">
-        <v>884.5358276367188</v>
+        <v>1058.284545898438</v>
       </c>
       <c r="EX4" t="n">
-        <v>840.7356567382812</v>
+        <v>1072.308227539062</v>
       </c>
       <c r="EY4" t="n">
-        <v>836.1536254882812</v>
+        <v>1077.108032226562</v>
       </c>
       <c r="EZ4" t="n">
-        <v>844.24951171875</v>
+        <v>1104.465942382812</v>
       </c>
       <c r="FA4" t="n">
-        <v>853.9725952148438</v>
+        <v>1099.655151367188</v>
       </c>
       <c r="FB4" t="n">
-        <v>862.9338989257812</v>
+        <v>1084.487426757812</v>
       </c>
       <c r="FC4" t="n">
-        <v>877.4638671875</v>
+        <v>1083.148803710938</v>
       </c>
       <c r="FD4" t="n">
-        <v>881.1614379882812</v>
+        <v>1082.606567382812</v>
       </c>
       <c r="FE4" t="n">
-        <v>879.7080078125</v>
+        <v>1074.444091796875</v>
       </c>
       <c r="FF4" t="n">
-        <v>879.5170288085938</v>
+        <v>1065.151000976562</v>
       </c>
       <c r="FG4" t="n">
-        <v>883.4036254882812</v>
+        <v>1053.189453125</v>
       </c>
       <c r="FH4" t="n">
-        <v>887.6409301757812</v>
+        <v>1033.0966796875</v>
       </c>
       <c r="FI4" t="n">
-        <v>895.4768676757812</v>
+        <v>1020.53125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>918.0171508789062</v>
+        <v>1010.009338378906</v>
       </c>
       <c r="FK4" t="n">
-        <v>959.3331298828125</v>
+        <v>962.2808837890625</v>
       </c>
       <c r="FL4" t="n">
-        <v>996.840087890625</v>
+        <v>957.2044677734375</v>
       </c>
       <c r="FM4" t="n">
-        <v>1002.269348144531</v>
+        <v>978.6510009765625</v>
       </c>
       <c r="FN4" t="n">
-        <v>1026.732788085938</v>
+        <v>974.3148803710938</v>
       </c>
       <c r="FO4" t="n">
-        <v>1030.4970703125</v>
+        <v>971.0160522460938</v>
       </c>
       <c r="FP4" t="n">
-        <v>1041.005004882812</v>
+        <v>969.744873046875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1059.993774414062</v>
+        <v>964.2654418945312</v>
       </c>
       <c r="FR4" t="n">
-        <v>1062.791381835938</v>
+        <v>956.7635498046875</v>
       </c>
       <c r="FS4" t="n">
-        <v>1063.305908203125</v>
+        <v>948.9917602539062</v>
       </c>
       <c r="FT4" t="n">
-        <v>1064.084838867188</v>
+        <v>938.7427368164062</v>
       </c>
       <c r="FU4" t="n">
-        <v>1060.70849609375</v>
+        <v>927.2145385742188</v>
       </c>
       <c r="FV4" t="n">
-        <v>1037.765625</v>
+        <v>919.2619018554688</v>
       </c>
       <c r="FW4" t="n">
-        <v>1017.101684570312</v>
+        <v>757.4801635742188</v>
       </c>
       <c r="FX4" t="n">
-        <v>992.7477416992188</v>
+        <v>574.0086059570312</v>
       </c>
       <c r="FY4" t="n">
-        <v>988.7963256835938</v>
+        <v>529.9186401367188</v>
       </c>
       <c r="FZ4" t="n">
-        <v>980.4992065429688</v>
+        <v>506.3681030273438</v>
       </c>
       <c r="GA4" t="n">
-        <v>972.5164184570312</v>
+        <v>452.387939453125</v>
       </c>
       <c r="GB4" t="n">
-        <v>957.6787719726562</v>
+        <v>422.4872436523438</v>
       </c>
       <c r="GC4" t="n">
-        <v>950.5399780273438</v>
+        <v>366.6209716796875</v>
       </c>
       <c r="GD4" t="n">
-        <v>932.118896484375</v>
+        <v>346.6415405273438</v>
       </c>
       <c r="GE4" t="n">
-        <v>923.197509765625</v>
+        <v>336.2036743164062</v>
       </c>
       <c r="GF4" t="n">
-        <v>886.4352416992188</v>
+        <v>332.9068908691406</v>
       </c>
       <c r="GG4" t="n">
-        <v>874.90380859375</v>
+        <v>326.0133056640625</v>
       </c>
       <c r="GH4" t="n">
-        <v>845.2833862304688</v>
+        <v>324.4941101074219</v>
       </c>
       <c r="GI4" t="n">
-        <v>812.6053466796875</v>
+        <v>329.0579833984375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>779.9874877929688</v>
+        <v>331.2378540039062</v>
       </c>
       <c r="GK4" t="n">
-        <v>748.3612670898438</v>
+        <v>334.7501831054688</v>
       </c>
       <c r="GL4" t="n">
-        <v>712.0701293945312</v>
+        <v>335.4946594238281</v>
       </c>
       <c r="GM4" t="n">
-        <v>678.4161987304688</v>
+        <v>341.1317138671875</v>
       </c>
       <c r="GN4" t="n">
-        <v>626.8407592773438</v>
+        <v>332.9197998046875</v>
       </c>
       <c r="GO4" t="n">
-        <v>570.6449584960938</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>548.1607666015625</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>508.9617919921875</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>459.8505859375</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>415.9067077636719</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>371.8086853027344</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>334.3546142578125</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>286.96826171875</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>331.0081787109375</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>263.3063354492188</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>417.2727661132812</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>443.3351135253906</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>447.933837890625</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>454.2669982910156</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>488.2296447753906</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>517.4174194335938</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>539.4575805664062</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>558.7785034179688</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>569.4605712890625</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>570.935546875</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>568.5967407226562</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>566.2011108398438</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>560.4735717773438</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>527.9987182617188</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>511.1075439453125</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>502.65673828125</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>494.0128173828125</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>494.8489685058594</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>497.8280639648438</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>505.9113159179688</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>519.0322875976562</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>531.8590698242188</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>362.9732666015625</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>419.414794921875</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>300.160888671875</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>524.4320678710938</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>442.1876220703125</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>440.6893005371094</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>414.8631591796875</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>433.5941162109375</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>430.9407348632812</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>392.0872802734375</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>424.3021850585938</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>428.2193298339844</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>334.371826171875</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>347.1788024902344</v>
-      </c>
-      <c r="II4" t="n">
-        <v>387.886962890625</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>405.2405700683594</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>414.21337890625</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>417.4198303222656</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>423.21923828125</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>395.04931640625</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>417.8831787109375</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>438.4530944824219</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>418.9407348632812</v>
+        <v>323.591552734375</v>
       </c>
     </row>
   </sheetData>

--- a/left_wrist_Data.xlsx
+++ b/left_wrist_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO4"/>
+  <dimension ref="A1:JM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>START</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
@@ -1025,1786 +1023,2698 @@
         <v>0</v>
       </c>
       <c r="GO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>311.1867065429688</v>
       </c>
       <c r="B2" t="n">
-        <v>443.9422302246094</v>
+        <v>310.1315002441406</v>
       </c>
       <c r="C2" t="n">
-        <v>441.2340087890625</v>
+        <v>310.1802978515625</v>
       </c>
       <c r="D2" t="n">
-        <v>441.1314697265625</v>
+        <v>310.2672729492188</v>
       </c>
       <c r="E2" t="n">
-        <v>441.272705078125</v>
+        <v>310.3844604492188</v>
       </c>
       <c r="F2" t="n">
-        <v>441.3867492675781</v>
+        <v>310.3404541015625</v>
       </c>
       <c r="G2" t="n">
-        <v>441.5668334960938</v>
+        <v>310.3131713867188</v>
       </c>
       <c r="H2" t="n">
-        <v>441.2733459472656</v>
+        <v>310.2872314453125</v>
       </c>
       <c r="I2" t="n">
-        <v>441.133056640625</v>
+        <v>310.2286987304688</v>
       </c>
       <c r="J2" t="n">
-        <v>441.0531005859375</v>
+        <v>310.1861267089844</v>
       </c>
       <c r="K2" t="n">
-        <v>440.9761047363281</v>
+        <v>310.1546020507812</v>
       </c>
       <c r="L2" t="n">
-        <v>440.8493041992188</v>
+        <v>310.1279296875</v>
       </c>
       <c r="M2" t="n">
-        <v>440.7485656738281</v>
+        <v>309.9781188964844</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6377563476562</v>
+        <v>309.7523498535156</v>
       </c>
       <c r="O2" t="n">
-        <v>440.504150390625</v>
+        <v>306.281982421875</v>
       </c>
       <c r="P2" t="n">
-        <v>440.35302734375</v>
+        <v>287.4732666015625</v>
       </c>
       <c r="Q2" t="n">
-        <v>440.2093811035156</v>
+        <v>260.3524780273438</v>
       </c>
       <c r="R2" t="n">
-        <v>476.439453125</v>
+        <v>236.7239685058594</v>
       </c>
       <c r="S2" t="n">
-        <v>474.0685424804688</v>
+        <v>213.7558288574219</v>
       </c>
       <c r="T2" t="n">
-        <v>469.702392578125</v>
+        <v>194.8996124267578</v>
       </c>
       <c r="U2" t="n">
-        <v>465.0592651367188</v>
+        <v>172.6932983398438</v>
       </c>
       <c r="V2" t="n">
-        <v>461.3141479492188</v>
+        <v>146.0666809082031</v>
       </c>
       <c r="W2" t="n">
-        <v>460.473876953125</v>
+        <v>126.9316558837891</v>
       </c>
       <c r="X2" t="n">
-        <v>460.4755859375</v>
+        <v>117.4244842529297</v>
       </c>
       <c r="Y2" t="n">
-        <v>461.5875854492188</v>
+        <v>108.7705307006836</v>
       </c>
       <c r="Z2" t="n">
-        <v>462.7969665527344</v>
+        <v>95.82603454589844</v>
       </c>
       <c r="AA2" t="n">
-        <v>463.3153076171875</v>
+        <v>80.32608032226562</v>
       </c>
       <c r="AB2" t="n">
-        <v>462.9623718261719</v>
+        <v>66.90472412109375</v>
       </c>
       <c r="AC2" t="n">
-        <v>462.4679870605469</v>
+        <v>60.98875427246094</v>
       </c>
       <c r="AD2" t="n">
-        <v>462.01611328125</v>
+        <v>56.60009002685547</v>
       </c>
       <c r="AE2" t="n">
-        <v>462.2161865234375</v>
+        <v>54.12001037597656</v>
       </c>
       <c r="AF2" t="n">
-        <v>462.4519653320312</v>
+        <v>53.91349029541016</v>
       </c>
       <c r="AG2" t="n">
-        <v>462.8272094726562</v>
+        <v>50.59099197387695</v>
       </c>
       <c r="AH2" t="n">
-        <v>463.2907409667969</v>
+        <v>47.94785308837891</v>
       </c>
       <c r="AI2" t="n">
-        <v>464.2663879394531</v>
+        <v>47.42509460449219</v>
       </c>
       <c r="AJ2" t="n">
-        <v>465.1266479492188</v>
+        <v>49.23002243041992</v>
       </c>
       <c r="AK2" t="n">
-        <v>466.06201171875</v>
+        <v>57.27662658691406</v>
       </c>
       <c r="AL2" t="n">
-        <v>468.154541015625</v>
+        <v>80.174560546875</v>
       </c>
       <c r="AM2" t="n">
-        <v>466.0189819335938</v>
+        <v>105.5367660522461</v>
       </c>
       <c r="AN2" t="n">
-        <v>466.7651977539062</v>
+        <v>135.9221496582031</v>
       </c>
       <c r="AO2" t="n">
-        <v>467.8811340332031</v>
+        <v>164.7413635253906</v>
       </c>
       <c r="AP2" t="n">
-        <v>467.6121215820312</v>
+        <v>208.2458648681641</v>
       </c>
       <c r="AQ2" t="n">
-        <v>467.175537109375</v>
+        <v>243.3072509765625</v>
       </c>
       <c r="AR2" t="n">
-        <v>471.69482421875</v>
+        <v>268.1079406738281</v>
       </c>
       <c r="AS2" t="n">
-        <v>474.9935913085938</v>
+        <v>290.6207885742188</v>
       </c>
       <c r="AT2" t="n">
-        <v>488.0510864257812</v>
+        <v>311.3606872558594</v>
       </c>
       <c r="AU2" t="n">
-        <v>490.163818359375</v>
+        <v>325.8839111328125</v>
       </c>
       <c r="AV2" t="n">
-        <v>490.9962463378906</v>
+        <v>344.6271057128906</v>
       </c>
       <c r="AW2" t="n">
-        <v>497.4739990234375</v>
+        <v>364.0728454589844</v>
       </c>
       <c r="AX2" t="n">
-        <v>498.97900390625</v>
+        <v>375.0427856445312</v>
       </c>
       <c r="AY2" t="n">
-        <v>503.0626220703125</v>
+        <v>379.8541870117188</v>
       </c>
       <c r="AZ2" t="n">
-        <v>511.7335815429688</v>
+        <v>384.9960021972656</v>
       </c>
       <c r="BA2" t="n">
-        <v>517.2842407226562</v>
+        <v>391.6444396972656</v>
       </c>
       <c r="BB2" t="n">
-        <v>519.6682739257812</v>
+        <v>394.99609375</v>
       </c>
       <c r="BC2" t="n">
-        <v>518.588623046875</v>
+        <v>398.1588745117188</v>
       </c>
       <c r="BD2" t="n">
-        <v>518.5803833007812</v>
+        <v>400.6768798828125</v>
       </c>
       <c r="BE2" t="n">
-        <v>521.024169921875</v>
+        <v>398.3941650390625</v>
       </c>
       <c r="BF2" t="n">
-        <v>523.1861572265625</v>
+        <v>398.2709350585938</v>
       </c>
       <c r="BG2" t="n">
-        <v>523.68115234375</v>
+        <v>398.2745056152344</v>
       </c>
       <c r="BH2" t="n">
-        <v>522.7566528320312</v>
+        <v>400.3784790039062</v>
       </c>
       <c r="BI2" t="n">
-        <v>522.5669555664062</v>
+        <v>402.4669799804688</v>
       </c>
       <c r="BJ2" t="n">
-        <v>519.0480346679688</v>
+        <v>403.2189331054688</v>
       </c>
       <c r="BK2" t="n">
-        <v>508.0413208007812</v>
+        <v>404.1616516113281</v>
       </c>
       <c r="BL2" t="n">
-        <v>499.3128662109375</v>
+        <v>402.3284301757812</v>
       </c>
       <c r="BM2" t="n">
-        <v>497.4236755371094</v>
+        <v>401.7442016601562</v>
       </c>
       <c r="BN2" t="n">
-        <v>497.6944580078125</v>
+        <v>402.8576049804688</v>
       </c>
       <c r="BO2" t="n">
-        <v>486.27783203125</v>
+        <v>403.3666381835938</v>
       </c>
       <c r="BP2" t="n">
-        <v>473.9874572753906</v>
+        <v>403.6585083007812</v>
       </c>
       <c r="BQ2" t="n">
-        <v>469.7164306640625</v>
+        <v>403.9698791503906</v>
       </c>
       <c r="BR2" t="n">
-        <v>461.9705200195312</v>
+        <v>404.23388671875</v>
       </c>
       <c r="BS2" t="n">
-        <v>455.87744140625</v>
+        <v>404.9714660644531</v>
       </c>
       <c r="BT2" t="n">
-        <v>442.6288146972656</v>
+        <v>406.05859375</v>
       </c>
       <c r="BU2" t="n">
-        <v>433.4884033203125</v>
+        <v>407.6513061523438</v>
       </c>
       <c r="BV2" t="n">
-        <v>420.5243225097656</v>
+        <v>409.9655456542969</v>
       </c>
       <c r="BW2" t="n">
-        <v>412.3032836914062</v>
+        <v>413.1200561523438</v>
       </c>
       <c r="BX2" t="n">
-        <v>409.4876403808594</v>
+        <v>414.4278259277344</v>
       </c>
       <c r="BY2" t="n">
-        <v>408.3651428222656</v>
+        <v>417.3898315429688</v>
       </c>
       <c r="BZ2" t="n">
-        <v>404.6746215820312</v>
+        <v>418.9937744140625</v>
       </c>
       <c r="CA2" t="n">
-        <v>399.0322265625</v>
+        <v>422.3438110351562</v>
       </c>
       <c r="CB2" t="n">
-        <v>395.5782470703125</v>
+        <v>422.9739990234375</v>
       </c>
       <c r="CC2" t="n">
-        <v>391.884033203125</v>
+        <v>423.7584838867188</v>
       </c>
       <c r="CD2" t="n">
-        <v>385.4126281738281</v>
+        <v>425.2664794921875</v>
       </c>
       <c r="CE2" t="n">
-        <v>391.0425415039062</v>
+        <v>425.6043090820312</v>
       </c>
       <c r="CF2" t="n">
-        <v>390.1931762695312</v>
+        <v>427.2718505859375</v>
       </c>
       <c r="CG2" t="n">
-        <v>388.9730834960938</v>
+        <v>429.4110107421875</v>
       </c>
       <c r="CH2" t="n">
-        <v>379.3249206542969</v>
+        <v>429.414306640625</v>
       </c>
       <c r="CI2" t="n">
-        <v>364.777587890625</v>
+        <v>429.6142272949219</v>
       </c>
       <c r="CJ2" t="n">
-        <v>359.1004638671875</v>
+        <v>428.8029479980469</v>
       </c>
       <c r="CK2" t="n">
-        <v>362.7526245117188</v>
+        <v>428.3948364257812</v>
       </c>
       <c r="CL2" t="n">
-        <v>373.0511169433594</v>
+        <v>428.276611328125</v>
       </c>
       <c r="CM2" t="n">
-        <v>387.052490234375</v>
+        <v>428.5617065429688</v>
       </c>
       <c r="CN2" t="n">
-        <v>397.0401611328125</v>
+        <v>428.948486328125</v>
       </c>
       <c r="CO2" t="n">
-        <v>402.69873046875</v>
+        <v>428.9669189453125</v>
       </c>
       <c r="CP2" t="n">
-        <v>399.0039367675781</v>
+        <v>429.6544189453125</v>
       </c>
       <c r="CQ2" t="n">
-        <v>394.7762451171875</v>
+        <v>430.0904541015625</v>
       </c>
       <c r="CR2" t="n">
-        <v>398.1757202148438</v>
+        <v>430.2331237792969</v>
       </c>
       <c r="CS2" t="n">
-        <v>406.3995056152344</v>
+        <v>432.2994689941406</v>
       </c>
       <c r="CT2" t="n">
-        <v>411.1702880859375</v>
+        <v>434.9812316894531</v>
       </c>
       <c r="CU2" t="n">
-        <v>423.4970703125</v>
+        <v>436.7949829101562</v>
       </c>
       <c r="CV2" t="n">
-        <v>440.9255676269531</v>
+        <v>439.4114685058594</v>
       </c>
       <c r="CW2" t="n">
-        <v>437.5372924804688</v>
+        <v>444.2764587402344</v>
       </c>
       <c r="CX2" t="n">
-        <v>437.8048400878906</v>
+        <v>447.6915893554688</v>
       </c>
       <c r="CY2" t="n">
-        <v>443.3495788574219</v>
+        <v>450.0621948242188</v>
       </c>
       <c r="CZ2" t="n">
-        <v>452.0962524414062</v>
+        <v>451.784912109375</v>
       </c>
       <c r="DA2" t="n">
-        <v>457.0774536132812</v>
+        <v>461.0435791015625</v>
       </c>
       <c r="DB2" t="n">
-        <v>473.0497436523438</v>
+        <v>465.1302795410156</v>
       </c>
       <c r="DC2" t="n">
-        <v>476.154052734375</v>
+        <v>468.3877563476562</v>
       </c>
       <c r="DD2" t="n">
-        <v>479.9441833496094</v>
+        <v>468.5540161132812</v>
       </c>
       <c r="DE2" t="n">
-        <v>483.5407104492188</v>
+        <v>470.0533447265625</v>
       </c>
       <c r="DF2" t="n">
-        <v>485.3783569335938</v>
+        <v>471.98388671875</v>
       </c>
       <c r="DG2" t="n">
-        <v>489.2871398925781</v>
+        <v>475.1864929199219</v>
       </c>
       <c r="DH2" t="n">
-        <v>508.5030517578125</v>
+        <v>474.8275146484375</v>
       </c>
       <c r="DI2" t="n">
-        <v>508.3776550292969</v>
+        <v>476.0326538085938</v>
       </c>
       <c r="DJ2" t="n">
-        <v>506.6726989746094</v>
+        <v>476.2206726074219</v>
       </c>
       <c r="DK2" t="n">
-        <v>505.7951354980469</v>
+        <v>477.4420166015625</v>
       </c>
       <c r="DL2" t="n">
-        <v>505.1196899414062</v>
+        <v>478.8522338867188</v>
       </c>
       <c r="DM2" t="n">
-        <v>504.9870300292969</v>
+        <v>479.3983459472656</v>
       </c>
       <c r="DN2" t="n">
-        <v>504.5877685546875</v>
+        <v>479.97216796875</v>
       </c>
       <c r="DO2" t="n">
-        <v>507.5816650390625</v>
+        <v>478.6365966796875</v>
       </c>
       <c r="DP2" t="n">
-        <v>511.0112915039062</v>
+        <v>477.319091796875</v>
       </c>
       <c r="DQ2" t="n">
-        <v>494.422607421875</v>
+        <v>476.8920593261719</v>
       </c>
       <c r="DR2" t="n">
-        <v>485.8541870117188</v>
+        <v>477.522216796875</v>
       </c>
       <c r="DS2" t="n">
-        <v>477.8768615722656</v>
+        <v>477.3944702148438</v>
       </c>
       <c r="DT2" t="n">
-        <v>464.3265075683594</v>
+        <v>476.9953918457031</v>
       </c>
       <c r="DU2" t="n">
-        <v>458.7689208984375</v>
+        <v>476.9417724609375</v>
       </c>
       <c r="DV2" t="n">
-        <v>455.1224060058594</v>
+        <v>477.0055541992188</v>
       </c>
       <c r="DW2" t="n">
-        <v>454.3462829589844</v>
+        <v>477.1401672363281</v>
       </c>
       <c r="DX2" t="n">
-        <v>451.9052124023438</v>
+        <v>478.4111938476562</v>
       </c>
       <c r="DY2" t="n">
-        <v>445.0521850585938</v>
+        <v>478.4403076171875</v>
       </c>
       <c r="DZ2" t="n">
-        <v>442.3203125</v>
+        <v>476.2390747070312</v>
       </c>
       <c r="EA2" t="n">
-        <v>440.4754028320312</v>
+        <v>474.1093444824219</v>
       </c>
       <c r="EB2" t="n">
-        <v>442.2278442382812</v>
+        <v>472.03466796875</v>
       </c>
       <c r="EC2" t="n">
-        <v>447.4218444824219</v>
+        <v>469.282958984375</v>
       </c>
       <c r="ED2" t="n">
-        <v>457.8796081542969</v>
+        <v>466.2344055175781</v>
       </c>
       <c r="EE2" t="n">
-        <v>468.8833312988281</v>
+        <v>456.0700073242188</v>
       </c>
       <c r="EF2" t="n">
-        <v>471.2388610839844</v>
+        <v>448.2397766113281</v>
       </c>
       <c r="EG2" t="n">
-        <v>478.4482421875</v>
+        <v>439.8196105957031</v>
       </c>
       <c r="EH2" t="n">
-        <v>482.0130615234375</v>
+        <v>433.94189453125</v>
       </c>
       <c r="EI2" t="n">
-        <v>485.9973449707031</v>
+        <v>427.4471435546875</v>
       </c>
       <c r="EJ2" t="n">
-        <v>488.5757141113281</v>
+        <v>385.9584350585938</v>
       </c>
       <c r="EK2" t="n">
-        <v>487.7604675292969</v>
+        <v>414.2373352050781</v>
       </c>
       <c r="EL2" t="n">
-        <v>486.1470336914062</v>
+        <v>415.2454223632812</v>
       </c>
       <c r="EM2" t="n">
-        <v>484.7474365234375</v>
+        <v>409.7798156738281</v>
       </c>
       <c r="EN2" t="n">
-        <v>486.2577819824219</v>
+        <v>408.5980224609375</v>
       </c>
       <c r="EO2" t="n">
-        <v>487.36669921875</v>
+        <v>405.6668701171875</v>
       </c>
       <c r="EP2" t="n">
-        <v>484.8787841796875</v>
+        <v>402.63427734375</v>
       </c>
       <c r="EQ2" t="n">
-        <v>483.1268920898438</v>
+        <v>400.7931213378906</v>
       </c>
       <c r="ER2" t="n">
-        <v>483.5702819824219</v>
+        <v>397.9949951171875</v>
       </c>
       <c r="ES2" t="n">
-        <v>485.273681640625</v>
+        <v>397.8660888671875</v>
       </c>
       <c r="ET2" t="n">
-        <v>497.7581481933594</v>
+        <v>397.1900024414062</v>
       </c>
       <c r="EU2" t="n">
-        <v>513.4261474609375</v>
+        <v>397.2908020019531</v>
       </c>
       <c r="EV2" t="n">
-        <v>512.3262329101562</v>
+        <v>396.9759521484375</v>
       </c>
       <c r="EW2" t="n">
-        <v>503.1493530273438</v>
+        <v>396.8537902832031</v>
       </c>
       <c r="EX2" t="n">
-        <v>496.592041015625</v>
+        <v>397.3512268066406</v>
       </c>
       <c r="EY2" t="n">
-        <v>491.142333984375</v>
+        <v>398.7633972167969</v>
       </c>
       <c r="EZ2" t="n">
-        <v>479.7120361328125</v>
+        <v>400.8110961914062</v>
       </c>
       <c r="FA2" t="n">
-        <v>467.3001403808594</v>
+        <v>402.5662231445312</v>
       </c>
       <c r="FB2" t="n">
-        <v>458.7460327148438</v>
+        <v>402.2219543457031</v>
       </c>
       <c r="FC2" t="n">
-        <v>333.4288940429688</v>
+        <v>402.2497253417969</v>
       </c>
       <c r="FD2" t="n">
-        <v>333.8400268554688</v>
+        <v>402.1330261230469</v>
       </c>
       <c r="FE2" t="n">
-        <v>333.2724609375</v>
+        <v>402.1968078613281</v>
       </c>
       <c r="FF2" t="n">
-        <v>332.9881591796875</v>
+        <v>402.107177734375</v>
       </c>
       <c r="FG2" t="n">
-        <v>337.3659057617188</v>
+        <v>401.9520874023438</v>
       </c>
       <c r="FH2" t="n">
-        <v>348.8458251953125</v>
+        <v>401.386962890625</v>
       </c>
       <c r="FI2" t="n">
-        <v>357.34423828125</v>
+        <v>401.0657043457031</v>
       </c>
       <c r="FJ2" t="n">
-        <v>369.7570495605469</v>
+        <v>401.1330871582031</v>
       </c>
       <c r="FK2" t="n">
-        <v>425.2216186523438</v>
+        <v>401.20751953125</v>
       </c>
       <c r="FL2" t="n">
-        <v>429.9546813964844</v>
+        <v>401.3761901855469</v>
       </c>
       <c r="FM2" t="n">
-        <v>408.72802734375</v>
+        <v>402.00146484375</v>
       </c>
       <c r="FN2" t="n">
-        <v>422.0905151367188</v>
+        <v>401.9221801757812</v>
       </c>
       <c r="FO2" t="n">
-        <v>429.4702758789062</v>
+        <v>401.8964233398438</v>
       </c>
       <c r="FP2" t="n">
-        <v>433.0747680664062</v>
+        <v>402.1561889648438</v>
       </c>
       <c r="FQ2" t="n">
-        <v>442.2806091308594</v>
+        <v>402.1642456054688</v>
       </c>
       <c r="FR2" t="n">
-        <v>446.8494262695312</v>
+        <v>402.265380859375</v>
       </c>
       <c r="FS2" t="n">
-        <v>453.6904296875</v>
+        <v>402.290283203125</v>
       </c>
       <c r="FT2" t="n">
-        <v>459.9582214355469</v>
+        <v>402.2554321289062</v>
       </c>
       <c r="FU2" t="n">
-        <v>465.2905883789062</v>
+        <v>402.2894897460938</v>
       </c>
       <c r="FV2" t="n">
-        <v>467.287353515625</v>
+        <v>402.488525390625</v>
       </c>
       <c r="FW2" t="n">
-        <v>513.9169921875</v>
+        <v>402.2473754882812</v>
       </c>
       <c r="FX2" t="n">
-        <v>468.5344848632812</v>
+        <v>399.2583923339844</v>
       </c>
       <c r="FY2" t="n">
-        <v>477.82861328125</v>
+        <v>397.0122680664062</v>
       </c>
       <c r="FZ2" t="n">
-        <v>478.7955932617188</v>
+        <v>396.0284729003906</v>
       </c>
       <c r="GA2" t="n">
-        <v>468.5167846679688</v>
+        <v>396.1603088378906</v>
       </c>
       <c r="GB2" t="n">
-        <v>461.875244140625</v>
+        <v>396.2648315429688</v>
       </c>
       <c r="GC2" t="n">
-        <v>454.0032348632812</v>
+        <v>396.7852172851562</v>
       </c>
       <c r="GD2" t="n">
-        <v>441.3775939941406</v>
+        <v>401.6342163085938</v>
       </c>
       <c r="GE2" t="n">
-        <v>416.619873046875</v>
+        <v>404.9249267578125</v>
       </c>
       <c r="GF2" t="n">
-        <v>411.2184143066406</v>
+        <v>422.9388122558594</v>
       </c>
       <c r="GG2" t="n">
-        <v>416.6738891601562</v>
+        <v>430.8342895507812</v>
       </c>
       <c r="GH2" t="n">
-        <v>417.5603942871094</v>
+        <v>455.7736511230469</v>
       </c>
       <c r="GI2" t="n">
-        <v>411.4489440917969</v>
+        <v>468.1297302246094</v>
       </c>
       <c r="GJ2" t="n">
-        <v>408.960205078125</v>
+        <v>472.5223388671875</v>
       </c>
       <c r="GK2" t="n">
-        <v>407.6136474609375</v>
+        <v>477.61376953125</v>
       </c>
       <c r="GL2" t="n">
-        <v>409.3798217773438</v>
+        <v>479.8399658203125</v>
       </c>
       <c r="GM2" t="n">
-        <v>411.8346862792969</v>
+        <v>479.4411010742188</v>
       </c>
       <c r="GN2" t="n">
-        <v>412.6752319335938</v>
+        <v>479.1371154785156</v>
       </c>
       <c r="GO2" t="n">
-        <v>407.5758666992188</v>
+        <v>478.2178344726562</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>470.9853515625</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>462.3711547851562</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>451.8548889160156</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>446.201416015625</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>430.9848327636719</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>422.9124145507812</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>406.0015258789062</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>399.4557189941406</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>397.10400390625</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>392.4765625</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>388.5320739746094</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>388.6519775390625</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>387.8056335449219</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>387.7396240234375</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>388.1244506835938</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>386.5967407226562</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>385.6173095703125</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>382.990966796875</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>383.4827270507812</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>383.4216003417969</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>381.6985473632812</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>373.4652099609375</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>371.8750610351562</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>371.7503662109375</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>371.3785400390625</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>372.8221130371094</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>374.5844116210938</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>375.9410095214844</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>377.7188415527344</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>380.1898193359375</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>381.3424072265625</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>381.4290161132812</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>381.6714477539062</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>381.3743286132812</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>380.8507690429688</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>373.3694763183594</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>369.5825805664062</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>366.7939758300781</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>366.3822937011719</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>368.2177124023438</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>371.9806213378906</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>376.010009765625</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>379.8652648925781</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>382.8023071289062</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>376.09033203125</v>
+      </c>
+      <c r="II2" t="n">
+        <v>355.9165954589844</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>321.8976440429688</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>228.5016021728516</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>102.2384719848633</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-6.707479476928711</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-69.51080322265625</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>389.3074951171875</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>348.4989929199219</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>297.9878540039062</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>290.9739685058594</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>306.0946655273438</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>317.3771667480469</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>313.8509826660156</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>346.3594970703125</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>105.1241302490234</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>162.5244140625</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>181.8775787353516</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>177.1801452636719</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>167.0217742919922</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>114.8094024658203</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>125.3332138061523</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>152.8939819335938</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>161.1495361328125</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>153.2677917480469</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>165.8613586425781</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>170.6404266357422</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>162.1167144775391</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>153.8915100097656</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>138.2906341552734</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>133.7602233886719</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>137.2469482421875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>429.3917236328125</v>
       </c>
       <c r="B3" t="n">
-        <v>515.9827270507812</v>
+        <v>431.1796264648438</v>
       </c>
       <c r="C3" t="n">
-        <v>512.2324829101562</v>
+        <v>431.6912231445312</v>
       </c>
       <c r="D3" t="n">
-        <v>510.3963623046875</v>
+        <v>432.2222290039062</v>
       </c>
       <c r="E3" t="n">
-        <v>508.87646484375</v>
+        <v>432.8182678222656</v>
       </c>
       <c r="F3" t="n">
-        <v>507.8983459472656</v>
+        <v>433.2503051757812</v>
       </c>
       <c r="G3" t="n">
-        <v>507.1398315429688</v>
+        <v>433.5174865722656</v>
       </c>
       <c r="H3" t="n">
-        <v>506.567626953125</v>
+        <v>433.6835021972656</v>
       </c>
       <c r="I3" t="n">
-        <v>506.0885314941406</v>
+        <v>433.7454223632812</v>
       </c>
       <c r="J3" t="n">
-        <v>505.6809387207031</v>
+        <v>433.7108764648438</v>
       </c>
       <c r="K3" t="n">
-        <v>505.3451232910156</v>
+        <v>433.6490173339844</v>
       </c>
       <c r="L3" t="n">
-        <v>505.0470581054688</v>
+        <v>433.3418273925781</v>
       </c>
       <c r="M3" t="n">
-        <v>504.7786865234375</v>
+        <v>432.8271179199219</v>
       </c>
       <c r="N3" t="n">
-        <v>504.5404663085938</v>
+        <v>432.3807373046875</v>
       </c>
       <c r="O3" t="n">
-        <v>504.3245239257812</v>
+        <v>430.8921813964844</v>
       </c>
       <c r="P3" t="n">
-        <v>504.1231079101562</v>
+        <v>424.0495910644531</v>
       </c>
       <c r="Q3" t="n">
-        <v>503.9186096191406</v>
+        <v>408.5174560546875</v>
       </c>
       <c r="R3" t="n">
-        <v>520.5508422851562</v>
+        <v>389.2271118164062</v>
       </c>
       <c r="S3" t="n">
-        <v>517.5631103515625</v>
+        <v>374.7316284179688</v>
       </c>
       <c r="T3" t="n">
-        <v>517.9434814453125</v>
+        <v>363.2484741210938</v>
       </c>
       <c r="U3" t="n">
-        <v>517.7678833007812</v>
+        <v>356.1973266601562</v>
       </c>
       <c r="V3" t="n">
-        <v>518.366943359375</v>
+        <v>354.280517578125</v>
       </c>
       <c r="W3" t="n">
-        <v>519.3235473632812</v>
+        <v>349.177978515625</v>
       </c>
       <c r="X3" t="n">
-        <v>519.7319946289062</v>
+        <v>345.6604919433594</v>
       </c>
       <c r="Y3" t="n">
-        <v>519.4637451171875</v>
+        <v>342.8443908691406</v>
       </c>
       <c r="Z3" t="n">
-        <v>519.2110595703125</v>
+        <v>333.1609802246094</v>
       </c>
       <c r="AA3" t="n">
-        <v>518.9014892578125</v>
+        <v>335.4945983886719</v>
       </c>
       <c r="AB3" t="n">
-        <v>518.6070556640625</v>
+        <v>339.4764099121094</v>
       </c>
       <c r="AC3" t="n">
-        <v>518.3017578125</v>
+        <v>344.3283386230469</v>
       </c>
       <c r="AD3" t="n">
-        <v>517.9930419921875</v>
+        <v>351.2970275878906</v>
       </c>
       <c r="AE3" t="n">
-        <v>517.6937255859375</v>
+        <v>357.6729431152344</v>
       </c>
       <c r="AF3" t="n">
-        <v>517.4439697265625</v>
+        <v>361.4114685058594</v>
       </c>
       <c r="AG3" t="n">
-        <v>517.1409301757812</v>
+        <v>360.9326477050781</v>
       </c>
       <c r="AH3" t="n">
-        <v>516.844482421875</v>
+        <v>360.6450500488281</v>
       </c>
       <c r="AI3" t="n">
-        <v>516.5462646484375</v>
+        <v>360.0138244628906</v>
       </c>
       <c r="AJ3" t="n">
-        <v>516.211669921875</v>
+        <v>358.2916564941406</v>
       </c>
       <c r="AK3" t="n">
-        <v>515.8626098632812</v>
+        <v>353.5811157226562</v>
       </c>
       <c r="AL3" t="n">
-        <v>515.1822509765625</v>
+        <v>343.388916015625</v>
       </c>
       <c r="AM3" t="n">
-        <v>514.8023071289062</v>
+        <v>343.9629516601562</v>
       </c>
       <c r="AN3" t="n">
-        <v>514.4505615234375</v>
+        <v>352.0714416503906</v>
       </c>
       <c r="AO3" t="n">
-        <v>514.0426635742188</v>
+        <v>357.8979797363281</v>
       </c>
       <c r="AP3" t="n">
-        <v>513.1800537109375</v>
+        <v>371.9522705078125</v>
       </c>
       <c r="AQ3" t="n">
-        <v>511.2627868652344</v>
+        <v>383.5471801757812</v>
       </c>
       <c r="AR3" t="n">
-        <v>514.0008544921875</v>
+        <v>389.7496337890625</v>
       </c>
       <c r="AS3" t="n">
-        <v>514.9768676757812</v>
+        <v>394.9487915039062</v>
       </c>
       <c r="AT3" t="n">
-        <v>512.366455078125</v>
+        <v>401.94873046875</v>
       </c>
       <c r="AU3" t="n">
-        <v>511.3572692871094</v>
+        <v>406.3256530761719</v>
       </c>
       <c r="AV3" t="n">
-        <v>511.2821350097656</v>
+        <v>409.9680786132812</v>
       </c>
       <c r="AW3" t="n">
-        <v>509.033447265625</v>
+        <v>407.607421875</v>
       </c>
       <c r="AX3" t="n">
-        <v>509.980712890625</v>
+        <v>401.7726745605469</v>
       </c>
       <c r="AY3" t="n">
-        <v>508.1195678710938</v>
+        <v>400.038330078125</v>
       </c>
       <c r="AZ3" t="n">
-        <v>504.1692810058594</v>
+        <v>397.1637878417969</v>
       </c>
       <c r="BA3" t="n">
-        <v>499.5763854980469</v>
+        <v>394.2854309082031</v>
       </c>
       <c r="BB3" t="n">
-        <v>495.5176086425781</v>
+        <v>391.4031372070312</v>
       </c>
       <c r="BC3" t="n">
-        <v>493.3912963867188</v>
+        <v>386.0756530761719</v>
       </c>
       <c r="BD3" t="n">
-        <v>491.9244689941406</v>
+        <v>381.9886474609375</v>
       </c>
       <c r="BE3" t="n">
-        <v>490.8798522949219</v>
+        <v>381.1685485839844</v>
       </c>
       <c r="BF3" t="n">
-        <v>490.2917175292969</v>
+        <v>377.66259765625</v>
       </c>
       <c r="BG3" t="n">
-        <v>490.5572204589844</v>
+        <v>373.9954833984375</v>
       </c>
       <c r="BH3" t="n">
-        <v>489.0059814453125</v>
+        <v>372.8540954589844</v>
       </c>
       <c r="BI3" t="n">
-        <v>488.5567932128906</v>
+        <v>367.7966613769531</v>
       </c>
       <c r="BJ3" t="n">
-        <v>492.2292785644531</v>
+        <v>365.1060791015625</v>
       </c>
       <c r="BK3" t="n">
-        <v>496.61767578125</v>
+        <v>365.6173706054688</v>
       </c>
       <c r="BL3" t="n">
-        <v>497.020751953125</v>
+        <v>366.4086303710938</v>
       </c>
       <c r="BM3" t="n">
-        <v>494.7521667480469</v>
+        <v>366.6369018554688</v>
       </c>
       <c r="BN3" t="n">
-        <v>495.0923461914062</v>
+        <v>364.9205627441406</v>
       </c>
       <c r="BO3" t="n">
-        <v>495.9423522949219</v>
+        <v>364.8316040039062</v>
       </c>
       <c r="BP3" t="n">
-        <v>498.4979553222656</v>
+        <v>363.9111022949219</v>
       </c>
       <c r="BQ3" t="n">
-        <v>498.67041015625</v>
+        <v>358.6315002441406</v>
       </c>
       <c r="BR3" t="n">
-        <v>496.4293823242188</v>
+        <v>360.0541687011719</v>
       </c>
       <c r="BS3" t="n">
-        <v>493.7234191894531</v>
+        <v>355.0659484863281</v>
       </c>
       <c r="BT3" t="n">
-        <v>491.7853393554688</v>
+        <v>352.5660705566406</v>
       </c>
       <c r="BU3" t="n">
-        <v>487.24365234375</v>
+        <v>352.9193115234375</v>
       </c>
       <c r="BV3" t="n">
-        <v>485.4253540039062</v>
+        <v>352.4984741210938</v>
       </c>
       <c r="BW3" t="n">
-        <v>483.5270690917969</v>
+        <v>348.7915649414062</v>
       </c>
       <c r="BX3" t="n">
-        <v>478.4940490722656</v>
+        <v>347.5080871582031</v>
       </c>
       <c r="BY3" t="n">
-        <v>475.4931945800781</v>
+        <v>350.38671875</v>
       </c>
       <c r="BZ3" t="n">
-        <v>471.9656677246094</v>
+        <v>355.7881164550781</v>
       </c>
       <c r="CA3" t="n">
-        <v>470.4836730957031</v>
+        <v>357.1293640136719</v>
       </c>
       <c r="CB3" t="n">
-        <v>465.2264099121094</v>
+        <v>357.6328125</v>
       </c>
       <c r="CC3" t="n">
-        <v>464.1897583007812</v>
+        <v>356.7667236328125</v>
       </c>
       <c r="CD3" t="n">
-        <v>465.9621276855469</v>
+        <v>355.9168090820312</v>
       </c>
       <c r="CE3" t="n">
-        <v>458.1800537109375</v>
+        <v>355.8586730957031</v>
       </c>
       <c r="CF3" t="n">
-        <v>457.411376953125</v>
+        <v>353.794189453125</v>
       </c>
       <c r="CG3" t="n">
-        <v>456.0364990234375</v>
+        <v>353.5123291015625</v>
       </c>
       <c r="CH3" t="n">
-        <v>465.0320739746094</v>
+        <v>352.5447082519531</v>
       </c>
       <c r="CI3" t="n">
-        <v>474.59765625</v>
+        <v>351.5053100585938</v>
       </c>
       <c r="CJ3" t="n">
-        <v>476.1906433105469</v>
+        <v>351.8773193359375</v>
       </c>
       <c r="CK3" t="n">
-        <v>472.16650390625</v>
+        <v>350.8692016601562</v>
       </c>
       <c r="CL3" t="n">
-        <v>467.9061584472656</v>
+        <v>352.2977600097656</v>
       </c>
       <c r="CM3" t="n">
-        <v>456.9996337890625</v>
+        <v>353.4918823242188</v>
       </c>
       <c r="CN3" t="n">
-        <v>449.8115539550781</v>
+        <v>354.4771423339844</v>
       </c>
       <c r="CO3" t="n">
-        <v>447.4201965332031</v>
+        <v>353.3439025878906</v>
       </c>
       <c r="CP3" t="n">
-        <v>459.6375122070312</v>
+        <v>353.6849670410156</v>
       </c>
       <c r="CQ3" t="n">
-        <v>470.2235717773438</v>
+        <v>351.4920654296875</v>
       </c>
       <c r="CR3" t="n">
-        <v>473.0854187011719</v>
+        <v>350.5841369628906</v>
       </c>
       <c r="CS3" t="n">
-        <v>475.6297912597656</v>
+        <v>347.2601623535156</v>
       </c>
       <c r="CT3" t="n">
-        <v>477.0948181152344</v>
+        <v>342.5651550292969</v>
       </c>
       <c r="CU3" t="n">
-        <v>479.885009765625</v>
+        <v>338.3458557128906</v>
       </c>
       <c r="CV3" t="n">
-        <v>478.0624389648438</v>
+        <v>335.2257995605469</v>
       </c>
       <c r="CW3" t="n">
-        <v>481.482177734375</v>
+        <v>333.0899963378906</v>
       </c>
       <c r="CX3" t="n">
-        <v>481.5952453613281</v>
+        <v>323.9013061523438</v>
       </c>
       <c r="CY3" t="n">
-        <v>481.0196533203125</v>
+        <v>312.5806884765625</v>
       </c>
       <c r="CZ3" t="n">
-        <v>482.8539428710938</v>
+        <v>307.1569519042969</v>
       </c>
       <c r="DA3" t="n">
-        <v>482.3372192382812</v>
+        <v>296.9772033691406</v>
       </c>
       <c r="DB3" t="n">
-        <v>483.7168579101562</v>
+        <v>293.347900390625</v>
       </c>
       <c r="DC3" t="n">
-        <v>483.5379943847656</v>
+        <v>287.5180053710938</v>
       </c>
       <c r="DD3" t="n">
-        <v>484.8178405761719</v>
+        <v>280.5996398925781</v>
       </c>
       <c r="DE3" t="n">
-        <v>486.1139526367188</v>
+        <v>277.3020629882812</v>
       </c>
       <c r="DF3" t="n">
-        <v>487.3472290039062</v>
+        <v>271.2243041992188</v>
       </c>
       <c r="DG3" t="n">
-        <v>488.2075805664062</v>
+        <v>265.7239685058594</v>
       </c>
       <c r="DH3" t="n">
-        <v>492.2935180664062</v>
+        <v>257.9448547363281</v>
       </c>
       <c r="DI3" t="n">
-        <v>494.2306213378906</v>
+        <v>256.3924255371094</v>
       </c>
       <c r="DJ3" t="n">
-        <v>494.8075561523438</v>
+        <v>254.3859405517578</v>
       </c>
       <c r="DK3" t="n">
-        <v>493.9891967773438</v>
+        <v>253.2140655517578</v>
       </c>
       <c r="DL3" t="n">
-        <v>493.0565795898438</v>
+        <v>249.9477233886719</v>
       </c>
       <c r="DM3" t="n">
-        <v>492.7254943847656</v>
+        <v>247.0934143066406</v>
       </c>
       <c r="DN3" t="n">
-        <v>487.7611083984375</v>
+        <v>245.5499877929688</v>
       </c>
       <c r="DO3" t="n">
-        <v>481.1669616699219</v>
+        <v>243.0455932617188</v>
       </c>
       <c r="DP3" t="n">
-        <v>484.0212707519531</v>
+        <v>242.4663391113281</v>
       </c>
       <c r="DQ3" t="n">
-        <v>474.9578247070312</v>
+        <v>240.3223266601562</v>
       </c>
       <c r="DR3" t="n">
-        <v>468.0791931152344</v>
+        <v>239.6157073974609</v>
       </c>
       <c r="DS3" t="n">
-        <v>465.7223205566406</v>
+        <v>239.0031433105469</v>
       </c>
       <c r="DT3" t="n">
-        <v>454.8662719726562</v>
+        <v>238.3858489990234</v>
       </c>
       <c r="DU3" t="n">
-        <v>448.8669738769531</v>
+        <v>238.4158172607422</v>
       </c>
       <c r="DV3" t="n">
-        <v>439.5817565917969</v>
+        <v>238.4282379150391</v>
       </c>
       <c r="DW3" t="n">
-        <v>422.3526000976562</v>
+        <v>238.3604888916016</v>
       </c>
       <c r="DX3" t="n">
-        <v>413.7011108398438</v>
+        <v>238.4878387451172</v>
       </c>
       <c r="DY3" t="n">
-        <v>401.6665954589844</v>
+        <v>240.6415863037109</v>
       </c>
       <c r="DZ3" t="n">
-        <v>398.6511840820312</v>
+        <v>256.1806335449219</v>
       </c>
       <c r="EA3" t="n">
-        <v>396.4187622070312</v>
+        <v>263.2639770507812</v>
       </c>
       <c r="EB3" t="n">
-        <v>403.0742492675781</v>
+        <v>270.9375610351562</v>
       </c>
       <c r="EC3" t="n">
-        <v>407.1599731445312</v>
+        <v>285.9656982421875</v>
       </c>
       <c r="ED3" t="n">
-        <v>424.5255432128906</v>
+        <v>292.1420593261719</v>
       </c>
       <c r="EE3" t="n">
-        <v>443.9567260742188</v>
+        <v>306.5249938964844</v>
       </c>
       <c r="EF3" t="n">
-        <v>449.8304748535156</v>
+        <v>318.4560852050781</v>
       </c>
       <c r="EG3" t="n">
-        <v>467.0772705078125</v>
+        <v>323.8773498535156</v>
       </c>
       <c r="EH3" t="n">
-        <v>476.568115234375</v>
+        <v>327.6290283203125</v>
       </c>
       <c r="EI3" t="n">
-        <v>475.3507690429688</v>
+        <v>329.7796936035156</v>
       </c>
       <c r="EJ3" t="n">
-        <v>476.5195617675781</v>
+        <v>346.6207580566406</v>
       </c>
       <c r="EK3" t="n">
-        <v>484.2613830566406</v>
+        <v>329.73388671875</v>
       </c>
       <c r="EL3" t="n">
-        <v>487.0877380371094</v>
+        <v>328.4065246582031</v>
       </c>
       <c r="EM3" t="n">
-        <v>489.9452514648438</v>
+        <v>336.9175109863281</v>
       </c>
       <c r="EN3" t="n">
-        <v>490.4263610839844</v>
+        <v>343.0868225097656</v>
       </c>
       <c r="EO3" t="n">
-        <v>490.0934143066406</v>
+        <v>343.4354553222656</v>
       </c>
       <c r="EP3" t="n">
-        <v>488.2541198730469</v>
+        <v>343.8441467285156</v>
       </c>
       <c r="EQ3" t="n">
-        <v>487.20361328125</v>
+        <v>345.7001037597656</v>
       </c>
       <c r="ER3" t="n">
-        <v>487.2759704589844</v>
+        <v>349.4000549316406</v>
       </c>
       <c r="ES3" t="n">
-        <v>486.5402526855469</v>
+        <v>349.8734436035156</v>
       </c>
       <c r="ET3" t="n">
-        <v>493.4069213867188</v>
+        <v>349.3800964355469</v>
       </c>
       <c r="EU3" t="n">
-        <v>494.8057861328125</v>
+        <v>349.3604125976562</v>
       </c>
       <c r="EV3" t="n">
-        <v>492.3235778808594</v>
+        <v>349.61767578125</v>
       </c>
       <c r="EW3" t="n">
-        <v>488.2719116210938</v>
+        <v>349.6756591796875</v>
       </c>
       <c r="EX3" t="n">
-        <v>481.9109802246094</v>
+        <v>349.7570495605469</v>
       </c>
       <c r="EY3" t="n">
-        <v>477.6233215332031</v>
+        <v>350.3191223144531</v>
       </c>
       <c r="EZ3" t="n">
-        <v>461.4410705566406</v>
+        <v>349.533203125</v>
       </c>
       <c r="FA3" t="n">
-        <v>448.7598266601562</v>
+        <v>348.1132507324219</v>
       </c>
       <c r="FB3" t="n">
-        <v>445.3947448730469</v>
+        <v>347.9715881347656</v>
       </c>
       <c r="FC3" t="n">
-        <v>539.1109008789062</v>
+        <v>347.7722473144531</v>
       </c>
       <c r="FD3" t="n">
-        <v>534.9042358398438</v>
+        <v>347.6706237792969</v>
       </c>
       <c r="FE3" t="n">
-        <v>528.9756469726562</v>
+        <v>347.14404296875</v>
       </c>
       <c r="FF3" t="n">
-        <v>526.8673706054688</v>
+        <v>347.5110778808594</v>
       </c>
       <c r="FG3" t="n">
-        <v>522.2945556640625</v>
+        <v>347.4128723144531</v>
       </c>
       <c r="FH3" t="n">
-        <v>524.7437744140625</v>
+        <v>346.2565612792969</v>
       </c>
       <c r="FI3" t="n">
-        <v>526.405029296875</v>
+        <v>345.8926696777344</v>
       </c>
       <c r="FJ3" t="n">
-        <v>529.4866333007812</v>
+        <v>345.8629760742188</v>
       </c>
       <c r="FK3" t="n">
-        <v>536.6681518554688</v>
+        <v>345.9390258789062</v>
       </c>
       <c r="FL3" t="n">
-        <v>536.262939453125</v>
+        <v>345.9275512695312</v>
       </c>
       <c r="FM3" t="n">
-        <v>533.6179809570312</v>
+        <v>347.2576293945312</v>
       </c>
       <c r="FN3" t="n">
-        <v>534.7018432617188</v>
+        <v>347.1071166992188</v>
       </c>
       <c r="FO3" t="n">
-        <v>533.82763671875</v>
+        <v>347.0934753417969</v>
       </c>
       <c r="FP3" t="n">
-        <v>534.1456298828125</v>
+        <v>347.5397033691406</v>
       </c>
       <c r="FQ3" t="n">
-        <v>532.403564453125</v>
+        <v>346.7406921386719</v>
       </c>
       <c r="FR3" t="n">
-        <v>533.7333374023438</v>
+        <v>346.3521423339844</v>
       </c>
       <c r="FS3" t="n">
-        <v>531.3564453125</v>
+        <v>346.2731628417969</v>
       </c>
       <c r="FT3" t="n">
-        <v>531.2485961914062</v>
+        <v>346.1423034667969</v>
       </c>
       <c r="FU3" t="n">
-        <v>531.0199584960938</v>
+        <v>346.5517883300781</v>
       </c>
       <c r="FV3" t="n">
-        <v>531.5299072265625</v>
+        <v>348.0051879882812</v>
       </c>
       <c r="FW3" t="n">
-        <v>568.6864013671875</v>
+        <v>350.7095642089844</v>
       </c>
       <c r="FX3" t="n">
-        <v>437.5679016113281</v>
+        <v>352.4121704101562</v>
       </c>
       <c r="FY3" t="n">
-        <v>428.9055786132812</v>
+        <v>353.6914978027344</v>
       </c>
       <c r="FZ3" t="n">
-        <v>426.1455993652344</v>
+        <v>353.0240478515625</v>
       </c>
       <c r="GA3" t="n">
-        <v>425.5476989746094</v>
+        <v>351.7535400390625</v>
       </c>
       <c r="GB3" t="n">
-        <v>432.1961059570312</v>
+        <v>351.4238891601562</v>
       </c>
       <c r="GC3" t="n">
-        <v>457.346923828125</v>
+        <v>351.034912109375</v>
       </c>
       <c r="GD3" t="n">
-        <v>484.5827941894531</v>
+        <v>343.421875</v>
       </c>
       <c r="GE3" t="n">
-        <v>445.3520202636719</v>
+        <v>339.4601135253906</v>
       </c>
       <c r="GF3" t="n">
-        <v>433.1041259765625</v>
+        <v>330.8624267578125</v>
       </c>
       <c r="GG3" t="n">
-        <v>423.6781311035156</v>
+        <v>326.8948974609375</v>
       </c>
       <c r="GH3" t="n">
-        <v>433.9477844238281</v>
+        <v>317.5760498046875</v>
       </c>
       <c r="GI3" t="n">
-        <v>429.6465454101562</v>
+        <v>303.2228393554688</v>
       </c>
       <c r="GJ3" t="n">
-        <v>428.4383239746094</v>
+        <v>296.3425903320312</v>
       </c>
       <c r="GK3" t="n">
-        <v>431.8820495605469</v>
+        <v>284.1557006835938</v>
       </c>
       <c r="GL3" t="n">
-        <v>431.7669982910156</v>
+        <v>276.4288024902344</v>
       </c>
       <c r="GM3" t="n">
-        <v>430.5048217773438</v>
+        <v>275.1576843261719</v>
       </c>
       <c r="GN3" t="n">
-        <v>429.2455444335938</v>
+        <v>276.2657470703125</v>
       </c>
       <c r="GO3" t="n">
-        <v>430.6209106445312</v>
+        <v>280.4989318847656</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>295.3962097167969</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>305.3488159179688</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>317.1149291992188</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>321.421630859375</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>330.2737121582031</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>333.5697937011719</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>338.2976989746094</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>344.5309143066406</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>349.638427734375</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>354.6874084472656</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>355.35595703125</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>354.5723266601562</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>353.027099609375</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>354.3465270996094</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>354.9976501464844</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>357.6965026855469</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>359.3111877441406</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>364.8175964355469</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>367.8893432617188</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>368.7321166992188</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>369.3227233886719</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>366.5755310058594</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>366.1077270507812</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>367.8967895507812</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>368.90380859375</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>364.6649780273438</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>363.7976379394531</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>367.8938598632812</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>370.7123718261719</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>376.4618225097656</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>379.7498474121094</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>379.6338195800781</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>379.8707885742188</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>374.3544006347656</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>372.1468811035156</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>371.4179992675781</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>373.4149780273438</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>370.4865417480469</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>364.37451171875</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>365.5223083496094</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>368.1468811035156</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>369.63671875</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>366.7482604980469</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>365.4188537597656</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>368.5379028320312</v>
+      </c>
+      <c r="II3" t="n">
+        <v>366.5739135742188</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>364.2349548339844</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>354.2213134765625</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>439.8911743164062</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>510.8980102539062</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>512.3978881835938</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>682.1909790039062</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>699.905517578125</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>146.4966278076172</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>148.8049621582031</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>160.1900177001953</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>121.8036499023438</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>139.1549530029297</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>391.4414978027344</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>441.6213073730469</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>468.4347839355469</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>523.3908081054688</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>497.2893371582031</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>443.872802734375</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>452.5799865722656</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>461.3428649902344</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>455.3932495117188</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>454.1737060546875</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>465.2702331542969</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>440.9416198730469</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>430.8119812011719</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>437.2019958496094</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>440.7024841308594</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>443.8370361328125</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>445.7422790527344</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>456.6326599121094</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>695.5567626953125</v>
       </c>
       <c r="B4" t="n">
-        <v>1027.819458007812</v>
+        <v>694.6708984375</v>
       </c>
       <c r="C4" t="n">
-        <v>1021.419128417969</v>
+        <v>694.01611328125</v>
       </c>
       <c r="D4" t="n">
-        <v>1021.101806640625</v>
+        <v>693.3761596679688</v>
       </c>
       <c r="E4" t="n">
-        <v>1021.635437011719</v>
+        <v>693.0326538085938</v>
       </c>
       <c r="F4" t="n">
-        <v>1021.750427246094</v>
+        <v>692.8156127929688</v>
       </c>
       <c r="G4" t="n">
-        <v>1021.807495117188</v>
+        <v>692.7112426757812</v>
       </c>
       <c r="H4" t="n">
-        <v>1022.130310058594</v>
+        <v>692.7247924804688</v>
       </c>
       <c r="I4" t="n">
-        <v>1022.422729492188</v>
+        <v>693.0083618164062</v>
       </c>
       <c r="J4" t="n">
-        <v>1022.649841308594</v>
+        <v>693.3433837890625</v>
       </c>
       <c r="K4" t="n">
-        <v>1022.730285644531</v>
+        <v>693.7420654296875</v>
       </c>
       <c r="L4" t="n">
-        <v>1022.806640625</v>
+        <v>694.2220458984375</v>
       </c>
       <c r="M4" t="n">
-        <v>1022.906555175781</v>
+        <v>693.774658203125</v>
       </c>
       <c r="N4" t="n">
-        <v>1022.947570800781</v>
+        <v>692.911865234375</v>
       </c>
       <c r="O4" t="n">
-        <v>1022.987609863281</v>
+        <v>688.3125</v>
       </c>
       <c r="P4" t="n">
-        <v>1023.023864746094</v>
+        <v>675.1891479492188</v>
       </c>
       <c r="Q4" t="n">
-        <v>1023.087219238281</v>
+        <v>657.8452758789062</v>
       </c>
       <c r="R4" t="n">
-        <v>882.3836669921875</v>
+        <v>635.60009765625</v>
       </c>
       <c r="S4" t="n">
-        <v>854.54931640625</v>
+        <v>611.7192993164062</v>
       </c>
       <c r="T4" t="n">
-        <v>855.559814453125</v>
+        <v>583.5606689453125</v>
       </c>
       <c r="U4" t="n">
-        <v>855.1087036132812</v>
+        <v>563.48779296875</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5015869140625</v>
+        <v>544.583984375</v>
       </c>
       <c r="W4" t="n">
-        <v>867.0777587890625</v>
+        <v>525.11328125</v>
       </c>
       <c r="X4" t="n">
-        <v>872.627685546875</v>
+        <v>506.1118469238281</v>
       </c>
       <c r="Y4" t="n">
-        <v>872.8839111328125</v>
+        <v>493.5410766601562</v>
       </c>
       <c r="Z4" t="n">
-        <v>873.41259765625</v>
+        <v>484.3488464355469</v>
       </c>
       <c r="AA4" t="n">
-        <v>873.3818969726562</v>
+        <v>477.3431701660156</v>
       </c>
       <c r="AB4" t="n">
-        <v>873.2454833984375</v>
+        <v>474.2730407714844</v>
       </c>
       <c r="AC4" t="n">
-        <v>873.071044921875</v>
+        <v>470.0537719726562</v>
       </c>
       <c r="AD4" t="n">
-        <v>872.9989013671875</v>
+        <v>457.5172424316406</v>
       </c>
       <c r="AE4" t="n">
-        <v>873.0759887695312</v>
+        <v>435.6905212402344</v>
       </c>
       <c r="AF4" t="n">
-        <v>873.7171630859375</v>
+        <v>425.7572021484375</v>
       </c>
       <c r="AG4" t="n">
-        <v>874.1199340820312</v>
+        <v>423.0127258300781</v>
       </c>
       <c r="AH4" t="n">
-        <v>874.6000366210938</v>
+        <v>421.9619445800781</v>
       </c>
       <c r="AI4" t="n">
-        <v>875.2509155273438</v>
+        <v>421.6177062988281</v>
       </c>
       <c r="AJ4" t="n">
-        <v>875.67333984375</v>
+        <v>424.5017395019531</v>
       </c>
       <c r="AK4" t="n">
-        <v>876.1378784179688</v>
+        <v>436.9707946777344</v>
       </c>
       <c r="AL4" t="n">
-        <v>877.0087280273438</v>
+        <v>474.9953002929688</v>
       </c>
       <c r="AM4" t="n">
-        <v>877.4652099609375</v>
+        <v>506.07666015625</v>
       </c>
       <c r="AN4" t="n">
-        <v>878.113037109375</v>
+        <v>548.3342895507812</v>
       </c>
       <c r="AO4" t="n">
-        <v>878.888427734375</v>
+        <v>585.0391845703125</v>
       </c>
       <c r="AP4" t="n">
-        <v>879.24658203125</v>
+        <v>604.8807373046875</v>
       </c>
       <c r="AQ4" t="n">
-        <v>882.8218383789062</v>
+        <v>635.66943359375</v>
       </c>
       <c r="AR4" t="n">
-        <v>909.7005004882812</v>
+        <v>686.5923461914062</v>
       </c>
       <c r="AS4" t="n">
-        <v>913.3138427734375</v>
+        <v>738.2156982421875</v>
       </c>
       <c r="AT4" t="n">
-        <v>910.3265380859375</v>
+        <v>783.50830078125</v>
       </c>
       <c r="AU4" t="n">
-        <v>897.5841064453125</v>
+        <v>807.15966796875</v>
       </c>
       <c r="AV4" t="n">
-        <v>893.517822265625</v>
+        <v>854.5253295898438</v>
       </c>
       <c r="AW4" t="n">
-        <v>893.6043701171875</v>
+        <v>900.3960571289062</v>
       </c>
       <c r="AX4" t="n">
-        <v>893.0231323242188</v>
+        <v>948.523193359375</v>
       </c>
       <c r="AY4" t="n">
-        <v>896.8475952148438</v>
+        <v>1010.148315429688</v>
       </c>
       <c r="AZ4" t="n">
-        <v>901.86572265625</v>
+        <v>1066.49560546875</v>
       </c>
       <c r="BA4" t="n">
-        <v>907.6276245117188</v>
+        <v>1113.089233398438</v>
       </c>
       <c r="BB4" t="n">
-        <v>914.31494140625</v>
+        <v>1167.5078125</v>
       </c>
       <c r="BC4" t="n">
-        <v>922.862548828125</v>
+        <v>1206.154174804688</v>
       </c>
       <c r="BD4" t="n">
-        <v>934.0535278320312</v>
+        <v>1255.9794921875</v>
       </c>
       <c r="BE4" t="n">
-        <v>938.3199462890625</v>
+        <v>1273.33251953125</v>
       </c>
       <c r="BF4" t="n">
-        <v>941.9606323242188</v>
+        <v>1298.367431640625</v>
       </c>
       <c r="BG4" t="n">
-        <v>944.2459106445312</v>
+        <v>1322.458618164062</v>
       </c>
       <c r="BH4" t="n">
-        <v>946.0842895507812</v>
+        <v>1330.526489257812</v>
       </c>
       <c r="BI4" t="n">
-        <v>946.8472900390625</v>
+        <v>1332.364135742188</v>
       </c>
       <c r="BJ4" t="n">
-        <v>941.91943359375</v>
+        <v>1336.353271484375</v>
       </c>
       <c r="BK4" t="n">
-        <v>934.9925537109375</v>
+        <v>1342.6572265625</v>
       </c>
       <c r="BL4" t="n">
-        <v>932.0413208007812</v>
+        <v>1355.456176757812</v>
       </c>
       <c r="BM4" t="n">
-        <v>915.1844482421875</v>
+        <v>1358.220336914062</v>
       </c>
       <c r="BN4" t="n">
-        <v>917.7449340820312</v>
+        <v>1349.361572265625</v>
       </c>
       <c r="BO4" t="n">
-        <v>918.457763671875</v>
+        <v>1338.636108398438</v>
       </c>
       <c r="BP4" t="n">
-        <v>915.999267578125</v>
+        <v>1334.728149414062</v>
       </c>
       <c r="BQ4" t="n">
-        <v>917.1053466796875</v>
+        <v>1335.102783203125</v>
       </c>
       <c r="BR4" t="n">
-        <v>920.6823120117188</v>
+        <v>1343.204956054688</v>
       </c>
       <c r="BS4" t="n">
-        <v>923.1512451171875</v>
+        <v>1348.803833007812</v>
       </c>
       <c r="BT4" t="n">
-        <v>924.9107666015625</v>
+        <v>1362.869018554688</v>
       </c>
       <c r="BU4" t="n">
-        <v>929.242431640625</v>
+        <v>1392.14697265625</v>
       </c>
       <c r="BV4" t="n">
-        <v>931.1226196289062</v>
+        <v>1419.478881835938</v>
       </c>
       <c r="BW4" t="n">
-        <v>932.920166015625</v>
+        <v>1454.013916015625</v>
       </c>
       <c r="BX4" t="n">
-        <v>936.8042602539062</v>
+        <v>1483.826293945312</v>
       </c>
       <c r="BY4" t="n">
-        <v>939.0601196289062</v>
+        <v>1510.039184570312</v>
       </c>
       <c r="BZ4" t="n">
-        <v>941.6824340820312</v>
+        <v>1551.117309570312</v>
       </c>
       <c r="CA4" t="n">
-        <v>942.5750122070312</v>
+        <v>1594.654663085938</v>
       </c>
       <c r="CB4" t="n">
-        <v>946.1187133789062</v>
+        <v>1638.574829101562</v>
       </c>
       <c r="CC4" t="n">
-        <v>946.160888671875</v>
+        <v>1680.495483398438</v>
       </c>
       <c r="CD4" t="n">
-        <v>944.2674560546875</v>
+        <v>1728.91455078125</v>
       </c>
       <c r="CE4" t="n">
-        <v>952.0969848632812</v>
+        <v>1768.037353515625</v>
       </c>
       <c r="CF4" t="n">
-        <v>956.6052856445312</v>
+        <v>1813.050537109375</v>
       </c>
       <c r="CG4" t="n">
-        <v>965.7008056640625</v>
+        <v>1836.14013671875</v>
       </c>
       <c r="CH4" t="n">
-        <v>961.7649536132812</v>
+        <v>1856.8251953125</v>
       </c>
       <c r="CI4" t="n">
-        <v>953.4110107421875</v>
+        <v>1871.599975585938</v>
       </c>
       <c r="CJ4" t="n">
-        <v>950.1942138671875</v>
+        <v>1891.949096679688</v>
       </c>
       <c r="CK4" t="n">
-        <v>954.2254638671875</v>
+        <v>1898.232666015625</v>
       </c>
       <c r="CL4" t="n">
-        <v>963.4085693359375</v>
+        <v>1909.942993164062</v>
       </c>
       <c r="CM4" t="n">
-        <v>993.1516723632812</v>
+        <v>1911.93408203125</v>
       </c>
       <c r="CN4" t="n">
-        <v>1029.601806640625</v>
+        <v>1902.810180664062</v>
       </c>
       <c r="CO4" t="n">
-        <v>1046.372680664062</v>
+        <v>1890.292846679688</v>
       </c>
       <c r="CP4" t="n">
-        <v>1021.732055664062</v>
+        <v>1874.469482421875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>991.8193359375</v>
+        <v>1850.021484375</v>
       </c>
       <c r="CR4" t="n">
-        <v>989.159912109375</v>
+        <v>1843.2373046875</v>
       </c>
       <c r="CS4" t="n">
-        <v>988.3529663085938</v>
+        <v>1820.95703125</v>
       </c>
       <c r="CT4" t="n">
-        <v>984.4627685546875</v>
+        <v>1802.275634765625</v>
       </c>
       <c r="CU4" t="n">
-        <v>982.25439453125</v>
+        <v>1791.022705078125</v>
       </c>
       <c r="CV4" t="n">
-        <v>989.1124267578125</v>
+        <v>1780.517333984375</v>
       </c>
       <c r="CW4" t="n">
-        <v>989.0494384765625</v>
+        <v>1777.99755859375</v>
       </c>
       <c r="CX4" t="n">
-        <v>989.150146484375</v>
+        <v>1765.497802734375</v>
       </c>
       <c r="CY4" t="n">
-        <v>990.6527099609375</v>
+        <v>1753.565795898438</v>
       </c>
       <c r="CZ4" t="n">
-        <v>988.3856201171875</v>
+        <v>1748.573486328125</v>
       </c>
       <c r="DA4" t="n">
-        <v>987.2052001953125</v>
+        <v>1777.865356445312</v>
       </c>
       <c r="DB4" t="n">
-        <v>986.0142211914062</v>
+        <v>1793.436645507812</v>
       </c>
       <c r="DC4" t="n">
-        <v>987.1593017578125</v>
+        <v>1811.4326171875</v>
       </c>
       <c r="DD4" t="n">
-        <v>987.783447265625</v>
+        <v>1820.898071289062</v>
       </c>
       <c r="DE4" t="n">
-        <v>988.2745361328125</v>
+        <v>1838.955444335938</v>
       </c>
       <c r="DF4" t="n">
-        <v>986.60546875</v>
+        <v>1848.75537109375</v>
       </c>
       <c r="DG4" t="n">
-        <v>984.874755859375</v>
+        <v>1870.326904296875</v>
       </c>
       <c r="DH4" t="n">
-        <v>983.4757690429688</v>
+        <v>1900.913818359375</v>
       </c>
       <c r="DI4" t="n">
-        <v>985.0174560546875</v>
+        <v>1921.881958007812</v>
       </c>
       <c r="DJ4" t="n">
-        <v>992.2544555664062</v>
+        <v>1942.578247070312</v>
       </c>
       <c r="DK4" t="n">
-        <v>998.9506225585938</v>
+        <v>1951.269287109375</v>
       </c>
       <c r="DL4" t="n">
-        <v>1004.004516601562</v>
+        <v>1958.408935546875</v>
       </c>
       <c r="DM4" t="n">
-        <v>1005.808776855469</v>
+        <v>1964.997802734375</v>
       </c>
       <c r="DN4" t="n">
-        <v>1008.51611328125</v>
+        <v>1971.326171875</v>
       </c>
       <c r="DO4" t="n">
-        <v>999.4295654296875</v>
+        <v>1992.138916015625</v>
       </c>
       <c r="DP4" t="n">
-        <v>972.815673828125</v>
+        <v>1990.825317382812</v>
       </c>
       <c r="DQ4" t="n">
-        <v>960.3968505859375</v>
+        <v>2002.607666015625</v>
       </c>
       <c r="DR4" t="n">
-        <v>955.158935546875</v>
+        <v>2015.014404296875</v>
       </c>
       <c r="DS4" t="n">
-        <v>941.9791259765625</v>
+        <v>2014.784423828125</v>
       </c>
       <c r="DT4" t="n">
-        <v>931.6292114257812</v>
+        <v>2016.515869140625</v>
       </c>
       <c r="DU4" t="n">
-        <v>928.7474975585938</v>
+        <v>2016.030151367188</v>
       </c>
       <c r="DV4" t="n">
-        <v>928.1033935546875</v>
+        <v>2015.2373046875</v>
       </c>
       <c r="DW4" t="n">
-        <v>944.8857421875</v>
+        <v>2011.058715820312</v>
       </c>
       <c r="DX4" t="n">
-        <v>958.0227661132812</v>
+        <v>2006.210693359375</v>
       </c>
       <c r="DY4" t="n">
-        <v>980.670166015625</v>
+        <v>1988.61962890625</v>
       </c>
       <c r="DZ4" t="n">
-        <v>988.7589111328125</v>
+        <v>1964.726318359375</v>
       </c>
       <c r="EA4" t="n">
-        <v>989.5579833984375</v>
+        <v>1955.415771484375</v>
       </c>
       <c r="EB4" t="n">
-        <v>994.8189086914062</v>
+        <v>1938.1279296875</v>
       </c>
       <c r="EC4" t="n">
-        <v>1000.539733886719</v>
+        <v>1935.306396484375</v>
       </c>
       <c r="ED4" t="n">
-        <v>1006.7744140625</v>
+        <v>1933.72509765625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1008.327453613281</v>
+        <v>1902.992553710938</v>
       </c>
       <c r="EF4" t="n">
-        <v>1008.669677734375</v>
+        <v>1886.195434570312</v>
       </c>
       <c r="EG4" t="n">
-        <v>1016.542358398438</v>
+        <v>1895.261596679688</v>
       </c>
       <c r="EH4" t="n">
-        <v>1047.770874023438</v>
+        <v>1892.563842773438</v>
       </c>
       <c r="EI4" t="n">
-        <v>1053.949096679688</v>
+        <v>1898.1923828125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1057.114379882812</v>
+        <v>1999.23779296875</v>
       </c>
       <c r="EK4" t="n">
-        <v>1056.921997070312</v>
+        <v>1937.004150390625</v>
       </c>
       <c r="EL4" t="n">
-        <v>1050.296630859375</v>
+        <v>1944.148559570312</v>
       </c>
       <c r="EM4" t="n">
-        <v>1055.102661132812</v>
+        <v>1949.1484375</v>
       </c>
       <c r="EN4" t="n">
-        <v>1057.5361328125</v>
+        <v>1937.875610351562</v>
       </c>
       <c r="EO4" t="n">
-        <v>1059.579467773438</v>
+        <v>1943.051513671875</v>
       </c>
       <c r="EP4" t="n">
-        <v>1062.764282226562</v>
+        <v>1948.61279296875</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1066.711303710938</v>
+        <v>1950.189331054688</v>
       </c>
       <c r="ER4" t="n">
-        <v>1066.450805664062</v>
+        <v>1948.886840820312</v>
       </c>
       <c r="ES4" t="n">
-        <v>1066.982055664062</v>
+        <v>1946.25146484375</v>
       </c>
       <c r="ET4" t="n">
-        <v>1052.395874023438</v>
+        <v>1940.747680664062</v>
       </c>
       <c r="EU4" t="n">
-        <v>1046.78515625</v>
+        <v>1935.162109375</v>
       </c>
       <c r="EV4" t="n">
-        <v>1044.66845703125</v>
+        <v>1933.128295898438</v>
       </c>
       <c r="EW4" t="n">
-        <v>1058.284545898438</v>
+        <v>1929.365234375</v>
       </c>
       <c r="EX4" t="n">
-        <v>1072.308227539062</v>
+        <v>1928.7705078125</v>
       </c>
       <c r="EY4" t="n">
-        <v>1077.108032226562</v>
+        <v>1925.948974609375</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1104.465942382812</v>
+        <v>1926.459228515625</v>
       </c>
       <c r="FA4" t="n">
-        <v>1099.655151367188</v>
+        <v>1924.263671875</v>
       </c>
       <c r="FB4" t="n">
-        <v>1084.487426757812</v>
+        <v>1923.655029296875</v>
       </c>
       <c r="FC4" t="n">
-        <v>1083.148803710938</v>
+        <v>1923.597778320312</v>
       </c>
       <c r="FD4" t="n">
-        <v>1082.606567382812</v>
+        <v>1926.53955078125</v>
       </c>
       <c r="FE4" t="n">
-        <v>1074.444091796875</v>
+        <v>1928.796264648438</v>
       </c>
       <c r="FF4" t="n">
-        <v>1065.151000976562</v>
+        <v>1929.364868164062</v>
       </c>
       <c r="FG4" t="n">
-        <v>1053.189453125</v>
+        <v>1931.303466796875</v>
       </c>
       <c r="FH4" t="n">
-        <v>1033.0966796875</v>
+        <v>1939.144653320312</v>
       </c>
       <c r="FI4" t="n">
-        <v>1020.53125</v>
+        <v>1942.873046875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1010.009338378906</v>
+        <v>1944.467651367188</v>
       </c>
       <c r="FK4" t="n">
-        <v>962.2808837890625</v>
+        <v>1946.66650390625</v>
       </c>
       <c r="FL4" t="n">
-        <v>957.2044677734375</v>
+        <v>1948.184204101562</v>
       </c>
       <c r="FM4" t="n">
-        <v>978.6510009765625</v>
+        <v>1946.446899414062</v>
       </c>
       <c r="FN4" t="n">
-        <v>974.3148803710938</v>
+        <v>1947.779418945312</v>
       </c>
       <c r="FO4" t="n">
-        <v>971.0160522460938</v>
+        <v>1949.844604492188</v>
       </c>
       <c r="FP4" t="n">
-        <v>969.744873046875</v>
+        <v>1946.285400390625</v>
       </c>
       <c r="FQ4" t="n">
-        <v>964.2654418945312</v>
+        <v>1945.810668945312</v>
       </c>
       <c r="FR4" t="n">
-        <v>956.7635498046875</v>
+        <v>1944.864013671875</v>
       </c>
       <c r="FS4" t="n">
-        <v>948.9917602539062</v>
+        <v>1945.079345703125</v>
       </c>
       <c r="FT4" t="n">
-        <v>938.7427368164062</v>
+        <v>1945.512084960938</v>
       </c>
       <c r="FU4" t="n">
-        <v>927.2145385742188</v>
+        <v>1943.947998046875</v>
       </c>
       <c r="FV4" t="n">
-        <v>919.2619018554688</v>
+        <v>1938.764038085938</v>
       </c>
       <c r="FW4" t="n">
-        <v>757.4801635742188</v>
+        <v>1921.295776367188</v>
       </c>
       <c r="FX4" t="n">
-        <v>574.0086059570312</v>
+        <v>1917.28076171875</v>
       </c>
       <c r="FY4" t="n">
-        <v>529.9186401367188</v>
+        <v>1914.260864257812</v>
       </c>
       <c r="FZ4" t="n">
-        <v>506.3681030273438</v>
+        <v>1913.162719726562</v>
       </c>
       <c r="GA4" t="n">
-        <v>452.387939453125</v>
+        <v>1914.428833007812</v>
       </c>
       <c r="GB4" t="n">
-        <v>422.4872436523438</v>
+        <v>1916.558837890625</v>
       </c>
       <c r="GC4" t="n">
-        <v>366.6209716796875</v>
+        <v>1918.25146484375</v>
       </c>
       <c r="GD4" t="n">
-        <v>346.6415405273438</v>
+        <v>1918.424926757812</v>
       </c>
       <c r="GE4" t="n">
-        <v>336.2036743164062</v>
+        <v>1915.722900390625</v>
       </c>
       <c r="GF4" t="n">
-        <v>332.9068908691406</v>
+        <v>1894.750366210938</v>
       </c>
       <c r="GG4" t="n">
-        <v>326.0133056640625</v>
+        <v>1877.227661132812</v>
       </c>
       <c r="GH4" t="n">
-        <v>324.4941101074219</v>
+        <v>1850.222412109375</v>
       </c>
       <c r="GI4" t="n">
-        <v>329.0579833984375</v>
+        <v>1862.98388671875</v>
       </c>
       <c r="GJ4" t="n">
-        <v>331.2378540039062</v>
+        <v>1872.52734375</v>
       </c>
       <c r="GK4" t="n">
-        <v>334.7501831054688</v>
+        <v>1884.97998046875</v>
       </c>
       <c r="GL4" t="n">
-        <v>335.4946594238281</v>
+        <v>1887.203857421875</v>
       </c>
       <c r="GM4" t="n">
-        <v>341.1317138671875</v>
+        <v>1893.150268554688</v>
       </c>
       <c r="GN4" t="n">
-        <v>332.9197998046875</v>
+        <v>1890.741455078125</v>
       </c>
       <c r="GO4" t="n">
-        <v>323.591552734375</v>
+        <v>1889.158813476562</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>1896.855102539062</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>1894.564819335938</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>1877.031005859375</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>1873.307373046875</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>1890.506591796875</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>1895.682983398438</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>1927.61962890625</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>1941.44287109375</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>1939.615966796875</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>1933.23681640625</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1933.543823242188</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>1932.687744140625</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>1927.488037109375</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1901.60888671875</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1881.982543945312</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1818.724365234375</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1794.587036132812</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1732.89013671875</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1690.153442382812</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1620.936767578125</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1583.41748046875</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1521.7431640625</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1456.876098632812</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1400.228515625</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1378.648803710938</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1336.220336914062</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1297.812133789062</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1273.22119140625</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1258.640869140625</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1253.122192382812</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1265.716674804688</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1261.454223632812</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1255.70947265625</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1233.859985351562</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1195.07763671875</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1144.4814453125</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1089.720336914062</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1044.974853515625</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>959.442626953125</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>931.2706909179688</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>877.2100830078125</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>811.2075805664062</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>739.5444946289062</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>661.5983276367188</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>559.1065673828125</v>
+      </c>
+      <c r="II4" t="n">
+        <v>471.53662109375</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>399.4490661621094</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>333.2316589355469</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>246.6067504882812</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>211.0097961425781</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>212.1300354003906</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>542.4772338867188</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>582.4598388671875</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>482.816650390625</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>464.436279296875</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>460.7305908203125</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>518.26416015625</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>538.1841430664062</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>953.1881103515625</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>273.3639221191406</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>278.8908081054688</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>288.6055908203125</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>294.5021362304688</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>303.8451538085938</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>298.8846740722656</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>311.5691528320312</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>331.6931762695312</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>337.5452575683594</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>328.5890502929688</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>334.75</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>342.1193237304688</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>335.9950866699219</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>333.0828247070312</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>323.5255737304688</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>309.5054321289062</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>303.0153198242188</v>
       </c>
     </row>
   </sheetData>

--- a/left_wrist_Data.xlsx
+++ b/left_wrist_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM4"/>
+  <dimension ref="A1:GQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,2690 +1031,1802 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>311.1867065429688</v>
+        <v>572.167724609375</v>
       </c>
       <c r="B2" t="n">
-        <v>310.1315002441406</v>
+        <v>576.5928344726562</v>
       </c>
       <c r="C2" t="n">
-        <v>310.1802978515625</v>
+        <v>580.0776977539062</v>
       </c>
       <c r="D2" t="n">
-        <v>310.2672729492188</v>
+        <v>580.788330078125</v>
       </c>
       <c r="E2" t="n">
-        <v>310.3844604492188</v>
+        <v>578.3345336914062</v>
       </c>
       <c r="F2" t="n">
-        <v>310.3404541015625</v>
+        <v>577.199462890625</v>
       </c>
       <c r="G2" t="n">
-        <v>310.3131713867188</v>
+        <v>575.0475463867188</v>
       </c>
       <c r="H2" t="n">
-        <v>310.2872314453125</v>
+        <v>574.3798828125</v>
       </c>
       <c r="I2" t="n">
-        <v>310.2286987304688</v>
+        <v>574.2420654296875</v>
       </c>
       <c r="J2" t="n">
-        <v>310.1861267089844</v>
+        <v>572.6810913085938</v>
       </c>
       <c r="K2" t="n">
-        <v>310.1546020507812</v>
+        <v>571.4840698242188</v>
       </c>
       <c r="L2" t="n">
-        <v>310.1279296875</v>
+        <v>573.7218017578125</v>
       </c>
       <c r="M2" t="n">
-        <v>309.9781188964844</v>
+        <v>577.8421630859375</v>
       </c>
       <c r="N2" t="n">
-        <v>309.7523498535156</v>
+        <v>558.4213256835938</v>
       </c>
       <c r="O2" t="n">
-        <v>306.281982421875</v>
+        <v>553.7208251953125</v>
       </c>
       <c r="P2" t="n">
-        <v>287.4732666015625</v>
+        <v>543.7443237304688</v>
       </c>
       <c r="Q2" t="n">
-        <v>260.3524780273438</v>
+        <v>531.8033447265625</v>
       </c>
       <c r="R2" t="n">
-        <v>236.7239685058594</v>
+        <v>531.4072875976562</v>
       </c>
       <c r="S2" t="n">
-        <v>213.7558288574219</v>
+        <v>492.1704406738281</v>
       </c>
       <c r="T2" t="n">
-        <v>194.8996124267578</v>
+        <v>478.3497314453125</v>
       </c>
       <c r="U2" t="n">
-        <v>172.6932983398438</v>
+        <v>475.6707763671875</v>
       </c>
       <c r="V2" t="n">
-        <v>146.0666809082031</v>
+        <v>476.010498046875</v>
       </c>
       <c r="W2" t="n">
-        <v>126.9316558837891</v>
+        <v>469.20849609375</v>
       </c>
       <c r="X2" t="n">
-        <v>117.4244842529297</v>
+        <v>454.4591674804688</v>
       </c>
       <c r="Y2" t="n">
-        <v>108.7705307006836</v>
+        <v>446.0404968261719</v>
       </c>
       <c r="Z2" t="n">
-        <v>95.82603454589844</v>
+        <v>441.010498046875</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.32608032226562</v>
+        <v>442.0945739746094</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.90472412109375</v>
+        <v>442.7772216796875</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.98875427246094</v>
+        <v>442.4725646972656</v>
       </c>
       <c r="AD2" t="n">
-        <v>56.60009002685547</v>
+        <v>442.8515014648438</v>
       </c>
       <c r="AE2" t="n">
-        <v>54.12001037597656</v>
+        <v>444.7233581542969</v>
       </c>
       <c r="AF2" t="n">
-        <v>53.91349029541016</v>
+        <v>444.6764831542969</v>
       </c>
       <c r="AG2" t="n">
-        <v>50.59099197387695</v>
+        <v>444.5264282226562</v>
       </c>
       <c r="AH2" t="n">
-        <v>47.94785308837891</v>
+        <v>445.264892578125</v>
       </c>
       <c r="AI2" t="n">
-        <v>47.42509460449219</v>
+        <v>445.9380493164062</v>
       </c>
       <c r="AJ2" t="n">
-        <v>49.23002243041992</v>
+        <v>447.066162109375</v>
       </c>
       <c r="AK2" t="n">
-        <v>57.27662658691406</v>
+        <v>449.72265625</v>
       </c>
       <c r="AL2" t="n">
-        <v>80.174560546875</v>
+        <v>448.1091613769531</v>
       </c>
       <c r="AM2" t="n">
-        <v>105.5367660522461</v>
+        <v>444.6851196289062</v>
       </c>
       <c r="AN2" t="n">
-        <v>135.9221496582031</v>
+        <v>439.1171875</v>
       </c>
       <c r="AO2" t="n">
-        <v>164.7413635253906</v>
+        <v>445.144287109375</v>
       </c>
       <c r="AP2" t="n">
-        <v>208.2458648681641</v>
+        <v>454.2681274414062</v>
       </c>
       <c r="AQ2" t="n">
-        <v>243.3072509765625</v>
+        <v>452.8896484375</v>
       </c>
       <c r="AR2" t="n">
-        <v>268.1079406738281</v>
+        <v>447.8522033691406</v>
       </c>
       <c r="AS2" t="n">
-        <v>290.6207885742188</v>
+        <v>458.619140625</v>
       </c>
       <c r="AT2" t="n">
-        <v>311.3606872558594</v>
+        <v>456.0751342773438</v>
       </c>
       <c r="AU2" t="n">
-        <v>325.8839111328125</v>
+        <v>435.3286437988281</v>
       </c>
       <c r="AV2" t="n">
-        <v>344.6271057128906</v>
+        <v>417.3663635253906</v>
       </c>
       <c r="AW2" t="n">
-        <v>364.0728454589844</v>
+        <v>404.8116455078125</v>
       </c>
       <c r="AX2" t="n">
-        <v>375.0427856445312</v>
+        <v>399.4171447753906</v>
       </c>
       <c r="AY2" t="n">
-        <v>379.8541870117188</v>
+        <v>390.7724609375</v>
       </c>
       <c r="AZ2" t="n">
-        <v>384.9960021972656</v>
+        <v>380.0756225585938</v>
       </c>
       <c r="BA2" t="n">
-        <v>391.6444396972656</v>
+        <v>381.0827331542969</v>
       </c>
       <c r="BB2" t="n">
-        <v>394.99609375</v>
+        <v>378.732421875</v>
       </c>
       <c r="BC2" t="n">
-        <v>398.1588745117188</v>
+        <v>369.8726196289062</v>
       </c>
       <c r="BD2" t="n">
-        <v>400.6768798828125</v>
+        <v>365.1782836914062</v>
       </c>
       <c r="BE2" t="n">
-        <v>398.3941650390625</v>
+        <v>361.6067504882812</v>
       </c>
       <c r="BF2" t="n">
-        <v>398.2709350585938</v>
+        <v>357.8308715820312</v>
       </c>
       <c r="BG2" t="n">
-        <v>398.2745056152344</v>
+        <v>354.831787109375</v>
       </c>
       <c r="BH2" t="n">
-        <v>400.3784790039062</v>
+        <v>349.4305114746094</v>
       </c>
       <c r="BI2" t="n">
-        <v>402.4669799804688</v>
+        <v>344.7251586914062</v>
       </c>
       <c r="BJ2" t="n">
-        <v>403.2189331054688</v>
+        <v>341.3234252929688</v>
       </c>
       <c r="BK2" t="n">
-        <v>404.1616516113281</v>
+        <v>340.2217407226562</v>
       </c>
       <c r="BL2" t="n">
-        <v>402.3284301757812</v>
+        <v>339.7196960449219</v>
       </c>
       <c r="BM2" t="n">
-        <v>401.7442016601562</v>
+        <v>340.7403259277344</v>
       </c>
       <c r="BN2" t="n">
-        <v>402.8576049804688</v>
+        <v>352.2753601074219</v>
       </c>
       <c r="BO2" t="n">
-        <v>403.3666381835938</v>
+        <v>367.734619140625</v>
       </c>
       <c r="BP2" t="n">
-        <v>403.6585083007812</v>
+        <v>381.8483276367188</v>
       </c>
       <c r="BQ2" t="n">
-        <v>403.9698791503906</v>
+        <v>394.0675659179688</v>
       </c>
       <c r="BR2" t="n">
-        <v>404.23388671875</v>
+        <v>403.5687866210938</v>
       </c>
       <c r="BS2" t="n">
-        <v>404.9714660644531</v>
+        <v>409.2434387207031</v>
       </c>
       <c r="BT2" t="n">
-        <v>406.05859375</v>
+        <v>408.8666381835938</v>
       </c>
       <c r="BU2" t="n">
-        <v>407.6513061523438</v>
+        <v>406.0552673339844</v>
       </c>
       <c r="BV2" t="n">
-        <v>409.9655456542969</v>
+        <v>401.3644409179688</v>
       </c>
       <c r="BW2" t="n">
-        <v>413.1200561523438</v>
+        <v>398.1026611328125</v>
       </c>
       <c r="BX2" t="n">
-        <v>414.4278259277344</v>
+        <v>393.6433715820312</v>
       </c>
       <c r="BY2" t="n">
-        <v>417.3898315429688</v>
+        <v>390.1849975585938</v>
       </c>
       <c r="BZ2" t="n">
-        <v>418.9937744140625</v>
+        <v>387.9981079101562</v>
       </c>
       <c r="CA2" t="n">
-        <v>422.3438110351562</v>
+        <v>382.797607421875</v>
       </c>
       <c r="CB2" t="n">
-        <v>422.9739990234375</v>
+        <v>374.3424072265625</v>
       </c>
       <c r="CC2" t="n">
-        <v>423.7584838867188</v>
+        <v>365.2237243652344</v>
       </c>
       <c r="CD2" t="n">
-        <v>425.2664794921875</v>
+        <v>357.0124816894531</v>
       </c>
       <c r="CE2" t="n">
-        <v>425.6043090820312</v>
+        <v>349.6883850097656</v>
       </c>
       <c r="CF2" t="n">
-        <v>427.2718505859375</v>
+        <v>343.9486694335938</v>
       </c>
       <c r="CG2" t="n">
-        <v>429.4110107421875</v>
+        <v>340.1099853515625</v>
       </c>
       <c r="CH2" t="n">
-        <v>429.414306640625</v>
+        <v>333.2341003417969</v>
       </c>
       <c r="CI2" t="n">
-        <v>429.6142272949219</v>
+        <v>327.1855163574219</v>
       </c>
       <c r="CJ2" t="n">
-        <v>428.8029479980469</v>
+        <v>323.7670593261719</v>
       </c>
       <c r="CK2" t="n">
-        <v>428.3948364257812</v>
+        <v>319.3607788085938</v>
       </c>
       <c r="CL2" t="n">
-        <v>428.276611328125</v>
+        <v>316.4317321777344</v>
       </c>
       <c r="CM2" t="n">
-        <v>428.5617065429688</v>
+        <v>315.478271484375</v>
       </c>
       <c r="CN2" t="n">
-        <v>428.948486328125</v>
+        <v>315.6517028808594</v>
       </c>
       <c r="CO2" t="n">
-        <v>428.9669189453125</v>
+        <v>315.9047241210938</v>
       </c>
       <c r="CP2" t="n">
-        <v>429.6544189453125</v>
+        <v>316.2366943359375</v>
       </c>
       <c r="CQ2" t="n">
-        <v>430.0904541015625</v>
+        <v>316.6174926757812</v>
       </c>
       <c r="CR2" t="n">
-        <v>430.2331237792969</v>
+        <v>321.8288879394531</v>
       </c>
       <c r="CS2" t="n">
-        <v>432.2994689941406</v>
+        <v>329.4774780273438</v>
       </c>
       <c r="CT2" t="n">
-        <v>434.9812316894531</v>
+        <v>336.5897216796875</v>
       </c>
       <c r="CU2" t="n">
-        <v>436.7949829101562</v>
+        <v>340.0094604492188</v>
       </c>
       <c r="CV2" t="n">
-        <v>439.4114685058594</v>
+        <v>342.9197998046875</v>
       </c>
       <c r="CW2" t="n">
-        <v>444.2764587402344</v>
+        <v>342.6077270507812</v>
       </c>
       <c r="CX2" t="n">
-        <v>447.6915893554688</v>
+        <v>342.40576171875</v>
       </c>
       <c r="CY2" t="n">
-        <v>450.0621948242188</v>
+        <v>340.9529113769531</v>
       </c>
       <c r="CZ2" t="n">
-        <v>451.784912109375</v>
+        <v>334.9871520996094</v>
       </c>
       <c r="DA2" t="n">
-        <v>461.0435791015625</v>
+        <v>325.365966796875</v>
       </c>
       <c r="DB2" t="n">
-        <v>465.1302795410156</v>
+        <v>314.0653686523438</v>
       </c>
       <c r="DC2" t="n">
-        <v>468.3877563476562</v>
+        <v>305.8465270996094</v>
       </c>
       <c r="DD2" t="n">
-        <v>468.5540161132812</v>
+        <v>301.9976196289062</v>
       </c>
       <c r="DE2" t="n">
-        <v>470.0533447265625</v>
+        <v>303.1841430664062</v>
       </c>
       <c r="DF2" t="n">
-        <v>471.98388671875</v>
+        <v>300.1118774414062</v>
       </c>
       <c r="DG2" t="n">
-        <v>475.1864929199219</v>
+        <v>299.5448913574219</v>
       </c>
       <c r="DH2" t="n">
-        <v>474.8275146484375</v>
+        <v>302.1968994140625</v>
       </c>
       <c r="DI2" t="n">
-        <v>476.0326538085938</v>
+        <v>307.0996704101562</v>
       </c>
       <c r="DJ2" t="n">
-        <v>476.2206726074219</v>
+        <v>315.4921875</v>
       </c>
       <c r="DK2" t="n">
-        <v>477.4420166015625</v>
+        <v>325.745849609375</v>
       </c>
       <c r="DL2" t="n">
-        <v>478.8522338867188</v>
+        <v>348.5197448730469</v>
       </c>
       <c r="DM2" t="n">
-        <v>479.3983459472656</v>
+        <v>364.7012023925781</v>
       </c>
       <c r="DN2" t="n">
-        <v>479.97216796875</v>
+        <v>377.7803344726562</v>
       </c>
       <c r="DO2" t="n">
-        <v>478.6365966796875</v>
+        <v>390.1241455078125</v>
       </c>
       <c r="DP2" t="n">
-        <v>477.319091796875</v>
+        <v>412.1900024414062</v>
       </c>
       <c r="DQ2" t="n">
-        <v>476.8920593261719</v>
+        <v>422.11083984375</v>
       </c>
       <c r="DR2" t="n">
-        <v>477.522216796875</v>
+        <v>431.9119567871094</v>
       </c>
       <c r="DS2" t="n">
-        <v>477.3944702148438</v>
+        <v>453.5849609375</v>
       </c>
       <c r="DT2" t="n">
-        <v>476.9953918457031</v>
+        <v>461.8845825195312</v>
       </c>
       <c r="DU2" t="n">
-        <v>476.9417724609375</v>
+        <v>473.2400512695312</v>
       </c>
       <c r="DV2" t="n">
-        <v>477.0055541992188</v>
+        <v>490.7855834960938</v>
       </c>
       <c r="DW2" t="n">
-        <v>477.1401672363281</v>
+        <v>502.6285400390625</v>
       </c>
       <c r="DX2" t="n">
-        <v>478.4111938476562</v>
+        <v>506.4434204101562</v>
       </c>
       <c r="DY2" t="n">
-        <v>478.4403076171875</v>
+        <v>513.3905639648438</v>
       </c>
       <c r="DZ2" t="n">
-        <v>476.2390747070312</v>
+        <v>518.70947265625</v>
       </c>
       <c r="EA2" t="n">
-        <v>474.1093444824219</v>
+        <v>518.1769409179688</v>
       </c>
       <c r="EB2" t="n">
-        <v>472.03466796875</v>
+        <v>522.1513671875</v>
       </c>
       <c r="EC2" t="n">
-        <v>469.282958984375</v>
+        <v>523.2352905273438</v>
       </c>
       <c r="ED2" t="n">
-        <v>466.2344055175781</v>
+        <v>522.0147094726562</v>
       </c>
       <c r="EE2" t="n">
-        <v>456.0700073242188</v>
+        <v>523.2889404296875</v>
       </c>
       <c r="EF2" t="n">
-        <v>448.2397766113281</v>
+        <v>522.16748046875</v>
       </c>
       <c r="EG2" t="n">
-        <v>439.8196105957031</v>
+        <v>519.085693359375</v>
       </c>
       <c r="EH2" t="n">
-        <v>433.94189453125</v>
+        <v>517.960693359375</v>
       </c>
       <c r="EI2" t="n">
-        <v>427.4471435546875</v>
+        <v>512.6798095703125</v>
       </c>
       <c r="EJ2" t="n">
-        <v>385.9584350585938</v>
+        <v>505.8667602539062</v>
       </c>
       <c r="EK2" t="n">
-        <v>414.2373352050781</v>
+        <v>500.1813049316406</v>
       </c>
       <c r="EL2" t="n">
-        <v>415.2454223632812</v>
+        <v>495.3772583007812</v>
       </c>
       <c r="EM2" t="n">
-        <v>409.7798156738281</v>
+        <v>486.0921020507812</v>
       </c>
       <c r="EN2" t="n">
-        <v>408.5980224609375</v>
+        <v>479.4160461425781</v>
       </c>
       <c r="EO2" t="n">
-        <v>405.6668701171875</v>
+        <v>468.9798583984375</v>
       </c>
       <c r="EP2" t="n">
-        <v>402.63427734375</v>
+        <v>470.4874877929688</v>
       </c>
       <c r="EQ2" t="n">
-        <v>400.7931213378906</v>
+        <v>455.990966796875</v>
       </c>
       <c r="ER2" t="n">
-        <v>397.9949951171875</v>
+        <v>456.7040710449219</v>
       </c>
       <c r="ES2" t="n">
-        <v>397.8660888671875</v>
+        <v>442.3779602050781</v>
       </c>
       <c r="ET2" t="n">
-        <v>397.1900024414062</v>
+        <v>437.0435791015625</v>
       </c>
       <c r="EU2" t="n">
-        <v>397.2908020019531</v>
+        <v>431.0448913574219</v>
       </c>
       <c r="EV2" t="n">
-        <v>396.9759521484375</v>
+        <v>427.6532592773438</v>
       </c>
       <c r="EW2" t="n">
-        <v>396.8537902832031</v>
+        <v>422.7104187011719</v>
       </c>
       <c r="EX2" t="n">
-        <v>397.3512268066406</v>
+        <v>419.981689453125</v>
       </c>
       <c r="EY2" t="n">
-        <v>398.7633972167969</v>
+        <v>419.7741088867188</v>
       </c>
       <c r="EZ2" t="n">
-        <v>400.8110961914062</v>
+        <v>427.0527954101562</v>
       </c>
       <c r="FA2" t="n">
-        <v>402.5662231445312</v>
+        <v>430.8262329101562</v>
       </c>
       <c r="FB2" t="n">
-        <v>402.2219543457031</v>
+        <v>439.349609375</v>
       </c>
       <c r="FC2" t="n">
-        <v>402.2497253417969</v>
+        <v>450.5945129394531</v>
       </c>
       <c r="FD2" t="n">
-        <v>402.1330261230469</v>
+        <v>460.01611328125</v>
       </c>
       <c r="FE2" t="n">
-        <v>402.1968078613281</v>
+        <v>466.9013061523438</v>
       </c>
       <c r="FF2" t="n">
-        <v>402.107177734375</v>
+        <v>471.6040649414062</v>
       </c>
       <c r="FG2" t="n">
-        <v>401.9520874023438</v>
+        <v>473.5386657714844</v>
       </c>
       <c r="FH2" t="n">
-        <v>401.386962890625</v>
+        <v>478.6277465820312</v>
       </c>
       <c r="FI2" t="n">
-        <v>401.0657043457031</v>
+        <v>486.1839599609375</v>
       </c>
       <c r="FJ2" t="n">
-        <v>401.1330871582031</v>
+        <v>531.9461669921875</v>
       </c>
       <c r="FK2" t="n">
-        <v>401.20751953125</v>
+        <v>550.4248046875</v>
       </c>
       <c r="FL2" t="n">
-        <v>401.3761901855469</v>
+        <v>552.0037841796875</v>
       </c>
       <c r="FM2" t="n">
-        <v>402.00146484375</v>
+        <v>551.2037353515625</v>
       </c>
       <c r="FN2" t="n">
-        <v>401.9221801757812</v>
+        <v>549.0552368164062</v>
       </c>
       <c r="FO2" t="n">
-        <v>401.8964233398438</v>
+        <v>559.9403686523438</v>
       </c>
       <c r="FP2" t="n">
-        <v>402.1561889648438</v>
+        <v>520.1707153320312</v>
       </c>
       <c r="FQ2" t="n">
-        <v>402.1642456054688</v>
+        <v>509.7335815429688</v>
       </c>
       <c r="FR2" t="n">
-        <v>402.265380859375</v>
+        <v>496.8305053710938</v>
       </c>
       <c r="FS2" t="n">
-        <v>402.290283203125</v>
+        <v>523.4873046875</v>
       </c>
       <c r="FT2" t="n">
-        <v>402.2554321289062</v>
+        <v>550.8326416015625</v>
       </c>
       <c r="FU2" t="n">
-        <v>402.2894897460938</v>
+        <v>553.0316772460938</v>
       </c>
       <c r="FV2" t="n">
-        <v>402.488525390625</v>
+        <v>544.9967041015625</v>
       </c>
       <c r="FW2" t="n">
-        <v>402.2473754882812</v>
+        <v>544.9173583984375</v>
       </c>
       <c r="FX2" t="n">
-        <v>399.2583923339844</v>
+        <v>547.1527099609375</v>
       </c>
       <c r="FY2" t="n">
-        <v>397.0122680664062</v>
+        <v>555.2672729492188</v>
       </c>
       <c r="FZ2" t="n">
-        <v>396.0284729003906</v>
+        <v>572.3599853515625</v>
       </c>
       <c r="GA2" t="n">
-        <v>396.1603088378906</v>
+        <v>554.4603271484375</v>
       </c>
       <c r="GB2" t="n">
-        <v>396.2648315429688</v>
+        <v>505.4796142578125</v>
       </c>
       <c r="GC2" t="n">
-        <v>396.7852172851562</v>
+        <v>507.0254211425781</v>
       </c>
       <c r="GD2" t="n">
-        <v>401.6342163085938</v>
+        <v>486.5295715332031</v>
       </c>
       <c r="GE2" t="n">
-        <v>404.9249267578125</v>
+        <v>478.1238098144531</v>
       </c>
       <c r="GF2" t="n">
-        <v>422.9388122558594</v>
+        <v>463.8284912109375</v>
       </c>
       <c r="GG2" t="n">
-        <v>430.8342895507812</v>
+        <v>423.8652038574219</v>
       </c>
       <c r="GH2" t="n">
-        <v>455.7736511230469</v>
+        <v>404.9468994140625</v>
       </c>
       <c r="GI2" t="n">
-        <v>468.1297302246094</v>
+        <v>375.2898559570312</v>
       </c>
       <c r="GJ2" t="n">
-        <v>472.5223388671875</v>
+        <v>323.7606811523438</v>
       </c>
       <c r="GK2" t="n">
-        <v>477.61376953125</v>
+        <v>336.6582946777344</v>
       </c>
       <c r="GL2" t="n">
-        <v>479.8399658203125</v>
+        <v>317.4069519042969</v>
       </c>
       <c r="GM2" t="n">
-        <v>479.4411010742188</v>
+        <v>303.0103454589844</v>
       </c>
       <c r="GN2" t="n">
-        <v>479.1371154785156</v>
+        <v>270.6967468261719</v>
       </c>
       <c r="GO2" t="n">
-        <v>478.2178344726562</v>
+        <v>274.7463989257812</v>
       </c>
       <c r="GP2" t="n">
-        <v>470.9853515625</v>
+        <v>278.0471496582031</v>
       </c>
       <c r="GQ2" t="n">
-        <v>462.3711547851562</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>451.8548889160156</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>446.201416015625</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>430.9848327636719</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>422.9124145507812</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>406.0015258789062</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>399.4557189941406</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>397.10400390625</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>392.4765625</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>388.5320739746094</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>388.6519775390625</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>387.8056335449219</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>387.7396240234375</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>388.1244506835938</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>386.5967407226562</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>385.6173095703125</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>382.990966796875</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>383.4827270507812</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>383.4216003417969</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>381.6985473632812</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>373.4652099609375</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>371.8750610351562</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>371.7503662109375</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>371.3785400390625</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>372.8221130371094</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>374.5844116210938</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>375.9410095214844</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>377.7188415527344</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>380.1898193359375</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>381.3424072265625</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>381.4290161132812</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>381.6714477539062</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>381.3743286132812</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>380.8507690429688</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>373.3694763183594</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>369.5825805664062</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>366.7939758300781</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>366.3822937011719</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>368.2177124023438</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>371.9806213378906</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>376.010009765625</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>379.8652648925781</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>382.8023071289062</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>376.09033203125</v>
-      </c>
-      <c r="II2" t="n">
-        <v>355.9165954589844</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>321.8976440429688</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>228.5016021728516</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>102.2384719848633</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>-6.707479476928711</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>-69.51080322265625</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>389.3074951171875</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>348.4989929199219</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>297.9878540039062</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>290.9739685058594</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>306.0946655273438</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>317.3771667480469</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>313.8509826660156</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>346.3594970703125</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>105.1241302490234</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>162.5244140625</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>181.8775787353516</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>177.1801452636719</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>167.0217742919922</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>114.8094024658203</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>125.3332138061523</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>152.8939819335938</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>161.1495361328125</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>153.2677917480469</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>165.8613586425781</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>170.6404266357422</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>162.1167144775391</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>153.8915100097656</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>138.2906341552734</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>133.7602233886719</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>137.2469482421875</v>
+        <v>295.087890625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>429.3917236328125</v>
+        <v>384.5347900390625</v>
       </c>
       <c r="B3" t="n">
-        <v>431.1796264648438</v>
+        <v>389.9511108398438</v>
       </c>
       <c r="C3" t="n">
-        <v>431.6912231445312</v>
+        <v>390.6761169433594</v>
       </c>
       <c r="D3" t="n">
-        <v>432.2222290039062</v>
+        <v>392.2753601074219</v>
       </c>
       <c r="E3" t="n">
-        <v>432.8182678222656</v>
+        <v>396.1590270996094</v>
       </c>
       <c r="F3" t="n">
-        <v>433.2503051757812</v>
+        <v>397.9883728027344</v>
       </c>
       <c r="G3" t="n">
-        <v>433.5174865722656</v>
+        <v>398.0826416015625</v>
       </c>
       <c r="H3" t="n">
-        <v>433.6835021972656</v>
+        <v>398.6646118164062</v>
       </c>
       <c r="I3" t="n">
-        <v>433.7454223632812</v>
+        <v>397.2302856445312</v>
       </c>
       <c r="J3" t="n">
-        <v>433.7108764648438</v>
+        <v>393.6806945800781</v>
       </c>
       <c r="K3" t="n">
-        <v>433.6490173339844</v>
+        <v>390.9950256347656</v>
       </c>
       <c r="L3" t="n">
-        <v>433.3418273925781</v>
+        <v>384.2268981933594</v>
       </c>
       <c r="M3" t="n">
-        <v>432.8271179199219</v>
+        <v>373.4554443359375</v>
       </c>
       <c r="N3" t="n">
-        <v>432.3807373046875</v>
+        <v>370.4993286132812</v>
       </c>
       <c r="O3" t="n">
-        <v>430.8921813964844</v>
+        <v>355.1742858886719</v>
       </c>
       <c r="P3" t="n">
-        <v>424.0495910644531</v>
+        <v>345.9772644042969</v>
       </c>
       <c r="Q3" t="n">
-        <v>408.5174560546875</v>
+        <v>343.6955261230469</v>
       </c>
       <c r="R3" t="n">
-        <v>389.2271118164062</v>
+        <v>334.1997680664062</v>
       </c>
       <c r="S3" t="n">
-        <v>374.7316284179688</v>
+        <v>342.7099914550781</v>
       </c>
       <c r="T3" t="n">
-        <v>363.2484741210938</v>
+        <v>335.3088684082031</v>
       </c>
       <c r="U3" t="n">
-        <v>356.1973266601562</v>
+        <v>328.2606506347656</v>
       </c>
       <c r="V3" t="n">
-        <v>354.280517578125</v>
+        <v>323.8087158203125</v>
       </c>
       <c r="W3" t="n">
-        <v>349.177978515625</v>
+        <v>321.3085021972656</v>
       </c>
       <c r="X3" t="n">
-        <v>345.6604919433594</v>
+        <v>318.4630737304688</v>
       </c>
       <c r="Y3" t="n">
-        <v>342.8443908691406</v>
+        <v>314.1695251464844</v>
       </c>
       <c r="Z3" t="n">
-        <v>333.1609802246094</v>
+        <v>305.0220031738281</v>
       </c>
       <c r="AA3" t="n">
-        <v>335.4945983886719</v>
+        <v>295.500732421875</v>
       </c>
       <c r="AB3" t="n">
-        <v>339.4764099121094</v>
+        <v>281.1936950683594</v>
       </c>
       <c r="AC3" t="n">
-        <v>344.3283386230469</v>
+        <v>274.3136596679688</v>
       </c>
       <c r="AD3" t="n">
-        <v>351.2970275878906</v>
+        <v>272.8495178222656</v>
       </c>
       <c r="AE3" t="n">
-        <v>357.6729431152344</v>
+        <v>270.7232666015625</v>
       </c>
       <c r="AF3" t="n">
-        <v>361.4114685058594</v>
+        <v>268.0751342773438</v>
       </c>
       <c r="AG3" t="n">
-        <v>360.9326477050781</v>
+        <v>266.9328918457031</v>
       </c>
       <c r="AH3" t="n">
-        <v>360.6450500488281</v>
+        <v>267.0382995605469</v>
       </c>
       <c r="AI3" t="n">
-        <v>360.0138244628906</v>
+        <v>268.3818054199219</v>
       </c>
       <c r="AJ3" t="n">
-        <v>358.2916564941406</v>
+        <v>268.3414306640625</v>
       </c>
       <c r="AK3" t="n">
-        <v>353.5811157226562</v>
+        <v>268.947021484375</v>
       </c>
       <c r="AL3" t="n">
-        <v>343.388916015625</v>
+        <v>269.4136962890625</v>
       </c>
       <c r="AM3" t="n">
-        <v>343.9629516601562</v>
+        <v>271.1544799804688</v>
       </c>
       <c r="AN3" t="n">
-        <v>352.0714416503906</v>
+        <v>273.9674072265625</v>
       </c>
       <c r="AO3" t="n">
-        <v>357.8979797363281</v>
+        <v>283.2575988769531</v>
       </c>
       <c r="AP3" t="n">
-        <v>371.9522705078125</v>
+        <v>291.4455261230469</v>
       </c>
       <c r="AQ3" t="n">
-        <v>383.5471801757812</v>
+        <v>303.811279296875</v>
       </c>
       <c r="AR3" t="n">
-        <v>389.7496337890625</v>
+        <v>310.8608093261719</v>
       </c>
       <c r="AS3" t="n">
-        <v>394.9487915039062</v>
+        <v>317.1777038574219</v>
       </c>
       <c r="AT3" t="n">
-        <v>401.94873046875</v>
+        <v>318.916015625</v>
       </c>
       <c r="AU3" t="n">
-        <v>406.3256530761719</v>
+        <v>317.5965881347656</v>
       </c>
       <c r="AV3" t="n">
-        <v>409.9680786132812</v>
+        <v>315.8514709472656</v>
       </c>
       <c r="AW3" t="n">
-        <v>407.607421875</v>
+        <v>318.8116149902344</v>
       </c>
       <c r="AX3" t="n">
-        <v>401.7726745605469</v>
+        <v>319.2662658691406</v>
       </c>
       <c r="AY3" t="n">
-        <v>400.038330078125</v>
+        <v>320.8333740234375</v>
       </c>
       <c r="AZ3" t="n">
-        <v>397.1637878417969</v>
+        <v>320.7140197753906</v>
       </c>
       <c r="BA3" t="n">
-        <v>394.2854309082031</v>
+        <v>320.6536560058594</v>
       </c>
       <c r="BB3" t="n">
-        <v>391.4031372070312</v>
+        <v>323.6989440917969</v>
       </c>
       <c r="BC3" t="n">
-        <v>386.0756530761719</v>
+        <v>327.4720458984375</v>
       </c>
       <c r="BD3" t="n">
-        <v>381.9886474609375</v>
+        <v>328.9607849121094</v>
       </c>
       <c r="BE3" t="n">
-        <v>381.1685485839844</v>
+        <v>328.6029357910156</v>
       </c>
       <c r="BF3" t="n">
-        <v>377.66259765625</v>
+        <v>326.9886474609375</v>
       </c>
       <c r="BG3" t="n">
-        <v>373.9954833984375</v>
+        <v>325.9560546875</v>
       </c>
       <c r="BH3" t="n">
-        <v>372.8540954589844</v>
+        <v>326.0523986816406</v>
       </c>
       <c r="BI3" t="n">
-        <v>367.7966613769531</v>
+        <v>324.3533020019531</v>
       </c>
       <c r="BJ3" t="n">
-        <v>365.1060791015625</v>
+        <v>324.3564758300781</v>
       </c>
       <c r="BK3" t="n">
-        <v>365.6173706054688</v>
+        <v>324.3871765136719</v>
       </c>
       <c r="BL3" t="n">
-        <v>366.4086303710938</v>
+        <v>322.6060485839844</v>
       </c>
       <c r="BM3" t="n">
-        <v>366.6369018554688</v>
+        <v>320.125</v>
       </c>
       <c r="BN3" t="n">
-        <v>364.9205627441406</v>
+        <v>312.9366149902344</v>
       </c>
       <c r="BO3" t="n">
-        <v>364.8316040039062</v>
+        <v>299.94091796875</v>
       </c>
       <c r="BP3" t="n">
-        <v>363.9111022949219</v>
+        <v>289.2471923828125</v>
       </c>
       <c r="BQ3" t="n">
-        <v>358.6315002441406</v>
+        <v>274.5451965332031</v>
       </c>
       <c r="BR3" t="n">
-        <v>360.0541687011719</v>
+        <v>259.2541198730469</v>
       </c>
       <c r="BS3" t="n">
-        <v>355.0659484863281</v>
+        <v>239.1516723632812</v>
       </c>
       <c r="BT3" t="n">
-        <v>352.5660705566406</v>
+        <v>220.2765655517578</v>
       </c>
       <c r="BU3" t="n">
-        <v>352.9193115234375</v>
+        <v>202.9562683105469</v>
       </c>
       <c r="BV3" t="n">
-        <v>352.4984741210938</v>
+        <v>191.0474853515625</v>
       </c>
       <c r="BW3" t="n">
-        <v>348.7915649414062</v>
+        <v>184.4396820068359</v>
       </c>
       <c r="BX3" t="n">
-        <v>347.5080871582031</v>
+        <v>185.1611633300781</v>
       </c>
       <c r="BY3" t="n">
-        <v>350.38671875</v>
+        <v>187.8993225097656</v>
       </c>
       <c r="BZ3" t="n">
-        <v>355.7881164550781</v>
+        <v>196.8343353271484</v>
       </c>
       <c r="CA3" t="n">
-        <v>357.1293640136719</v>
+        <v>211.6045074462891</v>
       </c>
       <c r="CB3" t="n">
-        <v>357.6328125</v>
+        <v>230.8352355957031</v>
       </c>
       <c r="CC3" t="n">
-        <v>356.7667236328125</v>
+        <v>243.3758392333984</v>
       </c>
       <c r="CD3" t="n">
-        <v>355.9168090820312</v>
+        <v>259.1103820800781</v>
       </c>
       <c r="CE3" t="n">
-        <v>355.8586730957031</v>
+        <v>273.2449035644531</v>
       </c>
       <c r="CF3" t="n">
-        <v>353.794189453125</v>
+        <v>285.6599426269531</v>
       </c>
       <c r="CG3" t="n">
-        <v>353.5123291015625</v>
+        <v>299.2190551757812</v>
       </c>
       <c r="CH3" t="n">
-        <v>352.5447082519531</v>
+        <v>310.1882019042969</v>
       </c>
       <c r="CI3" t="n">
-        <v>351.5053100585938</v>
+        <v>319.068603515625</v>
       </c>
       <c r="CJ3" t="n">
-        <v>351.8773193359375</v>
+        <v>324.6070861816406</v>
       </c>
       <c r="CK3" t="n">
-        <v>350.8692016601562</v>
+        <v>328.2630004882812</v>
       </c>
       <c r="CL3" t="n">
-        <v>352.2977600097656</v>
+        <v>330.6703796386719</v>
       </c>
       <c r="CM3" t="n">
-        <v>353.4918823242188</v>
+        <v>331.806884765625</v>
       </c>
       <c r="CN3" t="n">
-        <v>354.4771423339844</v>
+        <v>332.4417114257812</v>
       </c>
       <c r="CO3" t="n">
-        <v>353.3439025878906</v>
+        <v>332.8319702148438</v>
       </c>
       <c r="CP3" t="n">
-        <v>353.6849670410156</v>
+        <v>334.468994140625</v>
       </c>
       <c r="CQ3" t="n">
-        <v>351.4920654296875</v>
+        <v>334.0109252929688</v>
       </c>
       <c r="CR3" t="n">
-        <v>350.5841369628906</v>
+        <v>331.1986694335938</v>
       </c>
       <c r="CS3" t="n">
-        <v>347.2601623535156</v>
+        <v>327.581298828125</v>
       </c>
       <c r="CT3" t="n">
-        <v>342.5651550292969</v>
+        <v>315.5453186035156</v>
       </c>
       <c r="CU3" t="n">
-        <v>338.3458557128906</v>
+        <v>303.4800720214844</v>
       </c>
       <c r="CV3" t="n">
-        <v>335.2257995605469</v>
+        <v>291.5634155273438</v>
       </c>
       <c r="CW3" t="n">
-        <v>333.0899963378906</v>
+        <v>278.8404541015625</v>
       </c>
       <c r="CX3" t="n">
-        <v>323.9013061523438</v>
+        <v>268.7286071777344</v>
       </c>
       <c r="CY3" t="n">
-        <v>312.5806884765625</v>
+        <v>257.6438598632812</v>
       </c>
       <c r="CZ3" t="n">
-        <v>307.1569519042969</v>
+        <v>248.1096496582031</v>
       </c>
       <c r="DA3" t="n">
-        <v>296.9772033691406</v>
+        <v>237.0891418457031</v>
       </c>
       <c r="DB3" t="n">
-        <v>293.347900390625</v>
+        <v>226.6466369628906</v>
       </c>
       <c r="DC3" t="n">
-        <v>287.5180053710938</v>
+        <v>221.7779693603516</v>
       </c>
       <c r="DD3" t="n">
-        <v>280.5996398925781</v>
+        <v>226.9071807861328</v>
       </c>
       <c r="DE3" t="n">
-        <v>277.3020629882812</v>
+        <v>233.1095428466797</v>
       </c>
       <c r="DF3" t="n">
-        <v>271.2243041992188</v>
+        <v>239.8783111572266</v>
       </c>
       <c r="DG3" t="n">
-        <v>265.7239685058594</v>
+        <v>248.8416137695312</v>
       </c>
       <c r="DH3" t="n">
-        <v>257.9448547363281</v>
+        <v>260.3638305664062</v>
       </c>
       <c r="DI3" t="n">
-        <v>256.3924255371094</v>
+        <v>272.586181640625</v>
       </c>
       <c r="DJ3" t="n">
-        <v>254.3859405517578</v>
+        <v>283.2801208496094</v>
       </c>
       <c r="DK3" t="n">
-        <v>253.2140655517578</v>
+        <v>300.8911743164062</v>
       </c>
       <c r="DL3" t="n">
-        <v>249.9477233886719</v>
+        <v>328.7884521484375</v>
       </c>
       <c r="DM3" t="n">
-        <v>247.0934143066406</v>
+        <v>334.5094604492188</v>
       </c>
       <c r="DN3" t="n">
-        <v>245.5499877929688</v>
+        <v>342.5952453613281</v>
       </c>
       <c r="DO3" t="n">
-        <v>243.0455932617188</v>
+        <v>347.8436279296875</v>
       </c>
       <c r="DP3" t="n">
-        <v>242.4663391113281</v>
+        <v>347.643310546875</v>
       </c>
       <c r="DQ3" t="n">
-        <v>240.3223266601562</v>
+        <v>345.4267883300781</v>
       </c>
       <c r="DR3" t="n">
-        <v>239.6157073974609</v>
+        <v>343.3294677734375</v>
       </c>
       <c r="DS3" t="n">
-        <v>239.0031433105469</v>
+        <v>341.0508422851562</v>
       </c>
       <c r="DT3" t="n">
-        <v>238.3858489990234</v>
+        <v>340.4005737304688</v>
       </c>
       <c r="DU3" t="n">
-        <v>238.4158172607422</v>
+        <v>339.951904296875</v>
       </c>
       <c r="DV3" t="n">
-        <v>238.4282379150391</v>
+        <v>339.158935546875</v>
       </c>
       <c r="DW3" t="n">
-        <v>238.3604888916016</v>
+        <v>334.2160339355469</v>
       </c>
       <c r="DX3" t="n">
-        <v>238.4878387451172</v>
+        <v>331.2953491210938</v>
       </c>
       <c r="DY3" t="n">
-        <v>240.6415863037109</v>
+        <v>329.2106323242188</v>
       </c>
       <c r="DZ3" t="n">
-        <v>256.1806335449219</v>
+        <v>332.4899597167969</v>
       </c>
       <c r="EA3" t="n">
-        <v>263.2639770507812</v>
+        <v>334.5782775878906</v>
       </c>
       <c r="EB3" t="n">
-        <v>270.9375610351562</v>
+        <v>336.9337768554688</v>
       </c>
       <c r="EC3" t="n">
-        <v>285.9656982421875</v>
+        <v>337.6707458496094</v>
       </c>
       <c r="ED3" t="n">
-        <v>292.1420593261719</v>
+        <v>340.0218505859375</v>
       </c>
       <c r="EE3" t="n">
-        <v>306.5249938964844</v>
+        <v>340.85498046875</v>
       </c>
       <c r="EF3" t="n">
-        <v>318.4560852050781</v>
+        <v>342.5386047363281</v>
       </c>
       <c r="EG3" t="n">
-        <v>323.8773498535156</v>
+        <v>347.9212341308594</v>
       </c>
       <c r="EH3" t="n">
-        <v>327.6290283203125</v>
+        <v>353.32177734375</v>
       </c>
       <c r="EI3" t="n">
-        <v>329.7796936035156</v>
+        <v>355.2181091308594</v>
       </c>
       <c r="EJ3" t="n">
-        <v>346.6207580566406</v>
+        <v>355.1201782226562</v>
       </c>
       <c r="EK3" t="n">
-        <v>329.73388671875</v>
+        <v>359.1856079101562</v>
       </c>
       <c r="EL3" t="n">
-        <v>328.4065246582031</v>
+        <v>362.7215576171875</v>
       </c>
       <c r="EM3" t="n">
-        <v>336.9175109863281</v>
+        <v>358.1965637207031</v>
       </c>
       <c r="EN3" t="n">
-        <v>343.0868225097656</v>
+        <v>357.2086791992188</v>
       </c>
       <c r="EO3" t="n">
-        <v>343.4354553222656</v>
+        <v>356.9396667480469</v>
       </c>
       <c r="EP3" t="n">
-        <v>343.8441467285156</v>
+        <v>358.2704772949219</v>
       </c>
       <c r="EQ3" t="n">
-        <v>345.7001037597656</v>
+        <v>356.1318359375</v>
       </c>
       <c r="ER3" t="n">
-        <v>349.4000549316406</v>
+        <v>359.5975341796875</v>
       </c>
       <c r="ES3" t="n">
-        <v>349.8734436035156</v>
+        <v>357.4264221191406</v>
       </c>
       <c r="ET3" t="n">
-        <v>349.3800964355469</v>
+        <v>361.3509216308594</v>
       </c>
       <c r="EU3" t="n">
-        <v>349.3604125976562</v>
+        <v>368.1763305664062</v>
       </c>
       <c r="EV3" t="n">
-        <v>349.61767578125</v>
+        <v>373.6364440917969</v>
       </c>
       <c r="EW3" t="n">
-        <v>349.6756591796875</v>
+        <v>381.8157348632812</v>
       </c>
       <c r="EX3" t="n">
-        <v>349.7570495605469</v>
+        <v>382.5408020019531</v>
       </c>
       <c r="EY3" t="n">
-        <v>350.3191223144531</v>
+        <v>391.9151000976562</v>
       </c>
       <c r="EZ3" t="n">
-        <v>349.533203125</v>
+        <v>398.1813659667969</v>
       </c>
       <c r="FA3" t="n">
-        <v>348.1132507324219</v>
+        <v>403.2654724121094</v>
       </c>
       <c r="FB3" t="n">
-        <v>347.9715881347656</v>
+        <v>408.28857421875</v>
       </c>
       <c r="FC3" t="n">
-        <v>347.7722473144531</v>
+        <v>417.9048767089844</v>
       </c>
       <c r="FD3" t="n">
-        <v>347.6706237792969</v>
+        <v>427.1941223144531</v>
       </c>
       <c r="FE3" t="n">
-        <v>347.14404296875</v>
+        <v>435.4661254882812</v>
       </c>
       <c r="FF3" t="n">
-        <v>347.5110778808594</v>
+        <v>446.4696655273438</v>
       </c>
       <c r="FG3" t="n">
-        <v>347.4128723144531</v>
+        <v>454.6042175292969</v>
       </c>
       <c r="FH3" t="n">
-        <v>346.2565612792969</v>
+        <v>463.41650390625</v>
       </c>
       <c r="FI3" t="n">
-        <v>345.8926696777344</v>
+        <v>463.062255859375</v>
       </c>
       <c r="FJ3" t="n">
-        <v>345.8629760742188</v>
+        <v>477.6515502929688</v>
       </c>
       <c r="FK3" t="n">
-        <v>345.9390258789062</v>
+        <v>486.6138916015625</v>
       </c>
       <c r="FL3" t="n">
-        <v>345.9275512695312</v>
+        <v>489.1197509765625</v>
       </c>
       <c r="FM3" t="n">
-        <v>347.2576293945312</v>
+        <v>483.3905944824219</v>
       </c>
       <c r="FN3" t="n">
-        <v>347.1071166992188</v>
+        <v>482.3861389160156</v>
       </c>
       <c r="FO3" t="n">
-        <v>347.0934753417969</v>
+        <v>472.2962341308594</v>
       </c>
       <c r="FP3" t="n">
-        <v>347.5397033691406</v>
+        <v>442.2720031738281</v>
       </c>
       <c r="FQ3" t="n">
-        <v>346.7406921386719</v>
+        <v>372.6974182128906</v>
       </c>
       <c r="FR3" t="n">
-        <v>346.3521423339844</v>
+        <v>449.0007934570312</v>
       </c>
       <c r="FS3" t="n">
-        <v>346.2731628417969</v>
+        <v>463.159423828125</v>
       </c>
       <c r="FT3" t="n">
-        <v>346.1423034667969</v>
+        <v>457.1967163085938</v>
       </c>
       <c r="FU3" t="n">
-        <v>346.5517883300781</v>
+        <v>485.0528564453125</v>
       </c>
       <c r="FV3" t="n">
-        <v>348.0051879882812</v>
+        <v>497.0000915527344</v>
       </c>
       <c r="FW3" t="n">
-        <v>350.7095642089844</v>
+        <v>499.3974609375</v>
       </c>
       <c r="FX3" t="n">
-        <v>352.4121704101562</v>
+        <v>494.6179809570312</v>
       </c>
       <c r="FY3" t="n">
-        <v>353.6914978027344</v>
+        <v>487.5753173828125</v>
       </c>
       <c r="FZ3" t="n">
-        <v>353.0240478515625</v>
+        <v>461.109619140625</v>
       </c>
       <c r="GA3" t="n">
-        <v>351.7535400390625</v>
+        <v>417.1445922851562</v>
       </c>
       <c r="GB3" t="n">
-        <v>351.4238891601562</v>
+        <v>399.8880615234375</v>
       </c>
       <c r="GC3" t="n">
-        <v>351.034912109375</v>
+        <v>405.9438781738281</v>
       </c>
       <c r="GD3" t="n">
-        <v>343.421875</v>
+        <v>392.8463134765625</v>
       </c>
       <c r="GE3" t="n">
-        <v>339.4601135253906</v>
+        <v>397.9212646484375</v>
       </c>
       <c r="GF3" t="n">
-        <v>330.8624267578125</v>
+        <v>402.6363830566406</v>
       </c>
       <c r="GG3" t="n">
-        <v>326.8948974609375</v>
+        <v>405.8428955078125</v>
       </c>
       <c r="GH3" t="n">
-        <v>317.5760498046875</v>
+        <v>409.0241394042969</v>
       </c>
       <c r="GI3" t="n">
-        <v>303.2228393554688</v>
+        <v>432.3409729003906</v>
       </c>
       <c r="GJ3" t="n">
-        <v>296.3425903320312</v>
+        <v>435.7219848632812</v>
       </c>
       <c r="GK3" t="n">
-        <v>284.1557006835938</v>
+        <v>446.1391296386719</v>
       </c>
       <c r="GL3" t="n">
-        <v>276.4288024902344</v>
+        <v>448.4805908203125</v>
       </c>
       <c r="GM3" t="n">
-        <v>275.1576843261719</v>
+        <v>449.0444946289062</v>
       </c>
       <c r="GN3" t="n">
-        <v>276.2657470703125</v>
+        <v>442.4080200195312</v>
       </c>
       <c r="GO3" t="n">
-        <v>280.4989318847656</v>
+        <v>442.8534851074219</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.3962097167969</v>
+        <v>448.6187744140625</v>
       </c>
       <c r="GQ3" t="n">
-        <v>305.3488159179688</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>317.1149291992188</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>321.421630859375</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>330.2737121582031</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>333.5697937011719</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>338.2976989746094</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>344.5309143066406</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>349.638427734375</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>354.6874084472656</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>355.35595703125</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>354.5723266601562</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>353.027099609375</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>354.3465270996094</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>354.9976501464844</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>357.6965026855469</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>359.3111877441406</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>364.8175964355469</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>367.8893432617188</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>368.7321166992188</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>369.3227233886719</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>366.5755310058594</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>366.1077270507812</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>367.8967895507812</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>368.90380859375</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>364.6649780273438</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>363.7976379394531</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>367.8938598632812</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>370.7123718261719</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>376.4618225097656</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>379.7498474121094</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>379.6338195800781</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>379.8707885742188</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>374.3544006347656</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>372.1468811035156</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>371.4179992675781</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>373.4149780273438</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>370.4865417480469</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>364.37451171875</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>365.5223083496094</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>368.1468811035156</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>369.63671875</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>366.7482604980469</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>365.4188537597656</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>368.5379028320312</v>
-      </c>
-      <c r="II3" t="n">
-        <v>366.5739135742188</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>364.2349548339844</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>354.2213134765625</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>439.8911743164062</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>510.8980102539062</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>512.3978881835938</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>682.1909790039062</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>699.905517578125</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>146.4966278076172</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>148.8049621582031</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>160.1900177001953</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>121.8036499023438</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>139.1549530029297</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>391.4414978027344</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>441.6213073730469</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>468.4347839355469</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>523.3908081054688</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>497.2893371582031</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>443.872802734375</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>452.5799865722656</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>461.3428649902344</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>455.3932495117188</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>454.1737060546875</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>465.2702331542969</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>440.9416198730469</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>430.8119812011719</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>437.2019958496094</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>440.7024841308594</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>443.8370361328125</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>445.7422790527344</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>456.6326599121094</v>
+        <v>451.613037109375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>695.5567626953125</v>
+        <v>1035.271728515625</v>
       </c>
       <c r="B4" t="n">
-        <v>694.6708984375</v>
+        <v>1023.347778320312</v>
       </c>
       <c r="C4" t="n">
-        <v>694.01611328125</v>
+        <v>1020.721069335938</v>
       </c>
       <c r="D4" t="n">
-        <v>693.3761596679688</v>
+        <v>1028.486938476562</v>
       </c>
       <c r="E4" t="n">
-        <v>693.0326538085938</v>
+        <v>1039.49560546875</v>
       </c>
       <c r="F4" t="n">
-        <v>692.8156127929688</v>
+        <v>1041.984985351562</v>
       </c>
       <c r="G4" t="n">
-        <v>692.7112426757812</v>
+        <v>1049.5478515625</v>
       </c>
       <c r="H4" t="n">
-        <v>692.7247924804688</v>
+        <v>1052.465087890625</v>
       </c>
       <c r="I4" t="n">
-        <v>693.0083618164062</v>
+        <v>1052.009643554688</v>
       </c>
       <c r="J4" t="n">
-        <v>693.3433837890625</v>
+        <v>1055.860595703125</v>
       </c>
       <c r="K4" t="n">
-        <v>693.7420654296875</v>
+        <v>1064.90087890625</v>
       </c>
       <c r="L4" t="n">
-        <v>694.2220458984375</v>
+        <v>1075.58642578125</v>
       </c>
       <c r="M4" t="n">
-        <v>693.774658203125</v>
+        <v>1088.35498046875</v>
       </c>
       <c r="N4" t="n">
-        <v>692.911865234375</v>
+        <v>1076.23779296875</v>
       </c>
       <c r="O4" t="n">
-        <v>688.3125</v>
+        <v>1095.871337890625</v>
       </c>
       <c r="P4" t="n">
-        <v>675.1891479492188</v>
+        <v>1103.906494140625</v>
       </c>
       <c r="Q4" t="n">
-        <v>657.8452758789062</v>
+        <v>1101.148193359375</v>
       </c>
       <c r="R4" t="n">
-        <v>635.60009765625</v>
+        <v>1123.0712890625</v>
       </c>
       <c r="S4" t="n">
-        <v>611.7192993164062</v>
+        <v>1137.908081054688</v>
       </c>
       <c r="T4" t="n">
-        <v>583.5606689453125</v>
+        <v>1137.692504882812</v>
       </c>
       <c r="U4" t="n">
-        <v>563.48779296875</v>
+        <v>1129.66748046875</v>
       </c>
       <c r="V4" t="n">
-        <v>544.583984375</v>
+        <v>1121.649536132812</v>
       </c>
       <c r="W4" t="n">
-        <v>525.11328125</v>
+        <v>1133.852905273438</v>
       </c>
       <c r="X4" t="n">
-        <v>506.1118469238281</v>
+        <v>1138.88037109375</v>
       </c>
       <c r="Y4" t="n">
-        <v>493.5410766601562</v>
+        <v>1142.362182617188</v>
       </c>
       <c r="Z4" t="n">
-        <v>484.3488464355469</v>
+        <v>1154.847290039062</v>
       </c>
       <c r="AA4" t="n">
-        <v>477.3431701660156</v>
+        <v>1160.591674804688</v>
       </c>
       <c r="AB4" t="n">
-        <v>474.2730407714844</v>
+        <v>1158.101684570312</v>
       </c>
       <c r="AC4" t="n">
-        <v>470.0537719726562</v>
+        <v>1158.647338867188</v>
       </c>
       <c r="AD4" t="n">
-        <v>457.5172424316406</v>
+        <v>1164.369750976562</v>
       </c>
       <c r="AE4" t="n">
-        <v>435.6905212402344</v>
+        <v>1167.045043945312</v>
       </c>
       <c r="AF4" t="n">
-        <v>425.7572021484375</v>
+        <v>1169.198974609375</v>
       </c>
       <c r="AG4" t="n">
-        <v>423.0127258300781</v>
+        <v>1166.524536132812</v>
       </c>
       <c r="AH4" t="n">
-        <v>421.9619445800781</v>
+        <v>1167.694091796875</v>
       </c>
       <c r="AI4" t="n">
-        <v>421.6177062988281</v>
+        <v>1166.660278320312</v>
       </c>
       <c r="AJ4" t="n">
-        <v>424.5017395019531</v>
+        <v>1165.807373046875</v>
       </c>
       <c r="AK4" t="n">
-        <v>436.9707946777344</v>
+        <v>1162.810913085938</v>
       </c>
       <c r="AL4" t="n">
-        <v>474.9953002929688</v>
+        <v>1162.317260742188</v>
       </c>
       <c r="AM4" t="n">
-        <v>506.07666015625</v>
+        <v>1160.489135742188</v>
       </c>
       <c r="AN4" t="n">
-        <v>548.3342895507812</v>
+        <v>1162.946655273438</v>
       </c>
       <c r="AO4" t="n">
-        <v>585.0391845703125</v>
+        <v>1172.657470703125</v>
       </c>
       <c r="AP4" t="n">
-        <v>604.8807373046875</v>
+        <v>1151.29296875</v>
       </c>
       <c r="AQ4" t="n">
-        <v>635.66943359375</v>
+        <v>1114.50732421875</v>
       </c>
       <c r="AR4" t="n">
-        <v>686.5923461914062</v>
+        <v>1087.216186523438</v>
       </c>
       <c r="AS4" t="n">
-        <v>738.2156982421875</v>
+        <v>1042.38427734375</v>
       </c>
       <c r="AT4" t="n">
-        <v>783.50830078125</v>
+        <v>1011.315063476562</v>
       </c>
       <c r="AU4" t="n">
-        <v>807.15966796875</v>
+        <v>1011.604309082031</v>
       </c>
       <c r="AV4" t="n">
-        <v>854.5253295898438</v>
+        <v>1008.854614257812</v>
       </c>
       <c r="AW4" t="n">
-        <v>900.3960571289062</v>
+        <v>1004.466430664062</v>
       </c>
       <c r="AX4" t="n">
-        <v>948.523193359375</v>
+        <v>1003.883422851562</v>
       </c>
       <c r="AY4" t="n">
-        <v>1010.148315429688</v>
+        <v>1011.885864257812</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1066.49560546875</v>
+        <v>1014.176330566406</v>
       </c>
       <c r="BA4" t="n">
-        <v>1113.089233398438</v>
+        <v>1021.713745117188</v>
       </c>
       <c r="BB4" t="n">
-        <v>1167.5078125</v>
+        <v>1032.30419921875</v>
       </c>
       <c r="BC4" t="n">
-        <v>1206.154174804688</v>
+        <v>1043.957763671875</v>
       </c>
       <c r="BD4" t="n">
-        <v>1255.9794921875</v>
+        <v>1059.097778320312</v>
       </c>
       <c r="BE4" t="n">
-        <v>1273.33251953125</v>
+        <v>1075.830444335938</v>
       </c>
       <c r="BF4" t="n">
-        <v>1298.367431640625</v>
+        <v>1095.033325195312</v>
       </c>
       <c r="BG4" t="n">
-        <v>1322.458618164062</v>
+        <v>1114.45361328125</v>
       </c>
       <c r="BH4" t="n">
-        <v>1330.526489257812</v>
+        <v>1127.906494140625</v>
       </c>
       <c r="BI4" t="n">
-        <v>1332.364135742188</v>
+        <v>1145.852661132812</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1336.353271484375</v>
+        <v>1155.37939453125</v>
       </c>
       <c r="BK4" t="n">
-        <v>1342.6572265625</v>
+        <v>1159.703002929688</v>
       </c>
       <c r="BL4" t="n">
-        <v>1355.456176757812</v>
+        <v>1163.030029296875</v>
       </c>
       <c r="BM4" t="n">
-        <v>1358.220336914062</v>
+        <v>1163.17822265625</v>
       </c>
       <c r="BN4" t="n">
-        <v>1349.361572265625</v>
+        <v>1157.25634765625</v>
       </c>
       <c r="BO4" t="n">
-        <v>1338.636108398438</v>
+        <v>1142.53173828125</v>
       </c>
       <c r="BP4" t="n">
-        <v>1334.728149414062</v>
+        <v>1106.189208984375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1335.102783203125</v>
+        <v>1074.559692382812</v>
       </c>
       <c r="BR4" t="n">
-        <v>1343.204956054688</v>
+        <v>1051.063354492188</v>
       </c>
       <c r="BS4" t="n">
-        <v>1348.803833007812</v>
+        <v>1050.777099609375</v>
       </c>
       <c r="BT4" t="n">
-        <v>1362.869018554688</v>
+        <v>1043.370483398438</v>
       </c>
       <c r="BU4" t="n">
-        <v>1392.14697265625</v>
+        <v>1041.264770507812</v>
       </c>
       <c r="BV4" t="n">
-        <v>1419.478881835938</v>
+        <v>1044.782104492188</v>
       </c>
       <c r="BW4" t="n">
-        <v>1454.013916015625</v>
+        <v>1046.056640625</v>
       </c>
       <c r="BX4" t="n">
-        <v>1483.826293945312</v>
+        <v>1041.695922851562</v>
       </c>
       <c r="BY4" t="n">
-        <v>1510.039184570312</v>
+        <v>1036.859375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1551.117309570312</v>
+        <v>1028.900390625</v>
       </c>
       <c r="CA4" t="n">
-        <v>1594.654663085938</v>
+        <v>1021.619445800781</v>
       </c>
       <c r="CB4" t="n">
-        <v>1638.574829101562</v>
+        <v>1023.504150390625</v>
       </c>
       <c r="CC4" t="n">
-        <v>1680.495483398438</v>
+        <v>1029.339721679688</v>
       </c>
       <c r="CD4" t="n">
-        <v>1728.91455078125</v>
+        <v>1039.66162109375</v>
       </c>
       <c r="CE4" t="n">
-        <v>1768.037353515625</v>
+        <v>1047.941040039062</v>
       </c>
       <c r="CF4" t="n">
-        <v>1813.050537109375</v>
+        <v>1066.9560546875</v>
       </c>
       <c r="CG4" t="n">
-        <v>1836.14013671875</v>
+        <v>1087.548950195312</v>
       </c>
       <c r="CH4" t="n">
-        <v>1856.8251953125</v>
+        <v>1109.66748046875</v>
       </c>
       <c r="CI4" t="n">
-        <v>1871.599975585938</v>
+        <v>1132.483764648438</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1891.949096679688</v>
+        <v>1151.241943359375</v>
       </c>
       <c r="CK4" t="n">
-        <v>1898.232666015625</v>
+        <v>1165.90625</v>
       </c>
       <c r="CL4" t="n">
-        <v>1909.942993164062</v>
+        <v>1194.990234375</v>
       </c>
       <c r="CM4" t="n">
-        <v>1911.93408203125</v>
+        <v>1207.706176757812</v>
       </c>
       <c r="CN4" t="n">
-        <v>1902.810180664062</v>
+        <v>1214.18408203125</v>
       </c>
       <c r="CO4" t="n">
-        <v>1890.292846679688</v>
+        <v>1216.88623046875</v>
       </c>
       <c r="CP4" t="n">
-        <v>1874.469482421875</v>
+        <v>1213.54296875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1850.021484375</v>
+        <v>1212.235595703125</v>
       </c>
       <c r="CR4" t="n">
-        <v>1843.2373046875</v>
+        <v>1197.25537109375</v>
       </c>
       <c r="CS4" t="n">
-        <v>1820.95703125</v>
+        <v>1173.76171875</v>
       </c>
       <c r="CT4" t="n">
-        <v>1802.275634765625</v>
+        <v>1135.044555664062</v>
       </c>
       <c r="CU4" t="n">
-        <v>1791.022705078125</v>
+        <v>1103.0146484375</v>
       </c>
       <c r="CV4" t="n">
-        <v>1780.517333984375</v>
+        <v>1082.6025390625</v>
       </c>
       <c r="CW4" t="n">
-        <v>1777.99755859375</v>
+        <v>1063.691650390625</v>
       </c>
       <c r="CX4" t="n">
-        <v>1765.497802734375</v>
+        <v>1054.094970703125</v>
       </c>
       <c r="CY4" t="n">
-        <v>1753.565795898438</v>
+        <v>1048.418701171875</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1748.573486328125</v>
+        <v>1048.312255859375</v>
       </c>
       <c r="DA4" t="n">
-        <v>1777.865356445312</v>
+        <v>1005.611633300781</v>
       </c>
       <c r="DB4" t="n">
-        <v>1793.436645507812</v>
+        <v>962.6251220703125</v>
       </c>
       <c r="DC4" t="n">
-        <v>1811.4326171875</v>
+        <v>944.4588623046875</v>
       </c>
       <c r="DD4" t="n">
-        <v>1820.898071289062</v>
+        <v>993.842041015625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1838.955444335938</v>
+        <v>1039.979736328125</v>
       </c>
       <c r="DF4" t="n">
-        <v>1848.75537109375</v>
+        <v>1050.01806640625</v>
       </c>
       <c r="DG4" t="n">
-        <v>1870.326904296875</v>
+        <v>1050.526733398438</v>
       </c>
       <c r="DH4" t="n">
-        <v>1900.913818359375</v>
+        <v>1050.48046875</v>
       </c>
       <c r="DI4" t="n">
-        <v>1921.881958007812</v>
+        <v>1051.514282226562</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1942.578247070312</v>
+        <v>1051.717651367188</v>
       </c>
       <c r="DK4" t="n">
-        <v>1951.269287109375</v>
+        <v>1056.251342773438</v>
       </c>
       <c r="DL4" t="n">
-        <v>1958.408935546875</v>
+        <v>1065.654907226562</v>
       </c>
       <c r="DM4" t="n">
-        <v>1964.997802734375</v>
+        <v>1078.57421875</v>
       </c>
       <c r="DN4" t="n">
-        <v>1971.326171875</v>
+        <v>1079.537963867188</v>
       </c>
       <c r="DO4" t="n">
-        <v>1992.138916015625</v>
+        <v>1084.460327148438</v>
       </c>
       <c r="DP4" t="n">
-        <v>1990.825317382812</v>
+        <v>1120.11962890625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2002.607666015625</v>
+        <v>1136.033325195312</v>
       </c>
       <c r="DR4" t="n">
-        <v>2015.014404296875</v>
+        <v>1146.203369140625</v>
       </c>
       <c r="DS4" t="n">
-        <v>2014.784423828125</v>
+        <v>1164.552368164062</v>
       </c>
       <c r="DT4" t="n">
-        <v>2016.515869140625</v>
+        <v>1166.704467773438</v>
       </c>
       <c r="DU4" t="n">
-        <v>2016.030151367188</v>
+        <v>1172.036254882812</v>
       </c>
       <c r="DV4" t="n">
-        <v>2015.2373046875</v>
+        <v>1175.157470703125</v>
       </c>
       <c r="DW4" t="n">
-        <v>2011.058715820312</v>
+        <v>1172.556884765625</v>
       </c>
       <c r="DX4" t="n">
-        <v>2006.210693359375</v>
+        <v>1175.62060546875</v>
       </c>
       <c r="DY4" t="n">
-        <v>1988.61962890625</v>
+        <v>1178.00439453125</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1964.726318359375</v>
+        <v>1173.251220703125</v>
       </c>
       <c r="EA4" t="n">
-        <v>1955.415771484375</v>
+        <v>1179.470581054688</v>
       </c>
       <c r="EB4" t="n">
-        <v>1938.1279296875</v>
+        <v>1173.203491210938</v>
       </c>
       <c r="EC4" t="n">
-        <v>1935.306396484375</v>
+        <v>1170.8505859375</v>
       </c>
       <c r="ED4" t="n">
-        <v>1933.72509765625</v>
+        <v>1170.526489257812</v>
       </c>
       <c r="EE4" t="n">
-        <v>1902.992553710938</v>
+        <v>1166.5107421875</v>
       </c>
       <c r="EF4" t="n">
-        <v>1886.195434570312</v>
+        <v>1164.654296875</v>
       </c>
       <c r="EG4" t="n">
-        <v>1895.261596679688</v>
+        <v>1151.86767578125</v>
       </c>
       <c r="EH4" t="n">
-        <v>1892.563842773438</v>
+        <v>1136.387939453125</v>
       </c>
       <c r="EI4" t="n">
-        <v>1898.1923828125</v>
+        <v>1125.531127929688</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1999.23779296875</v>
+        <v>1120.425537109375</v>
       </c>
       <c r="EK4" t="n">
-        <v>1937.004150390625</v>
+        <v>1120.01171875</v>
       </c>
       <c r="EL4" t="n">
-        <v>1944.148559570312</v>
+        <v>1120.192626953125</v>
       </c>
       <c r="EM4" t="n">
-        <v>1949.1484375</v>
+        <v>1119.624633789062</v>
       </c>
       <c r="EN4" t="n">
-        <v>1937.875610351562</v>
+        <v>1117.0576171875</v>
       </c>
       <c r="EO4" t="n">
-        <v>1943.051513671875</v>
+        <v>1114.095581054688</v>
       </c>
       <c r="EP4" t="n">
-        <v>1948.61279296875</v>
+        <v>1102.973510742188</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1950.189331054688</v>
+        <v>1107.538330078125</v>
       </c>
       <c r="ER4" t="n">
-        <v>1948.886840820312</v>
+        <v>1093.459350585938</v>
       </c>
       <c r="ES4" t="n">
-        <v>1946.25146484375</v>
+        <v>1076.228149414062</v>
       </c>
       <c r="ET4" t="n">
-        <v>1940.747680664062</v>
+        <v>1058.98876953125</v>
       </c>
       <c r="EU4" t="n">
-        <v>1935.162109375</v>
+        <v>1042.933715820312</v>
       </c>
       <c r="EV4" t="n">
-        <v>1933.128295898438</v>
+        <v>1007.567749023438</v>
       </c>
       <c r="EW4" t="n">
-        <v>1929.365234375</v>
+        <v>963.4258422851562</v>
       </c>
       <c r="EX4" t="n">
-        <v>1928.7705078125</v>
+        <v>940.0733032226562</v>
       </c>
       <c r="EY4" t="n">
-        <v>1925.948974609375</v>
+        <v>897.9129638671875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1926.459228515625</v>
+        <v>837.2713623046875</v>
       </c>
       <c r="FA4" t="n">
-        <v>1924.263671875</v>
+        <v>800.653076171875</v>
       </c>
       <c r="FB4" t="n">
-        <v>1923.655029296875</v>
+        <v>767.9752197265625</v>
       </c>
       <c r="FC4" t="n">
-        <v>1923.597778320312</v>
+        <v>712.9155883789062</v>
       </c>
       <c r="FD4" t="n">
-        <v>1926.53955078125</v>
+        <v>671.653564453125</v>
       </c>
       <c r="FE4" t="n">
-        <v>1928.796264648438</v>
+        <v>642.9688720703125</v>
       </c>
       <c r="FF4" t="n">
-        <v>1929.364868164062</v>
+        <v>613.4157104492188</v>
       </c>
       <c r="FG4" t="n">
-        <v>1931.303466796875</v>
+        <v>593.9580078125</v>
       </c>
       <c r="FH4" t="n">
-        <v>1939.144653320312</v>
+        <v>575.883544921875</v>
       </c>
       <c r="FI4" t="n">
-        <v>1942.873046875</v>
+        <v>567.60791015625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1944.467651367188</v>
+        <v>531.0669555664062</v>
       </c>
       <c r="FK4" t="n">
-        <v>1946.66650390625</v>
+        <v>520.7772216796875</v>
       </c>
       <c r="FL4" t="n">
-        <v>1948.184204101562</v>
+        <v>522.2625732421875</v>
       </c>
       <c r="FM4" t="n">
-        <v>1946.446899414062</v>
+        <v>525.3195190429688</v>
       </c>
       <c r="FN4" t="n">
-        <v>1947.779418945312</v>
+        <v>521.2479248046875</v>
       </c>
       <c r="FO4" t="n">
-        <v>1949.844604492188</v>
+        <v>525.9270629882812</v>
       </c>
       <c r="FP4" t="n">
-        <v>1946.285400390625</v>
+        <v>466.3287963867188</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1945.810668945312</v>
+        <v>478.2980346679688</v>
       </c>
       <c r="FR4" t="n">
-        <v>1944.864013671875</v>
+        <v>523.99609375</v>
       </c>
       <c r="FS4" t="n">
-        <v>1945.079345703125</v>
+        <v>549.33203125</v>
       </c>
       <c r="FT4" t="n">
-        <v>1945.512084960938</v>
+        <v>556.851806640625</v>
       </c>
       <c r="FU4" t="n">
-        <v>1943.947998046875</v>
+        <v>538.4620361328125</v>
       </c>
       <c r="FV4" t="n">
-        <v>1938.764038085938</v>
+        <v>511.7688903808594</v>
       </c>
       <c r="FW4" t="n">
-        <v>1921.295776367188</v>
+        <v>505.7557983398438</v>
       </c>
       <c r="FX4" t="n">
-        <v>1917.28076171875</v>
+        <v>495.6614990234375</v>
       </c>
       <c r="FY4" t="n">
-        <v>1914.260864257812</v>
+        <v>480.8048706054688</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1913.162719726562</v>
+        <v>483.4326782226562</v>
       </c>
       <c r="GA4" t="n">
-        <v>1914.428833007812</v>
+        <v>475.892333984375</v>
       </c>
       <c r="GB4" t="n">
-        <v>1916.558837890625</v>
+        <v>482.743408203125</v>
       </c>
       <c r="GC4" t="n">
-        <v>1918.25146484375</v>
+        <v>446.9215087890625</v>
       </c>
       <c r="GD4" t="n">
-        <v>1918.424926757812</v>
+        <v>422.8811950683594</v>
       </c>
       <c r="GE4" t="n">
-        <v>1915.722900390625</v>
+        <v>394.8739624023438</v>
       </c>
       <c r="GF4" t="n">
-        <v>1894.750366210938</v>
+        <v>369.6958312988281</v>
       </c>
       <c r="GG4" t="n">
-        <v>1877.227661132812</v>
+        <v>323.4490966796875</v>
       </c>
       <c r="GH4" t="n">
-        <v>1850.222412109375</v>
+        <v>312.1932678222656</v>
       </c>
       <c r="GI4" t="n">
-        <v>1862.98388671875</v>
+        <v>268.6982727050781</v>
       </c>
       <c r="GJ4" t="n">
-        <v>1872.52734375</v>
+        <v>248.3007202148438</v>
       </c>
       <c r="GK4" t="n">
-        <v>1884.97998046875</v>
+        <v>248.6984405517578</v>
       </c>
       <c r="GL4" t="n">
-        <v>1887.203857421875</v>
+        <v>241.5686187744141</v>
       </c>
       <c r="GM4" t="n">
-        <v>1893.150268554688</v>
+        <v>240.2867889404297</v>
       </c>
       <c r="GN4" t="n">
-        <v>1890.741455078125</v>
+        <v>244.2147521972656</v>
       </c>
       <c r="GO4" t="n">
-        <v>1889.158813476562</v>
+        <v>247.4293823242188</v>
       </c>
       <c r="GP4" t="n">
-        <v>1896.855102539062</v>
+        <v>246.4319610595703</v>
       </c>
       <c r="GQ4" t="n">
-        <v>1894.564819335938</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>1877.031005859375</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>1873.307373046875</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>1890.506591796875</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>1895.682983398438</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>1927.61962890625</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>1941.44287109375</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>1939.615966796875</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>1933.23681640625</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>1933.543823242188</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>1932.687744140625</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>1927.488037109375</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>1901.60888671875</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>1881.982543945312</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>1818.724365234375</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>1794.587036132812</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>1732.89013671875</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>1690.153442382812</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>1620.936767578125</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>1583.41748046875</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>1521.7431640625</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>1456.876098632812</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>1400.228515625</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>1378.648803710938</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>1336.220336914062</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>1297.812133789062</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>1273.22119140625</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>1258.640869140625</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>1253.122192382812</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>1265.716674804688</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>1261.454223632812</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>1255.70947265625</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>1233.859985351562</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>1195.07763671875</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>1144.4814453125</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>1089.720336914062</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>1044.974853515625</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>959.442626953125</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>931.2706909179688</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>877.2100830078125</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>811.2075805664062</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>739.5444946289062</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>661.5983276367188</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>559.1065673828125</v>
-      </c>
-      <c r="II4" t="n">
-        <v>471.53662109375</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>399.4490661621094</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>333.2316589355469</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>246.6067504882812</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>211.0097961425781</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>212.1300354003906</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>542.4772338867188</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>582.4598388671875</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>482.816650390625</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>464.436279296875</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>460.7305908203125</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>518.26416015625</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>538.1841430664062</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>953.1881103515625</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>273.3639221191406</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>278.8908081054688</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>288.6055908203125</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>294.5021362304688</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>303.8451538085938</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>298.8846740722656</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>311.5691528320312</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>331.6931762695312</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>337.5452575683594</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>328.5890502929688</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>334.75</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>342.1193237304688</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>335.9950866699219</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>333.0828247070312</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>323.5255737304688</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>309.5054321289062</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>303.0153198242188</v>
+        <v>250.0960083007812</v>
       </c>
     </row>
   </sheetData>

--- a/left_wrist_Data.xlsx
+++ b/left_wrist_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GQ4"/>
+  <dimension ref="A1:LD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,1802 +1031,3206 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>572.167724609375</v>
+        <v>518.7897338867188</v>
       </c>
       <c r="B2" t="n">
-        <v>576.5928344726562</v>
+        <v>518.7295532226562</v>
       </c>
       <c r="C2" t="n">
-        <v>580.0776977539062</v>
+        <v>509.7899780273438</v>
       </c>
       <c r="D2" t="n">
-        <v>580.788330078125</v>
+        <v>487.22119140625</v>
       </c>
       <c r="E2" t="n">
-        <v>578.3345336914062</v>
+        <v>472.2787475585938</v>
       </c>
       <c r="F2" t="n">
-        <v>577.199462890625</v>
+        <v>460.5887145996094</v>
       </c>
       <c r="G2" t="n">
-        <v>575.0475463867188</v>
+        <v>448.4483337402344</v>
       </c>
       <c r="H2" t="n">
-        <v>574.3798828125</v>
+        <v>436.7178955078125</v>
       </c>
       <c r="I2" t="n">
-        <v>574.2420654296875</v>
+        <v>428.0430603027344</v>
       </c>
       <c r="J2" t="n">
-        <v>572.6810913085938</v>
+        <v>422.3526306152344</v>
       </c>
       <c r="K2" t="n">
-        <v>571.4840698242188</v>
+        <v>421.2802734375</v>
       </c>
       <c r="L2" t="n">
-        <v>573.7218017578125</v>
+        <v>421.5851440429688</v>
       </c>
       <c r="M2" t="n">
-        <v>577.8421630859375</v>
+        <v>418.88623046875</v>
       </c>
       <c r="N2" t="n">
-        <v>558.4213256835938</v>
+        <v>416.9076538085938</v>
       </c>
       <c r="O2" t="n">
-        <v>553.7208251953125</v>
+        <v>415.1242065429688</v>
       </c>
       <c r="P2" t="n">
-        <v>543.7443237304688</v>
+        <v>413.3542175292969</v>
       </c>
       <c r="Q2" t="n">
-        <v>531.8033447265625</v>
+        <v>412.2227172851562</v>
       </c>
       <c r="R2" t="n">
-        <v>531.4072875976562</v>
+        <v>412.7762451171875</v>
       </c>
       <c r="S2" t="n">
-        <v>492.1704406738281</v>
+        <v>412.9403076171875</v>
       </c>
       <c r="T2" t="n">
-        <v>478.3497314453125</v>
+        <v>412.5281982421875</v>
       </c>
       <c r="U2" t="n">
-        <v>475.6707763671875</v>
+        <v>411.7125244140625</v>
       </c>
       <c r="V2" t="n">
-        <v>476.010498046875</v>
+        <v>410.3140563964844</v>
       </c>
       <c r="W2" t="n">
-        <v>469.20849609375</v>
+        <v>409.790283203125</v>
       </c>
       <c r="X2" t="n">
-        <v>454.4591674804688</v>
+        <v>408.52197265625</v>
       </c>
       <c r="Y2" t="n">
-        <v>446.0404968261719</v>
+        <v>404.1393432617188</v>
       </c>
       <c r="Z2" t="n">
-        <v>441.010498046875</v>
+        <v>399.3014831542969</v>
       </c>
       <c r="AA2" t="n">
-        <v>442.0945739746094</v>
+        <v>393.8244934082031</v>
       </c>
       <c r="AB2" t="n">
-        <v>442.7772216796875</v>
+        <v>389.3472900390625</v>
       </c>
       <c r="AC2" t="n">
-        <v>442.4725646972656</v>
+        <v>383.8329467773438</v>
       </c>
       <c r="AD2" t="n">
-        <v>442.8515014648438</v>
+        <v>379.1185302734375</v>
       </c>
       <c r="AE2" t="n">
-        <v>444.7233581542969</v>
+        <v>374.9794921875</v>
       </c>
       <c r="AF2" t="n">
-        <v>444.6764831542969</v>
+        <v>371.3041687011719</v>
       </c>
       <c r="AG2" t="n">
-        <v>444.5264282226562</v>
+        <v>367.9910583496094</v>
       </c>
       <c r="AH2" t="n">
-        <v>445.264892578125</v>
+        <v>363.041015625</v>
       </c>
       <c r="AI2" t="n">
-        <v>445.9380493164062</v>
+        <v>359.4477844238281</v>
       </c>
       <c r="AJ2" t="n">
-        <v>447.066162109375</v>
+        <v>356.7980651855469</v>
       </c>
       <c r="AK2" t="n">
-        <v>449.72265625</v>
+        <v>353.8623046875</v>
       </c>
       <c r="AL2" t="n">
-        <v>448.1091613769531</v>
+        <v>349.7960815429688</v>
       </c>
       <c r="AM2" t="n">
-        <v>444.6851196289062</v>
+        <v>351.5568542480469</v>
       </c>
       <c r="AN2" t="n">
-        <v>439.1171875</v>
+        <v>348.1376647949219</v>
       </c>
       <c r="AO2" t="n">
-        <v>445.144287109375</v>
+        <v>344.00146484375</v>
       </c>
       <c r="AP2" t="n">
-        <v>454.2681274414062</v>
+        <v>339.7639770507812</v>
       </c>
       <c r="AQ2" t="n">
-        <v>452.8896484375</v>
+        <v>336.9989318847656</v>
       </c>
       <c r="AR2" t="n">
-        <v>447.8522033691406</v>
+        <v>336.8952026367188</v>
       </c>
       <c r="AS2" t="n">
-        <v>458.619140625</v>
+        <v>337.7691650390625</v>
       </c>
       <c r="AT2" t="n">
-        <v>456.0751342773438</v>
+        <v>339.2343444824219</v>
       </c>
       <c r="AU2" t="n">
-        <v>435.3286437988281</v>
+        <v>338.8020629882812</v>
       </c>
       <c r="AV2" t="n">
-        <v>417.3663635253906</v>
+        <v>338.7931518554688</v>
       </c>
       <c r="AW2" t="n">
-        <v>404.8116455078125</v>
+        <v>338.5398864746094</v>
       </c>
       <c r="AX2" t="n">
-        <v>399.4171447753906</v>
+        <v>338.4871826171875</v>
       </c>
       <c r="AY2" t="n">
-        <v>390.7724609375</v>
+        <v>339.0881958007812</v>
       </c>
       <c r="AZ2" t="n">
-        <v>380.0756225585938</v>
+        <v>338.2189331054688</v>
       </c>
       <c r="BA2" t="n">
-        <v>381.0827331542969</v>
+        <v>337.181396484375</v>
       </c>
       <c r="BB2" t="n">
-        <v>378.732421875</v>
+        <v>336.5961303710938</v>
       </c>
       <c r="BC2" t="n">
-        <v>369.8726196289062</v>
+        <v>335.3625183105469</v>
       </c>
       <c r="BD2" t="n">
-        <v>365.1782836914062</v>
+        <v>334.3770751953125</v>
       </c>
       <c r="BE2" t="n">
-        <v>361.6067504882812</v>
+        <v>334.2400817871094</v>
       </c>
       <c r="BF2" t="n">
-        <v>357.8308715820312</v>
+        <v>335.0798034667969</v>
       </c>
       <c r="BG2" t="n">
-        <v>354.831787109375</v>
+        <v>334.0338439941406</v>
       </c>
       <c r="BH2" t="n">
-        <v>349.4305114746094</v>
+        <v>333.6748962402344</v>
       </c>
       <c r="BI2" t="n">
-        <v>344.7251586914062</v>
+        <v>338.1273803710938</v>
       </c>
       <c r="BJ2" t="n">
-        <v>341.3234252929688</v>
+        <v>342.7052612304688</v>
       </c>
       <c r="BK2" t="n">
-        <v>340.2217407226562</v>
+        <v>344.0534057617188</v>
       </c>
       <c r="BL2" t="n">
-        <v>339.7196960449219</v>
+        <v>352.0537719726562</v>
       </c>
       <c r="BM2" t="n">
-        <v>340.7403259277344</v>
+        <v>366.4421081542969</v>
       </c>
       <c r="BN2" t="n">
-        <v>352.2753601074219</v>
+        <v>376.0348205566406</v>
       </c>
       <c r="BO2" t="n">
-        <v>367.734619140625</v>
+        <v>382.1580505371094</v>
       </c>
       <c r="BP2" t="n">
-        <v>381.8483276367188</v>
+        <v>387.3057556152344</v>
       </c>
       <c r="BQ2" t="n">
-        <v>394.0675659179688</v>
+        <v>393.718017578125</v>
       </c>
       <c r="BR2" t="n">
-        <v>403.5687866210938</v>
+        <v>399.0194702148438</v>
       </c>
       <c r="BS2" t="n">
-        <v>409.2434387207031</v>
+        <v>401.7427062988281</v>
       </c>
       <c r="BT2" t="n">
-        <v>408.8666381835938</v>
+        <v>403.4070434570312</v>
       </c>
       <c r="BU2" t="n">
-        <v>406.0552673339844</v>
+        <v>405.683837890625</v>
       </c>
       <c r="BV2" t="n">
-        <v>401.3644409179688</v>
+        <v>409.8674926757812</v>
       </c>
       <c r="BW2" t="n">
-        <v>398.1026611328125</v>
+        <v>412.8535461425781</v>
       </c>
       <c r="BX2" t="n">
-        <v>393.6433715820312</v>
+        <v>413.9871520996094</v>
       </c>
       <c r="BY2" t="n">
-        <v>390.1849975585938</v>
+        <v>414.4596862792969</v>
       </c>
       <c r="BZ2" t="n">
-        <v>387.9981079101562</v>
+        <v>414.5562744140625</v>
       </c>
       <c r="CA2" t="n">
-        <v>382.797607421875</v>
+        <v>414.4734497070312</v>
       </c>
       <c r="CB2" t="n">
-        <v>374.3424072265625</v>
+        <v>414.3807373046875</v>
       </c>
       <c r="CC2" t="n">
-        <v>365.2237243652344</v>
+        <v>414.6038208007812</v>
       </c>
       <c r="CD2" t="n">
-        <v>357.0124816894531</v>
+        <v>414.6629638671875</v>
       </c>
       <c r="CE2" t="n">
-        <v>349.6883850097656</v>
+        <v>414.8952026367188</v>
       </c>
       <c r="CF2" t="n">
-        <v>343.9486694335938</v>
+        <v>414.8712463378906</v>
       </c>
       <c r="CG2" t="n">
-        <v>340.1099853515625</v>
+        <v>413.9843139648438</v>
       </c>
       <c r="CH2" t="n">
-        <v>333.2341003417969</v>
+        <v>410.7069396972656</v>
       </c>
       <c r="CI2" t="n">
-        <v>327.1855163574219</v>
+        <v>406.0138549804688</v>
       </c>
       <c r="CJ2" t="n">
-        <v>323.7670593261719</v>
+        <v>400.4048461914062</v>
       </c>
       <c r="CK2" t="n">
-        <v>319.3607788085938</v>
+        <v>396.2553100585938</v>
       </c>
       <c r="CL2" t="n">
-        <v>316.4317321777344</v>
+        <v>391.70556640625</v>
       </c>
       <c r="CM2" t="n">
-        <v>315.478271484375</v>
+        <v>384.2549133300781</v>
       </c>
       <c r="CN2" t="n">
-        <v>315.6517028808594</v>
+        <v>376.3544311523438</v>
       </c>
       <c r="CO2" t="n">
-        <v>315.9047241210938</v>
+        <v>373.6146240234375</v>
       </c>
       <c r="CP2" t="n">
-        <v>316.2366943359375</v>
+        <v>369.8167724609375</v>
       </c>
       <c r="CQ2" t="n">
-        <v>316.6174926757812</v>
+        <v>369.8280334472656</v>
       </c>
       <c r="CR2" t="n">
-        <v>321.8288879394531</v>
+        <v>368.1754150390625</v>
       </c>
       <c r="CS2" t="n">
-        <v>329.4774780273438</v>
+        <v>355.0581665039062</v>
       </c>
       <c r="CT2" t="n">
-        <v>336.5897216796875</v>
+        <v>346.1744384765625</v>
       </c>
       <c r="CU2" t="n">
-        <v>340.0094604492188</v>
+        <v>342.9237365722656</v>
       </c>
       <c r="CV2" t="n">
-        <v>342.9197998046875</v>
+        <v>340.7446899414062</v>
       </c>
       <c r="CW2" t="n">
-        <v>342.6077270507812</v>
+        <v>340.5418395996094</v>
       </c>
       <c r="CX2" t="n">
-        <v>342.40576171875</v>
+        <v>334.3065795898438</v>
       </c>
       <c r="CY2" t="n">
-        <v>340.9529113769531</v>
+        <v>332.1853942871094</v>
       </c>
       <c r="CZ2" t="n">
-        <v>334.9871520996094</v>
+        <v>331.1785278320312</v>
       </c>
       <c r="DA2" t="n">
-        <v>325.365966796875</v>
+        <v>333.2035827636719</v>
       </c>
       <c r="DB2" t="n">
-        <v>314.0653686523438</v>
+        <v>331.5312194824219</v>
       </c>
       <c r="DC2" t="n">
-        <v>305.8465270996094</v>
+        <v>329.5563049316406</v>
       </c>
       <c r="DD2" t="n">
-        <v>301.9976196289062</v>
+        <v>330.3695068359375</v>
       </c>
       <c r="DE2" t="n">
-        <v>303.1841430664062</v>
+        <v>330.0086975097656</v>
       </c>
       <c r="DF2" t="n">
-        <v>300.1118774414062</v>
+        <v>329.6602172851562</v>
       </c>
       <c r="DG2" t="n">
-        <v>299.5448913574219</v>
+        <v>329.4718017578125</v>
       </c>
       <c r="DH2" t="n">
-        <v>302.1968994140625</v>
+        <v>329.2818603515625</v>
       </c>
       <c r="DI2" t="n">
-        <v>307.0996704101562</v>
+        <v>329.8157348632812</v>
       </c>
       <c r="DJ2" t="n">
-        <v>315.4921875</v>
+        <v>337.8255615234375</v>
       </c>
       <c r="DK2" t="n">
-        <v>325.745849609375</v>
+        <v>355.5060424804688</v>
       </c>
       <c r="DL2" t="n">
-        <v>348.5197448730469</v>
+        <v>368.2536315917969</v>
       </c>
       <c r="DM2" t="n">
-        <v>364.7012023925781</v>
+        <v>375.016845703125</v>
       </c>
       <c r="DN2" t="n">
-        <v>377.7803344726562</v>
+        <v>387.7548828125</v>
       </c>
       <c r="DO2" t="n">
-        <v>390.1241455078125</v>
+        <v>392.3849182128906</v>
       </c>
       <c r="DP2" t="n">
-        <v>412.1900024414062</v>
+        <v>394.847900390625</v>
       </c>
       <c r="DQ2" t="n">
-        <v>422.11083984375</v>
+        <v>397.5356750488281</v>
       </c>
       <c r="DR2" t="n">
-        <v>431.9119567871094</v>
+        <v>399.5722961425781</v>
       </c>
       <c r="DS2" t="n">
-        <v>453.5849609375</v>
+        <v>401.4044799804688</v>
       </c>
       <c r="DT2" t="n">
-        <v>461.8845825195312</v>
+        <v>406.9066772460938</v>
       </c>
       <c r="DU2" t="n">
-        <v>473.2400512695312</v>
+        <v>408.9793395996094</v>
       </c>
       <c r="DV2" t="n">
-        <v>490.7855834960938</v>
+        <v>409.5165405273438</v>
       </c>
       <c r="DW2" t="n">
-        <v>502.6285400390625</v>
+        <v>409.5726013183594</v>
       </c>
       <c r="DX2" t="n">
-        <v>506.4434204101562</v>
+        <v>409.3093872070312</v>
       </c>
       <c r="DY2" t="n">
-        <v>513.3905639648438</v>
+        <v>408.6905517578125</v>
       </c>
       <c r="DZ2" t="n">
-        <v>518.70947265625</v>
+        <v>408.0020751953125</v>
       </c>
       <c r="EA2" t="n">
-        <v>518.1769409179688</v>
+        <v>406.1657104492188</v>
       </c>
       <c r="EB2" t="n">
-        <v>522.1513671875</v>
+        <v>404.2021484375</v>
       </c>
       <c r="EC2" t="n">
-        <v>523.2352905273438</v>
+        <v>401.3065185546875</v>
       </c>
       <c r="ED2" t="n">
-        <v>522.0147094726562</v>
+        <v>396.4060668945312</v>
       </c>
       <c r="EE2" t="n">
-        <v>523.2889404296875</v>
+        <v>392.742431640625</v>
       </c>
       <c r="EF2" t="n">
-        <v>522.16748046875</v>
+        <v>379.9263000488281</v>
       </c>
       <c r="EG2" t="n">
-        <v>519.085693359375</v>
+        <v>379.8683471679688</v>
       </c>
       <c r="EH2" t="n">
-        <v>517.960693359375</v>
+        <v>378.6395874023438</v>
       </c>
       <c r="EI2" t="n">
-        <v>512.6798095703125</v>
+        <v>371.2076416015625</v>
       </c>
       <c r="EJ2" t="n">
-        <v>505.8667602539062</v>
+        <v>369.2027282714844</v>
       </c>
       <c r="EK2" t="n">
-        <v>500.1813049316406</v>
+        <v>363.09521484375</v>
       </c>
       <c r="EL2" t="n">
-        <v>495.3772583007812</v>
+        <v>359.7274475097656</v>
       </c>
       <c r="EM2" t="n">
-        <v>486.0921020507812</v>
+        <v>344.2894897460938</v>
       </c>
       <c r="EN2" t="n">
-        <v>479.4160461425781</v>
+        <v>341.1681518554688</v>
       </c>
       <c r="EO2" t="n">
-        <v>468.9798583984375</v>
+        <v>341.035888671875</v>
       </c>
       <c r="EP2" t="n">
-        <v>470.4874877929688</v>
+        <v>339.5712890625</v>
       </c>
       <c r="EQ2" t="n">
-        <v>455.990966796875</v>
+        <v>329.3500366210938</v>
       </c>
       <c r="ER2" t="n">
-        <v>456.7040710449219</v>
+        <v>326.5210571289062</v>
       </c>
       <c r="ES2" t="n">
-        <v>442.3779602050781</v>
+        <v>327.3128967285156</v>
       </c>
       <c r="ET2" t="n">
-        <v>437.0435791015625</v>
+        <v>325.2221374511719</v>
       </c>
       <c r="EU2" t="n">
-        <v>431.0448913574219</v>
+        <v>325.3418273925781</v>
       </c>
       <c r="EV2" t="n">
-        <v>427.6532592773438</v>
+        <v>326.1476440429688</v>
       </c>
       <c r="EW2" t="n">
-        <v>422.7104187011719</v>
+        <v>328.2373352050781</v>
       </c>
       <c r="EX2" t="n">
-        <v>419.981689453125</v>
+        <v>342.6937561035156</v>
       </c>
       <c r="EY2" t="n">
-        <v>419.7741088867188</v>
+        <v>344.5369873046875</v>
       </c>
       <c r="EZ2" t="n">
-        <v>427.0527954101562</v>
+        <v>344.0133972167969</v>
       </c>
       <c r="FA2" t="n">
-        <v>430.8262329101562</v>
+        <v>361.5500183105469</v>
       </c>
       <c r="FB2" t="n">
-        <v>439.349609375</v>
+        <v>367.6073913574219</v>
       </c>
       <c r="FC2" t="n">
-        <v>450.5945129394531</v>
+        <v>375.3106079101562</v>
       </c>
       <c r="FD2" t="n">
-        <v>460.01611328125</v>
+        <v>392.208984375</v>
       </c>
       <c r="FE2" t="n">
-        <v>466.9013061523438</v>
+        <v>395.2679138183594</v>
       </c>
       <c r="FF2" t="n">
-        <v>471.6040649414062</v>
+        <v>396.5630798339844</v>
       </c>
       <c r="FG2" t="n">
-        <v>473.5386657714844</v>
+        <v>399.7000732421875</v>
       </c>
       <c r="FH2" t="n">
-        <v>478.6277465820312</v>
+        <v>401.0599365234375</v>
       </c>
       <c r="FI2" t="n">
-        <v>486.1839599609375</v>
+        <v>400.7149963378906</v>
       </c>
       <c r="FJ2" t="n">
-        <v>531.9461669921875</v>
+        <v>401.5395812988281</v>
       </c>
       <c r="FK2" t="n">
-        <v>550.4248046875</v>
+        <v>401.3257141113281</v>
       </c>
       <c r="FL2" t="n">
-        <v>552.0037841796875</v>
+        <v>400.8997192382812</v>
       </c>
       <c r="FM2" t="n">
-        <v>551.2037353515625</v>
+        <v>400.734375</v>
       </c>
       <c r="FN2" t="n">
-        <v>549.0552368164062</v>
+        <v>400.0703430175781</v>
       </c>
       <c r="FO2" t="n">
-        <v>559.9403686523438</v>
+        <v>400.0303344726562</v>
       </c>
       <c r="FP2" t="n">
-        <v>520.1707153320312</v>
+        <v>397.18212890625</v>
       </c>
       <c r="FQ2" t="n">
-        <v>509.7335815429688</v>
+        <v>392.5871276855469</v>
       </c>
       <c r="FR2" t="n">
-        <v>496.8305053710938</v>
+        <v>379.8993530273438</v>
       </c>
       <c r="FS2" t="n">
-        <v>523.4873046875</v>
+        <v>379.8037109375</v>
       </c>
       <c r="FT2" t="n">
-        <v>550.8326416015625</v>
+        <v>368.682861328125</v>
       </c>
       <c r="FU2" t="n">
-        <v>553.0316772460938</v>
+        <v>364.5488891601562</v>
       </c>
       <c r="FV2" t="n">
-        <v>544.9967041015625</v>
+        <v>359.2396240234375</v>
       </c>
       <c r="FW2" t="n">
-        <v>544.9173583984375</v>
+        <v>354.7704772949219</v>
       </c>
       <c r="FX2" t="n">
-        <v>547.1527099609375</v>
+        <v>349.054443359375</v>
       </c>
       <c r="FY2" t="n">
-        <v>555.2672729492188</v>
+        <v>343.4581909179688</v>
       </c>
       <c r="FZ2" t="n">
-        <v>572.3599853515625</v>
+        <v>337.6279907226562</v>
       </c>
       <c r="GA2" t="n">
-        <v>554.4603271484375</v>
+        <v>332.1646728515625</v>
       </c>
       <c r="GB2" t="n">
-        <v>505.4796142578125</v>
+        <v>325.0829467773438</v>
       </c>
       <c r="GC2" t="n">
-        <v>507.0254211425781</v>
+        <v>322.7440185546875</v>
       </c>
       <c r="GD2" t="n">
-        <v>486.5295715332031</v>
+        <v>324.2578735351562</v>
       </c>
       <c r="GE2" t="n">
-        <v>478.1238098144531</v>
+        <v>325.5795593261719</v>
       </c>
       <c r="GF2" t="n">
-        <v>463.8284912109375</v>
+        <v>325.4400939941406</v>
       </c>
       <c r="GG2" t="n">
-        <v>423.8652038574219</v>
+        <v>325.5541381835938</v>
       </c>
       <c r="GH2" t="n">
-        <v>404.9468994140625</v>
+        <v>325.6936950683594</v>
       </c>
       <c r="GI2" t="n">
-        <v>375.2898559570312</v>
+        <v>325.1373901367188</v>
       </c>
       <c r="GJ2" t="n">
-        <v>323.7606811523438</v>
+        <v>338.1067199707031</v>
       </c>
       <c r="GK2" t="n">
-        <v>336.6582946777344</v>
+        <v>349.3505249023438</v>
       </c>
       <c r="GL2" t="n">
-        <v>317.4069519042969</v>
+        <v>353.2159423828125</v>
       </c>
       <c r="GM2" t="n">
-        <v>303.0103454589844</v>
+        <v>365.316650390625</v>
       </c>
       <c r="GN2" t="n">
-        <v>270.6967468261719</v>
+        <v>372.7580261230469</v>
       </c>
       <c r="GO2" t="n">
-        <v>274.7463989257812</v>
+        <v>382.7439575195312</v>
       </c>
       <c r="GP2" t="n">
-        <v>278.0471496582031</v>
+        <v>395.35693359375</v>
       </c>
       <c r="GQ2" t="n">
-        <v>295.087890625</v>
+        <v>401.4326782226562</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>402.9197387695312</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>404.11376953125</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>404.82470703125</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>404.9183349609375</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>404.3819580078125</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>402.3244934082031</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>398.9663696289062</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>390.8802490234375</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>384.5549926757812</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>374.0523986816406</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>370.4887390136719</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>363.2725524902344</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>355.4201965332031</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>345.0751342773438</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>342.2189636230469</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>328.7228698730469</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>323.8682861328125</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>322.7738037109375</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>323.2303466796875</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>324.1006164550781</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>325.151611328125</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>325.2173156738281</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>324.6898193359375</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>323.7239379882812</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>336.7606201171875</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>342.2520751953125</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>338.9194030761719</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>358.2354125976562</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>368.672119140625</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>376.1975708007812</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>390.9371948242188</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>397.2018432617188</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>398.8616638183594</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>400.6076049804688</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>402.3154296875</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>401.9388427734375</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>401.6859130859375</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>402.3777770996094</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>400.5431823730469</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>399.6029052734375</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>394.99853515625</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>389.4346923828125</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>382.909912109375</v>
+      </c>
+      <c r="II2" t="n">
+        <v>377.3314819335938</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>363.909912109375</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>363.4996948242188</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>356.9057006835938</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>344.267333984375</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>342.4757080078125</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>337.8407592773438</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>336.525634765625</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>330.2581787109375</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>330.9272766113281</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>332.1049499511719</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>329.4205322265625</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>336.7802734375</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>339.3442077636719</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>348.1458740234375</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>361.9805297851562</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>379.5421752929688</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>391.7952880859375</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>399.5031127929688</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>402.6446228027344</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>406.7886352539062</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>406.8701782226562</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>405.5304565429688</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>406.7548217773438</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>406.0033874511719</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>403.3139038085938</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>399.2445678710938</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>396.9306945800781</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>391.5950927734375</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>384.4535827636719</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>376.4743347167969</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>364.947265625</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>358.4722290039062</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>354.0716247558594</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>338.9456176757812</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>338.3847045898438</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>337.5475769042969</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>324.8121643066406</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>324.2278442382812</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>324.3779296875</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>323.9580078125</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>323.173583984375</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>323.7014770507812</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>323.6485595703125</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>319.1818542480469</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>321.0967407226562</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>322.2044067382812</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>346.9856567382812</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>353.0389709472656</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>361.4056701660156</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>370.4163208007812</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>370.82421875</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>370.5096740722656</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>368.7929077148438</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>370.0369567871094</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>370.4096069335938</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>372.5879516601562</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>377.82373046875</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>386.6096496582031</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>393.4106750488281</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>399.3150634765625</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>399.0418701171875</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>401.0550231933594</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>406.201904296875</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>418.1249389648438</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>428.0905151367188</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>442.2157592773438</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>460.0818176269531</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>479.9043579101562</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>515.4522094726562</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>544.5211181640625</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>550.5518188476562</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>551.6778564453125</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>556.0211791992188</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>384.5347900390625</v>
+        <v>381.8839416503906</v>
       </c>
       <c r="B3" t="n">
-        <v>389.9511108398438</v>
+        <v>375.8511962890625</v>
       </c>
       <c r="C3" t="n">
-        <v>390.6761169433594</v>
+        <v>365.7651977539062</v>
       </c>
       <c r="D3" t="n">
-        <v>392.2753601074219</v>
+        <v>359.2550659179688</v>
       </c>
       <c r="E3" t="n">
-        <v>396.1590270996094</v>
+        <v>358.1741027832031</v>
       </c>
       <c r="F3" t="n">
-        <v>397.9883728027344</v>
+        <v>361.115234375</v>
       </c>
       <c r="G3" t="n">
-        <v>398.0826416015625</v>
+        <v>367.25341796875</v>
       </c>
       <c r="H3" t="n">
-        <v>398.6646118164062</v>
+        <v>375.6193542480469</v>
       </c>
       <c r="I3" t="n">
-        <v>397.2302856445312</v>
+        <v>383.737060546875</v>
       </c>
       <c r="J3" t="n">
-        <v>393.6806945800781</v>
+        <v>385.5010070800781</v>
       </c>
       <c r="K3" t="n">
-        <v>390.9950256347656</v>
+        <v>388.8169555664062</v>
       </c>
       <c r="L3" t="n">
-        <v>384.2268981933594</v>
+        <v>390.4954833984375</v>
       </c>
       <c r="M3" t="n">
-        <v>373.4554443359375</v>
+        <v>394.6112060546875</v>
       </c>
       <c r="N3" t="n">
-        <v>370.4993286132812</v>
+        <v>396.3316650390625</v>
       </c>
       <c r="O3" t="n">
-        <v>355.1742858886719</v>
+        <v>393.4176940917969</v>
       </c>
       <c r="P3" t="n">
-        <v>345.9772644042969</v>
+        <v>390.5385131835938</v>
       </c>
       <c r="Q3" t="n">
-        <v>343.6955261230469</v>
+        <v>386.973388671875</v>
       </c>
       <c r="R3" t="n">
-        <v>334.1997680664062</v>
+        <v>381.842041015625</v>
       </c>
       <c r="S3" t="n">
-        <v>342.7099914550781</v>
+        <v>377.4714965820312</v>
       </c>
       <c r="T3" t="n">
-        <v>335.3088684082031</v>
+        <v>372.8982543945312</v>
       </c>
       <c r="U3" t="n">
-        <v>328.2606506347656</v>
+        <v>369.8513488769531</v>
       </c>
       <c r="V3" t="n">
-        <v>323.8087158203125</v>
+        <v>368.0658569335938</v>
       </c>
       <c r="W3" t="n">
-        <v>321.3085021972656</v>
+        <v>369.0827331542969</v>
       </c>
       <c r="X3" t="n">
-        <v>318.4630737304688</v>
+        <v>370.0814208984375</v>
       </c>
       <c r="Y3" t="n">
-        <v>314.1695251464844</v>
+        <v>370.4806213378906</v>
       </c>
       <c r="Z3" t="n">
-        <v>305.0220031738281</v>
+        <v>372.8200073242188</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.500732421875</v>
+        <v>374.6221618652344</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.1936950683594</v>
+        <v>375.863037109375</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.3136596679688</v>
+        <v>373.4722595214844</v>
       </c>
       <c r="AD3" t="n">
-        <v>272.8495178222656</v>
+        <v>373.2085266113281</v>
       </c>
       <c r="AE3" t="n">
-        <v>270.7232666015625</v>
+        <v>371.1788024902344</v>
       </c>
       <c r="AF3" t="n">
-        <v>268.0751342773438</v>
+        <v>370.7347412109375</v>
       </c>
       <c r="AG3" t="n">
-        <v>266.9328918457031</v>
+        <v>370.9176025390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>267.0382995605469</v>
+        <v>365.6449279785156</v>
       </c>
       <c r="AI3" t="n">
-        <v>268.3818054199219</v>
+        <v>355.8257141113281</v>
       </c>
       <c r="AJ3" t="n">
-        <v>268.3414306640625</v>
+        <v>353.0928955078125</v>
       </c>
       <c r="AK3" t="n">
-        <v>268.947021484375</v>
+        <v>349.0503845214844</v>
       </c>
       <c r="AL3" t="n">
-        <v>269.4136962890625</v>
+        <v>343.3721008300781</v>
       </c>
       <c r="AM3" t="n">
-        <v>271.1544799804688</v>
+        <v>340.1688537597656</v>
       </c>
       <c r="AN3" t="n">
-        <v>273.9674072265625</v>
+        <v>336.8057556152344</v>
       </c>
       <c r="AO3" t="n">
-        <v>283.2575988769531</v>
+        <v>325.693359375</v>
       </c>
       <c r="AP3" t="n">
-        <v>291.4455261230469</v>
+        <v>316.6278991699219</v>
       </c>
       <c r="AQ3" t="n">
-        <v>303.811279296875</v>
+        <v>309.8468322753906</v>
       </c>
       <c r="AR3" t="n">
-        <v>310.8608093261719</v>
+        <v>305.8054809570312</v>
       </c>
       <c r="AS3" t="n">
-        <v>317.1777038574219</v>
+        <v>303.5878601074219</v>
       </c>
       <c r="AT3" t="n">
-        <v>318.916015625</v>
+        <v>299.9153747558594</v>
       </c>
       <c r="AU3" t="n">
-        <v>317.5965881347656</v>
+        <v>301.0062255859375</v>
       </c>
       <c r="AV3" t="n">
-        <v>315.8514709472656</v>
+        <v>300.8072509765625</v>
       </c>
       <c r="AW3" t="n">
-        <v>318.8116149902344</v>
+        <v>300.45166015625</v>
       </c>
       <c r="AX3" t="n">
-        <v>319.2662658691406</v>
+        <v>300.1203918457031</v>
       </c>
       <c r="AY3" t="n">
-        <v>320.8333740234375</v>
+        <v>300.1372680664062</v>
       </c>
       <c r="AZ3" t="n">
-        <v>320.7140197753906</v>
+        <v>299.5964660644531</v>
       </c>
       <c r="BA3" t="n">
-        <v>320.6536560058594</v>
+        <v>298.9960632324219</v>
       </c>
       <c r="BB3" t="n">
-        <v>323.6989440917969</v>
+        <v>299.0933532714844</v>
       </c>
       <c r="BC3" t="n">
-        <v>327.4720458984375</v>
+        <v>299.0281677246094</v>
       </c>
       <c r="BD3" t="n">
-        <v>328.9607849121094</v>
+        <v>298.6123352050781</v>
       </c>
       <c r="BE3" t="n">
-        <v>328.6029357910156</v>
+        <v>298.404541015625</v>
       </c>
       <c r="BF3" t="n">
-        <v>326.9886474609375</v>
+        <v>298.4883117675781</v>
       </c>
       <c r="BG3" t="n">
-        <v>325.9560546875</v>
+        <v>297.9212341308594</v>
       </c>
       <c r="BH3" t="n">
-        <v>326.0523986816406</v>
+        <v>297.4971008300781</v>
       </c>
       <c r="BI3" t="n">
-        <v>324.3533020019531</v>
+        <v>295.7190246582031</v>
       </c>
       <c r="BJ3" t="n">
-        <v>324.3564758300781</v>
+        <v>294.8427734375</v>
       </c>
       <c r="BK3" t="n">
-        <v>324.3871765136719</v>
+        <v>290.3041687011719</v>
       </c>
       <c r="BL3" t="n">
-        <v>322.6060485839844</v>
+        <v>283.8938293457031</v>
       </c>
       <c r="BM3" t="n">
-        <v>320.125</v>
+        <v>286.9727172851562</v>
       </c>
       <c r="BN3" t="n">
-        <v>312.9366149902344</v>
+        <v>282.9932556152344</v>
       </c>
       <c r="BO3" t="n">
-        <v>299.94091796875</v>
+        <v>286.1756896972656</v>
       </c>
       <c r="BP3" t="n">
-        <v>289.2471923828125</v>
+        <v>308.0306701660156</v>
       </c>
       <c r="BQ3" t="n">
-        <v>274.5451965332031</v>
+        <v>303.8548889160156</v>
       </c>
       <c r="BR3" t="n">
-        <v>259.2541198730469</v>
+        <v>299.6361083984375</v>
       </c>
       <c r="BS3" t="n">
-        <v>239.1516723632812</v>
+        <v>300.3076171875</v>
       </c>
       <c r="BT3" t="n">
-        <v>220.2765655517578</v>
+        <v>301.1178283691406</v>
       </c>
       <c r="BU3" t="n">
-        <v>202.9562683105469</v>
+        <v>301.1947326660156</v>
       </c>
       <c r="BV3" t="n">
-        <v>191.0474853515625</v>
+        <v>300.0918273925781</v>
       </c>
       <c r="BW3" t="n">
-        <v>184.4396820068359</v>
+        <v>300.9093322753906</v>
       </c>
       <c r="BX3" t="n">
-        <v>185.1611633300781</v>
+        <v>302.0619506835938</v>
       </c>
       <c r="BY3" t="n">
-        <v>187.8993225097656</v>
+        <v>302.373046875</v>
       </c>
       <c r="BZ3" t="n">
-        <v>196.8343353271484</v>
+        <v>302.4180908203125</v>
       </c>
       <c r="CA3" t="n">
-        <v>211.6045074462891</v>
+        <v>302.4637756347656</v>
       </c>
       <c r="CB3" t="n">
-        <v>230.8352355957031</v>
+        <v>302.5366821289062</v>
       </c>
       <c r="CC3" t="n">
-        <v>243.3758392333984</v>
+        <v>302.4507446289062</v>
       </c>
       <c r="CD3" t="n">
-        <v>259.1103820800781</v>
+        <v>302.3778076171875</v>
       </c>
       <c r="CE3" t="n">
-        <v>273.2449035644531</v>
+        <v>302.2315979003906</v>
       </c>
       <c r="CF3" t="n">
-        <v>285.6599426269531</v>
+        <v>302.0954895019531</v>
       </c>
       <c r="CG3" t="n">
-        <v>299.2190551757812</v>
+        <v>301.9859313964844</v>
       </c>
       <c r="CH3" t="n">
-        <v>310.1882019042969</v>
+        <v>302.09814453125</v>
       </c>
       <c r="CI3" t="n">
-        <v>319.068603515625</v>
+        <v>303.4320373535156</v>
       </c>
       <c r="CJ3" t="n">
-        <v>324.6070861816406</v>
+        <v>304.2488708496094</v>
       </c>
       <c r="CK3" t="n">
-        <v>328.2630004882812</v>
+        <v>304.7124328613281</v>
       </c>
       <c r="CL3" t="n">
-        <v>330.6703796386719</v>
+        <v>304.1561584472656</v>
       </c>
       <c r="CM3" t="n">
-        <v>331.806884765625</v>
+        <v>307.5194702148438</v>
       </c>
       <c r="CN3" t="n">
-        <v>332.4417114257812</v>
+        <v>312.8996276855469</v>
       </c>
       <c r="CO3" t="n">
-        <v>332.8319702148438</v>
+        <v>297.9778442382812</v>
       </c>
       <c r="CP3" t="n">
-        <v>334.468994140625</v>
+        <v>287.208984375</v>
       </c>
       <c r="CQ3" t="n">
-        <v>334.0109252929688</v>
+        <v>293.2420654296875</v>
       </c>
       <c r="CR3" t="n">
-        <v>331.1986694335938</v>
+        <v>291.949951171875</v>
       </c>
       <c r="CS3" t="n">
-        <v>327.581298828125</v>
+        <v>285.9841613769531</v>
       </c>
       <c r="CT3" t="n">
-        <v>315.5453186035156</v>
+        <v>287.4226989746094</v>
       </c>
       <c r="CU3" t="n">
-        <v>303.4800720214844</v>
+        <v>283.1502990722656</v>
       </c>
       <c r="CV3" t="n">
-        <v>291.5634155273438</v>
+        <v>286.3879699707031</v>
       </c>
       <c r="CW3" t="n">
-        <v>278.8404541015625</v>
+        <v>295.4002380371094</v>
       </c>
       <c r="CX3" t="n">
-        <v>268.7286071777344</v>
+        <v>295.9700012207031</v>
       </c>
       <c r="CY3" t="n">
-        <v>257.6438598632812</v>
+        <v>295.8789672851562</v>
       </c>
       <c r="CZ3" t="n">
-        <v>248.1096496582031</v>
+        <v>297.3734741210938</v>
       </c>
       <c r="DA3" t="n">
-        <v>237.0891418457031</v>
+        <v>297.5439758300781</v>
       </c>
       <c r="DB3" t="n">
-        <v>226.6466369628906</v>
+        <v>297.7528076171875</v>
       </c>
       <c r="DC3" t="n">
-        <v>221.7779693603516</v>
+        <v>297.7584533691406</v>
       </c>
       <c r="DD3" t="n">
-        <v>226.9071807861328</v>
+        <v>297.1592407226562</v>
       </c>
       <c r="DE3" t="n">
-        <v>233.1095428466797</v>
+        <v>297.2662048339844</v>
       </c>
       <c r="DF3" t="n">
-        <v>239.8783111572266</v>
+        <v>297.4417114257812</v>
       </c>
       <c r="DG3" t="n">
-        <v>248.8416137695312</v>
+        <v>297.6313171386719</v>
       </c>
       <c r="DH3" t="n">
-        <v>260.3638305664062</v>
+        <v>297.6281433105469</v>
       </c>
       <c r="DI3" t="n">
-        <v>272.586181640625</v>
+        <v>296.2048645019531</v>
       </c>
       <c r="DJ3" t="n">
-        <v>283.2801208496094</v>
+        <v>291.1904907226562</v>
       </c>
       <c r="DK3" t="n">
-        <v>300.8911743164062</v>
+        <v>286.8726196289062</v>
       </c>
       <c r="DL3" t="n">
-        <v>328.7884521484375</v>
+        <v>288.1727905273438</v>
       </c>
       <c r="DM3" t="n">
-        <v>334.5094604492188</v>
+        <v>295.8178405761719</v>
       </c>
       <c r="DN3" t="n">
-        <v>342.5952453613281</v>
+        <v>304.7110290527344</v>
       </c>
       <c r="DO3" t="n">
-        <v>347.8436279296875</v>
+        <v>304.8035278320312</v>
       </c>
       <c r="DP3" t="n">
-        <v>347.643310546875</v>
+        <v>304.578125</v>
       </c>
       <c r="DQ3" t="n">
-        <v>345.4267883300781</v>
+        <v>304.322265625</v>
       </c>
       <c r="DR3" t="n">
-        <v>343.3294677734375</v>
+        <v>304.1234436035156</v>
       </c>
       <c r="DS3" t="n">
-        <v>341.0508422851562</v>
+        <v>304.5246887207031</v>
       </c>
       <c r="DT3" t="n">
-        <v>340.4005737304688</v>
+        <v>304.3548278808594</v>
       </c>
       <c r="DU3" t="n">
-        <v>339.951904296875</v>
+        <v>304.8039245605469</v>
       </c>
       <c r="DV3" t="n">
-        <v>339.158935546875</v>
+        <v>304.5544128417969</v>
       </c>
       <c r="DW3" t="n">
-        <v>334.2160339355469</v>
+        <v>304.3651123046875</v>
       </c>
       <c r="DX3" t="n">
-        <v>331.2953491210938</v>
+        <v>304.2249450683594</v>
       </c>
       <c r="DY3" t="n">
-        <v>329.2106323242188</v>
+        <v>304.0041198730469</v>
       </c>
       <c r="DZ3" t="n">
-        <v>332.4899597167969</v>
+        <v>303.7671203613281</v>
       </c>
       <c r="EA3" t="n">
-        <v>334.5782775878906</v>
+        <v>303.0462341308594</v>
       </c>
       <c r="EB3" t="n">
-        <v>336.9337768554688</v>
+        <v>302.3238830566406</v>
       </c>
       <c r="EC3" t="n">
-        <v>337.6707458496094</v>
+        <v>301.6950073242188</v>
       </c>
       <c r="ED3" t="n">
-        <v>340.0218505859375</v>
+        <v>301.6604309082031</v>
       </c>
       <c r="EE3" t="n">
-        <v>340.85498046875</v>
+        <v>301.8846130371094</v>
       </c>
       <c r="EF3" t="n">
-        <v>342.5386047363281</v>
+        <v>311.5228576660156</v>
       </c>
       <c r="EG3" t="n">
-        <v>347.9212341308594</v>
+        <v>308.2616577148438</v>
       </c>
       <c r="EH3" t="n">
-        <v>353.32177734375</v>
+        <v>300.9067077636719</v>
       </c>
       <c r="EI3" t="n">
-        <v>355.2181091308594</v>
+        <v>295.6470947265625</v>
       </c>
       <c r="EJ3" t="n">
-        <v>355.1201782226562</v>
+        <v>291.8395080566406</v>
       </c>
       <c r="EK3" t="n">
-        <v>359.1856079101562</v>
+        <v>284.438232421875</v>
       </c>
       <c r="EL3" t="n">
-        <v>362.7215576171875</v>
+        <v>283.1985473632812</v>
       </c>
       <c r="EM3" t="n">
-        <v>358.1965637207031</v>
+        <v>280.0522155761719</v>
       </c>
       <c r="EN3" t="n">
-        <v>357.2086791992188</v>
+        <v>279.64453125</v>
       </c>
       <c r="EO3" t="n">
-        <v>356.9396667480469</v>
+        <v>290.1720886230469</v>
       </c>
       <c r="EP3" t="n">
-        <v>358.2704772949219</v>
+        <v>296.408203125</v>
       </c>
       <c r="EQ3" t="n">
-        <v>356.1318359375</v>
+        <v>299.44921875</v>
       </c>
       <c r="ER3" t="n">
-        <v>359.5975341796875</v>
+        <v>300.5257568359375</v>
       </c>
       <c r="ES3" t="n">
-        <v>357.4264221191406</v>
+        <v>300.9080810546875</v>
       </c>
       <c r="ET3" t="n">
-        <v>361.3509216308594</v>
+        <v>301.4708251953125</v>
       </c>
       <c r="EU3" t="n">
-        <v>368.1763305664062</v>
+        <v>301.4511108398438</v>
       </c>
       <c r="EV3" t="n">
-        <v>373.6364440917969</v>
+        <v>301.0659790039062</v>
       </c>
       <c r="EW3" t="n">
-        <v>381.8157348632812</v>
+        <v>300.1097717285156</v>
       </c>
       <c r="EX3" t="n">
-        <v>382.5408020019531</v>
+        <v>293.8945617675781</v>
       </c>
       <c r="EY3" t="n">
-        <v>391.9151000976562</v>
+        <v>288.0408020019531</v>
       </c>
       <c r="EZ3" t="n">
-        <v>398.1813659667969</v>
+        <v>287.3417358398438</v>
       </c>
       <c r="FA3" t="n">
-        <v>403.2654724121094</v>
+        <v>285.9306640625</v>
       </c>
       <c r="FB3" t="n">
-        <v>408.28857421875</v>
+        <v>296.0363464355469</v>
       </c>
       <c r="FC3" t="n">
-        <v>417.9048767089844</v>
+        <v>316.8738098144531</v>
       </c>
       <c r="FD3" t="n">
-        <v>427.1941223144531</v>
+        <v>312.1662292480469</v>
       </c>
       <c r="FE3" t="n">
-        <v>435.4661254882812</v>
+        <v>305.9521179199219</v>
       </c>
       <c r="FF3" t="n">
-        <v>446.4696655273438</v>
+        <v>305.9507141113281</v>
       </c>
       <c r="FG3" t="n">
-        <v>454.6042175292969</v>
+        <v>306.3491821289062</v>
       </c>
       <c r="FH3" t="n">
-        <v>463.41650390625</v>
+        <v>306.3074035644531</v>
       </c>
       <c r="FI3" t="n">
-        <v>463.062255859375</v>
+        <v>305.8838500976562</v>
       </c>
       <c r="FJ3" t="n">
-        <v>477.6515502929688</v>
+        <v>305.34814453125</v>
       </c>
       <c r="FK3" t="n">
-        <v>486.6138916015625</v>
+        <v>305.40234375</v>
       </c>
       <c r="FL3" t="n">
-        <v>489.1197509765625</v>
+        <v>305.5979919433594</v>
       </c>
       <c r="FM3" t="n">
-        <v>483.3905944824219</v>
+        <v>305.7443542480469</v>
       </c>
       <c r="FN3" t="n">
-        <v>482.3861389160156</v>
+        <v>306.4220275878906</v>
       </c>
       <c r="FO3" t="n">
-        <v>472.2962341308594</v>
+        <v>306.4380798339844</v>
       </c>
       <c r="FP3" t="n">
-        <v>442.2720031738281</v>
+        <v>306.3637084960938</v>
       </c>
       <c r="FQ3" t="n">
-        <v>372.6974182128906</v>
+        <v>306.1816101074219</v>
       </c>
       <c r="FR3" t="n">
-        <v>449.0007934570312</v>
+        <v>309.9748229980469</v>
       </c>
       <c r="FS3" t="n">
-        <v>463.159423828125</v>
+        <v>308.2476501464844</v>
       </c>
       <c r="FT3" t="n">
-        <v>457.1967163085938</v>
+        <v>309.5203857421875</v>
       </c>
       <c r="FU3" t="n">
-        <v>485.0528564453125</v>
+        <v>289.427734375</v>
       </c>
       <c r="FV3" t="n">
-        <v>497.0000915527344</v>
+        <v>284.0499877929688</v>
       </c>
       <c r="FW3" t="n">
-        <v>499.3974609375</v>
+        <v>284.7160034179688</v>
       </c>
       <c r="FX3" t="n">
-        <v>494.6179809570312</v>
+        <v>286.0675048828125</v>
       </c>
       <c r="FY3" t="n">
-        <v>487.5753173828125</v>
+        <v>285.1192016601562</v>
       </c>
       <c r="FZ3" t="n">
-        <v>461.109619140625</v>
+        <v>290.4886474609375</v>
       </c>
       <c r="GA3" t="n">
-        <v>417.1445922851562</v>
+        <v>297.2208557128906</v>
       </c>
       <c r="GB3" t="n">
-        <v>399.8880615234375</v>
+        <v>295.8034973144531</v>
       </c>
       <c r="GC3" t="n">
-        <v>405.9438781738281</v>
+        <v>298.7958068847656</v>
       </c>
       <c r="GD3" t="n">
-        <v>392.8463134765625</v>
+        <v>299.7730407714844</v>
       </c>
       <c r="GE3" t="n">
-        <v>397.9212646484375</v>
+        <v>300.2719421386719</v>
       </c>
       <c r="GF3" t="n">
-        <v>402.6363830566406</v>
+        <v>300.0625</v>
       </c>
       <c r="GG3" t="n">
-        <v>405.8428955078125</v>
+        <v>299.9808654785156</v>
       </c>
       <c r="GH3" t="n">
-        <v>409.0241394042969</v>
+        <v>299.9354858398438</v>
       </c>
       <c r="GI3" t="n">
-        <v>432.3409729003906</v>
+        <v>299.0899963378906</v>
       </c>
       <c r="GJ3" t="n">
-        <v>435.7219848632812</v>
+        <v>295.0335083007812</v>
       </c>
       <c r="GK3" t="n">
-        <v>446.1391296386719</v>
+        <v>288.0791320800781</v>
       </c>
       <c r="GL3" t="n">
-        <v>448.4805908203125</v>
+        <v>286.1774597167969</v>
       </c>
       <c r="GM3" t="n">
-        <v>449.0444946289062</v>
+        <v>291.1361999511719</v>
       </c>
       <c r="GN3" t="n">
-        <v>442.4080200195312</v>
+        <v>303.5185546875</v>
       </c>
       <c r="GO3" t="n">
-        <v>442.8534851074219</v>
+        <v>326.0251770019531</v>
       </c>
       <c r="GP3" t="n">
-        <v>448.6187744140625</v>
+        <v>305.4474487304688</v>
       </c>
       <c r="GQ3" t="n">
-        <v>451.613037109375</v>
+        <v>304.4535522460938</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>304.4753723144531</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>305.467529296875</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>306.9816284179688</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>307.4513244628906</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>307.3627319335938</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>307.4768371582031</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>306.5281066894531</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>306.5372314453125</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>306.2191162109375</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>308.9397583007812</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>300.07373046875</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>283.3681335449219</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>289.2480773925781</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>290.2607727050781</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>285.3392944335938</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>296.5550231933594</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>300.2947387695312</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>300.1699523925781</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>300.2904052734375</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>300.0634460449219</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>298.9765930175781</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>298.9043579101562</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>298.9920654296875</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>299.0152587890625</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>296.4695434570312</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>289.6881408691406</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>293.8448791503906</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>285.2598266601562</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>299.5526123046875</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>305.2494812011719</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>308.010498046875</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>303.9158630371094</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>304.1137084960938</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>304.8504638671875</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>305.0981750488281</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>305.0271606445312</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>304.8390808105469</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>304.6777954101562</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>305.8639526367188</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>305.8324279785156</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>305.4672546386719</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>305.4389343261719</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>305.2211303710938</v>
+      </c>
+      <c r="II3" t="n">
+        <v>305.3421325683594</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>299.7683410644531</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>283.2146301269531</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>283.5716857910156</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>284.0255126953125</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>292.3826293945312</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>303.7319641113281</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>308.3799438476562</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>301.6532592773438</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>297.5172424316406</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>297.6756591796875</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>297.7356262207031</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>299.1121520996094</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>288.8824462890625</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>281.2144470214844</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>283.5701599121094</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>312.3734130859375</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>303.2890930175781</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>302.2051086425781</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>302.6793823242188</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>302.5069274902344</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>303.3755187988281</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>304.20947265625</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>303.8878784179688</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>303.7693481445312</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>303.4103698730469</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>304.3573303222656</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>303.6171875</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>304.2120971679688</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>303.6055297851562</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>303.9091491699219</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>302.6591491699219</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>288.9952392578125</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>287.6766662597656</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>288.3976135253906</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>301.7521362304688</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>301.7095336914062</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>303.780029296875</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>303.1761474609375</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>302.8342590332031</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>302.8640747070312</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>302.9246826171875</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>303.3776550292969</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>303.5211181640625</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>305.1821899414062</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>307.4156494140625</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>314.0910034179688</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>353.1462097167969</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>361.9823303222656</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>373.6878051757812</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>375.25830078125</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>370.6329650878906</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>368.7934265136719</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>365.6301574707031</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>366.9114074707031</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>379.8238220214844</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>387.1755981445312</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>398.068359375</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>396.3458557128906</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>391.9330139160156</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>382.0249938964844</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>366.1224365234375</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>344.9694519042969</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>336.9686279296875</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>333.2023620605469</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>341.6566162109375</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>343.6840515136719</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>350.0333251953125</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>371.3001098632812</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>383.204833984375</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>424.3820190429688</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>437.0402221679688</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>439.7442626953125</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>448.060791015625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1035.271728515625</v>
+        <v>448.1286010742188</v>
       </c>
       <c r="B4" t="n">
-        <v>1023.347778320312</v>
+        <v>486.9816284179688</v>
       </c>
       <c r="C4" t="n">
-        <v>1020.721069335938</v>
+        <v>527.8452758789062</v>
       </c>
       <c r="D4" t="n">
-        <v>1028.486938476562</v>
+        <v>568.1473999023438</v>
       </c>
       <c r="E4" t="n">
-        <v>1039.49560546875</v>
+        <v>612.2847290039062</v>
       </c>
       <c r="F4" t="n">
-        <v>1041.984985351562</v>
+        <v>671.0025024414062</v>
       </c>
       <c r="G4" t="n">
-        <v>1049.5478515625</v>
+        <v>731.522216796875</v>
       </c>
       <c r="H4" t="n">
-        <v>1052.465087890625</v>
+        <v>794.4208374023438</v>
       </c>
       <c r="I4" t="n">
-        <v>1052.009643554688</v>
+        <v>858.5511474609375</v>
       </c>
       <c r="J4" t="n">
-        <v>1055.860595703125</v>
+        <v>927.881591796875</v>
       </c>
       <c r="K4" t="n">
-        <v>1064.90087890625</v>
+        <v>992.400146484375</v>
       </c>
       <c r="L4" t="n">
-        <v>1075.58642578125</v>
+        <v>1061.9912109375</v>
       </c>
       <c r="M4" t="n">
-        <v>1088.35498046875</v>
+        <v>1119.036499023438</v>
       </c>
       <c r="N4" t="n">
-        <v>1076.23779296875</v>
+        <v>1173.846435546875</v>
       </c>
       <c r="O4" t="n">
-        <v>1095.871337890625</v>
+        <v>1234.0498046875</v>
       </c>
       <c r="P4" t="n">
-        <v>1103.906494140625</v>
+        <v>1290.474609375</v>
       </c>
       <c r="Q4" t="n">
-        <v>1101.148193359375</v>
+        <v>1340.752075195312</v>
       </c>
       <c r="R4" t="n">
-        <v>1123.0712890625</v>
+        <v>1400.121826171875</v>
       </c>
       <c r="S4" t="n">
-        <v>1137.908081054688</v>
+        <v>1445.745849609375</v>
       </c>
       <c r="T4" t="n">
-        <v>1137.692504882812</v>
+        <v>1481.333740234375</v>
       </c>
       <c r="U4" t="n">
-        <v>1129.66748046875</v>
+        <v>1528.0185546875</v>
       </c>
       <c r="V4" t="n">
-        <v>1121.649536132812</v>
+        <v>1557.167358398438</v>
       </c>
       <c r="W4" t="n">
-        <v>1133.852905273438</v>
+        <v>1573.497802734375</v>
       </c>
       <c r="X4" t="n">
-        <v>1138.88037109375</v>
+        <v>1584.388671875</v>
       </c>
       <c r="Y4" t="n">
-        <v>1142.362182617188</v>
+        <v>1601.971435546875</v>
       </c>
       <c r="Z4" t="n">
-        <v>1154.847290039062</v>
+        <v>1621.022827148438</v>
       </c>
       <c r="AA4" t="n">
-        <v>1160.591674804688</v>
+        <v>1635.648681640625</v>
       </c>
       <c r="AB4" t="n">
-        <v>1158.101684570312</v>
+        <v>1642.3017578125</v>
       </c>
       <c r="AC4" t="n">
-        <v>1158.647338867188</v>
+        <v>1655.8134765625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1164.369750976562</v>
+        <v>1673.101684570312</v>
       </c>
       <c r="AE4" t="n">
-        <v>1167.045043945312</v>
+        <v>1695.596313476562</v>
       </c>
       <c r="AF4" t="n">
-        <v>1169.198974609375</v>
+        <v>1710.088134765625</v>
       </c>
       <c r="AG4" t="n">
-        <v>1166.524536132812</v>
+        <v>1717.640747070312</v>
       </c>
       <c r="AH4" t="n">
-        <v>1167.694091796875</v>
+        <v>1727.490234375</v>
       </c>
       <c r="AI4" t="n">
-        <v>1166.660278320312</v>
+        <v>1747.5244140625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1165.807373046875</v>
+        <v>1754.781982421875</v>
       </c>
       <c r="AK4" t="n">
-        <v>1162.810913085938</v>
+        <v>1764.010498046875</v>
       </c>
       <c r="AL4" t="n">
-        <v>1162.317260742188</v>
+        <v>1763.418212890625</v>
       </c>
       <c r="AM4" t="n">
-        <v>1160.489135742188</v>
+        <v>1769.9091796875</v>
       </c>
       <c r="AN4" t="n">
-        <v>1162.946655273438</v>
+        <v>1767.505981445312</v>
       </c>
       <c r="AO4" t="n">
-        <v>1172.657470703125</v>
+        <v>1772.64208984375</v>
       </c>
       <c r="AP4" t="n">
-        <v>1151.29296875</v>
+        <v>1785.254760742188</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1114.50732421875</v>
+        <v>1793.797241210938</v>
       </c>
       <c r="AR4" t="n">
-        <v>1087.216186523438</v>
+        <v>1797.868896484375</v>
       </c>
       <c r="AS4" t="n">
-        <v>1042.38427734375</v>
+        <v>1799.08447265625</v>
       </c>
       <c r="AT4" t="n">
-        <v>1011.315063476562</v>
+        <v>1803.002563476562</v>
       </c>
       <c r="AU4" t="n">
-        <v>1011.604309082031</v>
+        <v>1806.253784179688</v>
       </c>
       <c r="AV4" t="n">
-        <v>1008.854614257812</v>
+        <v>1810.091430664062</v>
       </c>
       <c r="AW4" t="n">
-        <v>1004.466430664062</v>
+        <v>1816.300415039062</v>
       </c>
       <c r="AX4" t="n">
-        <v>1003.883422851562</v>
+        <v>1821.48876953125</v>
       </c>
       <c r="AY4" t="n">
-        <v>1011.885864257812</v>
+        <v>1822.830688476562</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1014.176330566406</v>
+        <v>1827.130737304688</v>
       </c>
       <c r="BA4" t="n">
-        <v>1021.713745117188</v>
+        <v>1832.585327148438</v>
       </c>
       <c r="BB4" t="n">
-        <v>1032.30419921875</v>
+        <v>1831.910522460938</v>
       </c>
       <c r="BC4" t="n">
-        <v>1043.957763671875</v>
+        <v>1834.3212890625</v>
       </c>
       <c r="BD4" t="n">
-        <v>1059.097778320312</v>
+        <v>1834.180053710938</v>
       </c>
       <c r="BE4" t="n">
-        <v>1075.830444335938</v>
+        <v>1837.321899414062</v>
       </c>
       <c r="BF4" t="n">
-        <v>1095.033325195312</v>
+        <v>1846.23095703125</v>
       </c>
       <c r="BG4" t="n">
-        <v>1114.45361328125</v>
+        <v>1851.120483398438</v>
       </c>
       <c r="BH4" t="n">
-        <v>1127.906494140625</v>
+        <v>1857.744506835938</v>
       </c>
       <c r="BI4" t="n">
-        <v>1145.852661132812</v>
+        <v>1851.449951171875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1155.37939453125</v>
+        <v>1837.579223632812</v>
       </c>
       <c r="BK4" t="n">
-        <v>1159.703002929688</v>
+        <v>1840.025146484375</v>
       </c>
       <c r="BL4" t="n">
-        <v>1163.030029296875</v>
+        <v>1835.454345703125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1163.17822265625</v>
+        <v>1832.20458984375</v>
       </c>
       <c r="BN4" t="n">
-        <v>1157.25634765625</v>
+        <v>1844.398071289062</v>
       </c>
       <c r="BO4" t="n">
-        <v>1142.53173828125</v>
+        <v>1843.650024414062</v>
       </c>
       <c r="BP4" t="n">
-        <v>1106.189208984375</v>
+        <v>1843.771240234375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1074.559692382812</v>
+        <v>1875.4716796875</v>
       </c>
       <c r="BR4" t="n">
-        <v>1051.063354492188</v>
+        <v>1897.140380859375</v>
       </c>
       <c r="BS4" t="n">
-        <v>1050.777099609375</v>
+        <v>1908.488037109375</v>
       </c>
       <c r="BT4" t="n">
-        <v>1043.370483398438</v>
+        <v>1919.688354492188</v>
       </c>
       <c r="BU4" t="n">
-        <v>1041.264770507812</v>
+        <v>1923.5947265625</v>
       </c>
       <c r="BV4" t="n">
-        <v>1044.782104492188</v>
+        <v>1948.512329101562</v>
       </c>
       <c r="BW4" t="n">
-        <v>1046.056640625</v>
+        <v>1970.271118164062</v>
       </c>
       <c r="BX4" t="n">
-        <v>1041.695922851562</v>
+        <v>1981.40478515625</v>
       </c>
       <c r="BY4" t="n">
-        <v>1036.859375</v>
+        <v>1984.741943359375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1028.900390625</v>
+        <v>1985.213989257812</v>
       </c>
       <c r="CA4" t="n">
-        <v>1021.619445800781</v>
+        <v>1983.624633789062</v>
       </c>
       <c r="CB4" t="n">
-        <v>1023.504150390625</v>
+        <v>1982.233154296875</v>
       </c>
       <c r="CC4" t="n">
-        <v>1029.339721679688</v>
+        <v>1981.540405273438</v>
       </c>
       <c r="CD4" t="n">
-        <v>1039.66162109375</v>
+        <v>1981.030395507812</v>
       </c>
       <c r="CE4" t="n">
-        <v>1047.941040039062</v>
+        <v>1979.42724609375</v>
       </c>
       <c r="CF4" t="n">
-        <v>1066.9560546875</v>
+        <v>1977.58056640625</v>
       </c>
       <c r="CG4" t="n">
-        <v>1087.548950195312</v>
+        <v>1973.213256835938</v>
       </c>
       <c r="CH4" t="n">
-        <v>1109.66748046875</v>
+        <v>1954.397827148438</v>
       </c>
       <c r="CI4" t="n">
-        <v>1132.483764648438</v>
+        <v>1931.11572265625</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1151.241943359375</v>
+        <v>1912.350219726562</v>
       </c>
       <c r="CK4" t="n">
-        <v>1165.90625</v>
+        <v>1898.557495117188</v>
       </c>
       <c r="CL4" t="n">
-        <v>1194.990234375</v>
+        <v>1885.238891601562</v>
       </c>
       <c r="CM4" t="n">
-        <v>1207.706176757812</v>
+        <v>1874.859619140625</v>
       </c>
       <c r="CN4" t="n">
-        <v>1214.18408203125</v>
+        <v>1859.971435546875</v>
       </c>
       <c r="CO4" t="n">
-        <v>1216.88623046875</v>
+        <v>1842.613891601562</v>
       </c>
       <c r="CP4" t="n">
-        <v>1213.54296875</v>
+        <v>1843.316284179688</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1212.235595703125</v>
+        <v>1825.953857421875</v>
       </c>
       <c r="CR4" t="n">
-        <v>1197.25537109375</v>
+        <v>1813.251831054688</v>
       </c>
       <c r="CS4" t="n">
-        <v>1173.76171875</v>
+        <v>1810.991455078125</v>
       </c>
       <c r="CT4" t="n">
-        <v>1135.044555664062</v>
+        <v>1820.116455078125</v>
       </c>
       <c r="CU4" t="n">
-        <v>1103.0146484375</v>
+        <v>1824.141723632812</v>
       </c>
       <c r="CV4" t="n">
-        <v>1082.6025390625</v>
+        <v>1845.9208984375</v>
       </c>
       <c r="CW4" t="n">
-        <v>1063.691650390625</v>
+        <v>1844.608154296875</v>
       </c>
       <c r="CX4" t="n">
-        <v>1054.094970703125</v>
+        <v>1855.228393554688</v>
       </c>
       <c r="CY4" t="n">
-        <v>1048.418701171875</v>
+        <v>1863.545776367188</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1048.312255859375</v>
+        <v>1869.753540039062</v>
       </c>
       <c r="DA4" t="n">
-        <v>1005.611633300781</v>
+        <v>1861.902099609375</v>
       </c>
       <c r="DB4" t="n">
-        <v>962.6251220703125</v>
+        <v>1862.240356445312</v>
       </c>
       <c r="DC4" t="n">
-        <v>944.4588623046875</v>
+        <v>1863.732543945312</v>
       </c>
       <c r="DD4" t="n">
-        <v>993.842041015625</v>
+        <v>1860.109619140625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1039.979736328125</v>
+        <v>1858.98876953125</v>
       </c>
       <c r="DF4" t="n">
-        <v>1050.01806640625</v>
+        <v>1858.884521484375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1050.526733398438</v>
+        <v>1857.8720703125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1050.48046875</v>
+        <v>1856.836791992188</v>
       </c>
       <c r="DI4" t="n">
-        <v>1051.514282226562</v>
+        <v>1859.226318359375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1051.717651367188</v>
+        <v>1847.290283203125</v>
       </c>
       <c r="DK4" t="n">
-        <v>1056.251342773438</v>
+        <v>1802.0595703125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1065.654907226562</v>
+        <v>1817.003540039062</v>
       </c>
       <c r="DM4" t="n">
-        <v>1078.57421875</v>
+        <v>1840.711181640625</v>
       </c>
       <c r="DN4" t="n">
-        <v>1079.537963867188</v>
+        <v>1854.877197265625</v>
       </c>
       <c r="DO4" t="n">
-        <v>1084.460327148438</v>
+        <v>1865.3984375</v>
       </c>
       <c r="DP4" t="n">
-        <v>1120.11962890625</v>
+        <v>1877.423828125</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1136.033325195312</v>
+        <v>1894.158569335938</v>
       </c>
       <c r="DR4" t="n">
-        <v>1146.203369140625</v>
+        <v>1904.705322265625</v>
       </c>
       <c r="DS4" t="n">
-        <v>1164.552368164062</v>
+        <v>1908.607299804688</v>
       </c>
       <c r="DT4" t="n">
-        <v>1166.704467773438</v>
+        <v>1917.632080078125</v>
       </c>
       <c r="DU4" t="n">
-        <v>1172.036254882812</v>
+        <v>1919.210693359375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1175.157470703125</v>
+        <v>1919.603271484375</v>
       </c>
       <c r="DW4" t="n">
-        <v>1172.556884765625</v>
+        <v>1918.636962890625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1175.62060546875</v>
+        <v>1917.926147460938</v>
       </c>
       <c r="DY4" t="n">
-        <v>1178.00439453125</v>
+        <v>1914.925048828125</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1173.251220703125</v>
+        <v>1913.14453125</v>
       </c>
       <c r="EA4" t="n">
-        <v>1179.470581054688</v>
+        <v>1907.90234375</v>
       </c>
       <c r="EB4" t="n">
-        <v>1173.203491210938</v>
+        <v>1902.252563476562</v>
       </c>
       <c r="EC4" t="n">
-        <v>1170.8505859375</v>
+        <v>1895.0302734375</v>
       </c>
       <c r="ED4" t="n">
-        <v>1170.526489257812</v>
+        <v>1886.319091796875</v>
       </c>
       <c r="EE4" t="n">
-        <v>1166.5107421875</v>
+        <v>1880.634765625</v>
       </c>
       <c r="EF4" t="n">
-        <v>1164.654296875</v>
+        <v>1855.453002929688</v>
       </c>
       <c r="EG4" t="n">
-        <v>1151.86767578125</v>
+        <v>1857.534423828125</v>
       </c>
       <c r="EH4" t="n">
-        <v>1136.387939453125</v>
+        <v>1859.515747070312</v>
       </c>
       <c r="EI4" t="n">
-        <v>1125.531127929688</v>
+        <v>1831.6845703125</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1120.425537109375</v>
+        <v>1824.352294921875</v>
       </c>
       <c r="EK4" t="n">
-        <v>1120.01171875</v>
+        <v>1835.552856445312</v>
       </c>
       <c r="EL4" t="n">
-        <v>1120.192626953125</v>
+        <v>1836.58349609375</v>
       </c>
       <c r="EM4" t="n">
-        <v>1119.624633789062</v>
+        <v>1827.470092773438</v>
       </c>
       <c r="EN4" t="n">
-        <v>1117.0576171875</v>
+        <v>1841.015625</v>
       </c>
       <c r="EO4" t="n">
-        <v>1114.095581054688</v>
+        <v>1843.9521484375</v>
       </c>
       <c r="EP4" t="n">
-        <v>1102.973510742188</v>
+        <v>1835.956787109375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1107.538330078125</v>
+        <v>1842.915893554688</v>
       </c>
       <c r="ER4" t="n">
-        <v>1093.459350585938</v>
+        <v>1859.756225585938</v>
       </c>
       <c r="ES4" t="n">
-        <v>1076.228149414062</v>
+        <v>1859.896118164062</v>
       </c>
       <c r="ET4" t="n">
-        <v>1058.98876953125</v>
+        <v>1860.953979492188</v>
       </c>
       <c r="EU4" t="n">
-        <v>1042.933715820312</v>
+        <v>1856.558715820312</v>
       </c>
       <c r="EV4" t="n">
-        <v>1007.567749023438</v>
+        <v>1853.8154296875</v>
       </c>
       <c r="EW4" t="n">
-        <v>963.4258422851562</v>
+        <v>1843.813354492188</v>
       </c>
       <c r="EX4" t="n">
-        <v>940.0733032226562</v>
+        <v>1822.029663085938</v>
       </c>
       <c r="EY4" t="n">
-        <v>897.9129638671875</v>
+        <v>1827.747680664062</v>
       </c>
       <c r="EZ4" t="n">
-        <v>837.2713623046875</v>
+        <v>1806.145874023438</v>
       </c>
       <c r="FA4" t="n">
-        <v>800.653076171875</v>
+        <v>1824.047485351562</v>
       </c>
       <c r="FB4" t="n">
-        <v>767.9752197265625</v>
+        <v>1827.178466796875</v>
       </c>
       <c r="FC4" t="n">
-        <v>712.9155883789062</v>
+        <v>1826.212890625</v>
       </c>
       <c r="FD4" t="n">
-        <v>671.653564453125</v>
+        <v>1846.83447265625</v>
       </c>
       <c r="FE4" t="n">
-        <v>642.9688720703125</v>
+        <v>1866.423217773438</v>
       </c>
       <c r="FF4" t="n">
-        <v>613.4157104492188</v>
+        <v>1875.14794921875</v>
       </c>
       <c r="FG4" t="n">
-        <v>593.9580078125</v>
+        <v>1887.069458007812</v>
       </c>
       <c r="FH4" t="n">
-        <v>575.883544921875</v>
+        <v>1892.363891601562</v>
       </c>
       <c r="FI4" t="n">
-        <v>567.60791015625</v>
+        <v>1895.18310546875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>531.0669555664062</v>
+        <v>1903.867919921875</v>
       </c>
       <c r="FK4" t="n">
-        <v>520.7772216796875</v>
+        <v>1904.290405273438</v>
       </c>
       <c r="FL4" t="n">
-        <v>522.2625732421875</v>
+        <v>1904.048950195312</v>
       </c>
       <c r="FM4" t="n">
-        <v>525.3195190429688</v>
+        <v>1902.255126953125</v>
       </c>
       <c r="FN4" t="n">
-        <v>521.2479248046875</v>
+        <v>1893.02685546875</v>
       </c>
       <c r="FO4" t="n">
-        <v>525.9270629882812</v>
+        <v>1889.801635742188</v>
       </c>
       <c r="FP4" t="n">
-        <v>466.3287963867188</v>
+        <v>1876.67333984375</v>
       </c>
       <c r="FQ4" t="n">
-        <v>478.2980346679688</v>
+        <v>1866.126342773438</v>
       </c>
       <c r="FR4" t="n">
-        <v>523.99609375</v>
+        <v>1844.647338867188</v>
       </c>
       <c r="FS4" t="n">
-        <v>549.33203125</v>
+        <v>1846.290283203125</v>
       </c>
       <c r="FT4" t="n">
-        <v>556.851806640625</v>
+        <v>1834.256591796875</v>
       </c>
       <c r="FU4" t="n">
-        <v>538.4620361328125</v>
+        <v>1817.38134765625</v>
       </c>
       <c r="FV4" t="n">
-        <v>511.7688903808594</v>
+        <v>1832.103759765625</v>
       </c>
       <c r="FW4" t="n">
-        <v>505.7557983398438</v>
+        <v>1826.301391601562</v>
       </c>
       <c r="FX4" t="n">
-        <v>495.6614990234375</v>
+        <v>1820.506225585938</v>
       </c>
       <c r="FY4" t="n">
-        <v>480.8048706054688</v>
+        <v>1829.030517578125</v>
       </c>
       <c r="FZ4" t="n">
-        <v>483.4326782226562</v>
+        <v>1838.435546875</v>
       </c>
       <c r="GA4" t="n">
-        <v>475.892333984375</v>
+        <v>1838.423950195312</v>
       </c>
       <c r="GB4" t="n">
-        <v>482.743408203125</v>
+        <v>1857.7451171875</v>
       </c>
       <c r="GC4" t="n">
-        <v>446.9215087890625</v>
+        <v>1861.177856445312</v>
       </c>
       <c r="GD4" t="n">
-        <v>422.8811950683594</v>
+        <v>1853.575317382812</v>
       </c>
       <c r="GE4" t="n">
-        <v>394.8739624023438</v>
+        <v>1851.128662109375</v>
       </c>
       <c r="GF4" t="n">
-        <v>369.6958312988281</v>
+        <v>1850.77783203125</v>
       </c>
       <c r="GG4" t="n">
-        <v>323.4490966796875</v>
+        <v>1850.320922851562</v>
       </c>
       <c r="GH4" t="n">
-        <v>312.1932678222656</v>
+        <v>1850.125</v>
       </c>
       <c r="GI4" t="n">
-        <v>268.6982727050781</v>
+        <v>1849.013793945312</v>
       </c>
       <c r="GJ4" t="n">
-        <v>248.3007202148438</v>
+        <v>1818.904052734375</v>
       </c>
       <c r="GK4" t="n">
-        <v>248.6984405517578</v>
+        <v>1811.108764648438</v>
       </c>
       <c r="GL4" t="n">
-        <v>241.5686187744141</v>
+        <v>1804.681884765625</v>
       </c>
       <c r="GM4" t="n">
-        <v>240.2867889404297</v>
+        <v>1822.088134765625</v>
       </c>
       <c r="GN4" t="n">
-        <v>244.2147521972656</v>
+        <v>1831.061279296875</v>
       </c>
       <c r="GO4" t="n">
-        <v>247.4293823242188</v>
+        <v>1826.2509765625</v>
       </c>
       <c r="GP4" t="n">
-        <v>246.4319610595703</v>
+        <v>1867.822143554688</v>
       </c>
       <c r="GQ4" t="n">
-        <v>250.0960083007812</v>
+        <v>1888.105834960938</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>1898.315673828125</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>1918.760375976562</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>1923.955078125</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>1923.5078125</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>1922.3486328125</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>1910.057983398438</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>1888.563354492188</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>1864.07763671875</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1844.785522460938</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>1822.302001953125</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>1820.3046875</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1821.70751953125</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1804.877807617188</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1813.27490234375</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1827.94482421875</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1830.160766601562</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1843.935791015625</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1861.416015625</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1853.550659179688</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1846.754638671875</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1835.889038085938</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1835.11083984375</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1836.091064453125</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1837.49755859375</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1809.94091796875</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1819.571533203125</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1819.7548828125</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1834.216552734375</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1805.364501953125</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1833.6806640625</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1855.301147460938</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1882.553466796875</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1895.146240234375</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1917.604614257812</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1932.25537109375</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1927.681640625</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1924.255493164062</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1920.453979492188</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1908.199584960938</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1899.4501953125</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1885.629760742188</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1870.695678710938</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>1862.5263671875</v>
+      </c>
+      <c r="II4" t="n">
+        <v>1856.407958984375</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>1817.599975585938</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>1845.285400390625</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>1820.302734375</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>1811.089721679688</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>1829.57763671875</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>1808.021484375</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>1798.1728515625</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>1831.984008789062</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>1847.34716796875</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>1843.037353515625</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>1845.269775390625</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>1818.356079101562</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>1830.435546875</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1802.02978515625</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>1827.258422851562</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>1814.259033203125</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>1853.401611328125</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>1883.8466796875</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>1902.103271484375</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>1929.653686523438</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>1942.112915039062</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>1938.479614257812</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>1936.354736328125</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>1932.4453125</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>1910.306518554688</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>1890.77197265625</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>1889.045654296875</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>1876.400390625</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1862.98095703125</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>1846.281127929688</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>1837.15185546875</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>1808.38232421875</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>1816.152587890625</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>1805.222412109375</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1818.22509765625</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1821.857543945312</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>1847.68310546875</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>1843.264526367188</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>1839.757568359375</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>1838.17138671875</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>1834.8837890625</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>1833.827026367188</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>1827.62841796875</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>1811.545776367188</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>1802.838012695312</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>1790.61328125</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>1749.622192382812</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>1767.858154296875</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>1804.198608398438</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1929.876708984375</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2004.524291992188</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2012.611083984375</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>2029.04052734375</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1984.70458984375</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1855.529052734375</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1758.635986328125</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1624.007080078125</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1413.78759765625</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1282.037841796875</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1160.401977539062</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1062.206787109375</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>966.991943359375</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>899.7476806640625</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>780.4765625</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>695.0880126953125</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>620.9977416992188</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>528.4032592773438</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>478.3944702148438</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>440.0557250976562</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>400.8496704101562</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>390.9359436035156</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>390.3800048828125</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>389.4569702148438</v>
       </c>
     </row>
   </sheetData>

--- a/left_wrist_Data.xlsx
+++ b/left_wrist_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LD4"/>
+  <dimension ref="A1:MF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,2855 +1382,3191 @@
       <c r="LD1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>518.7897338867188</v>
+        <v>466.17138671875</v>
       </c>
       <c r="B2" t="n">
-        <v>518.7295532226562</v>
+        <v>462.4552001953125</v>
       </c>
       <c r="C2" t="n">
-        <v>509.7899780273438</v>
+        <v>455.5684814453125</v>
       </c>
       <c r="D2" t="n">
-        <v>487.22119140625</v>
+        <v>450.0048217773438</v>
       </c>
       <c r="E2" t="n">
-        <v>472.2787475585938</v>
+        <v>442.8734741210938</v>
       </c>
       <c r="F2" t="n">
-        <v>460.5887145996094</v>
+        <v>433.5558471679688</v>
       </c>
       <c r="G2" t="n">
-        <v>448.4483337402344</v>
+        <v>422.8152465820312</v>
       </c>
       <c r="H2" t="n">
-        <v>436.7178955078125</v>
+        <v>415.8232116699219</v>
       </c>
       <c r="I2" t="n">
-        <v>428.0430603027344</v>
+        <v>406.4673461914062</v>
       </c>
       <c r="J2" t="n">
-        <v>422.3526306152344</v>
+        <v>402.2257080078125</v>
       </c>
       <c r="K2" t="n">
-        <v>421.2802734375</v>
+        <v>396.9908447265625</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5851440429688</v>
+        <v>393.1473388671875</v>
       </c>
       <c r="M2" t="n">
-        <v>418.88623046875</v>
+        <v>389.5148010253906</v>
       </c>
       <c r="N2" t="n">
-        <v>416.9076538085938</v>
+        <v>388.9486999511719</v>
       </c>
       <c r="O2" t="n">
-        <v>415.1242065429688</v>
+        <v>388.5196533203125</v>
       </c>
       <c r="P2" t="n">
-        <v>413.3542175292969</v>
+        <v>386.9488525390625</v>
       </c>
       <c r="Q2" t="n">
-        <v>412.2227172851562</v>
+        <v>384.7514343261719</v>
       </c>
       <c r="R2" t="n">
-        <v>412.7762451171875</v>
+        <v>383.6237182617188</v>
       </c>
       <c r="S2" t="n">
-        <v>412.9403076171875</v>
+        <v>382.0684204101562</v>
       </c>
       <c r="T2" t="n">
-        <v>412.5281982421875</v>
+        <v>380.8094482421875</v>
       </c>
       <c r="U2" t="n">
-        <v>411.7125244140625</v>
+        <v>379.6881713867188</v>
       </c>
       <c r="V2" t="n">
-        <v>410.3140563964844</v>
+        <v>378.5320739746094</v>
       </c>
       <c r="W2" t="n">
-        <v>409.790283203125</v>
+        <v>377.9009704589844</v>
       </c>
       <c r="X2" t="n">
-        <v>408.52197265625</v>
+        <v>377.2003784179688</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.1393432617188</v>
+        <v>377.696044921875</v>
       </c>
       <c r="Z2" t="n">
-        <v>399.3014831542969</v>
+        <v>380.4312744140625</v>
       </c>
       <c r="AA2" t="n">
-        <v>393.8244934082031</v>
+        <v>380.5569458007812</v>
       </c>
       <c r="AB2" t="n">
-        <v>389.3472900390625</v>
+        <v>379.0668334960938</v>
       </c>
       <c r="AC2" t="n">
-        <v>383.8329467773438</v>
+        <v>377.4169921875</v>
       </c>
       <c r="AD2" t="n">
-        <v>379.1185302734375</v>
+        <v>376.0707092285156</v>
       </c>
       <c r="AE2" t="n">
-        <v>374.9794921875</v>
+        <v>375.827880859375</v>
       </c>
       <c r="AF2" t="n">
-        <v>371.3041687011719</v>
+        <v>375.2484741210938</v>
       </c>
       <c r="AG2" t="n">
-        <v>367.9910583496094</v>
+        <v>375.1630249023438</v>
       </c>
       <c r="AH2" t="n">
-        <v>363.041015625</v>
+        <v>376.534423828125</v>
       </c>
       <c r="AI2" t="n">
-        <v>359.4477844238281</v>
+        <v>378.8910522460938</v>
       </c>
       <c r="AJ2" t="n">
-        <v>356.7980651855469</v>
+        <v>381.1097717285156</v>
       </c>
       <c r="AK2" t="n">
-        <v>353.8623046875</v>
+        <v>381.4404907226562</v>
       </c>
       <c r="AL2" t="n">
-        <v>349.7960815429688</v>
+        <v>380.4570922851562</v>
       </c>
       <c r="AM2" t="n">
-        <v>351.5568542480469</v>
+        <v>379.3363037109375</v>
       </c>
       <c r="AN2" t="n">
-        <v>348.1376647949219</v>
+        <v>378.6363220214844</v>
       </c>
       <c r="AO2" t="n">
-        <v>344.00146484375</v>
+        <v>377.8583068847656</v>
       </c>
       <c r="AP2" t="n">
-        <v>339.7639770507812</v>
+        <v>376.458984375</v>
       </c>
       <c r="AQ2" t="n">
-        <v>336.9989318847656</v>
+        <v>373.4472351074219</v>
       </c>
       <c r="AR2" t="n">
-        <v>336.8952026367188</v>
+        <v>369.5472717285156</v>
       </c>
       <c r="AS2" t="n">
-        <v>337.7691650390625</v>
+        <v>367.2781677246094</v>
       </c>
       <c r="AT2" t="n">
-        <v>339.2343444824219</v>
+        <v>363.8309936523438</v>
       </c>
       <c r="AU2" t="n">
-        <v>338.8020629882812</v>
+        <v>358.9151306152344</v>
       </c>
       <c r="AV2" t="n">
-        <v>338.7931518554688</v>
+        <v>356.12451171875</v>
       </c>
       <c r="AW2" t="n">
-        <v>338.5398864746094</v>
+        <v>354.6939697265625</v>
       </c>
       <c r="AX2" t="n">
-        <v>338.4871826171875</v>
+        <v>351.7080078125</v>
       </c>
       <c r="AY2" t="n">
-        <v>339.0881958007812</v>
+        <v>349.8827514648438</v>
       </c>
       <c r="AZ2" t="n">
-        <v>338.2189331054688</v>
+        <v>344.9898071289062</v>
       </c>
       <c r="BA2" t="n">
-        <v>337.181396484375</v>
+        <v>340.9968872070312</v>
       </c>
       <c r="BB2" t="n">
-        <v>336.5961303710938</v>
+        <v>340.4389953613281</v>
       </c>
       <c r="BC2" t="n">
-        <v>335.3625183105469</v>
+        <v>338.4487915039062</v>
       </c>
       <c r="BD2" t="n">
-        <v>334.3770751953125</v>
+        <v>337.6707153320312</v>
       </c>
       <c r="BE2" t="n">
-        <v>334.2400817871094</v>
+        <v>336.5195922851562</v>
       </c>
       <c r="BF2" t="n">
-        <v>335.0798034667969</v>
+        <v>334.6292724609375</v>
       </c>
       <c r="BG2" t="n">
-        <v>334.0338439941406</v>
+        <v>333.0418395996094</v>
       </c>
       <c r="BH2" t="n">
-        <v>333.6748962402344</v>
+        <v>334.664794921875</v>
       </c>
       <c r="BI2" t="n">
-        <v>338.1273803710938</v>
+        <v>336.0814819335938</v>
       </c>
       <c r="BJ2" t="n">
-        <v>342.7052612304688</v>
+        <v>334.60205078125</v>
       </c>
       <c r="BK2" t="n">
-        <v>344.0534057617188</v>
+        <v>337.7374877929688</v>
       </c>
       <c r="BL2" t="n">
-        <v>352.0537719726562</v>
+        <v>342.8440856933594</v>
       </c>
       <c r="BM2" t="n">
-        <v>366.4421081542969</v>
+        <v>345.0819091796875</v>
       </c>
       <c r="BN2" t="n">
-        <v>376.0348205566406</v>
+        <v>347.7020263671875</v>
       </c>
       <c r="BO2" t="n">
-        <v>382.1580505371094</v>
+        <v>344.4769897460938</v>
       </c>
       <c r="BP2" t="n">
-        <v>387.3057556152344</v>
+        <v>344.4410400390625</v>
       </c>
       <c r="BQ2" t="n">
-        <v>393.718017578125</v>
+        <v>345.89306640625</v>
       </c>
       <c r="BR2" t="n">
-        <v>399.0194702148438</v>
+        <v>348.3793640136719</v>
       </c>
       <c r="BS2" t="n">
-        <v>401.7427062988281</v>
+        <v>348.6575927734375</v>
       </c>
       <c r="BT2" t="n">
-        <v>403.4070434570312</v>
+        <v>347.353271484375</v>
       </c>
       <c r="BU2" t="n">
-        <v>405.683837890625</v>
+        <v>346.1221008300781</v>
       </c>
       <c r="BV2" t="n">
-        <v>409.8674926757812</v>
+        <v>344.3298645019531</v>
       </c>
       <c r="BW2" t="n">
-        <v>412.8535461425781</v>
+        <v>344.853271484375</v>
       </c>
       <c r="BX2" t="n">
-        <v>413.9871520996094</v>
+        <v>344.9865112304688</v>
       </c>
       <c r="BY2" t="n">
-        <v>414.4596862792969</v>
+        <v>343.1053161621094</v>
       </c>
       <c r="BZ2" t="n">
-        <v>414.5562744140625</v>
+        <v>343.4937133789062</v>
       </c>
       <c r="CA2" t="n">
-        <v>414.4734497070312</v>
+        <v>342.0095825195312</v>
       </c>
       <c r="CB2" t="n">
-        <v>414.3807373046875</v>
+        <v>338.5360107421875</v>
       </c>
       <c r="CC2" t="n">
-        <v>414.6038208007812</v>
+        <v>335.8501586914062</v>
       </c>
       <c r="CD2" t="n">
-        <v>414.6629638671875</v>
+        <v>335.3800964355469</v>
       </c>
       <c r="CE2" t="n">
-        <v>414.8952026367188</v>
+        <v>333.9941101074219</v>
       </c>
       <c r="CF2" t="n">
-        <v>414.8712463378906</v>
+        <v>331.7341918945312</v>
       </c>
       <c r="CG2" t="n">
-        <v>413.9843139648438</v>
+        <v>329.689697265625</v>
       </c>
       <c r="CH2" t="n">
-        <v>410.7069396972656</v>
+        <v>330.5535888671875</v>
       </c>
       <c r="CI2" t="n">
-        <v>406.0138549804688</v>
+        <v>329.4311218261719</v>
       </c>
       <c r="CJ2" t="n">
-        <v>400.4048461914062</v>
+        <v>327.71484375</v>
       </c>
       <c r="CK2" t="n">
-        <v>396.2553100585938</v>
+        <v>327.66357421875</v>
       </c>
       <c r="CL2" t="n">
-        <v>391.70556640625</v>
+        <v>327.2940673828125</v>
       </c>
       <c r="CM2" t="n">
-        <v>384.2549133300781</v>
+        <v>326.9417724609375</v>
       </c>
       <c r="CN2" t="n">
-        <v>376.3544311523438</v>
+        <v>326.9154052734375</v>
       </c>
       <c r="CO2" t="n">
-        <v>373.6146240234375</v>
+        <v>327.20849609375</v>
       </c>
       <c r="CP2" t="n">
-        <v>369.8167724609375</v>
+        <v>327.1951599121094</v>
       </c>
       <c r="CQ2" t="n">
-        <v>369.8280334472656</v>
+        <v>327.2625122070312</v>
       </c>
       <c r="CR2" t="n">
-        <v>368.1754150390625</v>
+        <v>327.3922119140625</v>
       </c>
       <c r="CS2" t="n">
-        <v>355.0581665039062</v>
+        <v>328.0715942382812</v>
       </c>
       <c r="CT2" t="n">
-        <v>346.1744384765625</v>
+        <v>328.1958618164062</v>
       </c>
       <c r="CU2" t="n">
-        <v>342.9237365722656</v>
+        <v>328.6908569335938</v>
       </c>
       <c r="CV2" t="n">
-        <v>340.7446899414062</v>
+        <v>328.4290771484375</v>
       </c>
       <c r="CW2" t="n">
-        <v>340.5418395996094</v>
+        <v>330.2957763671875</v>
       </c>
       <c r="CX2" t="n">
-        <v>334.3065795898438</v>
+        <v>330.9981079101562</v>
       </c>
       <c r="CY2" t="n">
-        <v>332.1853942871094</v>
+        <v>331.008544921875</v>
       </c>
       <c r="CZ2" t="n">
-        <v>331.1785278320312</v>
+        <v>331.247314453125</v>
       </c>
       <c r="DA2" t="n">
-        <v>333.2035827636719</v>
+        <v>331.6378784179688</v>
       </c>
       <c r="DB2" t="n">
-        <v>331.5312194824219</v>
+        <v>332.019775390625</v>
       </c>
       <c r="DC2" t="n">
-        <v>329.5563049316406</v>
+        <v>332.8834533691406</v>
       </c>
       <c r="DD2" t="n">
-        <v>330.3695068359375</v>
+        <v>343.2312622070312</v>
       </c>
       <c r="DE2" t="n">
-        <v>330.0086975097656</v>
+        <v>342.4632568359375</v>
       </c>
       <c r="DF2" t="n">
-        <v>329.6602172851562</v>
+        <v>341.850341796875</v>
       </c>
       <c r="DG2" t="n">
-        <v>329.4718017578125</v>
+        <v>342.8369750976562</v>
       </c>
       <c r="DH2" t="n">
-        <v>329.2818603515625</v>
+        <v>352.7044372558594</v>
       </c>
       <c r="DI2" t="n">
-        <v>329.8157348632812</v>
+        <v>377.392333984375</v>
       </c>
       <c r="DJ2" t="n">
-        <v>337.8255615234375</v>
+        <v>381.7716064453125</v>
       </c>
       <c r="DK2" t="n">
-        <v>355.5060424804688</v>
+        <v>384.0360717773438</v>
       </c>
       <c r="DL2" t="n">
-        <v>368.2536315917969</v>
+        <v>385.5188598632812</v>
       </c>
       <c r="DM2" t="n">
-        <v>375.016845703125</v>
+        <v>388.6171875</v>
       </c>
       <c r="DN2" t="n">
-        <v>387.7548828125</v>
+        <v>387.8892517089844</v>
       </c>
       <c r="DO2" t="n">
-        <v>392.3849182128906</v>
+        <v>388.0148010253906</v>
       </c>
       <c r="DP2" t="n">
-        <v>394.847900390625</v>
+        <v>388.2578125</v>
       </c>
       <c r="DQ2" t="n">
-        <v>397.5356750488281</v>
+        <v>388.5588989257812</v>
       </c>
       <c r="DR2" t="n">
-        <v>399.5722961425781</v>
+        <v>388.5606079101562</v>
       </c>
       <c r="DS2" t="n">
-        <v>401.4044799804688</v>
+        <v>389.005126953125</v>
       </c>
       <c r="DT2" t="n">
-        <v>406.9066772460938</v>
+        <v>388.9014282226562</v>
       </c>
       <c r="DU2" t="n">
-        <v>408.9793395996094</v>
+        <v>388.7938232421875</v>
       </c>
       <c r="DV2" t="n">
-        <v>409.5165405273438</v>
+        <v>388.7097778320312</v>
       </c>
       <c r="DW2" t="n">
-        <v>409.5726013183594</v>
+        <v>388.1586303710938</v>
       </c>
       <c r="DX2" t="n">
-        <v>409.3093872070312</v>
+        <v>386.0144348144531</v>
       </c>
       <c r="DY2" t="n">
-        <v>408.6905517578125</v>
+        <v>380.4790649414062</v>
       </c>
       <c r="DZ2" t="n">
-        <v>408.0020751953125</v>
+        <v>363.8147583007812</v>
       </c>
       <c r="EA2" t="n">
-        <v>406.1657104492188</v>
+        <v>356.6096801757812</v>
       </c>
       <c r="EB2" t="n">
-        <v>404.2021484375</v>
+        <v>345.6099853515625</v>
       </c>
       <c r="EC2" t="n">
-        <v>401.3065185546875</v>
+        <v>339.5612182617188</v>
       </c>
       <c r="ED2" t="n">
-        <v>396.4060668945312</v>
+        <v>336.0954284667969</v>
       </c>
       <c r="EE2" t="n">
-        <v>392.742431640625</v>
+        <v>341.3761596679688</v>
       </c>
       <c r="EF2" t="n">
-        <v>379.9263000488281</v>
+        <v>339.9325256347656</v>
       </c>
       <c r="EG2" t="n">
-        <v>379.8683471679688</v>
+        <v>337.1087036132812</v>
       </c>
       <c r="EH2" t="n">
-        <v>378.6395874023438</v>
+        <v>337.4443359375</v>
       </c>
       <c r="EI2" t="n">
-        <v>371.2076416015625</v>
+        <v>338.0332641601562</v>
       </c>
       <c r="EJ2" t="n">
-        <v>369.2027282714844</v>
+        <v>335.5042114257812</v>
       </c>
       <c r="EK2" t="n">
-        <v>363.09521484375</v>
+        <v>335.9734497070312</v>
       </c>
       <c r="EL2" t="n">
-        <v>359.7274475097656</v>
+        <v>334.7503967285156</v>
       </c>
       <c r="EM2" t="n">
-        <v>344.2894897460938</v>
+        <v>336.4620361328125</v>
       </c>
       <c r="EN2" t="n">
-        <v>341.1681518554688</v>
+        <v>337.6180725097656</v>
       </c>
       <c r="EO2" t="n">
-        <v>341.035888671875</v>
+        <v>345.9139404296875</v>
       </c>
       <c r="EP2" t="n">
-        <v>339.5712890625</v>
+        <v>370.9756164550781</v>
       </c>
       <c r="EQ2" t="n">
-        <v>329.3500366210938</v>
+        <v>386.1072082519531</v>
       </c>
       <c r="ER2" t="n">
-        <v>326.5210571289062</v>
+        <v>391.5957336425781</v>
       </c>
       <c r="ES2" t="n">
-        <v>327.3128967285156</v>
+        <v>393.4425354003906</v>
       </c>
       <c r="ET2" t="n">
-        <v>325.2221374511719</v>
+        <v>397.4096069335938</v>
       </c>
       <c r="EU2" t="n">
-        <v>325.3418273925781</v>
+        <v>400.7081909179688</v>
       </c>
       <c r="EV2" t="n">
-        <v>326.1476440429688</v>
+        <v>400.6337280273438</v>
       </c>
       <c r="EW2" t="n">
-        <v>328.2373352050781</v>
+        <v>400.7501831054688</v>
       </c>
       <c r="EX2" t="n">
-        <v>342.6937561035156</v>
+        <v>401.0038757324219</v>
       </c>
       <c r="EY2" t="n">
-        <v>344.5369873046875</v>
+        <v>400.9241943359375</v>
       </c>
       <c r="EZ2" t="n">
-        <v>344.0133972167969</v>
+        <v>400.7722473144531</v>
       </c>
       <c r="FA2" t="n">
-        <v>361.5500183105469</v>
+        <v>400.5822143554688</v>
       </c>
       <c r="FB2" t="n">
-        <v>367.6073913574219</v>
+        <v>400.0343627929688</v>
       </c>
       <c r="FC2" t="n">
-        <v>375.3106079101562</v>
+        <v>397.4426879882812</v>
       </c>
       <c r="FD2" t="n">
-        <v>392.208984375</v>
+        <v>394.5864562988281</v>
       </c>
       <c r="FE2" t="n">
-        <v>395.2679138183594</v>
+        <v>386.6532592773438</v>
       </c>
       <c r="FF2" t="n">
-        <v>396.5630798339844</v>
+        <v>383.3362426757812</v>
       </c>
       <c r="FG2" t="n">
-        <v>399.7000732421875</v>
+        <v>382.4078063964844</v>
       </c>
       <c r="FH2" t="n">
-        <v>401.0599365234375</v>
+        <v>368.2238159179688</v>
       </c>
       <c r="FI2" t="n">
-        <v>400.7149963378906</v>
+        <v>347.6931762695312</v>
       </c>
       <c r="FJ2" t="n">
-        <v>401.5395812988281</v>
+        <v>342.9647521972656</v>
       </c>
       <c r="FK2" t="n">
-        <v>401.3257141113281</v>
+        <v>338.693359375</v>
       </c>
       <c r="FL2" t="n">
-        <v>400.8997192382812</v>
+        <v>338.6979675292969</v>
       </c>
       <c r="FM2" t="n">
-        <v>400.734375</v>
+        <v>338.0738525390625</v>
       </c>
       <c r="FN2" t="n">
-        <v>400.0703430175781</v>
+        <v>338.610107421875</v>
       </c>
       <c r="FO2" t="n">
-        <v>400.0303344726562</v>
+        <v>338.1136474609375</v>
       </c>
       <c r="FP2" t="n">
-        <v>397.18212890625</v>
+        <v>338.5942077636719</v>
       </c>
       <c r="FQ2" t="n">
-        <v>392.5871276855469</v>
+        <v>341.13330078125</v>
       </c>
       <c r="FR2" t="n">
-        <v>379.8993530273438</v>
+        <v>350.044189453125</v>
       </c>
       <c r="FS2" t="n">
-        <v>379.8037109375</v>
+        <v>380.1257934570312</v>
       </c>
       <c r="FT2" t="n">
-        <v>368.682861328125</v>
+        <v>393.4805908203125</v>
       </c>
       <c r="FU2" t="n">
-        <v>364.5488891601562</v>
+        <v>399.0946960449219</v>
       </c>
       <c r="FV2" t="n">
-        <v>359.2396240234375</v>
+        <v>399.9415283203125</v>
       </c>
       <c r="FW2" t="n">
-        <v>354.7704772949219</v>
+        <v>401.782470703125</v>
       </c>
       <c r="FX2" t="n">
-        <v>349.054443359375</v>
+        <v>402.5492858886719</v>
       </c>
       <c r="FY2" t="n">
-        <v>343.4581909179688</v>
+        <v>402.3489685058594</v>
       </c>
       <c r="FZ2" t="n">
-        <v>337.6279907226562</v>
+        <v>401.5950927734375</v>
       </c>
       <c r="GA2" t="n">
-        <v>332.1646728515625</v>
+        <v>401.9061889648438</v>
       </c>
       <c r="GB2" t="n">
-        <v>325.0829467773438</v>
+        <v>401.7540283203125</v>
       </c>
       <c r="GC2" t="n">
-        <v>322.7440185546875</v>
+        <v>401.8460693359375</v>
       </c>
       <c r="GD2" t="n">
-        <v>324.2578735351562</v>
+        <v>401.4950561523438</v>
       </c>
       <c r="GE2" t="n">
-        <v>325.5795593261719</v>
+        <v>400.618408203125</v>
       </c>
       <c r="GF2" t="n">
-        <v>325.4400939941406</v>
+        <v>398.0800170898438</v>
       </c>
       <c r="GG2" t="n">
-        <v>325.5541381835938</v>
+        <v>389.0718994140625</v>
       </c>
       <c r="GH2" t="n">
-        <v>325.6936950683594</v>
+        <v>379.0370483398438</v>
       </c>
       <c r="GI2" t="n">
-        <v>325.1373901367188</v>
+        <v>351.4582824707031</v>
       </c>
       <c r="GJ2" t="n">
-        <v>338.1067199707031</v>
+        <v>343.0291137695312</v>
       </c>
       <c r="GK2" t="n">
-        <v>349.3505249023438</v>
+        <v>336.5160827636719</v>
       </c>
       <c r="GL2" t="n">
-        <v>353.2159423828125</v>
+        <v>338.5658264160156</v>
       </c>
       <c r="GM2" t="n">
-        <v>365.316650390625</v>
+        <v>335.8572998046875</v>
       </c>
       <c r="GN2" t="n">
-        <v>372.7580261230469</v>
+        <v>334.3981323242188</v>
       </c>
       <c r="GO2" t="n">
-        <v>382.7439575195312</v>
+        <v>334.6531372070312</v>
       </c>
       <c r="GP2" t="n">
-        <v>395.35693359375</v>
+        <v>334.6873474121094</v>
       </c>
       <c r="GQ2" t="n">
-        <v>401.4326782226562</v>
+        <v>334.2537841796875</v>
       </c>
       <c r="GR2" t="n">
-        <v>402.9197387695312</v>
+        <v>333.8993835449219</v>
       </c>
       <c r="GS2" t="n">
-        <v>404.11376953125</v>
+        <v>335.5615844726562</v>
       </c>
       <c r="GT2" t="n">
-        <v>404.82470703125</v>
+        <v>348.0420532226562</v>
       </c>
       <c r="GU2" t="n">
-        <v>404.9183349609375</v>
+        <v>357.7070617675781</v>
       </c>
       <c r="GV2" t="n">
-        <v>404.3819580078125</v>
+        <v>380.0740966796875</v>
       </c>
       <c r="GW2" t="n">
-        <v>402.3244934082031</v>
+        <v>389.6351623535156</v>
       </c>
       <c r="GX2" t="n">
-        <v>398.9663696289062</v>
+        <v>394.5875854492188</v>
       </c>
       <c r="GY2" t="n">
-        <v>390.8802490234375</v>
+        <v>400.0426635742188</v>
       </c>
       <c r="GZ2" t="n">
-        <v>384.5549926757812</v>
+        <v>401.0736083984375</v>
       </c>
       <c r="HA2" t="n">
-        <v>374.0523986816406</v>
+        <v>401.0246276855469</v>
       </c>
       <c r="HB2" t="n">
-        <v>370.4887390136719</v>
+        <v>400.4340209960938</v>
       </c>
       <c r="HC2" t="n">
-        <v>363.2725524902344</v>
+        <v>402.0867309570312</v>
       </c>
       <c r="HD2" t="n">
-        <v>355.4201965332031</v>
+        <v>402.1343383789062</v>
       </c>
       <c r="HE2" t="n">
-        <v>345.0751342773438</v>
+        <v>401.6776123046875</v>
       </c>
       <c r="HF2" t="n">
-        <v>342.2189636230469</v>
+        <v>401.6900329589844</v>
       </c>
       <c r="HG2" t="n">
-        <v>328.7228698730469</v>
+        <v>401.6292724609375</v>
       </c>
       <c r="HH2" t="n">
-        <v>323.8682861328125</v>
+        <v>401.1868591308594</v>
       </c>
       <c r="HI2" t="n">
-        <v>322.7738037109375</v>
+        <v>398.3148803710938</v>
       </c>
       <c r="HJ2" t="n">
-        <v>323.2303466796875</v>
+        <v>392.0806274414062</v>
       </c>
       <c r="HK2" t="n">
-        <v>324.1006164550781</v>
+        <v>387.2009582519531</v>
       </c>
       <c r="HL2" t="n">
-        <v>325.151611328125</v>
+        <v>378.709716796875</v>
       </c>
       <c r="HM2" t="n">
-        <v>325.2173156738281</v>
+        <v>338.9857788085938</v>
       </c>
       <c r="HN2" t="n">
-        <v>324.6898193359375</v>
+        <v>337.1652526855469</v>
       </c>
       <c r="HO2" t="n">
-        <v>323.7239379882812</v>
+        <v>329.0811767578125</v>
       </c>
       <c r="HP2" t="n">
-        <v>336.7606201171875</v>
+        <v>332.2301635742188</v>
       </c>
       <c r="HQ2" t="n">
-        <v>342.2520751953125</v>
+        <v>337.5867919921875</v>
       </c>
       <c r="HR2" t="n">
-        <v>338.9194030761719</v>
+        <v>335.0059814453125</v>
       </c>
       <c r="HS2" t="n">
-        <v>358.2354125976562</v>
+        <v>335.5703735351562</v>
       </c>
       <c r="HT2" t="n">
-        <v>368.672119140625</v>
+        <v>339.8323974609375</v>
       </c>
       <c r="HU2" t="n">
-        <v>376.1975708007812</v>
+        <v>331.4298095703125</v>
       </c>
       <c r="HV2" t="n">
-        <v>390.9371948242188</v>
+        <v>344.4702758789062</v>
       </c>
       <c r="HW2" t="n">
-        <v>397.2018432617188</v>
+        <v>388.22314453125</v>
       </c>
       <c r="HX2" t="n">
-        <v>398.8616638183594</v>
+        <v>398.1917114257812</v>
       </c>
       <c r="HY2" t="n">
-        <v>400.6076049804688</v>
+        <v>402.1983642578125</v>
       </c>
       <c r="HZ2" t="n">
-        <v>402.3154296875</v>
+        <v>398.9258422851562</v>
       </c>
       <c r="IA2" t="n">
-        <v>401.9388427734375</v>
+        <v>400.4451904296875</v>
       </c>
       <c r="IB2" t="n">
-        <v>401.6859130859375</v>
+        <v>400.7654113769531</v>
       </c>
       <c r="IC2" t="n">
-        <v>402.3777770996094</v>
+        <v>401.2930603027344</v>
       </c>
       <c r="ID2" t="n">
-        <v>400.5431823730469</v>
+        <v>401.1047973632812</v>
       </c>
       <c r="IE2" t="n">
-        <v>399.6029052734375</v>
+        <v>400.3597412109375</v>
       </c>
       <c r="IF2" t="n">
-        <v>394.99853515625</v>
+        <v>399.8013000488281</v>
       </c>
       <c r="IG2" t="n">
-        <v>389.4346923828125</v>
+        <v>401.1324462890625</v>
       </c>
       <c r="IH2" t="n">
-        <v>382.909912109375</v>
+        <v>401.5419921875</v>
       </c>
       <c r="II2" t="n">
-        <v>377.3314819335938</v>
+        <v>394.8056335449219</v>
       </c>
       <c r="IJ2" t="n">
-        <v>363.909912109375</v>
+        <v>385.9876098632812</v>
       </c>
       <c r="IK2" t="n">
-        <v>363.4996948242188</v>
+        <v>361.5471801757812</v>
       </c>
       <c r="IL2" t="n">
-        <v>356.9057006835938</v>
+        <v>325.7698364257812</v>
       </c>
       <c r="IM2" t="n">
-        <v>344.267333984375</v>
+        <v>342.0911254882812</v>
       </c>
       <c r="IN2" t="n">
-        <v>342.4757080078125</v>
+        <v>335.8372497558594</v>
       </c>
       <c r="IO2" t="n">
-        <v>337.8407592773438</v>
+        <v>330.642822265625</v>
       </c>
       <c r="IP2" t="n">
-        <v>336.525634765625</v>
+        <v>331.6107788085938</v>
       </c>
       <c r="IQ2" t="n">
-        <v>330.2581787109375</v>
+        <v>335.573486328125</v>
       </c>
       <c r="IR2" t="n">
-        <v>330.9272766113281</v>
+        <v>338.8951110839844</v>
       </c>
       <c r="IS2" t="n">
-        <v>332.1049499511719</v>
+        <v>333.1865844726562</v>
       </c>
       <c r="IT2" t="n">
-        <v>329.4205322265625</v>
+        <v>388.505615234375</v>
       </c>
       <c r="IU2" t="n">
-        <v>336.7802734375</v>
+        <v>391.5203857421875</v>
       </c>
       <c r="IV2" t="n">
-        <v>339.3442077636719</v>
+        <v>401.2969360351562</v>
       </c>
       <c r="IW2" t="n">
-        <v>348.1458740234375</v>
+        <v>401.5267639160156</v>
       </c>
       <c r="IX2" t="n">
-        <v>361.9805297851562</v>
+        <v>398.84033203125</v>
       </c>
       <c r="IY2" t="n">
-        <v>379.5421752929688</v>
+        <v>399.2299194335938</v>
       </c>
       <c r="IZ2" t="n">
-        <v>391.7952880859375</v>
+        <v>399.5814514160156</v>
       </c>
       <c r="JA2" t="n">
-        <v>399.5031127929688</v>
+        <v>399.3741149902344</v>
       </c>
       <c r="JB2" t="n">
-        <v>402.6446228027344</v>
+        <v>398.7211303710938</v>
       </c>
       <c r="JC2" t="n">
-        <v>406.7886352539062</v>
+        <v>397.4346313476562</v>
       </c>
       <c r="JD2" t="n">
-        <v>406.8701782226562</v>
+        <v>390.9818725585938</v>
       </c>
       <c r="JE2" t="n">
-        <v>405.5304565429688</v>
+        <v>380.6360168457031</v>
       </c>
       <c r="JF2" t="n">
-        <v>406.7548217773438</v>
+        <v>330.3312683105469</v>
       </c>
       <c r="JG2" t="n">
-        <v>406.0033874511719</v>
+        <v>334.9869384765625</v>
       </c>
       <c r="JH2" t="n">
-        <v>403.3139038085938</v>
+        <v>332.1615295410156</v>
       </c>
       <c r="JI2" t="n">
-        <v>399.2445678710938</v>
+        <v>331.0086059570312</v>
       </c>
       <c r="JJ2" t="n">
-        <v>396.9306945800781</v>
+        <v>333.8778381347656</v>
       </c>
       <c r="JK2" t="n">
-        <v>391.5950927734375</v>
+        <v>331.4810485839844</v>
       </c>
       <c r="JL2" t="n">
-        <v>384.4535827636719</v>
+        <v>334.8033142089844</v>
       </c>
       <c r="JM2" t="n">
-        <v>376.4743347167969</v>
+        <v>333.9697875976562</v>
       </c>
       <c r="JN2" t="n">
-        <v>364.947265625</v>
+        <v>381.724365234375</v>
       </c>
       <c r="JO2" t="n">
-        <v>358.4722290039062</v>
+        <v>393.1317443847656</v>
       </c>
       <c r="JP2" t="n">
-        <v>354.0716247558594</v>
+        <v>399.99560546875</v>
       </c>
       <c r="JQ2" t="n">
-        <v>338.9456176757812</v>
+        <v>402.637939453125</v>
       </c>
       <c r="JR2" t="n">
-        <v>338.3847045898438</v>
+        <v>400.7397155761719</v>
       </c>
       <c r="JS2" t="n">
-        <v>337.5475769042969</v>
+        <v>399.9799194335938</v>
       </c>
       <c r="JT2" t="n">
-        <v>324.8121643066406</v>
+        <v>400.2887573242188</v>
       </c>
       <c r="JU2" t="n">
-        <v>324.2278442382812</v>
+        <v>400.36767578125</v>
       </c>
       <c r="JV2" t="n">
-        <v>324.3779296875</v>
+        <v>401.2045593261719</v>
       </c>
       <c r="JW2" t="n">
-        <v>323.9580078125</v>
+        <v>401.1239318847656</v>
       </c>
       <c r="JX2" t="n">
-        <v>323.173583984375</v>
+        <v>400.8113098144531</v>
       </c>
       <c r="JY2" t="n">
-        <v>323.7014770507812</v>
+        <v>400.2490539550781</v>
       </c>
       <c r="JZ2" t="n">
-        <v>323.6485595703125</v>
+        <v>400.6687927246094</v>
       </c>
       <c r="KA2" t="n">
-        <v>319.1818542480469</v>
+        <v>401.8368225097656</v>
       </c>
       <c r="KB2" t="n">
-        <v>321.0967407226562</v>
+        <v>403.6746826171875</v>
       </c>
       <c r="KC2" t="n">
-        <v>322.2044067382812</v>
+        <v>401.4693603515625</v>
       </c>
       <c r="KD2" t="n">
-        <v>346.9856567382812</v>
+        <v>397.3251647949219</v>
       </c>
       <c r="KE2" t="n">
-        <v>353.0389709472656</v>
+        <v>384.94384765625</v>
       </c>
       <c r="KF2" t="n">
-        <v>361.4056701660156</v>
+        <v>362.1806030273438</v>
       </c>
       <c r="KG2" t="n">
-        <v>370.4163208007812</v>
+        <v>353.8393859863281</v>
       </c>
       <c r="KH2" t="n">
-        <v>370.82421875</v>
+        <v>339.0509643554688</v>
       </c>
       <c r="KI2" t="n">
-        <v>370.5096740722656</v>
+        <v>340.8151245117188</v>
       </c>
       <c r="KJ2" t="n">
-        <v>368.7929077148438</v>
+        <v>344.0243835449219</v>
       </c>
       <c r="KK2" t="n">
-        <v>370.0369567871094</v>
+        <v>342.3601989746094</v>
       </c>
       <c r="KL2" t="n">
-        <v>370.4096069335938</v>
+        <v>337.991943359375</v>
       </c>
       <c r="KM2" t="n">
-        <v>372.5879516601562</v>
+        <v>352.7307739257812</v>
       </c>
       <c r="KN2" t="n">
-        <v>377.82373046875</v>
+        <v>354.0942993164062</v>
       </c>
       <c r="KO2" t="n">
-        <v>386.6096496582031</v>
+        <v>359.7843933105469</v>
       </c>
       <c r="KP2" t="n">
-        <v>393.4106750488281</v>
+        <v>367.6256103515625</v>
       </c>
       <c r="KQ2" t="n">
-        <v>399.3150634765625</v>
+        <v>373.2120361328125</v>
       </c>
       <c r="KR2" t="n">
-        <v>399.0418701171875</v>
+        <v>373.7893676757812</v>
       </c>
       <c r="KS2" t="n">
-        <v>401.0550231933594</v>
+        <v>376.8866577148438</v>
       </c>
       <c r="KT2" t="n">
-        <v>406.201904296875</v>
+        <v>381.2369995117188</v>
       </c>
       <c r="KU2" t="n">
-        <v>418.1249389648438</v>
+        <v>386.7389526367188</v>
       </c>
       <c r="KV2" t="n">
-        <v>428.0905151367188</v>
+        <v>388.6748046875</v>
       </c>
       <c r="KW2" t="n">
-        <v>442.2157592773438</v>
+        <v>387.1813354492188</v>
       </c>
       <c r="KX2" t="n">
-        <v>460.0818176269531</v>
+        <v>385.1605224609375</v>
       </c>
       <c r="KY2" t="n">
-        <v>479.9043579101562</v>
+        <v>380.4627685546875</v>
       </c>
       <c r="KZ2" t="n">
-        <v>515.4522094726562</v>
+        <v>380.6278076171875</v>
       </c>
       <c r="LA2" t="n">
-        <v>544.5211181640625</v>
+        <v>383.44873046875</v>
       </c>
       <c r="LB2" t="n">
-        <v>550.5518188476562</v>
+        <v>390.2068481445312</v>
       </c>
       <c r="LC2" t="n">
-        <v>551.6778564453125</v>
+        <v>413.2224731445312</v>
       </c>
       <c r="LD2" t="n">
-        <v>556.0211791992188</v>
+        <v>440.0202941894531</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>468.4630737304688</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>512.3214721679688</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>544.22265625</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>584.4894409179688</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>714.5014038085938</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>422.6615905761719</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>434.3182678222656</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>372.0400390625</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>373.8360900878906</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>458.0093383789062</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>537.5220947265625</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>500.9957580566406</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>479.4332580566406</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>603.8372192382812</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>576.405029296875</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>609.3421630859375</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>620.5433349609375</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>619.1016235351562</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>619.398681640625</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>623.7682495117188</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>624.0665893554688</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>638.5634765625</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>651.8294677734375</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>501.1844177246094</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>503.6420288085938</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>495.6293029785156</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>500.2398376464844</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>499.140625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>381.8839416503906</v>
+        <v>428.1491088867188</v>
       </c>
       <c r="B3" t="n">
-        <v>375.8511962890625</v>
+        <v>422.1610717773438</v>
       </c>
       <c r="C3" t="n">
-        <v>365.7651977539062</v>
+        <v>413.7779846191406</v>
       </c>
       <c r="D3" t="n">
-        <v>359.2550659179688</v>
+        <v>406.3764343261719</v>
       </c>
       <c r="E3" t="n">
-        <v>358.1741027832031</v>
+        <v>400.1452331542969</v>
       </c>
       <c r="F3" t="n">
-        <v>361.115234375</v>
+        <v>396.3518371582031</v>
       </c>
       <c r="G3" t="n">
-        <v>367.25341796875</v>
+        <v>396.1736450195312</v>
       </c>
       <c r="H3" t="n">
-        <v>375.6193542480469</v>
+        <v>395.3173828125</v>
       </c>
       <c r="I3" t="n">
-        <v>383.737060546875</v>
+        <v>393.7908935546875</v>
       </c>
       <c r="J3" t="n">
-        <v>385.5010070800781</v>
+        <v>391.0452880859375</v>
       </c>
       <c r="K3" t="n">
-        <v>388.8169555664062</v>
+        <v>387.5874633789062</v>
       </c>
       <c r="L3" t="n">
-        <v>390.4954833984375</v>
+        <v>383.5817565917969</v>
       </c>
       <c r="M3" t="n">
-        <v>394.6112060546875</v>
+        <v>377.2245483398438</v>
       </c>
       <c r="N3" t="n">
-        <v>396.3316650390625</v>
+        <v>368.9776916503906</v>
       </c>
       <c r="O3" t="n">
-        <v>393.4176940917969</v>
+        <v>364.2906188964844</v>
       </c>
       <c r="P3" t="n">
-        <v>390.5385131835938</v>
+        <v>359.369140625</v>
       </c>
       <c r="Q3" t="n">
-        <v>386.973388671875</v>
+        <v>357.0394897460938</v>
       </c>
       <c r="R3" t="n">
-        <v>381.842041015625</v>
+        <v>354.2215576171875</v>
       </c>
       <c r="S3" t="n">
-        <v>377.4714965820312</v>
+        <v>351.4510498046875</v>
       </c>
       <c r="T3" t="n">
-        <v>372.8982543945312</v>
+        <v>350.3779296875</v>
       </c>
       <c r="U3" t="n">
-        <v>369.8513488769531</v>
+        <v>350.2130126953125</v>
       </c>
       <c r="V3" t="n">
-        <v>368.0658569335938</v>
+        <v>350.7966918945312</v>
       </c>
       <c r="W3" t="n">
-        <v>369.0827331542969</v>
+        <v>352.2711181640625</v>
       </c>
       <c r="X3" t="n">
-        <v>370.0814208984375</v>
+        <v>350.5624694824219</v>
       </c>
       <c r="Y3" t="n">
-        <v>370.4806213378906</v>
+        <v>347.2587280273438</v>
       </c>
       <c r="Z3" t="n">
-        <v>372.8200073242188</v>
+        <v>346.2177429199219</v>
       </c>
       <c r="AA3" t="n">
-        <v>374.6221618652344</v>
+        <v>345.2588195800781</v>
       </c>
       <c r="AB3" t="n">
-        <v>375.863037109375</v>
+        <v>344.1671447753906</v>
       </c>
       <c r="AC3" t="n">
-        <v>373.4722595214844</v>
+        <v>340.84716796875</v>
       </c>
       <c r="AD3" t="n">
-        <v>373.2085266113281</v>
+        <v>337.9685363769531</v>
       </c>
       <c r="AE3" t="n">
-        <v>371.1788024902344</v>
+        <v>336.6427307128906</v>
       </c>
       <c r="AF3" t="n">
-        <v>370.7347412109375</v>
+        <v>332.8922119140625</v>
       </c>
       <c r="AG3" t="n">
-        <v>370.9176025390625</v>
+        <v>327.1961364746094</v>
       </c>
       <c r="AH3" t="n">
-        <v>365.6449279785156</v>
+        <v>319.8751831054688</v>
       </c>
       <c r="AI3" t="n">
-        <v>355.8257141113281</v>
+        <v>317.18701171875</v>
       </c>
       <c r="AJ3" t="n">
-        <v>353.0928955078125</v>
+        <v>312.3938903808594</v>
       </c>
       <c r="AK3" t="n">
-        <v>349.0503845214844</v>
+        <v>310.6155395507812</v>
       </c>
       <c r="AL3" t="n">
-        <v>343.3721008300781</v>
+        <v>308.0489807128906</v>
       </c>
       <c r="AM3" t="n">
-        <v>340.1688537597656</v>
+        <v>305.7456970214844</v>
       </c>
       <c r="AN3" t="n">
-        <v>336.8057556152344</v>
+        <v>305.0149230957031</v>
       </c>
       <c r="AO3" t="n">
-        <v>325.693359375</v>
+        <v>305.1878662109375</v>
       </c>
       <c r="AP3" t="n">
-        <v>316.6278991699219</v>
+        <v>306.5229187011719</v>
       </c>
       <c r="AQ3" t="n">
-        <v>309.8468322753906</v>
+        <v>307.8039245605469</v>
       </c>
       <c r="AR3" t="n">
-        <v>305.8054809570312</v>
+        <v>307.0254211425781</v>
       </c>
       <c r="AS3" t="n">
-        <v>303.5878601074219</v>
+        <v>305.0001525878906</v>
       </c>
       <c r="AT3" t="n">
-        <v>299.9153747558594</v>
+        <v>306.3079528808594</v>
       </c>
       <c r="AU3" t="n">
-        <v>301.0062255859375</v>
+        <v>302.8457946777344</v>
       </c>
       <c r="AV3" t="n">
-        <v>300.8072509765625</v>
+        <v>303.8477783203125</v>
       </c>
       <c r="AW3" t="n">
-        <v>300.45166015625</v>
+        <v>300.5185546875</v>
       </c>
       <c r="AX3" t="n">
-        <v>300.1203918457031</v>
+        <v>298.7539672851562</v>
       </c>
       <c r="AY3" t="n">
-        <v>300.1372680664062</v>
+        <v>301.1436767578125</v>
       </c>
       <c r="AZ3" t="n">
-        <v>299.5964660644531</v>
+        <v>304.9495544433594</v>
       </c>
       <c r="BA3" t="n">
-        <v>298.9960632324219</v>
+        <v>303.9049072265625</v>
       </c>
       <c r="BB3" t="n">
-        <v>299.0933532714844</v>
+        <v>299.5404663085938</v>
       </c>
       <c r="BC3" t="n">
-        <v>299.0281677246094</v>
+        <v>297.6175842285156</v>
       </c>
       <c r="BD3" t="n">
-        <v>298.6123352050781</v>
+        <v>295.8695678710938</v>
       </c>
       <c r="BE3" t="n">
-        <v>298.404541015625</v>
+        <v>293.4923706054688</v>
       </c>
       <c r="BF3" t="n">
-        <v>298.4883117675781</v>
+        <v>294.0803527832031</v>
       </c>
       <c r="BG3" t="n">
-        <v>297.9212341308594</v>
+        <v>294.9247741699219</v>
       </c>
       <c r="BH3" t="n">
-        <v>297.4971008300781</v>
+        <v>293.1351623535156</v>
       </c>
       <c r="BI3" t="n">
-        <v>295.7190246582031</v>
+        <v>293.9968566894531</v>
       </c>
       <c r="BJ3" t="n">
-        <v>294.8427734375</v>
+        <v>295.1566772460938</v>
       </c>
       <c r="BK3" t="n">
-        <v>290.3041687011719</v>
+        <v>291.0090026855469</v>
       </c>
       <c r="BL3" t="n">
-        <v>283.8938293457031</v>
+        <v>288.5813293457031</v>
       </c>
       <c r="BM3" t="n">
-        <v>286.9727172851562</v>
+        <v>287.3858947753906</v>
       </c>
       <c r="BN3" t="n">
-        <v>282.9932556152344</v>
+        <v>286.0518188476562</v>
       </c>
       <c r="BO3" t="n">
-        <v>286.1756896972656</v>
+        <v>288.8257141113281</v>
       </c>
       <c r="BP3" t="n">
-        <v>308.0306701660156</v>
+        <v>291.4159851074219</v>
       </c>
       <c r="BQ3" t="n">
-        <v>303.8548889160156</v>
+        <v>288.6452331542969</v>
       </c>
       <c r="BR3" t="n">
-        <v>299.6361083984375</v>
+        <v>287.4988708496094</v>
       </c>
       <c r="BS3" t="n">
-        <v>300.3076171875</v>
+        <v>286.2096862792969</v>
       </c>
       <c r="BT3" t="n">
-        <v>301.1178283691406</v>
+        <v>283.7982482910156</v>
       </c>
       <c r="BU3" t="n">
-        <v>301.1947326660156</v>
+        <v>282.7178344726562</v>
       </c>
       <c r="BV3" t="n">
-        <v>300.0918273925781</v>
+        <v>282.3361511230469</v>
       </c>
       <c r="BW3" t="n">
-        <v>300.9093322753906</v>
+        <v>280.5675354003906</v>
       </c>
       <c r="BX3" t="n">
-        <v>302.0619506835938</v>
+        <v>279.7194213867188</v>
       </c>
       <c r="BY3" t="n">
-        <v>302.373046875</v>
+        <v>280.98779296875</v>
       </c>
       <c r="BZ3" t="n">
-        <v>302.4180908203125</v>
+        <v>278.2332153320312</v>
       </c>
       <c r="CA3" t="n">
-        <v>302.4637756347656</v>
+        <v>278.809326171875</v>
       </c>
       <c r="CB3" t="n">
-        <v>302.5366821289062</v>
+        <v>277.7486877441406</v>
       </c>
       <c r="CC3" t="n">
-        <v>302.4507446289062</v>
+        <v>274.7748107910156</v>
       </c>
       <c r="CD3" t="n">
-        <v>302.3778076171875</v>
+        <v>270.9510192871094</v>
       </c>
       <c r="CE3" t="n">
-        <v>302.2315979003906</v>
+        <v>271.3784790039062</v>
       </c>
       <c r="CF3" t="n">
-        <v>302.0954895019531</v>
+        <v>272.1762084960938</v>
       </c>
       <c r="CG3" t="n">
-        <v>301.9859313964844</v>
+        <v>272.0955200195312</v>
       </c>
       <c r="CH3" t="n">
-        <v>302.09814453125</v>
+        <v>269.1404418945312</v>
       </c>
       <c r="CI3" t="n">
-        <v>303.4320373535156</v>
+        <v>270.0796203613281</v>
       </c>
       <c r="CJ3" t="n">
-        <v>304.2488708496094</v>
+        <v>271.2637939453125</v>
       </c>
       <c r="CK3" t="n">
-        <v>304.7124328613281</v>
+        <v>267.2083740234375</v>
       </c>
       <c r="CL3" t="n">
-        <v>304.1561584472656</v>
+        <v>270.3736877441406</v>
       </c>
       <c r="CM3" t="n">
-        <v>307.5194702148438</v>
+        <v>269.0254821777344</v>
       </c>
       <c r="CN3" t="n">
-        <v>312.8996276855469</v>
+        <v>268.3335876464844</v>
       </c>
       <c r="CO3" t="n">
-        <v>297.9778442382812</v>
+        <v>267.71044921875</v>
       </c>
       <c r="CP3" t="n">
-        <v>287.208984375</v>
+        <v>268.5213623046875</v>
       </c>
       <c r="CQ3" t="n">
-        <v>293.2420654296875</v>
+        <v>268.4856872558594</v>
       </c>
       <c r="CR3" t="n">
-        <v>291.949951171875</v>
+        <v>268.4940185546875</v>
       </c>
       <c r="CS3" t="n">
-        <v>285.9841613769531</v>
+        <v>268.0986633300781</v>
       </c>
       <c r="CT3" t="n">
-        <v>287.4226989746094</v>
+        <v>267.8423461914062</v>
       </c>
       <c r="CU3" t="n">
-        <v>283.1502990722656</v>
+        <v>267.0840759277344</v>
       </c>
       <c r="CV3" t="n">
-        <v>286.3879699707031</v>
+        <v>266.7916564941406</v>
       </c>
       <c r="CW3" t="n">
-        <v>295.4002380371094</v>
+        <v>265.0827941894531</v>
       </c>
       <c r="CX3" t="n">
-        <v>295.9700012207031</v>
+        <v>264.8576965332031</v>
       </c>
       <c r="CY3" t="n">
-        <v>295.8789672851562</v>
+        <v>264.1867980957031</v>
       </c>
       <c r="CZ3" t="n">
-        <v>297.3734741210938</v>
+        <v>264.3658142089844</v>
       </c>
       <c r="DA3" t="n">
-        <v>297.5439758300781</v>
+        <v>264.3377075195312</v>
       </c>
       <c r="DB3" t="n">
-        <v>297.7528076171875</v>
+        <v>264.1447143554688</v>
       </c>
       <c r="DC3" t="n">
-        <v>297.7584533691406</v>
+        <v>264.0084838867188</v>
       </c>
       <c r="DD3" t="n">
-        <v>297.1592407226562</v>
+        <v>264.3116760253906</v>
       </c>
       <c r="DE3" t="n">
-        <v>297.2662048339844</v>
+        <v>270.4021301269531</v>
       </c>
       <c r="DF3" t="n">
-        <v>297.4417114257812</v>
+        <v>282.9873352050781</v>
       </c>
       <c r="DG3" t="n">
-        <v>297.6313171386719</v>
+        <v>282.0729675292969</v>
       </c>
       <c r="DH3" t="n">
-        <v>297.6281433105469</v>
+        <v>283.5572814941406</v>
       </c>
       <c r="DI3" t="n">
-        <v>296.2048645019531</v>
+        <v>272.6780395507812</v>
       </c>
       <c r="DJ3" t="n">
-        <v>291.1904907226562</v>
+        <v>265.0302734375</v>
       </c>
       <c r="DK3" t="n">
-        <v>286.8726196289062</v>
+        <v>263.437744140625</v>
       </c>
       <c r="DL3" t="n">
-        <v>288.1727905273438</v>
+        <v>263.429931640625</v>
       </c>
       <c r="DM3" t="n">
-        <v>295.8178405761719</v>
+        <v>263.2781372070312</v>
       </c>
       <c r="DN3" t="n">
-        <v>304.7110290527344</v>
+        <v>263.3180236816406</v>
       </c>
       <c r="DO3" t="n">
-        <v>304.8035278320312</v>
+        <v>263.3074035644531</v>
       </c>
       <c r="DP3" t="n">
-        <v>304.578125</v>
+        <v>263.3072204589844</v>
       </c>
       <c r="DQ3" t="n">
-        <v>304.322265625</v>
+        <v>263.2705383300781</v>
       </c>
       <c r="DR3" t="n">
-        <v>304.1234436035156</v>
+        <v>263.2872619628906</v>
       </c>
       <c r="DS3" t="n">
-        <v>304.5246887207031</v>
+        <v>263.2034912109375</v>
       </c>
       <c r="DT3" t="n">
-        <v>304.3548278808594</v>
+        <v>263.2127380371094</v>
       </c>
       <c r="DU3" t="n">
-        <v>304.8039245605469</v>
+        <v>263.1871337890625</v>
       </c>
       <c r="DV3" t="n">
-        <v>304.5544128417969</v>
+        <v>263.1335144042969</v>
       </c>
       <c r="DW3" t="n">
-        <v>304.3651123046875</v>
+        <v>263.1041870117188</v>
       </c>
       <c r="DX3" t="n">
-        <v>304.2249450683594</v>
+        <v>263.2447814941406</v>
       </c>
       <c r="DY3" t="n">
-        <v>304.0041198730469</v>
+        <v>263.5173950195312</v>
       </c>
       <c r="DZ3" t="n">
-        <v>303.7671203613281</v>
+        <v>277.1487426757812</v>
       </c>
       <c r="EA3" t="n">
-        <v>303.0462341308594</v>
+        <v>288.9683227539062</v>
       </c>
       <c r="EB3" t="n">
-        <v>302.3238830566406</v>
+        <v>287.3766479492188</v>
       </c>
       <c r="EC3" t="n">
-        <v>301.6950073242188</v>
+        <v>286.5893859863281</v>
       </c>
       <c r="ED3" t="n">
-        <v>301.6604309082031</v>
+        <v>288.2492065429688</v>
       </c>
       <c r="EE3" t="n">
-        <v>301.8846130371094</v>
+        <v>284.3053894042969</v>
       </c>
       <c r="EF3" t="n">
-        <v>311.5228576660156</v>
+        <v>279.0047912597656</v>
       </c>
       <c r="EG3" t="n">
-        <v>308.2616577148438</v>
+        <v>278.3634948730469</v>
       </c>
       <c r="EH3" t="n">
-        <v>300.9067077636719</v>
+        <v>274.8979797363281</v>
       </c>
       <c r="EI3" t="n">
-        <v>295.6470947265625</v>
+        <v>278.1943969726562</v>
       </c>
       <c r="EJ3" t="n">
-        <v>291.8395080566406</v>
+        <v>276.9998474121094</v>
       </c>
       <c r="EK3" t="n">
-        <v>284.438232421875</v>
+        <v>277.5232238769531</v>
       </c>
       <c r="EL3" t="n">
-        <v>283.1985473632812</v>
+        <v>281.1009826660156</v>
       </c>
       <c r="EM3" t="n">
-        <v>280.0522155761719</v>
+        <v>293.8070373535156</v>
       </c>
       <c r="EN3" t="n">
-        <v>279.64453125</v>
+        <v>291.7354736328125</v>
       </c>
       <c r="EO3" t="n">
-        <v>290.1720886230469</v>
+        <v>290.0950622558594</v>
       </c>
       <c r="EP3" t="n">
-        <v>296.408203125</v>
+        <v>286.60205078125</v>
       </c>
       <c r="EQ3" t="n">
-        <v>299.44921875</v>
+        <v>267.8489074707031</v>
       </c>
       <c r="ER3" t="n">
-        <v>300.5257568359375</v>
+        <v>261.7117614746094</v>
       </c>
       <c r="ES3" t="n">
-        <v>300.9080810546875</v>
+        <v>260.9410095214844</v>
       </c>
       <c r="ET3" t="n">
-        <v>301.4708251953125</v>
+        <v>258.9722595214844</v>
       </c>
       <c r="EU3" t="n">
-        <v>301.4511108398438</v>
+        <v>257.753173828125</v>
       </c>
       <c r="EV3" t="n">
-        <v>301.0659790039062</v>
+        <v>256.8667297363281</v>
       </c>
       <c r="EW3" t="n">
-        <v>300.1097717285156</v>
+        <v>256.8985595703125</v>
       </c>
       <c r="EX3" t="n">
-        <v>293.8945617675781</v>
+        <v>256.950927734375</v>
       </c>
       <c r="EY3" t="n">
-        <v>288.0408020019531</v>
+        <v>257.0394592285156</v>
       </c>
       <c r="EZ3" t="n">
-        <v>287.3417358398438</v>
+        <v>257.0186157226562</v>
       </c>
       <c r="FA3" t="n">
-        <v>285.9306640625</v>
+        <v>257.0086059570312</v>
       </c>
       <c r="FB3" t="n">
-        <v>296.0363464355469</v>
+        <v>256.967529296875</v>
       </c>
       <c r="FC3" t="n">
-        <v>316.8738098144531</v>
+        <v>256.6892395019531</v>
       </c>
       <c r="FD3" t="n">
-        <v>312.1662292480469</v>
+        <v>256.7821655273438</v>
       </c>
       <c r="FE3" t="n">
-        <v>305.9521179199219</v>
+        <v>257.695556640625</v>
       </c>
       <c r="FF3" t="n">
-        <v>305.9507141113281</v>
+        <v>258.6997680664062</v>
       </c>
       <c r="FG3" t="n">
-        <v>306.3491821289062</v>
+        <v>260.4105224609375</v>
       </c>
       <c r="FH3" t="n">
-        <v>306.3074035644531</v>
+        <v>271.5724792480469</v>
       </c>
       <c r="FI3" t="n">
-        <v>305.8838500976562</v>
+        <v>287.7297973632812</v>
       </c>
       <c r="FJ3" t="n">
-        <v>305.34814453125</v>
+        <v>289.7332153320312</v>
       </c>
       <c r="FK3" t="n">
-        <v>305.40234375</v>
+        <v>288.8796997070312</v>
       </c>
       <c r="FL3" t="n">
-        <v>305.5979919433594</v>
+        <v>281.0215148925781</v>
       </c>
       <c r="FM3" t="n">
-        <v>305.7443542480469</v>
+        <v>283.4837036132812</v>
       </c>
       <c r="FN3" t="n">
-        <v>306.4220275878906</v>
+        <v>280.460205078125</v>
       </c>
       <c r="FO3" t="n">
-        <v>306.4380798339844</v>
+        <v>281.4494323730469</v>
       </c>
       <c r="FP3" t="n">
-        <v>306.3637084960938</v>
+        <v>283.3827209472656</v>
       </c>
       <c r="FQ3" t="n">
-        <v>306.1816101074219</v>
+        <v>285.1090393066406</v>
       </c>
       <c r="FR3" t="n">
-        <v>309.9748229980469</v>
+        <v>292.4603881835938</v>
       </c>
       <c r="FS3" t="n">
-        <v>308.2476501464844</v>
+        <v>267.2832336425781</v>
       </c>
       <c r="FT3" t="n">
-        <v>309.5203857421875</v>
+        <v>261.7131652832031</v>
       </c>
       <c r="FU3" t="n">
-        <v>289.427734375</v>
+        <v>258.7663879394531</v>
       </c>
       <c r="FV3" t="n">
-        <v>284.0499877929688</v>
+        <v>257.7294921875</v>
       </c>
       <c r="FW3" t="n">
-        <v>284.7160034179688</v>
+        <v>256.5544738769531</v>
       </c>
       <c r="FX3" t="n">
-        <v>286.0675048828125</v>
+        <v>256.6446838378906</v>
       </c>
       <c r="FY3" t="n">
-        <v>285.1192016601562</v>
+        <v>256.6359252929688</v>
       </c>
       <c r="FZ3" t="n">
-        <v>290.4886474609375</v>
+        <v>256.6241149902344</v>
       </c>
       <c r="GA3" t="n">
-        <v>297.2208557128906</v>
+        <v>256.5007019042969</v>
       </c>
       <c r="GB3" t="n">
-        <v>295.8034973144531</v>
+        <v>256.5574645996094</v>
       </c>
       <c r="GC3" t="n">
-        <v>298.7958068847656</v>
+        <v>256.8046875</v>
       </c>
       <c r="GD3" t="n">
-        <v>299.7730407714844</v>
+        <v>257.3865356445312</v>
       </c>
       <c r="GE3" t="n">
-        <v>300.2719421386719</v>
+        <v>257.8489990234375</v>
       </c>
       <c r="GF3" t="n">
-        <v>300.0625</v>
+        <v>258.8819274902344</v>
       </c>
       <c r="GG3" t="n">
-        <v>299.9808654785156</v>
+        <v>262.6549987792969</v>
       </c>
       <c r="GH3" t="n">
-        <v>299.9354858398438</v>
+        <v>262.8695068359375</v>
       </c>
       <c r="GI3" t="n">
-        <v>299.0899963378906</v>
+        <v>270.47021484375</v>
       </c>
       <c r="GJ3" t="n">
-        <v>295.0335083007812</v>
+        <v>286.5233764648438</v>
       </c>
       <c r="GK3" t="n">
-        <v>288.0791320800781</v>
+        <v>276.0081176757812</v>
       </c>
       <c r="GL3" t="n">
-        <v>286.1774597167969</v>
+        <v>265.5736999511719</v>
       </c>
       <c r="GM3" t="n">
-        <v>291.1361999511719</v>
+        <v>264.2056274414062</v>
       </c>
       <c r="GN3" t="n">
-        <v>303.5185546875</v>
+        <v>263.3398742675781</v>
       </c>
       <c r="GO3" t="n">
-        <v>326.0251770019531</v>
+        <v>263.875</v>
       </c>
       <c r="GP3" t="n">
-        <v>305.4474487304688</v>
+        <v>264.3232116699219</v>
       </c>
       <c r="GQ3" t="n">
-        <v>304.4535522460938</v>
+        <v>264.7411499023438</v>
       </c>
       <c r="GR3" t="n">
-        <v>304.4753723144531</v>
+        <v>264.7405090332031</v>
       </c>
       <c r="GS3" t="n">
-        <v>305.467529296875</v>
+        <v>267.5887451171875</v>
       </c>
       <c r="GT3" t="n">
-        <v>306.9816284179688</v>
+        <v>286.1476745605469</v>
       </c>
       <c r="GU3" t="n">
-        <v>307.4513244628906</v>
+        <v>286.2461547851562</v>
       </c>
       <c r="GV3" t="n">
-        <v>307.3627319335938</v>
+        <v>266.5176696777344</v>
       </c>
       <c r="GW3" t="n">
-        <v>307.4768371582031</v>
+        <v>262.0298156738281</v>
       </c>
       <c r="GX3" t="n">
-        <v>306.5281066894531</v>
+        <v>261.6004638671875</v>
       </c>
       <c r="GY3" t="n">
-        <v>306.5372314453125</v>
+        <v>260.7400207519531</v>
       </c>
       <c r="GZ3" t="n">
-        <v>306.2191162109375</v>
+        <v>258.0392456054688</v>
       </c>
       <c r="HA3" t="n">
-        <v>308.9397583007812</v>
+        <v>256.090087890625</v>
       </c>
       <c r="HB3" t="n">
-        <v>300.07373046875</v>
+        <v>255.8112945556641</v>
       </c>
       <c r="HC3" t="n">
-        <v>283.3681335449219</v>
+        <v>255.7501525878906</v>
       </c>
       <c r="HD3" t="n">
-        <v>289.2480773925781</v>
+        <v>255.8248596191406</v>
       </c>
       <c r="HE3" t="n">
-        <v>290.2607727050781</v>
+        <v>255.9641418457031</v>
       </c>
       <c r="HF3" t="n">
-        <v>285.3392944335938</v>
+        <v>256.043701171875</v>
       </c>
       <c r="HG3" t="n">
-        <v>296.5550231933594</v>
+        <v>256.1837158203125</v>
       </c>
       <c r="HH3" t="n">
-        <v>300.2947387695312</v>
+        <v>256.4710998535156</v>
       </c>
       <c r="HI3" t="n">
-        <v>300.1699523925781</v>
+        <v>257.1171264648438</v>
       </c>
       <c r="HJ3" t="n">
-        <v>300.2904052734375</v>
+        <v>258.276123046875</v>
       </c>
       <c r="HK3" t="n">
-        <v>300.0634460449219</v>
+        <v>261.2603149414062</v>
       </c>
       <c r="HL3" t="n">
-        <v>298.9765930175781</v>
+        <v>263.1355285644531</v>
       </c>
       <c r="HM3" t="n">
-        <v>298.9043579101562</v>
+        <v>268.3059387207031</v>
       </c>
       <c r="HN3" t="n">
-        <v>298.9920654296875</v>
+        <v>272.8497619628906</v>
       </c>
       <c r="HO3" t="n">
-        <v>299.0152587890625</v>
+        <v>269.5213623046875</v>
       </c>
       <c r="HP3" t="n">
-        <v>296.4695434570312</v>
+        <v>266.7882080078125</v>
       </c>
       <c r="HQ3" t="n">
-        <v>289.6881408691406</v>
+        <v>263.5251770019531</v>
       </c>
       <c r="HR3" t="n">
-        <v>293.8448791503906</v>
+        <v>264.2240905761719</v>
       </c>
       <c r="HS3" t="n">
-        <v>285.2598266601562</v>
+        <v>264.7594909667969</v>
       </c>
       <c r="HT3" t="n">
-        <v>299.5526123046875</v>
+        <v>263.8290405273438</v>
       </c>
       <c r="HU3" t="n">
-        <v>305.2494812011719</v>
+        <v>268.2572326660156</v>
       </c>
       <c r="HV3" t="n">
-        <v>308.010498046875</v>
+        <v>286.3802490234375</v>
       </c>
       <c r="HW3" t="n">
-        <v>303.9158630371094</v>
+        <v>263.5715942382812</v>
       </c>
       <c r="HX3" t="n">
-        <v>304.1137084960938</v>
+        <v>262.3577575683594</v>
       </c>
       <c r="HY3" t="n">
-        <v>304.8504638671875</v>
+        <v>256.693603515625</v>
       </c>
       <c r="HZ3" t="n">
-        <v>305.0981750488281</v>
+        <v>256.1561279296875</v>
       </c>
       <c r="IA3" t="n">
-        <v>305.0271606445312</v>
+        <v>256.1128234863281</v>
       </c>
       <c r="IB3" t="n">
-        <v>304.8390808105469</v>
+        <v>256.3978881835938</v>
       </c>
       <c r="IC3" t="n">
-        <v>304.6777954101562</v>
+        <v>256.6099243164062</v>
       </c>
       <c r="ID3" t="n">
-        <v>305.8639526367188</v>
+        <v>256.5602722167969</v>
       </c>
       <c r="IE3" t="n">
-        <v>305.8324279785156</v>
+        <v>256.58740234375</v>
       </c>
       <c r="IF3" t="n">
-        <v>305.4672546386719</v>
+        <v>256.6160583496094</v>
       </c>
       <c r="IG3" t="n">
-        <v>305.4389343261719</v>
+        <v>256.6566162109375</v>
       </c>
       <c r="IH3" t="n">
-        <v>305.2211303710938</v>
+        <v>257.0245056152344</v>
       </c>
       <c r="II3" t="n">
-        <v>305.3421325683594</v>
+        <v>258.1489868164062</v>
       </c>
       <c r="IJ3" t="n">
-        <v>299.7683410644531</v>
+        <v>264.8404541015625</v>
       </c>
       <c r="IK3" t="n">
-        <v>283.2146301269531</v>
+        <v>280.8023986816406</v>
       </c>
       <c r="IL3" t="n">
-        <v>283.5716857910156</v>
+        <v>282.7294921875</v>
       </c>
       <c r="IM3" t="n">
-        <v>284.0255126953125</v>
+        <v>269.1302185058594</v>
       </c>
       <c r="IN3" t="n">
-        <v>292.3826293945312</v>
+        <v>263.7239990234375</v>
       </c>
       <c r="IO3" t="n">
-        <v>303.7319641113281</v>
+        <v>261.3399047851562</v>
       </c>
       <c r="IP3" t="n">
-        <v>308.3799438476562</v>
+        <v>263.507568359375</v>
       </c>
       <c r="IQ3" t="n">
-        <v>301.6532592773438</v>
+        <v>263.2664489746094</v>
       </c>
       <c r="IR3" t="n">
-        <v>297.5172424316406</v>
+        <v>264.8746643066406</v>
       </c>
       <c r="IS3" t="n">
-        <v>297.6756591796875</v>
+        <v>268.8152770996094</v>
       </c>
       <c r="IT3" t="n">
-        <v>297.7356262207031</v>
+        <v>261.9332885742188</v>
       </c>
       <c r="IU3" t="n">
-        <v>299.1121520996094</v>
+        <v>261.9582824707031</v>
       </c>
       <c r="IV3" t="n">
-        <v>288.8824462890625</v>
+        <v>261.09228515625</v>
       </c>
       <c r="IW3" t="n">
-        <v>281.2144470214844</v>
+        <v>256.702880859375</v>
       </c>
       <c r="IX3" t="n">
-        <v>283.5701599121094</v>
+        <v>256.4362487792969</v>
       </c>
       <c r="IY3" t="n">
-        <v>312.3734130859375</v>
+        <v>257.3009338378906</v>
       </c>
       <c r="IZ3" t="n">
-        <v>303.2890930175781</v>
+        <v>259.0604858398438</v>
       </c>
       <c r="JA3" t="n">
-        <v>302.2051086425781</v>
+        <v>259.4932250976562</v>
       </c>
       <c r="JB3" t="n">
-        <v>302.6793823242188</v>
+        <v>259.5370483398438</v>
       </c>
       <c r="JC3" t="n">
-        <v>302.5069274902344</v>
+        <v>259.8397216796875</v>
       </c>
       <c r="JD3" t="n">
-        <v>303.3755187988281</v>
+        <v>259.8855590820312</v>
       </c>
       <c r="JE3" t="n">
-        <v>304.20947265625</v>
+        <v>261.6721496582031</v>
       </c>
       <c r="JF3" t="n">
-        <v>303.8878784179688</v>
+        <v>265.7381896972656</v>
       </c>
       <c r="JG3" t="n">
-        <v>303.7693481445312</v>
+        <v>265.7818908691406</v>
       </c>
       <c r="JH3" t="n">
-        <v>303.4103698730469</v>
+        <v>256.5204162597656</v>
       </c>
       <c r="JI3" t="n">
-        <v>304.3573303222656</v>
+        <v>258.4690856933594</v>
       </c>
       <c r="JJ3" t="n">
-        <v>303.6171875</v>
+        <v>259.2800903320312</v>
       </c>
       <c r="JK3" t="n">
-        <v>304.2120971679688</v>
+        <v>263.2254333496094</v>
       </c>
       <c r="JL3" t="n">
-        <v>303.6055297851562</v>
+        <v>259.7148132324219</v>
       </c>
       <c r="JM3" t="n">
-        <v>303.9091491699219</v>
+        <v>272.6676330566406</v>
       </c>
       <c r="JN3" t="n">
-        <v>302.6591491699219</v>
+        <v>264.16845703125</v>
       </c>
       <c r="JO3" t="n">
-        <v>288.9952392578125</v>
+        <v>264.7723083496094</v>
       </c>
       <c r="JP3" t="n">
-        <v>287.6766662597656</v>
+        <v>263.4320678710938</v>
       </c>
       <c r="JQ3" t="n">
-        <v>288.3976135253906</v>
+        <v>261.7235107421875</v>
       </c>
       <c r="JR3" t="n">
-        <v>301.7521362304688</v>
+        <v>258.1409912109375</v>
       </c>
       <c r="JS3" t="n">
-        <v>301.7095336914062</v>
+        <v>259.3781127929688</v>
       </c>
       <c r="JT3" t="n">
-        <v>303.780029296875</v>
+        <v>259.0552368164062</v>
       </c>
       <c r="JU3" t="n">
-        <v>303.1761474609375</v>
+        <v>259.3700561523438</v>
       </c>
       <c r="JV3" t="n">
-        <v>302.8342590332031</v>
+        <v>259.619384765625</v>
       </c>
       <c r="JW3" t="n">
-        <v>302.8640747070312</v>
+        <v>259.7991943359375</v>
       </c>
       <c r="JX3" t="n">
-        <v>302.9246826171875</v>
+        <v>259.9878234863281</v>
       </c>
       <c r="JY3" t="n">
-        <v>303.3776550292969</v>
+        <v>260.221435546875</v>
       </c>
       <c r="JZ3" t="n">
-        <v>303.5211181640625</v>
+        <v>260.310302734375</v>
       </c>
       <c r="KA3" t="n">
-        <v>305.1821899414062</v>
+        <v>261.835205078125</v>
       </c>
       <c r="KB3" t="n">
-        <v>307.4156494140625</v>
+        <v>265.3500366210938</v>
       </c>
       <c r="KC3" t="n">
-        <v>314.0910034179688</v>
+        <v>265.830078125</v>
       </c>
       <c r="KD3" t="n">
-        <v>353.1462097167969</v>
+        <v>266.2547607421875</v>
       </c>
       <c r="KE3" t="n">
-        <v>361.9823303222656</v>
+        <v>266.6412048339844</v>
       </c>
       <c r="KF3" t="n">
-        <v>373.6878051757812</v>
+        <v>284.8291931152344</v>
       </c>
       <c r="KG3" t="n">
-        <v>375.25830078125</v>
+        <v>285.1024780273438</v>
       </c>
       <c r="KH3" t="n">
-        <v>370.6329650878906</v>
+        <v>276.5416870117188</v>
       </c>
       <c r="KI3" t="n">
-        <v>368.7934265136719</v>
+        <v>266.2699584960938</v>
       </c>
       <c r="KJ3" t="n">
-        <v>365.6301574707031</v>
+        <v>267.3004150390625</v>
       </c>
       <c r="KK3" t="n">
-        <v>366.9114074707031</v>
+        <v>269.3299255371094</v>
       </c>
       <c r="KL3" t="n">
-        <v>379.8238220214844</v>
+        <v>272.9115600585938</v>
       </c>
       <c r="KM3" t="n">
-        <v>387.1755981445312</v>
+        <v>278.6275939941406</v>
       </c>
       <c r="KN3" t="n">
-        <v>398.068359375</v>
+        <v>293.7931518554688</v>
       </c>
       <c r="KO3" t="n">
-        <v>396.3458557128906</v>
+        <v>301.8403015136719</v>
       </c>
       <c r="KP3" t="n">
-        <v>391.9330139160156</v>
+        <v>310.2568969726562</v>
       </c>
       <c r="KQ3" t="n">
-        <v>382.0249938964844</v>
+        <v>312.1788330078125</v>
       </c>
       <c r="KR3" t="n">
-        <v>366.1224365234375</v>
+        <v>312.0999755859375</v>
       </c>
       <c r="KS3" t="n">
-        <v>344.9694519042969</v>
+        <v>310.5928649902344</v>
       </c>
       <c r="KT3" t="n">
-        <v>336.9686279296875</v>
+        <v>313.6948547363281</v>
       </c>
       <c r="KU3" t="n">
-        <v>333.2023620605469</v>
+        <v>325.6620178222656</v>
       </c>
       <c r="KV3" t="n">
-        <v>341.6566162109375</v>
+        <v>337.9719543457031</v>
       </c>
       <c r="KW3" t="n">
-        <v>343.6840515136719</v>
+        <v>346.1853637695312</v>
       </c>
       <c r="KX3" t="n">
-        <v>350.0333251953125</v>
+        <v>345.8843688964844</v>
       </c>
       <c r="KY3" t="n">
-        <v>371.3001098632812</v>
+        <v>343.9835205078125</v>
       </c>
       <c r="KZ3" t="n">
-        <v>383.204833984375</v>
+        <v>344.613525390625</v>
       </c>
       <c r="LA3" t="n">
-        <v>424.3820190429688</v>
+        <v>347.0898742675781</v>
       </c>
       <c r="LB3" t="n">
-        <v>437.0402221679688</v>
+        <v>358.8702697753906</v>
       </c>
       <c r="LC3" t="n">
-        <v>439.7442626953125</v>
+        <v>378.9139404296875</v>
       </c>
       <c r="LD3" t="n">
-        <v>448.060791015625</v>
+        <v>401.6156311035156</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>400.5582580566406</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>369.7395629882812</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>329.718017578125</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>281.9767456054688</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>239.5821685791016</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>193.8323974609375</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>171.2041625976562</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>126.3986892700195</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>125.3114166259766</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>116.2251129150391</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>120.4005279541016</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>71.37481689453125</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>82.45996856689453</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>851.9481201171875</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>764.8828125</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>824.0266723632812</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>839.8029174804688</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>822.974609375</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>801.8194580078125</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>811.7636108398438</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>842.7252197265625</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>874.11279296875</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>896.7933349609375</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>95.91461181640625</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>102.275993347168</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>117.7836685180664</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>125.4617385864258</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>112.3848571777344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>448.1286010742188</v>
+        <v>747.006103515625</v>
       </c>
       <c r="B4" t="n">
-        <v>486.9816284179688</v>
+        <v>785.7496337890625</v>
       </c>
       <c r="C4" t="n">
-        <v>527.8452758789062</v>
+        <v>820.3084106445312</v>
       </c>
       <c r="D4" t="n">
-        <v>568.1473999023438</v>
+        <v>852.24951171875</v>
       </c>
       <c r="E4" t="n">
-        <v>612.2847290039062</v>
+        <v>884.7208251953125</v>
       </c>
       <c r="F4" t="n">
-        <v>671.0025024414062</v>
+        <v>913.3590087890625</v>
       </c>
       <c r="G4" t="n">
-        <v>731.522216796875</v>
+        <v>945.8677978515625</v>
       </c>
       <c r="H4" t="n">
-        <v>794.4208374023438</v>
+        <v>970.8780517578125</v>
       </c>
       <c r="I4" t="n">
-        <v>858.5511474609375</v>
+        <v>993.7960815429688</v>
       </c>
       <c r="J4" t="n">
-        <v>927.881591796875</v>
+        <v>1018.526733398438</v>
       </c>
       <c r="K4" t="n">
-        <v>992.400146484375</v>
+        <v>1043.80419921875</v>
       </c>
       <c r="L4" t="n">
-        <v>1061.9912109375</v>
+        <v>1075.282470703125</v>
       </c>
       <c r="M4" t="n">
-        <v>1119.036499023438</v>
+        <v>1110.283325195312</v>
       </c>
       <c r="N4" t="n">
-        <v>1173.846435546875</v>
+        <v>1142.987182617188</v>
       </c>
       <c r="O4" t="n">
-        <v>1234.0498046875</v>
+        <v>1163.48681640625</v>
       </c>
       <c r="P4" t="n">
-        <v>1290.474609375</v>
+        <v>1183.192260742188</v>
       </c>
       <c r="Q4" t="n">
-        <v>1340.752075195312</v>
+        <v>1209.7734375</v>
       </c>
       <c r="R4" t="n">
-        <v>1400.121826171875</v>
+        <v>1237.019653320312</v>
       </c>
       <c r="S4" t="n">
-        <v>1445.745849609375</v>
+        <v>1261.91162109375</v>
       </c>
       <c r="T4" t="n">
-        <v>1481.333740234375</v>
+        <v>1290.138916015625</v>
       </c>
       <c r="U4" t="n">
-        <v>1528.0185546875</v>
+        <v>1314.841674804688</v>
       </c>
       <c r="V4" t="n">
-        <v>1557.167358398438</v>
+        <v>1341.755004882812</v>
       </c>
       <c r="W4" t="n">
-        <v>1573.497802734375</v>
+        <v>1368.666259765625</v>
       </c>
       <c r="X4" t="n">
-        <v>1584.388671875</v>
+        <v>1396.96240234375</v>
       </c>
       <c r="Y4" t="n">
-        <v>1601.971435546875</v>
+        <v>1422.209228515625</v>
       </c>
       <c r="Z4" t="n">
-        <v>1621.022827148438</v>
+        <v>1453.809936523438</v>
       </c>
       <c r="AA4" t="n">
-        <v>1635.648681640625</v>
+        <v>1494.39208984375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1642.3017578125</v>
+        <v>1526.975830078125</v>
       </c>
       <c r="AC4" t="n">
-        <v>1655.8134765625</v>
+        <v>1566.36181640625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1673.101684570312</v>
+        <v>1607.820922851562</v>
       </c>
       <c r="AE4" t="n">
-        <v>1695.596313476562</v>
+        <v>1635.5634765625</v>
       </c>
       <c r="AF4" t="n">
-        <v>1710.088134765625</v>
+        <v>1672.46826171875</v>
       </c>
       <c r="AG4" t="n">
-        <v>1717.640747070312</v>
+        <v>1707.753173828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1727.490234375</v>
+        <v>1743.38671875</v>
       </c>
       <c r="AI4" t="n">
-        <v>1747.5244140625</v>
+        <v>1764.502807617188</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1754.781982421875</v>
+        <v>1787.953002929688</v>
       </c>
       <c r="AK4" t="n">
-        <v>1764.010498046875</v>
+        <v>1813.356811523438</v>
       </c>
       <c r="AL4" t="n">
-        <v>1763.418212890625</v>
+        <v>1834.49609375</v>
       </c>
       <c r="AM4" t="n">
-        <v>1769.9091796875</v>
+        <v>1846.818115234375</v>
       </c>
       <c r="AN4" t="n">
-        <v>1767.505981445312</v>
+        <v>1857.652954101562</v>
       </c>
       <c r="AO4" t="n">
-        <v>1772.64208984375</v>
+        <v>1868.531982421875</v>
       </c>
       <c r="AP4" t="n">
-        <v>1785.254760742188</v>
+        <v>1886.611206054688</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1793.797241210938</v>
+        <v>1898.906982421875</v>
       </c>
       <c r="AR4" t="n">
-        <v>1797.868896484375</v>
+        <v>1906.500366210938</v>
       </c>
       <c r="AS4" t="n">
-        <v>1799.08447265625</v>
+        <v>1912.631103515625</v>
       </c>
       <c r="AT4" t="n">
-        <v>1803.002563476562</v>
+        <v>1913.534423828125</v>
       </c>
       <c r="AU4" t="n">
-        <v>1806.253784179688</v>
+        <v>1931.053833007812</v>
       </c>
       <c r="AV4" t="n">
-        <v>1810.091430664062</v>
+        <v>1939.605224609375</v>
       </c>
       <c r="AW4" t="n">
-        <v>1816.300415039062</v>
+        <v>1969.612670898438</v>
       </c>
       <c r="AX4" t="n">
-        <v>1821.48876953125</v>
+        <v>1995.923461914062</v>
       </c>
       <c r="AY4" t="n">
-        <v>1822.830688476562</v>
+        <v>2018.802734375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1827.130737304688</v>
+        <v>2016.425537109375</v>
       </c>
       <c r="BA4" t="n">
-        <v>1832.585327148438</v>
+        <v>2021.065063476562</v>
       </c>
       <c r="BB4" t="n">
-        <v>1831.910522460938</v>
+        <v>2043.83447265625</v>
       </c>
       <c r="BC4" t="n">
-        <v>1834.3212890625</v>
+        <v>2057.896240234375</v>
       </c>
       <c r="BD4" t="n">
-        <v>1834.180053710938</v>
+        <v>2069.935302734375</v>
       </c>
       <c r="BE4" t="n">
-        <v>1837.321899414062</v>
+        <v>2085.39892578125</v>
       </c>
       <c r="BF4" t="n">
-        <v>1846.23095703125</v>
+        <v>2070.012939453125</v>
       </c>
       <c r="BG4" t="n">
-        <v>1851.120483398438</v>
+        <v>2054.931396484375</v>
       </c>
       <c r="BH4" t="n">
-        <v>1857.744506835938</v>
+        <v>2090.124267578125</v>
       </c>
       <c r="BI4" t="n">
-        <v>1851.449951171875</v>
+        <v>2114.649658203125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1837.579223632812</v>
+        <v>2102.9990234375</v>
       </c>
       <c r="BK4" t="n">
-        <v>1840.025146484375</v>
+        <v>2112.96337890625</v>
       </c>
       <c r="BL4" t="n">
-        <v>1835.454345703125</v>
+        <v>2134.0537109375</v>
       </c>
       <c r="BM4" t="n">
-        <v>1832.20458984375</v>
+        <v>2139.15771484375</v>
       </c>
       <c r="BN4" t="n">
-        <v>1844.398071289062</v>
+        <v>2139.23388671875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1843.650024414062</v>
+        <v>2116.97607421875</v>
       </c>
       <c r="BP4" t="n">
-        <v>1843.771240234375</v>
+        <v>2106.597900390625</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1875.4716796875</v>
+        <v>2117.586181640625</v>
       </c>
       <c r="BR4" t="n">
-        <v>1897.140380859375</v>
+        <v>2117.38720703125</v>
       </c>
       <c r="BS4" t="n">
-        <v>1908.488037109375</v>
+        <v>2113.257080078125</v>
       </c>
       <c r="BT4" t="n">
-        <v>1919.688354492188</v>
+        <v>2109.5791015625</v>
       </c>
       <c r="BU4" t="n">
-        <v>1923.5947265625</v>
+        <v>2111.784423828125</v>
       </c>
       <c r="BV4" t="n">
-        <v>1948.512329101562</v>
+        <v>2111.399169921875</v>
       </c>
       <c r="BW4" t="n">
-        <v>1970.271118164062</v>
+        <v>2121.08642578125</v>
       </c>
       <c r="BX4" t="n">
-        <v>1981.40478515625</v>
+        <v>2120.366943359375</v>
       </c>
       <c r="BY4" t="n">
-        <v>1984.741943359375</v>
+        <v>2093.7421875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1985.213989257812</v>
+        <v>2109.76611328125</v>
       </c>
       <c r="CA4" t="n">
-        <v>1983.624633789062</v>
+        <v>2102.74658203125</v>
       </c>
       <c r="CB4" t="n">
-        <v>1982.233154296875</v>
+        <v>2105.503662109375</v>
       </c>
       <c r="CC4" t="n">
-        <v>1981.540405273438</v>
+        <v>2106.4208984375</v>
       </c>
       <c r="CD4" t="n">
-        <v>1981.030395507812</v>
+        <v>2107.3330078125</v>
       </c>
       <c r="CE4" t="n">
-        <v>1979.42724609375</v>
+        <v>2086.9287109375</v>
       </c>
       <c r="CF4" t="n">
-        <v>1977.58056640625</v>
+        <v>2060.16064453125</v>
       </c>
       <c r="CG4" t="n">
-        <v>1973.213256835938</v>
+        <v>2042.862060546875</v>
       </c>
       <c r="CH4" t="n">
-        <v>1954.397827148438</v>
+        <v>2035.861572265625</v>
       </c>
       <c r="CI4" t="n">
-        <v>1931.11572265625</v>
+        <v>2033.535522460938</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1912.350219726562</v>
+        <v>2027.25</v>
       </c>
       <c r="CK4" t="n">
-        <v>1898.557495117188</v>
+        <v>2027.74853515625</v>
       </c>
       <c r="CL4" t="n">
-        <v>1885.238891601562</v>
+        <v>2025.520263671875</v>
       </c>
       <c r="CM4" t="n">
-        <v>1874.859619140625</v>
+        <v>2022.95654296875</v>
       </c>
       <c r="CN4" t="n">
-        <v>1859.971435546875</v>
+        <v>2022.683837890625</v>
       </c>
       <c r="CO4" t="n">
-        <v>1842.613891601562</v>
+        <v>2025.574951171875</v>
       </c>
       <c r="CP4" t="n">
-        <v>1843.316284179688</v>
+        <v>2029.0546875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1825.953857421875</v>
+        <v>2031.78271484375</v>
       </c>
       <c r="CR4" t="n">
-        <v>1813.251831054688</v>
+        <v>2031.654907226562</v>
       </c>
       <c r="CS4" t="n">
-        <v>1810.991455078125</v>
+        <v>2038.892700195312</v>
       </c>
       <c r="CT4" t="n">
-        <v>1820.116455078125</v>
+        <v>2039.766479492188</v>
       </c>
       <c r="CU4" t="n">
-        <v>1824.141723632812</v>
+        <v>2044.078125</v>
       </c>
       <c r="CV4" t="n">
-        <v>1845.9208984375</v>
+        <v>2039.302490234375</v>
       </c>
       <c r="CW4" t="n">
-        <v>1844.608154296875</v>
+        <v>2044.6162109375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1855.228393554688</v>
+        <v>2044.264404296875</v>
       </c>
       <c r="CY4" t="n">
-        <v>1863.545776367188</v>
+        <v>2047.011108398438</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1869.753540039062</v>
+        <v>2050.689453125</v>
       </c>
       <c r="DA4" t="n">
-        <v>1861.902099609375</v>
+        <v>2053.766845703125</v>
       </c>
       <c r="DB4" t="n">
-        <v>1862.240356445312</v>
+        <v>2050.990478515625</v>
       </c>
       <c r="DC4" t="n">
-        <v>1863.732543945312</v>
+        <v>2048.77587890625</v>
       </c>
       <c r="DD4" t="n">
-        <v>1860.109619140625</v>
+        <v>2032.40283203125</v>
       </c>
       <c r="DE4" t="n">
-        <v>1858.98876953125</v>
+        <v>2033.571044921875</v>
       </c>
       <c r="DF4" t="n">
-        <v>1858.884521484375</v>
+        <v>2050.94140625</v>
       </c>
       <c r="DG4" t="n">
-        <v>1857.8720703125</v>
+        <v>2094.91259765625</v>
       </c>
       <c r="DH4" t="n">
-        <v>1856.836791992188</v>
+        <v>2097.82421875</v>
       </c>
       <c r="DI4" t="n">
-        <v>1859.226318359375</v>
+        <v>2115.151123046875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1847.290283203125</v>
+        <v>2124.44384765625</v>
       </c>
       <c r="DK4" t="n">
-        <v>1802.0595703125</v>
+        <v>2142.0732421875</v>
       </c>
       <c r="DL4" t="n">
-        <v>1817.003540039062</v>
+        <v>2153.84375</v>
       </c>
       <c r="DM4" t="n">
-        <v>1840.711181640625</v>
+        <v>2168.765869140625</v>
       </c>
       <c r="DN4" t="n">
-        <v>1854.877197265625</v>
+        <v>2164.45947265625</v>
       </c>
       <c r="DO4" t="n">
-        <v>1865.3984375</v>
+        <v>2164.28173828125</v>
       </c>
       <c r="DP4" t="n">
-        <v>1877.423828125</v>
+        <v>2164.1640625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1894.158569335938</v>
+        <v>2164.545166015625</v>
       </c>
       <c r="DR4" t="n">
-        <v>1904.705322265625</v>
+        <v>2165.69580078125</v>
       </c>
       <c r="DS4" t="n">
-        <v>1908.607299804688</v>
+        <v>2166.7890625</v>
       </c>
       <c r="DT4" t="n">
-        <v>1917.632080078125</v>
+        <v>2167.001708984375</v>
       </c>
       <c r="DU4" t="n">
-        <v>1919.210693359375</v>
+        <v>2167.2431640625</v>
       </c>
       <c r="DV4" t="n">
-        <v>1919.603271484375</v>
+        <v>2166.21533203125</v>
       </c>
       <c r="DW4" t="n">
-        <v>1918.636962890625</v>
+        <v>2161.3564453125</v>
       </c>
       <c r="DX4" t="n">
-        <v>1917.926147460938</v>
+        <v>2151.392822265625</v>
       </c>
       <c r="DY4" t="n">
-        <v>1914.925048828125</v>
+        <v>2127.967041015625</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1913.14453125</v>
+        <v>2091.215087890625</v>
       </c>
       <c r="EA4" t="n">
-        <v>1907.90234375</v>
+        <v>2088.510986328125</v>
       </c>
       <c r="EB4" t="n">
-        <v>1902.252563476562</v>
+        <v>2082.642333984375</v>
       </c>
       <c r="EC4" t="n">
-        <v>1895.0302734375</v>
+        <v>2081.354736328125</v>
       </c>
       <c r="ED4" t="n">
-        <v>1886.319091796875</v>
+        <v>2062.775390625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1880.634765625</v>
+        <v>2045.76904296875</v>
       </c>
       <c r="EF4" t="n">
-        <v>1855.453002929688</v>
+        <v>2029.798828125</v>
       </c>
       <c r="EG4" t="n">
-        <v>1857.534423828125</v>
+        <v>2025.269897460938</v>
       </c>
       <c r="EH4" t="n">
-        <v>1859.515747070312</v>
+        <v>2030.937622070312</v>
       </c>
       <c r="EI4" t="n">
-        <v>1831.6845703125</v>
+        <v>2054.54638671875</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1824.352294921875</v>
+        <v>2053.15771484375</v>
       </c>
       <c r="EK4" t="n">
-        <v>1835.552856445312</v>
+        <v>2057.00830078125</v>
       </c>
       <c r="EL4" t="n">
-        <v>1836.58349609375</v>
+        <v>2037.532470703125</v>
       </c>
       <c r="EM4" t="n">
-        <v>1827.470092773438</v>
+        <v>2057.678466796875</v>
       </c>
       <c r="EN4" t="n">
-        <v>1841.015625</v>
+        <v>2055.083984375</v>
       </c>
       <c r="EO4" t="n">
-        <v>1843.9521484375</v>
+        <v>2062.82177734375</v>
       </c>
       <c r="EP4" t="n">
-        <v>1835.956787109375</v>
+        <v>2089.3740234375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1842.915893554688</v>
+        <v>2110.992919921875</v>
       </c>
       <c r="ER4" t="n">
-        <v>1859.756225585938</v>
+        <v>2153.525390625</v>
       </c>
       <c r="ES4" t="n">
-        <v>1859.896118164062</v>
+        <v>2165.944091796875</v>
       </c>
       <c r="ET4" t="n">
-        <v>1860.953979492188</v>
+        <v>2185.180908203125</v>
       </c>
       <c r="EU4" t="n">
-        <v>1856.558715820312</v>
+        <v>2221.052978515625</v>
       </c>
       <c r="EV4" t="n">
-        <v>1853.8154296875</v>
+        <v>2221.28515625</v>
       </c>
       <c r="EW4" t="n">
-        <v>1843.813354492188</v>
+        <v>2220.617431640625</v>
       </c>
       <c r="EX4" t="n">
-        <v>1822.029663085938</v>
+        <v>2219.79736328125</v>
       </c>
       <c r="EY4" t="n">
-        <v>1827.747680664062</v>
+        <v>2219.918701171875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1806.145874023438</v>
+        <v>2219.4794921875</v>
       </c>
       <c r="FA4" t="n">
-        <v>1824.047485351562</v>
+        <v>2218.4287109375</v>
       </c>
       <c r="FB4" t="n">
-        <v>1827.178466796875</v>
+        <v>2213.005859375</v>
       </c>
       <c r="FC4" t="n">
-        <v>1826.212890625</v>
+        <v>2191.09326171875</v>
       </c>
       <c r="FD4" t="n">
-        <v>1846.83447265625</v>
+        <v>2178.85595703125</v>
       </c>
       <c r="FE4" t="n">
-        <v>1866.423217773438</v>
+        <v>2153.6787109375</v>
       </c>
       <c r="FF4" t="n">
-        <v>1875.14794921875</v>
+        <v>2128.77197265625</v>
       </c>
       <c r="FG4" t="n">
-        <v>1887.069458007812</v>
+        <v>2105.837890625</v>
       </c>
       <c r="FH4" t="n">
-        <v>1892.363891601562</v>
+        <v>2062.71533203125</v>
       </c>
       <c r="FI4" t="n">
-        <v>1895.18310546875</v>
+        <v>2073.38525390625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1903.867919921875</v>
+        <v>2076.36669921875</v>
       </c>
       <c r="FK4" t="n">
-        <v>1904.290405273438</v>
+        <v>2076.22021484375</v>
       </c>
       <c r="FL4" t="n">
-        <v>1904.048950195312</v>
+        <v>2050.58203125</v>
       </c>
       <c r="FM4" t="n">
-        <v>1902.255126953125</v>
+        <v>2034.39501953125</v>
       </c>
       <c r="FN4" t="n">
-        <v>1893.02685546875</v>
+        <v>2052.51025390625</v>
       </c>
       <c r="FO4" t="n">
-        <v>1889.801635742188</v>
+        <v>2039.392211914062</v>
       </c>
       <c r="FP4" t="n">
-        <v>1876.67333984375</v>
+        <v>2051.66357421875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1866.126342773438</v>
+        <v>2064.8544921875</v>
       </c>
       <c r="FR4" t="n">
-        <v>1844.647338867188</v>
+        <v>2075.71337890625</v>
       </c>
       <c r="FS4" t="n">
-        <v>1846.290283203125</v>
+        <v>2082.742919921875</v>
       </c>
       <c r="FT4" t="n">
-        <v>1834.256591796875</v>
+        <v>2164.056640625</v>
       </c>
       <c r="FU4" t="n">
-        <v>1817.38134765625</v>
+        <v>2243.016845703125</v>
       </c>
       <c r="FV4" t="n">
-        <v>1832.103759765625</v>
+        <v>2251.201171875</v>
       </c>
       <c r="FW4" t="n">
-        <v>1826.301391601562</v>
+        <v>2252.105712890625</v>
       </c>
       <c r="FX4" t="n">
-        <v>1820.506225585938</v>
+        <v>2258.603271484375</v>
       </c>
       <c r="FY4" t="n">
-        <v>1829.030517578125</v>
+        <v>2263.93701171875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1838.435546875</v>
+        <v>2261.42822265625</v>
       </c>
       <c r="GA4" t="n">
-        <v>1838.423950195312</v>
+        <v>2259.820068359375</v>
       </c>
       <c r="GB4" t="n">
-        <v>1857.7451171875</v>
+        <v>2252.760009765625</v>
       </c>
       <c r="GC4" t="n">
-        <v>1861.177856445312</v>
+        <v>2245.451171875</v>
       </c>
       <c r="GD4" t="n">
-        <v>1853.575317382812</v>
+        <v>2238.589599609375</v>
       </c>
       <c r="GE4" t="n">
-        <v>1851.128662109375</v>
+        <v>2224.6884765625</v>
       </c>
       <c r="GF4" t="n">
-        <v>1850.77783203125</v>
+        <v>2198.298095703125</v>
       </c>
       <c r="GG4" t="n">
-        <v>1850.320922851562</v>
+        <v>2151.065185546875</v>
       </c>
       <c r="GH4" t="n">
-        <v>1850.125</v>
+        <v>2119.524169921875</v>
       </c>
       <c r="GI4" t="n">
-        <v>1849.013793945312</v>
+        <v>2072.76025390625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>1818.904052734375</v>
+        <v>2062.46142578125</v>
       </c>
       <c r="GK4" t="n">
-        <v>1811.108764648438</v>
+        <v>2051.875732421875</v>
       </c>
       <c r="GL4" t="n">
-        <v>1804.681884765625</v>
+        <v>2034.094482421875</v>
       </c>
       <c r="GM4" t="n">
-        <v>1822.088134765625</v>
+        <v>2047.655639648438</v>
       </c>
       <c r="GN4" t="n">
-        <v>1831.061279296875</v>
+        <v>2045.928344726562</v>
       </c>
       <c r="GO4" t="n">
-        <v>1826.2509765625</v>
+        <v>2045.223266601562</v>
       </c>
       <c r="GP4" t="n">
-        <v>1867.822143554688</v>
+        <v>2043.34423828125</v>
       </c>
       <c r="GQ4" t="n">
-        <v>1888.105834960938</v>
+        <v>2045.718017578125</v>
       </c>
       <c r="GR4" t="n">
-        <v>1898.315673828125</v>
+        <v>2048.0185546875</v>
       </c>
       <c r="GS4" t="n">
-        <v>1918.760375976562</v>
+        <v>2051.518798828125</v>
       </c>
       <c r="GT4" t="n">
-        <v>1923.955078125</v>
+        <v>2060.314697265625</v>
       </c>
       <c r="GU4" t="n">
-        <v>1923.5078125</v>
+        <v>2071.822265625</v>
       </c>
       <c r="GV4" t="n">
-        <v>1922.3486328125</v>
+        <v>2116.076171875</v>
       </c>
       <c r="GW4" t="n">
-        <v>1910.057983398438</v>
+        <v>2173.927734375</v>
       </c>
       <c r="GX4" t="n">
-        <v>1888.563354492188</v>
+        <v>2211.21728515625</v>
       </c>
       <c r="GY4" t="n">
-        <v>1864.07763671875</v>
+        <v>2249.25634765625</v>
       </c>
       <c r="GZ4" t="n">
-        <v>1844.785522460938</v>
+        <v>2286.918701171875</v>
       </c>
       <c r="HA4" t="n">
-        <v>1822.302001953125</v>
+        <v>2289.40673828125</v>
       </c>
       <c r="HB4" t="n">
-        <v>1820.3046875</v>
+        <v>2299.9033203125</v>
       </c>
       <c r="HC4" t="n">
-        <v>1821.70751953125</v>
+        <v>2282.642822265625</v>
       </c>
       <c r="HD4" t="n">
-        <v>1804.877807617188</v>
+        <v>2277.646240234375</v>
       </c>
       <c r="HE4" t="n">
-        <v>1813.27490234375</v>
+        <v>2273.1884765625</v>
       </c>
       <c r="HF4" t="n">
-        <v>1827.94482421875</v>
+        <v>2273.14794921875</v>
       </c>
       <c r="HG4" t="n">
-        <v>1830.160766601562</v>
+        <v>2272.233642578125</v>
       </c>
       <c r="HH4" t="n">
-        <v>1843.935791015625</v>
+        <v>2269.7470703125</v>
       </c>
       <c r="HI4" t="n">
-        <v>1861.416015625</v>
+        <v>2233.927490234375</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1853.550659179688</v>
+        <v>2213.734130859375</v>
       </c>
       <c r="HK4" t="n">
-        <v>1846.754638671875</v>
+        <v>2182.536376953125</v>
       </c>
       <c r="HL4" t="n">
-        <v>1835.889038085938</v>
+        <v>2147.66748046875</v>
       </c>
       <c r="HM4" t="n">
-        <v>1835.11083984375</v>
+        <v>2106.4931640625</v>
       </c>
       <c r="HN4" t="n">
-        <v>1836.091064453125</v>
+        <v>2077.400634765625</v>
       </c>
       <c r="HO4" t="n">
-        <v>1837.49755859375</v>
+        <v>2069.8134765625</v>
       </c>
       <c r="HP4" t="n">
-        <v>1809.94091796875</v>
+        <v>2045.190673828125</v>
       </c>
       <c r="HQ4" t="n">
-        <v>1819.571533203125</v>
+        <v>2032.774169921875</v>
       </c>
       <c r="HR4" t="n">
-        <v>1819.7548828125</v>
+        <v>2033.165283203125</v>
       </c>
       <c r="HS4" t="n">
-        <v>1834.216552734375</v>
+        <v>2035.952880859375</v>
       </c>
       <c r="HT4" t="n">
-        <v>1805.364501953125</v>
+        <v>2026.984619140625</v>
       </c>
       <c r="HU4" t="n">
-        <v>1833.6806640625</v>
+        <v>2042.57568359375</v>
       </c>
       <c r="HV4" t="n">
-        <v>1855.301147460938</v>
+        <v>2052.986083984375</v>
       </c>
       <c r="HW4" t="n">
-        <v>1882.553466796875</v>
+        <v>2193.491455078125</v>
       </c>
       <c r="HX4" t="n">
-        <v>1895.146240234375</v>
+        <v>2239.7587890625</v>
       </c>
       <c r="HY4" t="n">
-        <v>1917.604614257812</v>
+        <v>2309.196044921875</v>
       </c>
       <c r="HZ4" t="n">
-        <v>1932.25537109375</v>
+        <v>2352.0810546875</v>
       </c>
       <c r="IA4" t="n">
-        <v>1927.681640625</v>
+        <v>2337.42724609375</v>
       </c>
       <c r="IB4" t="n">
-        <v>1924.255493164062</v>
+        <v>2318.400634765625</v>
       </c>
       <c r="IC4" t="n">
-        <v>1920.453979492188</v>
+        <v>2314.59130859375</v>
       </c>
       <c r="ID4" t="n">
-        <v>1908.199584960938</v>
+        <v>2305.996337890625</v>
       </c>
       <c r="IE4" t="n">
-        <v>1899.4501953125</v>
+        <v>2304.969970703125</v>
       </c>
       <c r="IF4" t="n">
-        <v>1885.629760742188</v>
+        <v>2302.57568359375</v>
       </c>
       <c r="IG4" t="n">
-        <v>1870.695678710938</v>
+        <v>2299.404296875</v>
       </c>
       <c r="IH4" t="n">
-        <v>1862.5263671875</v>
+        <v>2271.040771484375</v>
       </c>
       <c r="II4" t="n">
-        <v>1856.407958984375</v>
+        <v>2207.90966796875</v>
       </c>
       <c r="IJ4" t="n">
-        <v>1817.599975585938</v>
+        <v>2174.252685546875</v>
       </c>
       <c r="IK4" t="n">
-        <v>1845.285400390625</v>
+        <v>2103.72119140625</v>
       </c>
       <c r="IL4" t="n">
-        <v>1820.302734375</v>
+        <v>2061.4423828125</v>
       </c>
       <c r="IM4" t="n">
-        <v>1811.089721679688</v>
+        <v>2010.632568359375</v>
       </c>
       <c r="IN4" t="n">
-        <v>1829.57763671875</v>
+        <v>1992.482666015625</v>
       </c>
       <c r="IO4" t="n">
-        <v>1808.021484375</v>
+        <v>2028.751708984375</v>
       </c>
       <c r="IP4" t="n">
-        <v>1798.1728515625</v>
+        <v>2024.003173828125</v>
       </c>
       <c r="IQ4" t="n">
-        <v>1831.984008789062</v>
+        <v>2016.906982421875</v>
       </c>
       <c r="IR4" t="n">
-        <v>1847.34716796875</v>
+        <v>2022.760009765625</v>
       </c>
       <c r="IS4" t="n">
-        <v>1843.037353515625</v>
+        <v>2031.605590820312</v>
       </c>
       <c r="IT4" t="n">
-        <v>1845.269775390625</v>
+        <v>2128.32958984375</v>
       </c>
       <c r="IU4" t="n">
-        <v>1818.356079101562</v>
+        <v>2185.7392578125</v>
       </c>
       <c r="IV4" t="n">
-        <v>1830.435546875</v>
+        <v>2229.12255859375</v>
       </c>
       <c r="IW4" t="n">
-        <v>1802.02978515625</v>
+        <v>2291.53515625</v>
       </c>
       <c r="IX4" t="n">
-        <v>1827.258422851562</v>
+        <v>2326.0927734375</v>
       </c>
       <c r="IY4" t="n">
-        <v>1814.259033203125</v>
+        <v>2292.825439453125</v>
       </c>
       <c r="IZ4" t="n">
-        <v>1853.401611328125</v>
+        <v>2280.94091796875</v>
       </c>
       <c r="JA4" t="n">
-        <v>1883.8466796875</v>
+        <v>2277.495849609375</v>
       </c>
       <c r="JB4" t="n">
-        <v>1902.103271484375</v>
+        <v>2263.97314453125</v>
       </c>
       <c r="JC4" t="n">
-        <v>1929.653686523438</v>
+        <v>2229.687255859375</v>
       </c>
       <c r="JD4" t="n">
-        <v>1942.112915039062</v>
+        <v>2198.98388671875</v>
       </c>
       <c r="JE4" t="n">
-        <v>1938.479614257812</v>
+        <v>2095.827392578125</v>
       </c>
       <c r="JF4" t="n">
-        <v>1936.354736328125</v>
+        <v>2042.254272460938</v>
       </c>
       <c r="JG4" t="n">
-        <v>1932.4453125</v>
+        <v>1975.039916992188</v>
       </c>
       <c r="JH4" t="n">
-        <v>1910.306518554688</v>
+        <v>2008.858642578125</v>
       </c>
       <c r="JI4" t="n">
-        <v>1890.77197265625</v>
+        <v>2026.65771484375</v>
       </c>
       <c r="JJ4" t="n">
-        <v>1889.045654296875</v>
+        <v>1997.983154296875</v>
       </c>
       <c r="JK4" t="n">
-        <v>1876.400390625</v>
+        <v>2014.06689453125</v>
       </c>
       <c r="JL4" t="n">
-        <v>1862.98095703125</v>
+        <v>2005.837890625</v>
       </c>
       <c r="JM4" t="n">
-        <v>1846.281127929688</v>
+        <v>2032.5126953125</v>
       </c>
       <c r="JN4" t="n">
-        <v>1837.15185546875</v>
+        <v>2092.697509765625</v>
       </c>
       <c r="JO4" t="n">
-        <v>1808.38232421875</v>
+        <v>2151.18212890625</v>
       </c>
       <c r="JP4" t="n">
-        <v>1816.152587890625</v>
+        <v>2218.958984375</v>
       </c>
       <c r="JQ4" t="n">
-        <v>1805.222412109375</v>
+        <v>2265.338623046875</v>
       </c>
       <c r="JR4" t="n">
-        <v>1818.22509765625</v>
+        <v>2287.795654296875</v>
       </c>
       <c r="JS4" t="n">
-        <v>1821.857543945312</v>
+        <v>2289.1083984375</v>
       </c>
       <c r="JT4" t="n">
-        <v>1847.68310546875</v>
+        <v>2289.506591796875</v>
       </c>
       <c r="JU4" t="n">
-        <v>1843.264526367188</v>
+        <v>2272.701171875</v>
       </c>
       <c r="JV4" t="n">
-        <v>1839.757568359375</v>
+        <v>2267.29052734375</v>
       </c>
       <c r="JW4" t="n">
-        <v>1838.17138671875</v>
+        <v>2267.517578125</v>
       </c>
       <c r="JX4" t="n">
-        <v>1834.8837890625</v>
+        <v>2267.908447265625</v>
       </c>
       <c r="JY4" t="n">
-        <v>1833.827026367188</v>
+        <v>2268.757568359375</v>
       </c>
       <c r="JZ4" t="n">
-        <v>1827.62841796875</v>
+        <v>2267.134521484375</v>
       </c>
       <c r="KA4" t="n">
-        <v>1811.545776367188</v>
+        <v>2244.37451171875</v>
       </c>
       <c r="KB4" t="n">
-        <v>1802.838012695312</v>
+        <v>2222.28759765625</v>
       </c>
       <c r="KC4" t="n">
-        <v>1790.61328125</v>
+        <v>2187.14892578125</v>
       </c>
       <c r="KD4" t="n">
-        <v>1749.622192382812</v>
+        <v>2156.033447265625</v>
       </c>
       <c r="KE4" t="n">
-        <v>1767.858154296875</v>
+        <v>2105.916748046875</v>
       </c>
       <c r="KF4" t="n">
-        <v>1804.198608398438</v>
+        <v>2088.58349609375</v>
       </c>
       <c r="KG4" t="n">
-        <v>1929.876708984375</v>
+        <v>2068.403076171875</v>
       </c>
       <c r="KH4" t="n">
-        <v>2004.524291992188</v>
+        <v>2053.73681640625</v>
       </c>
       <c r="KI4" t="n">
-        <v>2012.611083984375</v>
+        <v>2046.011352539062</v>
       </c>
       <c r="KJ4" t="n">
-        <v>2029.04052734375</v>
+        <v>2037.231567382812</v>
       </c>
       <c r="KK4" t="n">
-        <v>1984.70458984375</v>
+        <v>2032.171875</v>
       </c>
       <c r="KL4" t="n">
-        <v>1855.529052734375</v>
+        <v>2047.73095703125</v>
       </c>
       <c r="KM4" t="n">
-        <v>1758.635986328125</v>
+        <v>2065.84619140625</v>
       </c>
       <c r="KN4" t="n">
-        <v>1624.007080078125</v>
+        <v>2080.836669921875</v>
       </c>
       <c r="KO4" t="n">
-        <v>1413.78759765625</v>
+        <v>2126.542236328125</v>
       </c>
       <c r="KP4" t="n">
-        <v>1282.037841796875</v>
+        <v>2206.832275390625</v>
       </c>
       <c r="KQ4" t="n">
-        <v>1160.401977539062</v>
+        <v>2248.722900390625</v>
       </c>
       <c r="KR4" t="n">
-        <v>1062.206787109375</v>
+        <v>2313.110595703125</v>
       </c>
       <c r="KS4" t="n">
-        <v>966.991943359375</v>
+        <v>2276.578125</v>
       </c>
       <c r="KT4" t="n">
-        <v>899.7476806640625</v>
+        <v>2188.85498046875</v>
       </c>
       <c r="KU4" t="n">
-        <v>780.4765625</v>
+        <v>2063.959716796875</v>
       </c>
       <c r="KV4" t="n">
-        <v>695.0880126953125</v>
+        <v>1877.69775390625</v>
       </c>
       <c r="KW4" t="n">
-        <v>620.9977416992188</v>
+        <v>1742.575805664062</v>
       </c>
       <c r="KX4" t="n">
-        <v>528.4032592773438</v>
+        <v>1594.064453125</v>
       </c>
       <c r="KY4" t="n">
-        <v>478.3944702148438</v>
+        <v>1509.698364257812</v>
       </c>
       <c r="KZ4" t="n">
-        <v>440.0557250976562</v>
+        <v>1414.98095703125</v>
       </c>
       <c r="LA4" t="n">
-        <v>400.8496704101562</v>
+        <v>1330.692138671875</v>
       </c>
       <c r="LB4" t="n">
-        <v>390.9359436035156</v>
+        <v>1237.598266601562</v>
       </c>
       <c r="LC4" t="n">
-        <v>390.3800048828125</v>
+        <v>1099.56494140625</v>
       </c>
       <c r="LD4" t="n">
-        <v>389.4569702148438</v>
+        <v>943.3103637695312</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>761.1812744140625</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>588.4697875976562</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>505.1796264648438</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>419.2690734863281</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>292.5913391113281</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>540.119140625</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>465.5169067382812</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>342.1633911132812</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>395.6731872558594</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>412.8003234863281</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>341.2289733886719</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>277.0447692871094</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>287.8573608398438</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>323.5361938476562</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>373.7160339355469</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>336.0170288085938</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>327.3270874023438</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>335.6170959472656</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>342.1890869140625</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>341.7094116210938</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>340.2200622558594</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>324.006591796875</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>310.5675964355469</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>286.5900268554688</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>282.6454772949219</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>283.9932556152344</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>282.4326477050781</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>282.7197265625</v>
       </c>
     </row>
   </sheetData>
